--- a/Datebase Field.xlsx
+++ b/Datebase Field.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\ipst\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="756" firstSheet="8" activeTab="13"/>
   </bookViews>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4366" uniqueCount="1564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4382" uniqueCount="1568">
   <si>
     <t>เพศ</t>
   </si>
@@ -4724,6 +4729,18 @@
   </si>
   <si>
     <t>h_t_ins_101112_4_4</t>
+  </si>
+  <si>
+    <t>r_t_ins_101112_5_1</t>
+  </si>
+  <si>
+    <t>r_t_ins_101112_5_2</t>
+  </si>
+  <si>
+    <t>t_t_ins_101112_5_3</t>
+  </si>
+  <si>
+    <t>h_t_ins_101112_5_4</t>
   </si>
 </sst>
 </file>
@@ -5115,7 +5132,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7920,7 +7937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection sqref="A1:C93"/>
     </sheetView>
   </sheetViews>
@@ -8962,10 +8979,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection sqref="A1:C65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9687,6 +9704,50 @@
         <v>1215</v>
       </c>
       <c r="C65" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C69" s="14" t="s">
         <v>1212</v>
       </c>
     </row>
@@ -15007,10 +15068,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B157" sqref="B157"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158:B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16121,6 +16182,26 @@
     <row r="157" spans="2:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B157" s="11" t="s">
         <v>1563</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="11" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="11" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="11" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="11" t="s">
+        <v>1567</v>
       </c>
     </row>
   </sheetData>
@@ -16207,7 +16288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C221"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C5"/>
     </sheetView>
   </sheetViews>

--- a/Datebase Field.xlsx
+++ b/Datebase Field.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="756" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="756" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="participant" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,10 @@
     <sheet name="science_book_instructor" sheetId="9" r:id="rId8"/>
     <sheet name="math_book" sheetId="10" r:id="rId9"/>
     <sheet name="math_book_instructor" sheetId="11" r:id="rId10"/>
-    <sheet name="design_book" sheetId="12" r:id="rId11"/>
-    <sheet name="design_book_instructor" sheetId="13" r:id="rId12"/>
-    <sheet name="technology_book" sheetId="14" r:id="rId13"/>
-    <sheet name="technology_book_instructor" sheetId="15" r:id="rId14"/>
+    <sheet name="technology_book" sheetId="14" r:id="rId11"/>
+    <sheet name="technology_book_instructor" sheetId="15" r:id="rId12"/>
+    <sheet name="design_book" sheetId="12" r:id="rId13"/>
+    <sheet name="design_book_instructor" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -5951,7 +5951,7 @@
         <v>1212</v>
       </c>
       <c r="D6" s="14" t="str">
-        <f t="shared" ref="D6:D37" si="0">CONCATENATE("SUM(b.",A6," = '1') AS count_val1_",A6,", SUM(b.",A6," = '2') AS count_val2_",A6,",")</f>
+        <f t="shared" ref="D6" si="0">CONCATENATE("SUM(b.",A6," = '1') AS count_val1_",A6,", SUM(b.",A6," = '2') AS count_val2_",A6,",")</f>
         <v>SUM(b.r_m_ins_1_2_1 = '1') AS count_val1_r_m_ins_1_2_1, SUM(b.r_m_ins_1_2_1 = '2') AS count_val2_r_m_ins_1_2_1,</v>
       </c>
     </row>
@@ -5966,7 +5966,7 @@
         <v>1212</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" ref="D7:D38" si="1">CONCATENATE("SUM(b.",A7," = '1') AS count_val1_",A7,", SUM(b.",A7," = '2') AS count_val2_",A7,",", "SUM(b.",A7," = '3') AS count_val3_",A7,",")</f>
+        <f t="shared" ref="D7" si="1">CONCATENATE("SUM(b.",A7," = '1') AS count_val1_",A7,", SUM(b.",A7," = '2') AS count_val2_",A7,",", "SUM(b.",A7," = '3') AS count_val3_",A7,",")</f>
         <v>SUM(b.r_m_ins_1_2_2 = '1') AS count_val1_r_m_ins_1_2_2, SUM(b.r_m_ins_1_2_2 = '2') AS count_val2_r_m_ins_1_2_2,SUM(b.r_m_ins_1_2_2 = '3') AS count_val3_r_m_ins_1_2_2,</v>
       </c>
     </row>
@@ -6005,7 +6005,7 @@
         <v>1212</v>
       </c>
       <c r="D10" s="14" t="str">
-        <f t="shared" ref="D10:D41" si="2">CONCATENATE("SUM(b.",A10," = '1') AS count_val1_",A10,", SUM(b.",A10," = '2') AS count_val2_",A10,",")</f>
+        <f t="shared" ref="D10" si="2">CONCATENATE("SUM(b.",A10," = '1') AS count_val1_",A10,", SUM(b.",A10," = '2') AS count_val2_",A10,",")</f>
         <v>SUM(b.r_m_ins_2_1_1 = '1') AS count_val1_r_m_ins_2_1_1, SUM(b.r_m_ins_2_1_1 = '2') AS count_val2_r_m_ins_2_1_1,</v>
       </c>
     </row>
@@ -6020,7 +6020,7 @@
         <v>1212</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" ref="D11:D42" si="3">CONCATENATE("SUM(b.",A11," = '1') AS count_val1_",A11,", SUM(b.",A11," = '2') AS count_val2_",A11,",", "SUM(b.",A11," = '3') AS count_val3_",A11,",")</f>
+        <f t="shared" ref="D11" si="3">CONCATENATE("SUM(b.",A11," = '1') AS count_val1_",A11,", SUM(b.",A11," = '2') AS count_val2_",A11,",", "SUM(b.",A11," = '3') AS count_val3_",A11,",")</f>
         <v>SUM(b.r_m_ins_2_1_2 = '1') AS count_val1_r_m_ins_2_1_2, SUM(b.r_m_ins_2_1_2 = '2') AS count_val2_r_m_ins_2_1_2,SUM(b.r_m_ins_2_1_2 = '3') AS count_val3_r_m_ins_2_1_2,</v>
       </c>
     </row>
@@ -6059,7 +6059,7 @@
         <v>1212</v>
       </c>
       <c r="D14" s="14" t="str">
-        <f t="shared" ref="D14:D45" si="4">CONCATENATE("SUM(b.",A14," = '1') AS count_val1_",A14,", SUM(b.",A14," = '2') AS count_val2_",A14,",")</f>
+        <f t="shared" ref="D14" si="4">CONCATENATE("SUM(b.",A14," = '1') AS count_val1_",A14,", SUM(b.",A14," = '2') AS count_val2_",A14,",")</f>
         <v>SUM(b.r_m_ins_3_1_1 = '1') AS count_val1_r_m_ins_3_1_1, SUM(b.r_m_ins_3_1_1 = '2') AS count_val2_r_m_ins_3_1_1,</v>
       </c>
     </row>
@@ -6074,7 +6074,7 @@
         <v>1212</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" ref="D15:D46" si="5">CONCATENATE("SUM(b.",A15," = '1') AS count_val1_",A15,", SUM(b.",A15," = '2') AS count_val2_",A15,",", "SUM(b.",A15," = '3') AS count_val3_",A15,",")</f>
+        <f t="shared" ref="D15" si="5">CONCATENATE("SUM(b.",A15," = '1') AS count_val1_",A15,", SUM(b.",A15," = '2') AS count_val2_",A15,",", "SUM(b.",A15," = '3') AS count_val3_",A15,",")</f>
         <v>SUM(b.r_m_ins_3_1_2 = '1') AS count_val1_r_m_ins_3_1_2, SUM(b.r_m_ins_3_1_2 = '2') AS count_val2_r_m_ins_3_1_2,SUM(b.r_m_ins_3_1_2 = '3') AS count_val3_r_m_ins_3_1_2,</v>
       </c>
     </row>
@@ -6113,7 +6113,7 @@
         <v>1212</v>
       </c>
       <c r="D18" s="14" t="str">
-        <f t="shared" ref="D18:D49" si="6">CONCATENATE("SUM(b.",A18," = '1') AS count_val1_",A18,", SUM(b.",A18," = '2') AS count_val2_",A18,",")</f>
+        <f t="shared" ref="D18" si="6">CONCATENATE("SUM(b.",A18," = '1') AS count_val1_",A18,", SUM(b.",A18," = '2') AS count_val2_",A18,",")</f>
         <v>SUM(b.r_m_ins_4_1_1 = '1') AS count_val1_r_m_ins_4_1_1, SUM(b.r_m_ins_4_1_1 = '2') AS count_val2_r_m_ins_4_1_1,</v>
       </c>
     </row>
@@ -6128,7 +6128,7 @@
         <v>1212</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" ref="D19:D50" si="7">CONCATENATE("SUM(b.",A19," = '1') AS count_val1_",A19,", SUM(b.",A19," = '2') AS count_val2_",A19,",", "SUM(b.",A19," = '3') AS count_val3_",A19,",")</f>
+        <f t="shared" ref="D19" si="7">CONCATENATE("SUM(b.",A19," = '1') AS count_val1_",A19,", SUM(b.",A19," = '2') AS count_val2_",A19,",", "SUM(b.",A19," = '3') AS count_val3_",A19,",")</f>
         <v>SUM(b.r_m_ins_4_1_2 = '1') AS count_val1_r_m_ins_4_1_2, SUM(b.r_m_ins_4_1_2 = '2') AS count_val2_r_m_ins_4_1_2,SUM(b.r_m_ins_4_1_2 = '3') AS count_val3_r_m_ins_4_1_2,</v>
       </c>
     </row>
@@ -6167,7 +6167,7 @@
         <v>1212</v>
       </c>
       <c r="D22" s="14" t="str">
-        <f t="shared" ref="D22:D53" si="8">CONCATENATE("SUM(b.",A22," = '1') AS count_val1_",A22,", SUM(b.",A22," = '2') AS count_val2_",A22,",")</f>
+        <f t="shared" ref="D22" si="8">CONCATENATE("SUM(b.",A22," = '1') AS count_val1_",A22,", SUM(b.",A22," = '2') AS count_val2_",A22,",")</f>
         <v>SUM(b.r_m_ins_5_1_1 = '1') AS count_val1_r_m_ins_5_1_1, SUM(b.r_m_ins_5_1_1 = '2') AS count_val2_r_m_ins_5_1_1,</v>
       </c>
     </row>
@@ -6182,7 +6182,7 @@
         <v>1212</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" ref="D23:D54" si="9">CONCATENATE("SUM(b.",A23," = '1') AS count_val1_",A23,", SUM(b.",A23," = '2') AS count_val2_",A23,",", "SUM(b.",A23," = '3') AS count_val3_",A23,",")</f>
+        <f t="shared" ref="D23" si="9">CONCATENATE("SUM(b.",A23," = '1') AS count_val1_",A23,", SUM(b.",A23," = '2') AS count_val2_",A23,",", "SUM(b.",A23," = '3') AS count_val3_",A23,",")</f>
         <v>SUM(b.r_m_ins_5_1_2 = '1') AS count_val1_r_m_ins_5_1_2, SUM(b.r_m_ins_5_1_2 = '2') AS count_val2_r_m_ins_5_1_2,SUM(b.r_m_ins_5_1_2 = '3') AS count_val3_r_m_ins_5_1_2,</v>
       </c>
     </row>
@@ -6221,7 +6221,7 @@
         <v>1212</v>
       </c>
       <c r="D26" s="14" t="str">
-        <f t="shared" ref="D26:D57" si="10">CONCATENATE("SUM(b.",A26," = '1') AS count_val1_",A26,", SUM(b.",A26," = '2') AS count_val2_",A26,",")</f>
+        <f t="shared" ref="D26" si="10">CONCATENATE("SUM(b.",A26," = '1') AS count_val1_",A26,", SUM(b.",A26," = '2') AS count_val2_",A26,",")</f>
         <v>SUM(b.r_m_ins_6_1_1 = '1') AS count_val1_r_m_ins_6_1_1, SUM(b.r_m_ins_6_1_1 = '2') AS count_val2_r_m_ins_6_1_1,</v>
       </c>
     </row>
@@ -6236,7 +6236,7 @@
         <v>1212</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" ref="D27:D58" si="11">CONCATENATE("SUM(b.",A27," = '1') AS count_val1_",A27,", SUM(b.",A27," = '2') AS count_val2_",A27,",", "SUM(b.",A27," = '3') AS count_val3_",A27,",")</f>
+        <f t="shared" ref="D27" si="11">CONCATENATE("SUM(b.",A27," = '1') AS count_val1_",A27,", SUM(b.",A27," = '2') AS count_val2_",A27,",", "SUM(b.",A27," = '3') AS count_val3_",A27,",")</f>
         <v>SUM(b.r_m_ins_6_1_2 = '1') AS count_val1_r_m_ins_6_1_2, SUM(b.r_m_ins_6_1_2 = '2') AS count_val2_r_m_ins_6_1_2,SUM(b.r_m_ins_6_1_2 = '3') AS count_val3_r_m_ins_6_1_2,</v>
       </c>
     </row>
@@ -6275,7 +6275,7 @@
         <v>1212</v>
       </c>
       <c r="D30" s="14" t="str">
-        <f t="shared" ref="D30:D61" si="12">CONCATENATE("SUM(b.",A30," = '1') AS count_val1_",A30,", SUM(b.",A30," = '2') AS count_val2_",A30,",")</f>
+        <f t="shared" ref="D30" si="12">CONCATENATE("SUM(b.",A30," = '1') AS count_val1_",A30,", SUM(b.",A30," = '2') AS count_val2_",A30,",")</f>
         <v>SUM(b.r_m_ins_7_1_1 = '1') AS count_val1_r_m_ins_7_1_1, SUM(b.r_m_ins_7_1_1 = '2') AS count_val2_r_m_ins_7_1_1,</v>
       </c>
     </row>
@@ -6290,7 +6290,7 @@
         <v>1212</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" ref="D31:D62" si="13">CONCATENATE("SUM(b.",A31," = '1') AS count_val1_",A31,", SUM(b.",A31," = '2') AS count_val2_",A31,",", "SUM(b.",A31," = '3') AS count_val3_",A31,",")</f>
+        <f t="shared" ref="D31" si="13">CONCATENATE("SUM(b.",A31," = '1') AS count_val1_",A31,", SUM(b.",A31," = '2') AS count_val2_",A31,",", "SUM(b.",A31," = '3') AS count_val3_",A31,",")</f>
         <v>SUM(b.r_m_ins_7_1_2 = '1') AS count_val1_r_m_ins_7_1_2, SUM(b.r_m_ins_7_1_2 = '2') AS count_val2_r_m_ins_7_1_2,SUM(b.r_m_ins_7_1_2 = '3') AS count_val3_r_m_ins_7_1_2,</v>
       </c>
     </row>
@@ -6329,7 +6329,7 @@
         <v>1212</v>
       </c>
       <c r="D34" s="14" t="str">
-        <f t="shared" ref="D34:D65" si="14">CONCATENATE("SUM(b.",A34," = '1') AS count_val1_",A34,", SUM(b.",A34," = '2') AS count_val2_",A34,",")</f>
+        <f t="shared" ref="D34" si="14">CONCATENATE("SUM(b.",A34," = '1') AS count_val1_",A34,", SUM(b.",A34," = '2') AS count_val2_",A34,",")</f>
         <v>SUM(b.r_m_ins_7_2_1 = '1') AS count_val1_r_m_ins_7_2_1, SUM(b.r_m_ins_7_2_1 = '2') AS count_val2_r_m_ins_7_2_1,</v>
       </c>
     </row>
@@ -6344,7 +6344,7 @@
         <v>1212</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" ref="D35:D66" si="15">CONCATENATE("SUM(b.",A35," = '1') AS count_val1_",A35,", SUM(b.",A35," = '2') AS count_val2_",A35,",", "SUM(b.",A35," = '3') AS count_val3_",A35,",")</f>
+        <f t="shared" ref="D35" si="15">CONCATENATE("SUM(b.",A35," = '1') AS count_val1_",A35,", SUM(b.",A35," = '2') AS count_val2_",A35,",", "SUM(b.",A35," = '3') AS count_val3_",A35,",")</f>
         <v>SUM(b.r_m_ins_7_2_2 = '1') AS count_val1_r_m_ins_7_2_2, SUM(b.r_m_ins_7_2_2 = '2') AS count_val2_r_m_ins_7_2_2,SUM(b.r_m_ins_7_2_2 = '3') AS count_val3_r_m_ins_7_2_2,</v>
       </c>
     </row>
@@ -6383,7 +6383,7 @@
         <v>1212</v>
       </c>
       <c r="D38" s="14" t="str">
-        <f t="shared" ref="D38:D69" si="16">CONCATENATE("SUM(b.",A38," = '1') AS count_val1_",A38,", SUM(b.",A38," = '2') AS count_val2_",A38,",")</f>
+        <f t="shared" ref="D38" si="16">CONCATENATE("SUM(b.",A38," = '1') AS count_val1_",A38,", SUM(b.",A38," = '2') AS count_val2_",A38,",")</f>
         <v>SUM(b.r_m_ins_7_3_1 = '1') AS count_val1_r_m_ins_7_3_1, SUM(b.r_m_ins_7_3_1 = '2') AS count_val2_r_m_ins_7_3_1,</v>
       </c>
     </row>
@@ -6398,7 +6398,7 @@
         <v>1212</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" ref="D39:D70" si="17">CONCATENATE("SUM(b.",A39," = '1') AS count_val1_",A39,", SUM(b.",A39," = '2') AS count_val2_",A39,",", "SUM(b.",A39," = '3') AS count_val3_",A39,",")</f>
+        <f t="shared" ref="D39" si="17">CONCATENATE("SUM(b.",A39," = '1') AS count_val1_",A39,", SUM(b.",A39," = '2') AS count_val2_",A39,",", "SUM(b.",A39," = '3') AS count_val3_",A39,",")</f>
         <v>SUM(b.r_m_ins_7_3_2 = '1') AS count_val1_r_m_ins_7_3_2, SUM(b.r_m_ins_7_3_2 = '2') AS count_val2_r_m_ins_7_3_2,SUM(b.r_m_ins_7_3_2 = '3') AS count_val3_r_m_ins_7_3_2,</v>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
         <v>1212</v>
       </c>
       <c r="D42" s="14" t="str">
-        <f t="shared" ref="D42:D73" si="18">CONCATENATE("SUM(b.",A42," = '1') AS count_val1_",A42,", SUM(b.",A42," = '2') AS count_val2_",A42,",")</f>
+        <f t="shared" ref="D42" si="18">CONCATENATE("SUM(b.",A42," = '1') AS count_val1_",A42,", SUM(b.",A42," = '2') AS count_val2_",A42,",")</f>
         <v>SUM(b.r_m_ins_7_4_1 = '1') AS count_val1_r_m_ins_7_4_1, SUM(b.r_m_ins_7_4_1 = '2') AS count_val2_r_m_ins_7_4_1,</v>
       </c>
     </row>
@@ -6452,7 +6452,7 @@
         <v>1212</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" ref="D43:D74" si="19">CONCATENATE("SUM(b.",A43," = '1') AS count_val1_",A43,", SUM(b.",A43," = '2') AS count_val2_",A43,",", "SUM(b.",A43," = '3') AS count_val3_",A43,",")</f>
+        <f t="shared" ref="D43" si="19">CONCATENATE("SUM(b.",A43," = '1') AS count_val1_",A43,", SUM(b.",A43," = '2') AS count_val2_",A43,",", "SUM(b.",A43," = '3') AS count_val3_",A43,",")</f>
         <v>SUM(b.r_m_ins_7_4_2 = '1') AS count_val1_r_m_ins_7_4_2, SUM(b.r_m_ins_7_4_2 = '2') AS count_val2_r_m_ins_7_4_2,SUM(b.r_m_ins_7_4_2 = '3') AS count_val3_r_m_ins_7_4_2,</v>
       </c>
     </row>
@@ -6491,7 +6491,7 @@
         <v>1212</v>
       </c>
       <c r="D46" s="14" t="str">
-        <f t="shared" ref="D46:D77" si="20">CONCATENATE("SUM(b.",A46," = '1') AS count_val1_",A46,", SUM(b.",A46," = '2') AS count_val2_",A46,",")</f>
+        <f t="shared" ref="D46" si="20">CONCATENATE("SUM(b.",A46," = '1') AS count_val1_",A46,", SUM(b.",A46," = '2') AS count_val2_",A46,",")</f>
         <v>SUM(b.r_m_ins_8_1_1 = '1') AS count_val1_r_m_ins_8_1_1, SUM(b.r_m_ins_8_1_1 = '2') AS count_val2_r_m_ins_8_1_1,</v>
       </c>
     </row>
@@ -6506,7 +6506,7 @@
         <v>1212</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" ref="D47:D78" si="21">CONCATENATE("SUM(b.",A47," = '1') AS count_val1_",A47,", SUM(b.",A47," = '2') AS count_val2_",A47,",", "SUM(b.",A47," = '3') AS count_val3_",A47,",")</f>
+        <f t="shared" ref="D47" si="21">CONCATENATE("SUM(b.",A47," = '1') AS count_val1_",A47,", SUM(b.",A47," = '2') AS count_val2_",A47,",", "SUM(b.",A47," = '3') AS count_val3_",A47,",")</f>
         <v>SUM(b.r_m_ins_8_1_2 = '1') AS count_val1_r_m_ins_8_1_2, SUM(b.r_m_ins_8_1_2 = '2') AS count_val2_r_m_ins_8_1_2,SUM(b.r_m_ins_8_1_2 = '3') AS count_val3_r_m_ins_8_1_2,</v>
       </c>
     </row>
@@ -6545,7 +6545,7 @@
         <v>1212</v>
       </c>
       <c r="D50" s="14" t="str">
-        <f t="shared" ref="D50:D81" si="22">CONCATENATE("SUM(b.",A50," = '1') AS count_val1_",A50,", SUM(b.",A50," = '2') AS count_val2_",A50,",")</f>
+        <f t="shared" ref="D50" si="22">CONCATENATE("SUM(b.",A50," = '1') AS count_val1_",A50,", SUM(b.",A50," = '2') AS count_val2_",A50,",")</f>
         <v>SUM(b.r_m_ins_8_2_1 = '1') AS count_val1_r_m_ins_8_2_1, SUM(b.r_m_ins_8_2_1 = '2') AS count_val2_r_m_ins_8_2_1,</v>
       </c>
     </row>
@@ -6560,7 +6560,7 @@
         <v>1212</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" ref="D51:D82" si="23">CONCATENATE("SUM(b.",A51," = '1') AS count_val1_",A51,", SUM(b.",A51," = '2') AS count_val2_",A51,",", "SUM(b.",A51," = '3') AS count_val3_",A51,",")</f>
+        <f t="shared" ref="D51" si="23">CONCATENATE("SUM(b.",A51," = '1') AS count_val1_",A51,", SUM(b.",A51," = '2') AS count_val2_",A51,",", "SUM(b.",A51," = '3') AS count_val3_",A51,",")</f>
         <v>SUM(b.r_m_ins_8_2_2 = '1') AS count_val1_r_m_ins_8_2_2, SUM(b.r_m_ins_8_2_2 = '2') AS count_val2_r_m_ins_8_2_2,SUM(b.r_m_ins_8_2_2 = '3') AS count_val3_r_m_ins_8_2_2,</v>
       </c>
     </row>
@@ -6599,7 +6599,7 @@
         <v>1212</v>
       </c>
       <c r="D54" s="14" t="str">
-        <f t="shared" ref="D54:D85" si="24">CONCATENATE("SUM(b.",A54," = '1') AS count_val1_",A54,", SUM(b.",A54," = '2') AS count_val2_",A54,",")</f>
+        <f t="shared" ref="D54" si="24">CONCATENATE("SUM(b.",A54," = '1') AS count_val1_",A54,", SUM(b.",A54," = '2') AS count_val2_",A54,",")</f>
         <v>SUM(b.r_m_ins_8_3_1 = '1') AS count_val1_r_m_ins_8_3_1, SUM(b.r_m_ins_8_3_1 = '2') AS count_val2_r_m_ins_8_3_1,</v>
       </c>
     </row>
@@ -6614,7 +6614,7 @@
         <v>1212</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" ref="D55:D86" si="25">CONCATENATE("SUM(b.",A55," = '1') AS count_val1_",A55,", SUM(b.",A55," = '2') AS count_val2_",A55,",", "SUM(b.",A55," = '3') AS count_val3_",A55,",")</f>
+        <f t="shared" ref="D55" si="25">CONCATENATE("SUM(b.",A55," = '1') AS count_val1_",A55,", SUM(b.",A55," = '2') AS count_val2_",A55,",", "SUM(b.",A55," = '3') AS count_val3_",A55,",")</f>
         <v>SUM(b.r_m_ins_8_3_2 = '1') AS count_val1_r_m_ins_8_3_2, SUM(b.r_m_ins_8_3_2 = '2') AS count_val2_r_m_ins_8_3_2,SUM(b.r_m_ins_8_3_2 = '3') AS count_val3_r_m_ins_8_3_2,</v>
       </c>
     </row>
@@ -6653,7 +6653,7 @@
         <v>1212</v>
       </c>
       <c r="D58" s="14" t="str">
-        <f t="shared" ref="D58:D89" si="26">CONCATENATE("SUM(b.",A58," = '1') AS count_val1_",A58,", SUM(b.",A58," = '2') AS count_val2_",A58,",")</f>
+        <f t="shared" ref="D58" si="26">CONCATENATE("SUM(b.",A58," = '1') AS count_val1_",A58,", SUM(b.",A58," = '2') AS count_val2_",A58,",")</f>
         <v>SUM(b.r_m_ins_8_4_1 = '1') AS count_val1_r_m_ins_8_4_1, SUM(b.r_m_ins_8_4_1 = '2') AS count_val2_r_m_ins_8_4_1,</v>
       </c>
     </row>
@@ -6668,7 +6668,7 @@
         <v>1212</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" ref="D59:D90" si="27">CONCATENATE("SUM(b.",A59," = '1') AS count_val1_",A59,", SUM(b.",A59," = '2') AS count_val2_",A59,",", "SUM(b.",A59," = '3') AS count_val3_",A59,",")</f>
+        <f t="shared" ref="D59" si="27">CONCATENATE("SUM(b.",A59," = '1') AS count_val1_",A59,", SUM(b.",A59," = '2') AS count_val2_",A59,",", "SUM(b.",A59," = '3') AS count_val3_",A59,",")</f>
         <v>SUM(b.r_m_ins_8_4_2 = '1') AS count_val1_r_m_ins_8_4_2, SUM(b.r_m_ins_8_4_2 = '2') AS count_val2_r_m_ins_8_4_2,SUM(b.r_m_ins_8_4_2 = '3') AS count_val3_r_m_ins_8_4_2,</v>
       </c>
     </row>
@@ -6707,7 +6707,7 @@
         <v>1212</v>
       </c>
       <c r="D62" s="14" t="str">
-        <f t="shared" ref="D62:D93" si="28">CONCATENATE("SUM(b.",A62," = '1') AS count_val1_",A62,", SUM(b.",A62," = '2') AS count_val2_",A62,",")</f>
+        <f t="shared" ref="D62" si="28">CONCATENATE("SUM(b.",A62," = '1') AS count_val1_",A62,", SUM(b.",A62," = '2') AS count_val2_",A62,",")</f>
         <v>SUM(b.r_m_ins_9_1_1 = '1') AS count_val1_r_m_ins_9_1_1, SUM(b.r_m_ins_9_1_1 = '2') AS count_val2_r_m_ins_9_1_1,</v>
       </c>
     </row>
@@ -6722,7 +6722,7 @@
         <v>1212</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" ref="D63:D94" si="29">CONCATENATE("SUM(b.",A63," = '1') AS count_val1_",A63,", SUM(b.",A63," = '2') AS count_val2_",A63,",", "SUM(b.",A63," = '3') AS count_val3_",A63,",")</f>
+        <f t="shared" ref="D63" si="29">CONCATENATE("SUM(b.",A63," = '1') AS count_val1_",A63,", SUM(b.",A63," = '2') AS count_val2_",A63,",", "SUM(b.",A63," = '3') AS count_val3_",A63,",")</f>
         <v>SUM(b.r_m_ins_9_1_2 = '1') AS count_val1_r_m_ins_9_1_2, SUM(b.r_m_ins_9_1_2 = '2') AS count_val2_r_m_ins_9_1_2,SUM(b.r_m_ins_9_1_2 = '3') AS count_val3_r_m_ins_9_1_2,</v>
       </c>
     </row>
@@ -6761,7 +6761,7 @@
         <v>1212</v>
       </c>
       <c r="D66" s="14" t="str">
-        <f t="shared" ref="D66:D113" si="30">CONCATENATE("SUM(b.",A66," = '1') AS count_val1_",A66,", SUM(b.",A66," = '2') AS count_val2_",A66,",")</f>
+        <f t="shared" ref="D66" si="30">CONCATENATE("SUM(b.",A66," = '1') AS count_val1_",A66,", SUM(b.",A66," = '2') AS count_val2_",A66,",")</f>
         <v>SUM(b.r_m_ins_9_2_1 = '1') AS count_val1_r_m_ins_9_2_1, SUM(b.r_m_ins_9_2_1 = '2') AS count_val2_r_m_ins_9_2_1,</v>
       </c>
     </row>
@@ -6776,7 +6776,7 @@
         <v>1212</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D113" si="31">CONCATENATE("SUM(b.",A67," = '1') AS count_val1_",A67,", SUM(b.",A67," = '2') AS count_val2_",A67,",", "SUM(b.",A67," = '3') AS count_val3_",A67,",")</f>
+        <f t="shared" ref="D67" si="31">CONCATENATE("SUM(b.",A67," = '1') AS count_val1_",A67,", SUM(b.",A67," = '2') AS count_val2_",A67,",", "SUM(b.",A67," = '3') AS count_val3_",A67,",")</f>
         <v>SUM(b.r_m_ins_9_2_2 = '1') AS count_val1_r_m_ins_9_2_2, SUM(b.r_m_ins_9_2_2 = '2') AS count_val2_r_m_ins_9_2_2,SUM(b.r_m_ins_9_2_2 = '3') AS count_val3_r_m_ins_9_2_2,</v>
       </c>
     </row>
@@ -6815,7 +6815,7 @@
         <v>1212</v>
       </c>
       <c r="D70" s="14" t="str">
-        <f t="shared" ref="D70:D113" si="32">CONCATENATE("SUM(b.",A70," = '1') AS count_val1_",A70,", SUM(b.",A70," = '2') AS count_val2_",A70,",")</f>
+        <f t="shared" ref="D70" si="32">CONCATENATE("SUM(b.",A70," = '1') AS count_val1_",A70,", SUM(b.",A70," = '2') AS count_val2_",A70,",")</f>
         <v>SUM(b.r_m_ins_9_3_1 = '1') AS count_val1_r_m_ins_9_3_1, SUM(b.r_m_ins_9_3_1 = '2') AS count_val2_r_m_ins_9_3_1,</v>
       </c>
     </row>
@@ -6830,7 +6830,7 @@
         <v>1212</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" ref="D71:D113" si="33">CONCATENATE("SUM(b.",A71," = '1') AS count_val1_",A71,", SUM(b.",A71," = '2') AS count_val2_",A71,",", "SUM(b.",A71," = '3') AS count_val3_",A71,",")</f>
+        <f t="shared" ref="D71" si="33">CONCATENATE("SUM(b.",A71," = '1') AS count_val1_",A71,", SUM(b.",A71," = '2') AS count_val2_",A71,",", "SUM(b.",A71," = '3') AS count_val3_",A71,",")</f>
         <v>SUM(b.r_m_ins_9_3_2 = '1') AS count_val1_r_m_ins_9_3_2, SUM(b.r_m_ins_9_3_2 = '2') AS count_val2_r_m_ins_9_3_2,SUM(b.r_m_ins_9_3_2 = '3') AS count_val3_r_m_ins_9_3_2,</v>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
         <v>1212</v>
       </c>
       <c r="D74" s="14" t="str">
-        <f t="shared" ref="D74:D113" si="34">CONCATENATE("SUM(b.",A74," = '1') AS count_val1_",A74,", SUM(b.",A74," = '2') AS count_val2_",A74,",")</f>
+        <f t="shared" ref="D74" si="34">CONCATENATE("SUM(b.",A74," = '1') AS count_val1_",A74,", SUM(b.",A74," = '2') AS count_val2_",A74,",")</f>
         <v>SUM(b.r_m_ins_9_4_1 = '1') AS count_val1_r_m_ins_9_4_1, SUM(b.r_m_ins_9_4_1 = '2') AS count_val2_r_m_ins_9_4_1,</v>
       </c>
     </row>
@@ -6884,7 +6884,7 @@
         <v>1212</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" ref="D75:D113" si="35">CONCATENATE("SUM(b.",A75," = '1') AS count_val1_",A75,", SUM(b.",A75," = '2') AS count_val2_",A75,",", "SUM(b.",A75," = '3') AS count_val3_",A75,",")</f>
+        <f t="shared" ref="D75" si="35">CONCATENATE("SUM(b.",A75," = '1') AS count_val1_",A75,", SUM(b.",A75," = '2') AS count_val2_",A75,",", "SUM(b.",A75," = '3') AS count_val3_",A75,",")</f>
         <v>SUM(b.r_m_ins_9_4_2 = '1') AS count_val1_r_m_ins_9_4_2, SUM(b.r_m_ins_9_4_2 = '2') AS count_val2_r_m_ins_9_4_2,SUM(b.r_m_ins_9_4_2 = '3') AS count_val3_r_m_ins_9_4_2,</v>
       </c>
     </row>
@@ -6923,7 +6923,7 @@
         <v>1212</v>
       </c>
       <c r="D78" s="14" t="str">
-        <f t="shared" ref="D78:D113" si="36">CONCATENATE("SUM(b.",A78," = '1') AS count_val1_",A78,", SUM(b.",A78," = '2') AS count_val2_",A78,",")</f>
+        <f t="shared" ref="D78" si="36">CONCATENATE("SUM(b.",A78," = '1') AS count_val1_",A78,", SUM(b.",A78," = '2') AS count_val2_",A78,",")</f>
         <v>SUM(b.r_m_ins_101112_1_1 = '1') AS count_val1_r_m_ins_101112_1_1, SUM(b.r_m_ins_101112_1_1 = '2') AS count_val2_r_m_ins_101112_1_1,</v>
       </c>
     </row>
@@ -6938,7 +6938,7 @@
         <v>1212</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" ref="D79:D113" si="37">CONCATENATE("SUM(b.",A79," = '1') AS count_val1_",A79,", SUM(b.",A79," = '2') AS count_val2_",A79,",", "SUM(b.",A79," = '3') AS count_val3_",A79,",")</f>
+        <f t="shared" ref="D79" si="37">CONCATENATE("SUM(b.",A79," = '1') AS count_val1_",A79,", SUM(b.",A79," = '2') AS count_val2_",A79,",", "SUM(b.",A79," = '3') AS count_val3_",A79,",")</f>
         <v>SUM(b.r_m_ins_101112_1_2 = '1') AS count_val1_r_m_ins_101112_1_2, SUM(b.r_m_ins_101112_1_2 = '2') AS count_val2_r_m_ins_101112_1_2,SUM(b.r_m_ins_101112_1_2 = '3') AS count_val3_r_m_ins_101112_1_2,</v>
       </c>
     </row>
@@ -6977,7 +6977,7 @@
         <v>1212</v>
       </c>
       <c r="D82" s="14" t="str">
-        <f t="shared" ref="D82:D113" si="38">CONCATENATE("SUM(b.",A82," = '1') AS count_val1_",A82,", SUM(b.",A82," = '2') AS count_val2_",A82,",")</f>
+        <f t="shared" ref="D82" si="38">CONCATENATE("SUM(b.",A82," = '1') AS count_val1_",A82,", SUM(b.",A82," = '2') AS count_val2_",A82,",")</f>
         <v>SUM(b.r_m_ins_101112_2_1 = '1') AS count_val1_r_m_ins_101112_2_1, SUM(b.r_m_ins_101112_2_1 = '2') AS count_val2_r_m_ins_101112_2_1,</v>
       </c>
     </row>
@@ -6992,7 +6992,7 @@
         <v>1212</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" ref="D83:D113" si="39">CONCATENATE("SUM(b.",A83," = '1') AS count_val1_",A83,", SUM(b.",A83," = '2') AS count_val2_",A83,",", "SUM(b.",A83," = '3') AS count_val3_",A83,",")</f>
+        <f t="shared" ref="D83" si="39">CONCATENATE("SUM(b.",A83," = '1') AS count_val1_",A83,", SUM(b.",A83," = '2') AS count_val2_",A83,",", "SUM(b.",A83," = '3') AS count_val3_",A83,",")</f>
         <v>SUM(b.r_m_ins_101112_2_2 = '1') AS count_val1_r_m_ins_101112_2_2, SUM(b.r_m_ins_101112_2_2 = '2') AS count_val2_r_m_ins_101112_2_2,SUM(b.r_m_ins_101112_2_2 = '3') AS count_val3_r_m_ins_101112_2_2,</v>
       </c>
     </row>
@@ -7031,7 +7031,7 @@
         <v>1212</v>
       </c>
       <c r="D86" s="14" t="str">
-        <f t="shared" ref="D86:D113" si="40">CONCATENATE("SUM(b.",A86," = '1') AS count_val1_",A86,", SUM(b.",A86," = '2') AS count_val2_",A86,",")</f>
+        <f t="shared" ref="D86" si="40">CONCATENATE("SUM(b.",A86," = '1') AS count_val1_",A86,", SUM(b.",A86," = '2') AS count_val2_",A86,",")</f>
         <v>SUM(b.r_m_ins_101112_3_1 = '1') AS count_val1_r_m_ins_101112_3_1, SUM(b.r_m_ins_101112_3_1 = '2') AS count_val2_r_m_ins_101112_3_1,</v>
       </c>
     </row>
@@ -7046,7 +7046,7 @@
         <v>1212</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" ref="D87:D113" si="41">CONCATENATE("SUM(b.",A87," = '1') AS count_val1_",A87,", SUM(b.",A87," = '2') AS count_val2_",A87,",", "SUM(b.",A87," = '3') AS count_val3_",A87,",")</f>
+        <f t="shared" ref="D87" si="41">CONCATENATE("SUM(b.",A87," = '1') AS count_val1_",A87,", SUM(b.",A87," = '2') AS count_val2_",A87,",", "SUM(b.",A87," = '3') AS count_val3_",A87,",")</f>
         <v>SUM(b.r_m_ins_101112_3_2 = '1') AS count_val1_r_m_ins_101112_3_2, SUM(b.r_m_ins_101112_3_2 = '2') AS count_val2_r_m_ins_101112_3_2,SUM(b.r_m_ins_101112_3_2 = '3') AS count_val3_r_m_ins_101112_3_2,</v>
       </c>
     </row>
@@ -7085,7 +7085,7 @@
         <v>1212</v>
       </c>
       <c r="D90" s="14" t="str">
-        <f t="shared" ref="D90:D113" si="42">CONCATENATE("SUM(b.",A90," = '1') AS count_val1_",A90,", SUM(b.",A90," = '2') AS count_val2_",A90,",")</f>
+        <f t="shared" ref="D90" si="42">CONCATENATE("SUM(b.",A90," = '1') AS count_val1_",A90,", SUM(b.",A90," = '2') AS count_val2_",A90,",")</f>
         <v>SUM(b.r_m_ins_101112_4_1 = '1') AS count_val1_r_m_ins_101112_4_1, SUM(b.r_m_ins_101112_4_1 = '2') AS count_val2_r_m_ins_101112_4_1,</v>
       </c>
     </row>
@@ -7100,7 +7100,7 @@
         <v>1212</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" ref="D91:D113" si="43">CONCATENATE("SUM(b.",A91," = '1') AS count_val1_",A91,", SUM(b.",A91," = '2') AS count_val2_",A91,",", "SUM(b.",A91," = '3') AS count_val3_",A91,",")</f>
+        <f t="shared" ref="D91" si="43">CONCATENATE("SUM(b.",A91," = '1') AS count_val1_",A91,", SUM(b.",A91," = '2') AS count_val2_",A91,",", "SUM(b.",A91," = '3') AS count_val3_",A91,",")</f>
         <v>SUM(b.r_m_ins_101112_4_2 = '1') AS count_val1_r_m_ins_101112_4_2, SUM(b.r_m_ins_101112_4_2 = '2') AS count_val2_r_m_ins_101112_4_2,SUM(b.r_m_ins_101112_4_2 = '3') AS count_val3_r_m_ins_101112_4_2,</v>
       </c>
     </row>
@@ -7139,7 +7139,7 @@
         <v>1212</v>
       </c>
       <c r="D94" s="14" t="str">
-        <f t="shared" ref="D94:D113" si="44">CONCATENATE("SUM(b.",A94," = '1') AS count_val1_",A94,", SUM(b.",A94," = '2') AS count_val2_",A94,",")</f>
+        <f t="shared" ref="D94" si="44">CONCATENATE("SUM(b.",A94," = '1') AS count_val1_",A94,", SUM(b.",A94," = '2') AS count_val2_",A94,",")</f>
         <v>SUM(b.r_m_ins_101112_5_1 = '1') AS count_val1_r_m_ins_101112_5_1, SUM(b.r_m_ins_101112_5_1 = '2') AS count_val2_r_m_ins_101112_5_1,</v>
       </c>
     </row>
@@ -7154,7 +7154,7 @@
         <v>1212</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" ref="D95:D113" si="45">CONCATENATE("SUM(b.",A95," = '1') AS count_val1_",A95,", SUM(b.",A95," = '2') AS count_val2_",A95,",", "SUM(b.",A95," = '3') AS count_val3_",A95,",")</f>
+        <f t="shared" ref="D95" si="45">CONCATENATE("SUM(b.",A95," = '1') AS count_val1_",A95,", SUM(b.",A95," = '2') AS count_val2_",A95,",", "SUM(b.",A95," = '3') AS count_val3_",A95,",")</f>
         <v>SUM(b.r_m_ins_101112_5_2 = '1') AS count_val1_r_m_ins_101112_5_2, SUM(b.r_m_ins_101112_5_2 = '2') AS count_val2_r_m_ins_101112_5_2,SUM(b.r_m_ins_101112_5_2 = '3') AS count_val3_r_m_ins_101112_5_2,</v>
       </c>
     </row>
@@ -7193,7 +7193,7 @@
         <v>1212</v>
       </c>
       <c r="D98" s="14" t="str">
-        <f t="shared" ref="D98:D113" si="46">CONCATENATE("SUM(b.",A98," = '1') AS count_val1_",A98,", SUM(b.",A98," = '2') AS count_val2_",A98,",")</f>
+        <f t="shared" ref="D98" si="46">CONCATENATE("SUM(b.",A98," = '1') AS count_val1_",A98,", SUM(b.",A98," = '2') AS count_val2_",A98,",")</f>
         <v>SUM(b.r_m_ins_101112_6_1 = '1') AS count_val1_r_m_ins_101112_6_1, SUM(b.r_m_ins_101112_6_1 = '2') AS count_val2_r_m_ins_101112_6_1,</v>
       </c>
     </row>
@@ -7208,7 +7208,7 @@
         <v>1212</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" ref="D99:D113" si="47">CONCATENATE("SUM(b.",A99," = '1') AS count_val1_",A99,", SUM(b.",A99," = '2') AS count_val2_",A99,",", "SUM(b.",A99," = '3') AS count_val3_",A99,",")</f>
+        <f t="shared" ref="D99" si="47">CONCATENATE("SUM(b.",A99," = '1') AS count_val1_",A99,", SUM(b.",A99," = '2') AS count_val2_",A99,",", "SUM(b.",A99," = '3') AS count_val3_",A99,",")</f>
         <v>SUM(b.r_m_ins_101112_6_2 = '1') AS count_val1_r_m_ins_101112_6_2, SUM(b.r_m_ins_101112_6_2 = '2') AS count_val2_r_m_ins_101112_6_2,SUM(b.r_m_ins_101112_6_2 = '3') AS count_val3_r_m_ins_101112_6_2,</v>
       </c>
     </row>
@@ -7247,7 +7247,7 @@
         <v>1212</v>
       </c>
       <c r="D102" s="14" t="str">
-        <f t="shared" ref="D102:D113" si="48">CONCATENATE("SUM(b.",A102," = '1') AS count_val1_",A102,", SUM(b.",A102," = '2') AS count_val2_",A102,",")</f>
+        <f t="shared" ref="D102" si="48">CONCATENATE("SUM(b.",A102," = '1') AS count_val1_",A102,", SUM(b.",A102," = '2') AS count_val2_",A102,",")</f>
         <v>SUM(b.r_m_ins_101112_7_1 = '1') AS count_val1_r_m_ins_101112_7_1, SUM(b.r_m_ins_101112_7_1 = '2') AS count_val2_r_m_ins_101112_7_1,</v>
       </c>
     </row>
@@ -7262,7 +7262,7 @@
         <v>1212</v>
       </c>
       <c r="D103" t="str">
-        <f t="shared" ref="D103:D113" si="49">CONCATENATE("SUM(b.",A103," = '1') AS count_val1_",A103,", SUM(b.",A103," = '2') AS count_val2_",A103,",", "SUM(b.",A103," = '3') AS count_val3_",A103,",")</f>
+        <f t="shared" ref="D103" si="49">CONCATENATE("SUM(b.",A103," = '1') AS count_val1_",A103,", SUM(b.",A103," = '2') AS count_val2_",A103,",", "SUM(b.",A103," = '3') AS count_val3_",A103,",")</f>
         <v>SUM(b.r_m_ins_101112_7_2 = '1') AS count_val1_r_m_ins_101112_7_2, SUM(b.r_m_ins_101112_7_2 = '2') AS count_val2_r_m_ins_101112_7_2,SUM(b.r_m_ins_101112_7_2 = '3') AS count_val3_r_m_ins_101112_7_2,</v>
       </c>
     </row>
@@ -7301,7 +7301,7 @@
         <v>1212</v>
       </c>
       <c r="D106" s="14" t="str">
-        <f t="shared" ref="D106:D113" si="50">CONCATENATE("SUM(b.",A106," = '1') AS count_val1_",A106,", SUM(b.",A106," = '2') AS count_val2_",A106,",")</f>
+        <f t="shared" ref="D106" si="50">CONCATENATE("SUM(b.",A106," = '1') AS count_val1_",A106,", SUM(b.",A106," = '2') AS count_val2_",A106,",")</f>
         <v>SUM(b.r_m_ins_101112_8_1 = '1') AS count_val1_r_m_ins_101112_8_1, SUM(b.r_m_ins_101112_8_1 = '2') AS count_val2_r_m_ins_101112_8_1,</v>
       </c>
     </row>
@@ -7316,7 +7316,7 @@
         <v>1212</v>
       </c>
       <c r="D107" t="str">
-        <f t="shared" ref="D107:D113" si="51">CONCATENATE("SUM(b.",A107," = '1') AS count_val1_",A107,", SUM(b.",A107," = '2') AS count_val2_",A107,",", "SUM(b.",A107," = '3') AS count_val3_",A107,",")</f>
+        <f t="shared" ref="D107" si="51">CONCATENATE("SUM(b.",A107," = '1') AS count_val1_",A107,", SUM(b.",A107," = '2') AS count_val2_",A107,",", "SUM(b.",A107," = '3') AS count_val3_",A107,",")</f>
         <v>SUM(b.r_m_ins_101112_8_2 = '1') AS count_val1_r_m_ins_101112_8_2, SUM(b.r_m_ins_101112_8_2 = '2') AS count_val2_r_m_ins_101112_8_2,SUM(b.r_m_ins_101112_8_2 = '3') AS count_val3_r_m_ins_101112_8_2,</v>
       </c>
     </row>
@@ -7355,7 +7355,7 @@
         <v>1212</v>
       </c>
       <c r="D110" s="14" t="str">
-        <f t="shared" ref="D110:D113" si="52">CONCATENATE("SUM(b.",A110," = '1') AS count_val1_",A110,", SUM(b.",A110," = '2') AS count_val2_",A110,",")</f>
+        <f t="shared" ref="D110" si="52">CONCATENATE("SUM(b.",A110," = '1') AS count_val1_",A110,", SUM(b.",A110," = '2') AS count_val2_",A110,",")</f>
         <v>SUM(b.r_m_ins_101112_9_1 = '1') AS count_val1_r_m_ins_101112_9_1, SUM(b.r_m_ins_101112_9_1 = '2') AS count_val2_r_m_ins_101112_9_1,</v>
       </c>
     </row>
@@ -7370,7 +7370,7 @@
         <v>1212</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" ref="D111:D113" si="53">CONCATENATE("SUM(b.",A111," = '1') AS count_val1_",A111,", SUM(b.",A111," = '2') AS count_val2_",A111,",", "SUM(b.",A111," = '3') AS count_val3_",A111,",")</f>
+        <f t="shared" ref="D111" si="53">CONCATENATE("SUM(b.",A111," = '1') AS count_val1_",A111,", SUM(b.",A111," = '2') AS count_val2_",A111,",", "SUM(b.",A111," = '3') AS count_val3_",A111,",")</f>
         <v>SUM(b.r_m_ins_101112_9_2 = '1') AS count_val1_r_m_ins_101112_9_2, SUM(b.r_m_ins_101112_9_2 = '2') AS count_val2_r_m_ins_101112_9_2,SUM(b.r_m_ins_101112_9_2 = '3') AS count_val3_r_m_ins_101112_9_2,</v>
       </c>
     </row>
@@ -7405,10 +7405,2201 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D93"/>
+  <sheetViews>
+    <sheetView topLeftCell="C82" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="115.5703125" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D2" s="14" t="str">
+        <f>CONCATENATE("SUM(b.",A2," = '1') AS count_val1_",A2,", SUM(b.",A2," = '2') AS count_val2_",A2,",")</f>
+        <v>SUM(b.r_t_1_1_1 = '1') AS count_val1_r_t_1_1_1, SUM(b.r_t_1_1_1 = '2') AS count_val2_r_t_1_1_1,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D3" t="str">
+        <f>CONCATENATE("SUM(b.",A3," = '1') AS count_val1_",A3,", SUM(b.",A3," = '2') AS count_val2_",A3,",", "SUM(b.",A3," = '3') AS count_val3_",A3,",")</f>
+        <v>SUM(b.r_t_1_1_2 = '1') AS count_val1_r_t_1_1_2, SUM(b.r_t_1_1_2 = '2') AS count_val2_r_t_1_1_2,SUM(b.r_t_1_1_2 = '3') AS count_val3_r_t_1_1_2,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D6" s="14" t="str">
+        <f t="shared" ref="D6" si="0">CONCATENATE("SUM(b.",A6," = '1') AS count_val1_",A6,", SUM(b.",A6," = '2') AS count_val2_",A6,",")</f>
+        <v>SUM(b.r_t_1_2_1 = '1') AS count_val1_r_t_1_2_1, SUM(b.r_t_1_2_1 = '2') AS count_val2_r_t_1_2_1,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" ref="D7" si="1">CONCATENATE("SUM(b.",A7," = '1') AS count_val1_",A7,", SUM(b.",A7," = '2') AS count_val2_",A7,",", "SUM(b.",A7," = '3') AS count_val3_",A7,",")</f>
+        <v>SUM(b.r_t_1_2_2 = '1') AS count_val1_r_t_1_2_2, SUM(b.r_t_1_2_2 = '2') AS count_val2_r_t_1_2_2,SUM(b.r_t_1_2_2 = '3') AS count_val3_r_t_1_2_2,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D10" s="14" t="str">
+        <f t="shared" ref="D10" si="2">CONCATENATE("SUM(b.",A10," = '1') AS count_val1_",A10,", SUM(b.",A10," = '2') AS count_val2_",A10,",")</f>
+        <v>SUM(b.r_t_2_1_1 = '1') AS count_val1_r_t_2_1_1, SUM(b.r_t_2_1_1 = '2') AS count_val2_r_t_2_1_1,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ref="D11" si="3">CONCATENATE("SUM(b.",A11," = '1') AS count_val1_",A11,", SUM(b.",A11," = '2') AS count_val2_",A11,",", "SUM(b.",A11," = '3') AS count_val3_",A11,",")</f>
+        <v>SUM(b.r_t_2_1_2 = '1') AS count_val1_r_t_2_1_2, SUM(b.r_t_2_1_2 = '2') AS count_val2_r_t_2_1_2,SUM(b.r_t_2_1_2 = '3') AS count_val3_r_t_2_1_2,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D14" s="14" t="str">
+        <f t="shared" ref="D14" si="4">CONCATENATE("SUM(b.",A14," = '1') AS count_val1_",A14,", SUM(b.",A14," = '2') AS count_val2_",A14,",")</f>
+        <v>SUM(b.r_t_2_2_1 = '1') AS count_val1_r_t_2_2_1, SUM(b.r_t_2_2_1 = '2') AS count_val2_r_t_2_2_1,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" ref="D15" si="5">CONCATENATE("SUM(b.",A15," = '1') AS count_val1_",A15,", SUM(b.",A15," = '2') AS count_val2_",A15,",", "SUM(b.",A15," = '3') AS count_val3_",A15,",")</f>
+        <v>SUM(b.r_t_2_2_2 = '1') AS count_val1_r_t_2_2_2, SUM(b.r_t_2_2_2 = '2') AS count_val2_r_t_2_2_2,SUM(b.r_t_2_2_2 = '3') AS count_val3_r_t_2_2_2,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D18" s="14" t="str">
+        <f t="shared" ref="D18" si="6">CONCATENATE("SUM(b.",A18," = '1') AS count_val1_",A18,", SUM(b.",A18," = '2') AS count_val2_",A18,",")</f>
+        <v>SUM(b.r_t_3_1_1 = '1') AS count_val1_r_t_3_1_1, SUM(b.r_t_3_1_1 = '2') AS count_val2_r_t_3_1_1,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" ref="D19" si="7">CONCATENATE("SUM(b.",A19," = '1') AS count_val1_",A19,", SUM(b.",A19," = '2') AS count_val2_",A19,",", "SUM(b.",A19," = '3') AS count_val3_",A19,",")</f>
+        <v>SUM(b.r_t_3_1_2 = '1') AS count_val1_r_t_3_1_2, SUM(b.r_t_3_1_2 = '2') AS count_val2_r_t_3_1_2,SUM(b.r_t_3_1_2 = '3') AS count_val3_r_t_3_1_2,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D22" s="14" t="str">
+        <f t="shared" ref="D22" si="8">CONCATENATE("SUM(b.",A22," = '1') AS count_val1_",A22,", SUM(b.",A22," = '2') AS count_val2_",A22,",")</f>
+        <v>SUM(b.r_t_3_2_1 = '1') AS count_val1_r_t_3_2_1, SUM(b.r_t_3_2_1 = '2') AS count_val2_r_t_3_2_1,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" ref="D23" si="9">CONCATENATE("SUM(b.",A23," = '1') AS count_val1_",A23,", SUM(b.",A23," = '2') AS count_val2_",A23,",", "SUM(b.",A23," = '3') AS count_val3_",A23,",")</f>
+        <v>SUM(b.r_t_3_2_2 = '1') AS count_val1_r_t_3_2_2, SUM(b.r_t_3_2_2 = '2') AS count_val2_r_t_3_2_2,SUM(b.r_t_3_2_2 = '3') AS count_val3_r_t_3_2_2,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D26" s="14" t="str">
+        <f t="shared" ref="D26" si="10">CONCATENATE("SUM(b.",A26," = '1') AS count_val1_",A26,", SUM(b.",A26," = '2') AS count_val2_",A26,",")</f>
+        <v>SUM(b.r_t_4_1_1 = '1') AS count_val1_r_t_4_1_1, SUM(b.r_t_4_1_1 = '2') AS count_val2_r_t_4_1_1,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" ref="D27" si="11">CONCATENATE("SUM(b.",A27," = '1') AS count_val1_",A27,", SUM(b.",A27," = '2') AS count_val2_",A27,",", "SUM(b.",A27," = '3') AS count_val3_",A27,",")</f>
+        <v>SUM(b.r_t_4_1_2 = '1') AS count_val1_r_t_4_1_2, SUM(b.r_t_4_1_2 = '2') AS count_val2_r_t_4_1_2,SUM(b.r_t_4_1_2 = '3') AS count_val3_r_t_4_1_2,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D30" s="14" t="str">
+        <f t="shared" ref="D30" si="12">CONCATENATE("SUM(b.",A30," = '1') AS count_val1_",A30,", SUM(b.",A30," = '2') AS count_val2_",A30,",")</f>
+        <v>SUM(b.r_t_4_2_1 = '1') AS count_val1_r_t_4_2_1, SUM(b.r_t_4_2_1 = '2') AS count_val2_r_t_4_2_1,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" ref="D31" si="13">CONCATENATE("SUM(b.",A31," = '1') AS count_val1_",A31,", SUM(b.",A31," = '2') AS count_val2_",A31,",", "SUM(b.",A31," = '3') AS count_val3_",A31,",")</f>
+        <v>SUM(b.r_t_4_2_2 = '1') AS count_val1_r_t_4_2_2, SUM(b.r_t_4_2_2 = '2') AS count_val2_r_t_4_2_2,SUM(b.r_t_4_2_2 = '3') AS count_val3_r_t_4_2_2,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D34" s="14" t="str">
+        <f t="shared" ref="D34" si="14">CONCATENATE("SUM(b.",A34," = '1') AS count_val1_",A34,", SUM(b.",A34," = '2') AS count_val2_",A34,",")</f>
+        <v>SUM(b.r_t_5_1_1 = '1') AS count_val1_r_t_5_1_1, SUM(b.r_t_5_1_1 = '2') AS count_val2_r_t_5_1_1,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" ref="D35" si="15">CONCATENATE("SUM(b.",A35," = '1') AS count_val1_",A35,", SUM(b.",A35," = '2') AS count_val2_",A35,",", "SUM(b.",A35," = '3') AS count_val3_",A35,",")</f>
+        <v>SUM(b.r_t_5_1_2 = '1') AS count_val1_r_t_5_1_2, SUM(b.r_t_5_1_2 = '2') AS count_val2_r_t_5_1_2,SUM(b.r_t_5_1_2 = '3') AS count_val3_r_t_5_1_2,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D38" s="14" t="str">
+        <f t="shared" ref="D38" si="16">CONCATENATE("SUM(b.",A38," = '1') AS count_val1_",A38,", SUM(b.",A38," = '2') AS count_val2_",A38,",")</f>
+        <v>SUM(b.r_t_5_2_1 = '1') AS count_val1_r_t_5_2_1, SUM(b.r_t_5_2_1 = '2') AS count_val2_r_t_5_2_1,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" ref="D39" si="17">CONCATENATE("SUM(b.",A39," = '1') AS count_val1_",A39,", SUM(b.",A39," = '2') AS count_val2_",A39,",", "SUM(b.",A39," = '3') AS count_val3_",A39,",")</f>
+        <v>SUM(b.r_t_5_2_2 = '1') AS count_val1_r_t_5_2_2, SUM(b.r_t_5_2_2 = '2') AS count_val2_r_t_5_2_2,SUM(b.r_t_5_2_2 = '3') AS count_val3_r_t_5_2_2,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D42" s="14" t="str">
+        <f t="shared" ref="D42" si="18">CONCATENATE("SUM(b.",A42," = '1') AS count_val1_",A42,", SUM(b.",A42," = '2') AS count_val2_",A42,",")</f>
+        <v>SUM(b.r_t_6_1_1 = '1') AS count_val1_r_t_6_1_1, SUM(b.r_t_6_1_1 = '2') AS count_val2_r_t_6_1_1,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" ref="D43" si="19">CONCATENATE("SUM(b.",A43," = '1') AS count_val1_",A43,", SUM(b.",A43," = '2') AS count_val2_",A43,",", "SUM(b.",A43," = '3') AS count_val3_",A43,",")</f>
+        <v>SUM(b.r_t_6_1_2 = '1') AS count_val1_r_t_6_1_2, SUM(b.r_t_6_1_2 = '2') AS count_val2_r_t_6_1_2,SUM(b.r_t_6_1_2 = '3') AS count_val3_r_t_6_1_2,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D45"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D46" s="14" t="str">
+        <f t="shared" ref="D46" si="20">CONCATENATE("SUM(b.",A46," = '1') AS count_val1_",A46,", SUM(b.",A46," = '2') AS count_val2_",A46,",")</f>
+        <v>SUM(b.r_t_6_2_1 = '1') AS count_val1_r_t_6_2_1, SUM(b.r_t_6_2_1 = '2') AS count_val2_r_t_6_2_1,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" ref="D47" si="21">CONCATENATE("SUM(b.",A47," = '1') AS count_val1_",A47,", SUM(b.",A47," = '2') AS count_val2_",A47,",", "SUM(b.",A47," = '3') AS count_val3_",A47,",")</f>
+        <v>SUM(b.r_t_6_2_2 = '1') AS count_val1_r_t_6_2_2, SUM(b.r_t_6_2_2 = '2') AS count_val2_r_t_6_2_2,SUM(b.r_t_6_2_2 = '3') AS count_val3_r_t_6_2_2,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D48"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D49"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D50" s="14" t="str">
+        <f t="shared" ref="D50" si="22">CONCATENATE("SUM(b.",A50," = '1') AS count_val1_",A50,", SUM(b.",A50," = '2') AS count_val2_",A50,",")</f>
+        <v>SUM(b.r_t_7_1_1 = '1') AS count_val1_r_t_7_1_1, SUM(b.r_t_7_1_1 = '2') AS count_val2_r_t_7_1_1,</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" ref="D51" si="23">CONCATENATE("SUM(b.",A51," = '1') AS count_val1_",A51,", SUM(b.",A51," = '2') AS count_val2_",A51,",", "SUM(b.",A51," = '3') AS count_val3_",A51,",")</f>
+        <v>SUM(b.r_t_7_1_2 = '1') AS count_val1_r_t_7_1_2, SUM(b.r_t_7_1_2 = '2') AS count_val2_r_t_7_1_2,SUM(b.r_t_7_1_2 = '3') AS count_val3_r_t_7_1_2,</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D52"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D53"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D54" s="14" t="str">
+        <f t="shared" ref="D54" si="24">CONCATENATE("SUM(b.",A54," = '1') AS count_val1_",A54,", SUM(b.",A54," = '2') AS count_val2_",A54,",")</f>
+        <v>SUM(b.r_t_8_1_1 = '1') AS count_val1_r_t_8_1_1, SUM(b.r_t_8_1_1 = '2') AS count_val2_r_t_8_1_1,</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>731</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" ref="D55" si="25">CONCATENATE("SUM(b.",A55," = '1') AS count_val1_",A55,", SUM(b.",A55," = '2') AS count_val2_",A55,",", "SUM(b.",A55," = '3') AS count_val3_",A55,",")</f>
+        <v>SUM(b.r_t_8_1_2 = '1') AS count_val1_r_t_8_1_2, SUM(b.r_t_8_1_2 = '2') AS count_val2_r_t_8_1_2,SUM(b.r_t_8_1_2 = '3') AS count_val3_r_t_8_1_2,</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D56"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>733</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D57"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>750</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D58" s="14" t="str">
+        <f t="shared" ref="D58" si="26">CONCATENATE("SUM(b.",A58," = '1') AS count_val1_",A58,", SUM(b.",A58," = '2') AS count_val2_",A58,",")</f>
+        <v>SUM(b.r_t_9_1_1 = '1') AS count_val1_r_t_9_1_1, SUM(b.r_t_9_1_1 = '2') AS count_val2_r_t_9_1_1,</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>751</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" ref="D59" si="27">CONCATENATE("SUM(b.",A59," = '1') AS count_val1_",A59,", SUM(b.",A59," = '2') AS count_val2_",A59,",", "SUM(b.",A59," = '3') AS count_val3_",A59,",")</f>
+        <v>SUM(b.r_t_9_1_2 = '1') AS count_val1_r_t_9_1_2, SUM(b.r_t_9_1_2 = '2') AS count_val2_r_t_9_1_2,SUM(b.r_t_9_1_2 = '3') AS count_val3_r_t_9_1_2,</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>752</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D60"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D61"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D62" s="14" t="str">
+        <f t="shared" ref="D62" si="28">CONCATENATE("SUM(b.",A62," = '1') AS count_val1_",A62,", SUM(b.",A62," = '2') AS count_val2_",A62,",")</f>
+        <v>SUM(b.r_t_789_additional_1_1 = '1') AS count_val1_r_t_789_additional_1_1, SUM(b.r_t_789_additional_1_1 = '2') AS count_val2_r_t_789_additional_1_1,</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" ref="D63" si="29">CONCATENATE("SUM(b.",A63," = '1') AS count_val1_",A63,", SUM(b.",A63," = '2') AS count_val2_",A63,",", "SUM(b.",A63," = '3') AS count_val3_",A63,",")</f>
+        <v>SUM(b.r_t_789_additional_1_2 = '1') AS count_val1_r_t_789_additional_1_2, SUM(b.r_t_789_additional_1_2 = '2') AS count_val2_r_t_789_additional_1_2,SUM(b.r_t_789_additional_1_2 = '3') AS count_val3_r_t_789_additional_1_2,</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D64"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D65"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D66" s="14" t="str">
+        <f t="shared" ref="D66" si="30">CONCATENATE("SUM(b.",A66," = '1') AS count_val1_",A66,", SUM(b.",A66," = '2') AS count_val2_",A66,",")</f>
+        <v>SUM(b.r_t_789_additional_2_1 = '1') AS count_val1_r_t_789_additional_2_1, SUM(b.r_t_789_additional_2_1 = '2') AS count_val2_r_t_789_additional_2_1,</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67" si="31">CONCATENATE("SUM(b.",A67," = '1') AS count_val1_",A67,", SUM(b.",A67," = '2') AS count_val2_",A67,",", "SUM(b.",A67," = '3') AS count_val3_",A67,",")</f>
+        <v>SUM(b.r_t_789_additional_2_2 = '1') AS count_val1_r_t_789_additional_2_2, SUM(b.r_t_789_additional_2_2 = '2') AS count_val2_r_t_789_additional_2_2,SUM(b.r_t_789_additional_2_2 = '3') AS count_val3_r_t_789_additional_2_2,</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D68"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D69"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D70" s="14" t="str">
+        <f t="shared" ref="D70" si="32">CONCATENATE("SUM(b.",A70," = '1') AS count_val1_",A70,", SUM(b.",A70," = '2') AS count_val2_",A70,",")</f>
+        <v>SUM(b.r_t_789_additional_3_1 = '1') AS count_val1_r_t_789_additional_3_1, SUM(b.r_t_789_additional_3_1 = '2') AS count_val2_r_t_789_additional_3_1,</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" ref="D71" si="33">CONCATENATE("SUM(b.",A71," = '1') AS count_val1_",A71,", SUM(b.",A71," = '2') AS count_val2_",A71,",", "SUM(b.",A71," = '3') AS count_val3_",A71,",")</f>
+        <v>SUM(b.r_t_789_additional_3_2 = '1') AS count_val1_r_t_789_additional_3_2, SUM(b.r_t_789_additional_3_2 = '2') AS count_val2_r_t_789_additional_3_2,SUM(b.r_t_789_additional_3_2 = '3') AS count_val3_r_t_789_additional_3_2,</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D72"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D73"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D74" s="14" t="str">
+        <f t="shared" ref="D74" si="34">CONCATENATE("SUM(b.",A74," = '1') AS count_val1_",A74,", SUM(b.",A74," = '2') AS count_val2_",A74,",")</f>
+        <v>SUM(b.r_t_101112_1_1 = '1') AS count_val1_r_t_101112_1_1, SUM(b.r_t_101112_1_1 = '2') AS count_val2_r_t_101112_1_1,</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" ref="D75" si="35">CONCATENATE("SUM(b.",A75," = '1') AS count_val1_",A75,", SUM(b.",A75," = '2') AS count_val2_",A75,",", "SUM(b.",A75," = '3') AS count_val3_",A75,",")</f>
+        <v>SUM(b.r_t_101112_1_2 = '1') AS count_val1_r_t_101112_1_2, SUM(b.r_t_101112_1_2 = '2') AS count_val2_r_t_101112_1_2,SUM(b.r_t_101112_1_2 = '3') AS count_val3_r_t_101112_1_2,</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D76"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D77"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D78" s="14" t="str">
+        <f t="shared" ref="D78" si="36">CONCATENATE("SUM(b.",A78," = '1') AS count_val1_",A78,", SUM(b.",A78," = '2') AS count_val2_",A78,",")</f>
+        <v>SUM(b.r_t_101112_2_1 = '1') AS count_val1_r_t_101112_2_1, SUM(b.r_t_101112_2_1 = '2') AS count_val2_r_t_101112_2_1,</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" ref="D79" si="37">CONCATENATE("SUM(b.",A79," = '1') AS count_val1_",A79,", SUM(b.",A79," = '2') AS count_val2_",A79,",", "SUM(b.",A79," = '3') AS count_val3_",A79,",")</f>
+        <v>SUM(b.r_t_101112_2_2 = '1') AS count_val1_r_t_101112_2_2, SUM(b.r_t_101112_2_2 = '2') AS count_val2_r_t_101112_2_2,SUM(b.r_t_101112_2_2 = '3') AS count_val3_r_t_101112_2_2,</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D80"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D81"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D82" s="14" t="str">
+        <f t="shared" ref="D82" si="38">CONCATENATE("SUM(b.",A82," = '1') AS count_val1_",A82,", SUM(b.",A82," = '2') AS count_val2_",A82,",")</f>
+        <v>SUM(b.r_t_101112_3_1 = '1') AS count_val1_r_t_101112_3_1, SUM(b.r_t_101112_3_1 = '2') AS count_val2_r_t_101112_3_1,</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" ref="D83" si="39">CONCATENATE("SUM(b.",A83," = '1') AS count_val1_",A83,", SUM(b.",A83," = '2') AS count_val2_",A83,",", "SUM(b.",A83," = '3') AS count_val3_",A83,",")</f>
+        <v>SUM(b.r_t_101112_3_2 = '1') AS count_val1_r_t_101112_3_2, SUM(b.r_t_101112_3_2 = '2') AS count_val2_r_t_101112_3_2,SUM(b.r_t_101112_3_2 = '3') AS count_val3_r_t_101112_3_2,</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D84"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D85"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D86" s="14" t="str">
+        <f t="shared" ref="D86" si="40">CONCATENATE("SUM(b.",A86," = '1') AS count_val1_",A86,", SUM(b.",A86," = '2') AS count_val2_",A86,",")</f>
+        <v>SUM(b.r_t_101112_4_1 = '1') AS count_val1_r_t_101112_4_1, SUM(b.r_t_101112_4_1 = '2') AS count_val2_r_t_101112_4_1,</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" ref="D87" si="41">CONCATENATE("SUM(b.",A87," = '1') AS count_val1_",A87,", SUM(b.",A87," = '2') AS count_val2_",A87,",", "SUM(b.",A87," = '3') AS count_val3_",A87,",")</f>
+        <v>SUM(b.r_t_101112_4_2 = '1') AS count_val1_r_t_101112_4_2, SUM(b.r_t_101112_4_2 = '2') AS count_val2_r_t_101112_4_2,SUM(b.r_t_101112_4_2 = '3') AS count_val3_r_t_101112_4_2,</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D88"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D89"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D90" s="14" t="str">
+        <f t="shared" ref="D90" si="42">CONCATENATE("SUM(b.",A90," = '1') AS count_val1_",A90,", SUM(b.",A90," = '2') AS count_val2_",A90,",")</f>
+        <v>SUM(b.r_t_101112_5_1 = '1') AS count_val1_r_t_101112_5_1, SUM(b.r_t_101112_5_1 = '2') AS count_val2_r_t_101112_5_1,</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="14" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" ref="D91" si="43">CONCATENATE("SUM(b.",A91," = '1') AS count_val1_",A91,", SUM(b.",A91," = '2') AS count_val2_",A91,",", "SUM(b.",A91," = '3') AS count_val3_",A91,",")</f>
+        <v>SUM(b.r_t_101112_5_2 = '1') AS count_val1_r_t_101112_5_2, SUM(b.r_t_101112_5_2 = '2') AS count_val2_r_t_101112_5_2,SUM(b.r_t_101112_5_2 = '3') AS count_val3_r_t_101112_5_2,</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="14" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D92"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D93"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="109.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D2" s="14" t="str">
+        <f>CONCATENATE("SUM(b.",A2," = '1') AS count_val1_",A2,", SUM(b.",A2," = '2') AS count_val2_",A2,",")</f>
+        <v>SUM(b.r_t_ins_1_1_1 = '1') AS count_val1_r_t_ins_1_1_1, SUM(b.r_t_ins_1_1_1 = '2') AS count_val2_r_t_ins_1_1_1,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D3" t="str">
+        <f>CONCATENATE("SUM(b.",A3," = '1') AS count_val1_",A3,", SUM(b.",A3," = '2') AS count_val2_",A3,",", "SUM(b.",A3," = '3') AS count_val3_",A3,",")</f>
+        <v>SUM(b.r_t_ins_1_1_2 = '1') AS count_val1_r_t_ins_1_1_2, SUM(b.r_t_ins_1_1_2 = '2') AS count_val2_r_t_ins_1_1_2,SUM(b.r_t_ins_1_1_2 = '3') AS count_val3_r_t_ins_1_1_2,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D6" s="14" t="str">
+        <f t="shared" ref="D6" si="0">CONCATENATE("SUM(b.",A6," = '1') AS count_val1_",A6,", SUM(b.",A6," = '2') AS count_val2_",A6,",")</f>
+        <v>SUM(b.r_t_ins_2_1_1 = '1') AS count_val1_r_t_ins_2_1_1, SUM(b.r_t_ins_2_1_1 = '2') AS count_val2_r_t_ins_2_1_1,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" ref="D7" si="1">CONCATENATE("SUM(b.",A7," = '1') AS count_val1_",A7,", SUM(b.",A7," = '2') AS count_val2_",A7,",", "SUM(b.",A7," = '3') AS count_val3_",A7,",")</f>
+        <v>SUM(b.r_t_ins_2_1_2 = '1') AS count_val1_r_t_ins_2_1_2, SUM(b.r_t_ins_2_1_2 = '2') AS count_val2_r_t_ins_2_1_2,SUM(b.r_t_ins_2_1_2 = '3') AS count_val3_r_t_ins_2_1_2,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D10" s="14" t="str">
+        <f t="shared" ref="D10" si="2">CONCATENATE("SUM(b.",A10," = '1') AS count_val1_",A10,", SUM(b.",A10," = '2') AS count_val2_",A10,",")</f>
+        <v>SUM(b.r_t_ins_3_1_1 = '1') AS count_val1_r_t_ins_3_1_1, SUM(b.r_t_ins_3_1_1 = '2') AS count_val2_r_t_ins_3_1_1,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ref="D11" si="3">CONCATENATE("SUM(b.",A11," = '1') AS count_val1_",A11,", SUM(b.",A11," = '2') AS count_val2_",A11,",", "SUM(b.",A11," = '3') AS count_val3_",A11,",")</f>
+        <v>SUM(b.r_t_ins_3_1_2 = '1') AS count_val1_r_t_ins_3_1_2, SUM(b.r_t_ins_3_1_2 = '2') AS count_val2_r_t_ins_3_1_2,SUM(b.r_t_ins_3_1_2 = '3') AS count_val3_r_t_ins_3_1_2,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D14" s="14" t="str">
+        <f t="shared" ref="D14" si="4">CONCATENATE("SUM(b.",A14," = '1') AS count_val1_",A14,", SUM(b.",A14," = '2') AS count_val2_",A14,",")</f>
+        <v>SUM(b.r_t_ins_4_1_1 = '1') AS count_val1_r_t_ins_4_1_1, SUM(b.r_t_ins_4_1_1 = '2') AS count_val2_r_t_ins_4_1_1,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" ref="D15" si="5">CONCATENATE("SUM(b.",A15," = '1') AS count_val1_",A15,", SUM(b.",A15," = '2') AS count_val2_",A15,",", "SUM(b.",A15," = '3') AS count_val3_",A15,",")</f>
+        <v>SUM(b.r_t_ins_4_1_2 = '1') AS count_val1_r_t_ins_4_1_2, SUM(b.r_t_ins_4_1_2 = '2') AS count_val2_r_t_ins_4_1_2,SUM(b.r_t_ins_4_1_2 = '3') AS count_val3_r_t_ins_4_1_2,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D18" s="14" t="str">
+        <f t="shared" ref="D18" si="6">CONCATENATE("SUM(b.",A18," = '1') AS count_val1_",A18,", SUM(b.",A18," = '2') AS count_val2_",A18,",")</f>
+        <v>SUM(b.r_t_ins_5_1_1 = '1') AS count_val1_r_t_ins_5_1_1, SUM(b.r_t_ins_5_1_1 = '2') AS count_val2_r_t_ins_5_1_1,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" ref="D19" si="7">CONCATENATE("SUM(b.",A19," = '1') AS count_val1_",A19,", SUM(b.",A19," = '2') AS count_val2_",A19,",", "SUM(b.",A19," = '3') AS count_val3_",A19,",")</f>
+        <v>SUM(b.r_t_ins_5_1_2 = '1') AS count_val1_r_t_ins_5_1_2, SUM(b.r_t_ins_5_1_2 = '2') AS count_val2_r_t_ins_5_1_2,SUM(b.r_t_ins_5_1_2 = '3') AS count_val3_r_t_ins_5_1_2,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D22" s="14" t="str">
+        <f t="shared" ref="D22" si="8">CONCATENATE("SUM(b.",A22," = '1') AS count_val1_",A22,", SUM(b.",A22," = '2') AS count_val2_",A22,",")</f>
+        <v>SUM(b.r_t_ins_6_1_1 = '1') AS count_val1_r_t_ins_6_1_1, SUM(b.r_t_ins_6_1_1 = '2') AS count_val2_r_t_ins_6_1_1,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" ref="D23" si="9">CONCATENATE("SUM(b.",A23," = '1') AS count_val1_",A23,", SUM(b.",A23," = '2') AS count_val2_",A23,",", "SUM(b.",A23," = '3') AS count_val3_",A23,",")</f>
+        <v>SUM(b.r_t_ins_6_1_2 = '1') AS count_val1_r_t_ins_6_1_2, SUM(b.r_t_ins_6_1_2 = '2') AS count_val2_r_t_ins_6_1_2,SUM(b.r_t_ins_6_1_2 = '3') AS count_val3_r_t_ins_6_1_2,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D26" s="14" t="str">
+        <f t="shared" ref="D26" si="10">CONCATENATE("SUM(b.",A26," = '1') AS count_val1_",A26,", SUM(b.",A26," = '2') AS count_val2_",A26,",")</f>
+        <v>SUM(b.r_t_ins_7_1_1 = '1') AS count_val1_r_t_ins_7_1_1, SUM(b.r_t_ins_7_1_1 = '2') AS count_val2_r_t_ins_7_1_1,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" ref="D27" si="11">CONCATENATE("SUM(b.",A27," = '1') AS count_val1_",A27,", SUM(b.",A27," = '2') AS count_val2_",A27,",", "SUM(b.",A27," = '3') AS count_val3_",A27,",")</f>
+        <v>SUM(b.r_t_ins_7_1_2 = '1') AS count_val1_r_t_ins_7_1_2, SUM(b.r_t_ins_7_1_2 = '2') AS count_val2_r_t_ins_7_1_2,SUM(b.r_t_ins_7_1_2 = '3') AS count_val3_r_t_ins_7_1_2,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D30" s="14" t="str">
+        <f t="shared" ref="D30" si="12">CONCATENATE("SUM(b.",A30," = '1') AS count_val1_",A30,", SUM(b.",A30," = '2') AS count_val2_",A30,",")</f>
+        <v>SUM(b.r_t_ins_8_1_1 = '1') AS count_val1_r_t_ins_8_1_1, SUM(b.r_t_ins_8_1_1 = '2') AS count_val2_r_t_ins_8_1_1,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" ref="D31" si="13">CONCATENATE("SUM(b.",A31," = '1') AS count_val1_",A31,", SUM(b.",A31," = '2') AS count_val2_",A31,",", "SUM(b.",A31," = '3') AS count_val3_",A31,",")</f>
+        <v>SUM(b.r_t_ins_8_1_2 = '1') AS count_val1_r_t_ins_8_1_2, SUM(b.r_t_ins_8_1_2 = '2') AS count_val2_r_t_ins_8_1_2,SUM(b.r_t_ins_8_1_2 = '3') AS count_val3_r_t_ins_8_1_2,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D34" s="14" t="str">
+        <f t="shared" ref="D34" si="14">CONCATENATE("SUM(b.",A34," = '1') AS count_val1_",A34,", SUM(b.",A34," = '2') AS count_val2_",A34,",")</f>
+        <v>SUM(b.r_t_ins_9_1_1 = '1') AS count_val1_r_t_ins_9_1_1, SUM(b.r_t_ins_9_1_1 = '2') AS count_val2_r_t_ins_9_1_1,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" ref="D35" si="15">CONCATENATE("SUM(b.",A35," = '1') AS count_val1_",A35,", SUM(b.",A35," = '2') AS count_val2_",A35,",", "SUM(b.",A35," = '3') AS count_val3_",A35,",")</f>
+        <v>SUM(b.r_t_ins_9_1_2 = '1') AS count_val1_r_t_ins_9_1_2, SUM(b.r_t_ins_9_1_2 = '2') AS count_val2_r_t_ins_9_1_2,SUM(b.r_t_ins_9_1_2 = '3') AS count_val3_r_t_ins_9_1_2,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D38" s="14" t="str">
+        <f t="shared" ref="D38" si="16">CONCATENATE("SUM(b.",A38," = '1') AS count_val1_",A38,", SUM(b.",A38," = '2') AS count_val2_",A38,",")</f>
+        <v>SUM(b.r_t_ins_789_additional_1_1 = '1') AS count_val1_r_t_ins_789_additional_1_1, SUM(b.r_t_ins_789_additional_1_1 = '2') AS count_val2_r_t_ins_789_additional_1_1,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" ref="D39" si="17">CONCATENATE("SUM(b.",A39," = '1') AS count_val1_",A39,", SUM(b.",A39," = '2') AS count_val2_",A39,",", "SUM(b.",A39," = '3') AS count_val3_",A39,",")</f>
+        <v>SUM(b.r_t_ins_789_additional_1_2 = '1') AS count_val1_r_t_ins_789_additional_1_2, SUM(b.r_t_ins_789_additional_1_2 = '2') AS count_val2_r_t_ins_789_additional_1_2,SUM(b.r_t_ins_789_additional_1_2 = '3') AS count_val3_r_t_ins_789_additional_1_2,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D42" s="14" t="str">
+        <f t="shared" ref="D42" si="18">CONCATENATE("SUM(b.",A42," = '1') AS count_val1_",A42,", SUM(b.",A42," = '2') AS count_val2_",A42,",")</f>
+        <v>SUM(b.r_t_ins_789_additional_2_1 = '1') AS count_val1_r_t_ins_789_additional_2_1, SUM(b.r_t_ins_789_additional_2_1 = '2') AS count_val2_r_t_ins_789_additional_2_1,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" ref="D43" si="19">CONCATENATE("SUM(b.",A43," = '1') AS count_val1_",A43,", SUM(b.",A43," = '2') AS count_val2_",A43,",", "SUM(b.",A43," = '3') AS count_val3_",A43,",")</f>
+        <v>SUM(b.r_t_ins_789_additional_2_2 = '1') AS count_val1_r_t_ins_789_additional_2_2, SUM(b.r_t_ins_789_additional_2_2 = '2') AS count_val2_r_t_ins_789_additional_2_2,SUM(b.r_t_ins_789_additional_2_2 = '3') AS count_val3_r_t_ins_789_additional_2_2,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D46" s="14" t="str">
+        <f t="shared" ref="D46" si="20">CONCATENATE("SUM(b.",A46," = '1') AS count_val1_",A46,", SUM(b.",A46," = '2') AS count_val2_",A46,",")</f>
+        <v>SUM(b.r_t_ins_789_additional_3_1 = '1') AS count_val1_r_t_ins_789_additional_3_1, SUM(b.r_t_ins_789_additional_3_1 = '2') AS count_val2_r_t_ins_789_additional_3_1,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" ref="D47" si="21">CONCATENATE("SUM(b.",A47," = '1') AS count_val1_",A47,", SUM(b.",A47," = '2') AS count_val2_",A47,",", "SUM(b.",A47," = '3') AS count_val3_",A47,",")</f>
+        <v>SUM(b.r_t_ins_789_additional_3_2 = '1') AS count_val1_r_t_ins_789_additional_3_2, SUM(b.r_t_ins_789_additional_3_2 = '2') AS count_val2_r_t_ins_789_additional_3_2,SUM(b.r_t_ins_789_additional_3_2 = '3') AS count_val3_r_t_ins_789_additional_3_2,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D50" s="14" t="str">
+        <f t="shared" ref="D50" si="22">CONCATENATE("SUM(b.",A50," = '1') AS count_val1_",A50,", SUM(b.",A50," = '2') AS count_val2_",A50,",")</f>
+        <v>SUM(b.r_t_ins_101112_1_1 = '1') AS count_val1_r_t_ins_101112_1_1, SUM(b.r_t_ins_101112_1_1 = '2') AS count_val2_r_t_ins_101112_1_1,</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" ref="D51" si="23">CONCATENATE("SUM(b.",A51," = '1') AS count_val1_",A51,", SUM(b.",A51," = '2') AS count_val2_",A51,",", "SUM(b.",A51," = '3') AS count_val3_",A51,",")</f>
+        <v>SUM(b.r_t_ins_101112_1_2 = '1') AS count_val1_r_t_ins_101112_1_2, SUM(b.r_t_ins_101112_1_2 = '2') AS count_val2_r_t_ins_101112_1_2,SUM(b.r_t_ins_101112_1_2 = '3') AS count_val3_r_t_ins_101112_1_2,</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D54" s="14" t="str">
+        <f t="shared" ref="D54" si="24">CONCATENATE("SUM(b.",A54," = '1') AS count_val1_",A54,", SUM(b.",A54," = '2') AS count_val2_",A54,",")</f>
+        <v>SUM(b.r_t_ins_101112_2_1 = '1') AS count_val1_r_t_ins_101112_2_1, SUM(b.r_t_ins_101112_2_1 = '2') AS count_val2_r_t_ins_101112_2_1,</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" ref="D55" si="25">CONCATENATE("SUM(b.",A55," = '1') AS count_val1_",A55,", SUM(b.",A55," = '2') AS count_val2_",A55,",", "SUM(b.",A55," = '3') AS count_val3_",A55,",")</f>
+        <v>SUM(b.r_t_ins_101112_2_2 = '1') AS count_val1_r_t_ins_101112_2_2, SUM(b.r_t_ins_101112_2_2 = '2') AS count_val2_r_t_ins_101112_2_2,SUM(b.r_t_ins_101112_2_2 = '3') AS count_val3_r_t_ins_101112_2_2,</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D58" s="14" t="str">
+        <f t="shared" ref="D58" si="26">CONCATENATE("SUM(b.",A58," = '1') AS count_val1_",A58,", SUM(b.",A58," = '2') AS count_val2_",A58,",")</f>
+        <v>SUM(b.r_t_ins_101112_3_1 = '1') AS count_val1_r_t_ins_101112_3_1, SUM(b.r_t_ins_101112_3_1 = '2') AS count_val2_r_t_ins_101112_3_1,</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" ref="D59" si="27">CONCATENATE("SUM(b.",A59," = '1') AS count_val1_",A59,", SUM(b.",A59," = '2') AS count_val2_",A59,",", "SUM(b.",A59," = '3') AS count_val3_",A59,",")</f>
+        <v>SUM(b.r_t_ins_101112_3_2 = '1') AS count_val1_r_t_ins_101112_3_2, SUM(b.r_t_ins_101112_3_2 = '2') AS count_val2_r_t_ins_101112_3_2,SUM(b.r_t_ins_101112_3_2 = '3') AS count_val3_r_t_ins_101112_3_2,</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D62" s="14" t="str">
+        <f t="shared" ref="D62" si="28">CONCATENATE("SUM(b.",A62," = '1') AS count_val1_",A62,", SUM(b.",A62," = '2') AS count_val2_",A62,",")</f>
+        <v>SUM(b.r_t_ins_101112_4_1 = '1') AS count_val1_r_t_ins_101112_4_1, SUM(b.r_t_ins_101112_4_1 = '2') AS count_val2_r_t_ins_101112_4_1,</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" ref="D63" si="29">CONCATENATE("SUM(b.",A63," = '1') AS count_val1_",A63,", SUM(b.",A63," = '2') AS count_val2_",A63,",", "SUM(b.",A63," = '3') AS count_val3_",A63,",")</f>
+        <v>SUM(b.r_t_ins_101112_4_2 = '1') AS count_val1_r_t_ins_101112_4_2, SUM(b.r_t_ins_101112_4_2 = '2') AS count_val2_r_t_ins_101112_4_2,SUM(b.r_t_ins_101112_4_2 = '3') AS count_val3_r_t_ins_101112_4_2,</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D66" s="14" t="str">
+        <f t="shared" ref="D66" si="30">CONCATENATE("SUM(b.",A66," = '1') AS count_val1_",A66,", SUM(b.",A66," = '2') AS count_val2_",A66,",")</f>
+        <v>SUM(b.r_t_ins_101112_5_1 = '1') AS count_val1_r_t_ins_101112_5_1, SUM(b.r_t_ins_101112_5_1 = '2') AS count_val2_r_t_ins_101112_5_1,</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67" si="31">CONCATENATE("SUM(b.",A67," = '1') AS count_val1_",A67,", SUM(b.",A67," = '2') AS count_val2_",A67,",", "SUM(b.",A67," = '3') AS count_val3_",A67,",")</f>
+        <v>SUM(b.r_t_ins_101112_5_2 = '1') AS count_val1_r_t_ins_101112_5_2, SUM(b.r_t_ins_101112_5_2 = '2') AS count_val2_r_t_ins_101112_5_2,SUM(b.r_t_ins_101112_5_2 = '3') AS count_val3_r_t_ins_101112_5_2,</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+      <selection activeCell="D2" sqref="D2:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7496,7 +9687,7 @@
         <v>1212</v>
       </c>
       <c r="D6" s="14" t="str">
-        <f t="shared" ref="D6:D41" si="0">CONCATENATE("SUM(b.",A6," = '1') AS count_val1_",A6,", SUM(b.",A6," = '2') AS count_val2_",A6,",")</f>
+        <f t="shared" ref="D6" si="0">CONCATENATE("SUM(b.",A6," = '1') AS count_val1_",A6,", SUM(b.",A6," = '2') AS count_val2_",A6,",")</f>
         <v>SUM(b.r_d_3_1_1 = '1') AS count_val1_r_d_3_1_1, SUM(b.r_d_3_1_1 = '2') AS count_val2_r_d_3_1_1,</v>
       </c>
     </row>
@@ -7511,7 +9702,7 @@
         <v>1212</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" ref="D7:D41" si="1">CONCATENATE("SUM(b.",A7," = '1') AS count_val1_",A7,", SUM(b.",A7," = '2') AS count_val2_",A7,",", "SUM(b.",A7," = '3') AS count_val3_",A7,",")</f>
+        <f t="shared" ref="D7" si="1">CONCATENATE("SUM(b.",A7," = '1') AS count_val1_",A7,", SUM(b.",A7," = '2') AS count_val2_",A7,",", "SUM(b.",A7," = '3') AS count_val3_",A7,",")</f>
         <v>SUM(b.r_d_3_1_2 = '1') AS count_val1_r_d_3_1_2, SUM(b.r_d_3_1_2 = '2') AS count_val2_r_d_3_1_2,SUM(b.r_d_3_1_2 = '3') AS count_val3_r_d_3_1_2,</v>
       </c>
     </row>
@@ -7550,7 +9741,7 @@
         <v>1212</v>
       </c>
       <c r="D10" s="14" t="str">
-        <f t="shared" ref="D10:D41" si="2">CONCATENATE("SUM(b.",A10," = '1') AS count_val1_",A10,", SUM(b.",A10," = '2') AS count_val2_",A10,",")</f>
+        <f t="shared" ref="D10" si="2">CONCATENATE("SUM(b.",A10," = '1') AS count_val1_",A10,", SUM(b.",A10," = '2') AS count_val2_",A10,",")</f>
         <v>SUM(b.r_d_5_1_1 = '1') AS count_val1_r_d_5_1_1, SUM(b.r_d_5_1_1 = '2') AS count_val2_r_d_5_1_1,</v>
       </c>
     </row>
@@ -7565,7 +9756,7 @@
         <v>1212</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" ref="D11:D41" si="3">CONCATENATE("SUM(b.",A11," = '1') AS count_val1_",A11,", SUM(b.",A11," = '2') AS count_val2_",A11,",", "SUM(b.",A11," = '3') AS count_val3_",A11,",")</f>
+        <f t="shared" ref="D11" si="3">CONCATENATE("SUM(b.",A11," = '1') AS count_val1_",A11,", SUM(b.",A11," = '2') AS count_val2_",A11,",", "SUM(b.",A11," = '3') AS count_val3_",A11,",")</f>
         <v>SUM(b.r_d_5_1_2 = '1') AS count_val1_r_d_5_1_2, SUM(b.r_d_5_1_2 = '2') AS count_val2_r_d_5_1_2,SUM(b.r_d_5_1_2 = '3') AS count_val3_r_d_5_1_2,</v>
       </c>
     </row>
@@ -7604,7 +9795,7 @@
         <v>1212</v>
       </c>
       <c r="D14" s="14" t="str">
-        <f t="shared" ref="D14:D41" si="4">CONCATENATE("SUM(b.",A14," = '1') AS count_val1_",A14,", SUM(b.",A14," = '2') AS count_val2_",A14,",")</f>
+        <f t="shared" ref="D14" si="4">CONCATENATE("SUM(b.",A14," = '1') AS count_val1_",A14,", SUM(b.",A14," = '2') AS count_val2_",A14,",")</f>
         <v>SUM(b.r_d_6_1_1 = '1') AS count_val1_r_d_6_1_1, SUM(b.r_d_6_1_1 = '2') AS count_val2_r_d_6_1_1,</v>
       </c>
     </row>
@@ -7619,7 +9810,7 @@
         <v>1212</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" ref="D15:D41" si="5">CONCATENATE("SUM(b.",A15," = '1') AS count_val1_",A15,", SUM(b.",A15," = '2') AS count_val2_",A15,",", "SUM(b.",A15," = '3') AS count_val3_",A15,",")</f>
+        <f t="shared" ref="D15" si="5">CONCATENATE("SUM(b.",A15," = '1') AS count_val1_",A15,", SUM(b.",A15," = '2') AS count_val2_",A15,",", "SUM(b.",A15," = '3') AS count_val3_",A15,",")</f>
         <v>SUM(b.r_d_6_1_2 = '1') AS count_val1_r_d_6_1_2, SUM(b.r_d_6_1_2 = '2') AS count_val2_r_d_6_1_2,SUM(b.r_d_6_1_2 = '3') AS count_val3_r_d_6_1_2,</v>
       </c>
     </row>
@@ -7658,7 +9849,7 @@
         <v>1212</v>
       </c>
       <c r="D18" s="14" t="str">
-        <f t="shared" ref="D18:D41" si="6">CONCATENATE("SUM(b.",A18," = '1') AS count_val1_",A18,", SUM(b.",A18," = '2') AS count_val2_",A18,",")</f>
+        <f t="shared" ref="D18" si="6">CONCATENATE("SUM(b.",A18," = '1') AS count_val1_",A18,", SUM(b.",A18," = '2') AS count_val2_",A18,",")</f>
         <v>SUM(b.r_d_8_1_1 = '1') AS count_val1_r_d_8_1_1, SUM(b.r_d_8_1_1 = '2') AS count_val2_r_d_8_1_1,</v>
       </c>
     </row>
@@ -7673,7 +9864,7 @@
         <v>1212</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" ref="D19:D41" si="7">CONCATENATE("SUM(b.",A19," = '1') AS count_val1_",A19,", SUM(b.",A19," = '2') AS count_val2_",A19,",", "SUM(b.",A19," = '3') AS count_val3_",A19,",")</f>
+        <f t="shared" ref="D19" si="7">CONCATENATE("SUM(b.",A19," = '1') AS count_val1_",A19,", SUM(b.",A19," = '2') AS count_val2_",A19,",", "SUM(b.",A19," = '3') AS count_val3_",A19,",")</f>
         <v>SUM(b.r_d_8_1_2 = '1') AS count_val1_r_d_8_1_2, SUM(b.r_d_8_1_2 = '2') AS count_val2_r_d_8_1_2,SUM(b.r_d_8_1_2 = '3') AS count_val3_r_d_8_1_2,</v>
       </c>
     </row>
@@ -7712,7 +9903,7 @@
         <v>1212</v>
       </c>
       <c r="D22" s="14" t="str">
-        <f t="shared" ref="D22:D41" si="8">CONCATENATE("SUM(b.",A22," = '1') AS count_val1_",A22,", SUM(b.",A22," = '2') AS count_val2_",A22,",")</f>
+        <f t="shared" ref="D22" si="8">CONCATENATE("SUM(b.",A22," = '1') AS count_val1_",A22,", SUM(b.",A22," = '2') AS count_val2_",A22,",")</f>
         <v>SUM(b.r_d_9_1_1 = '1') AS count_val1_r_d_9_1_1, SUM(b.r_d_9_1_1 = '2') AS count_val2_r_d_9_1_1,</v>
       </c>
     </row>
@@ -7727,7 +9918,7 @@
         <v>1212</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" ref="D23:D41" si="9">CONCATENATE("SUM(b.",A23," = '1') AS count_val1_",A23,", SUM(b.",A23," = '2') AS count_val2_",A23,",", "SUM(b.",A23," = '3') AS count_val3_",A23,",")</f>
+        <f t="shared" ref="D23" si="9">CONCATENATE("SUM(b.",A23," = '1') AS count_val1_",A23,", SUM(b.",A23," = '2') AS count_val2_",A23,",", "SUM(b.",A23," = '3') AS count_val3_",A23,",")</f>
         <v>SUM(b.r_d_9_1_2 = '1') AS count_val1_r_d_9_1_2, SUM(b.r_d_9_1_2 = '2') AS count_val2_r_d_9_1_2,SUM(b.r_d_9_1_2 = '3') AS count_val3_r_d_9_1_2,</v>
       </c>
     </row>
@@ -7766,7 +9957,7 @@
         <v>1212</v>
       </c>
       <c r="D26" s="14" t="str">
-        <f t="shared" ref="D26:D41" si="10">CONCATENATE("SUM(b.",A26," = '1') AS count_val1_",A26,", SUM(b.",A26," = '2') AS count_val2_",A26,",")</f>
+        <f t="shared" ref="D26" si="10">CONCATENATE("SUM(b.",A26," = '1') AS count_val1_",A26,", SUM(b.",A26," = '2') AS count_val2_",A26,",")</f>
         <v>SUM(b.r_d_89_1_1 = '1') AS count_val1_r_d_89_1_1, SUM(b.r_d_89_1_1 = '2') AS count_val2_r_d_89_1_1,</v>
       </c>
     </row>
@@ -7781,7 +9972,7 @@
         <v>1212</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" ref="D27:D41" si="11">CONCATENATE("SUM(b.",A27," = '1') AS count_val1_",A27,", SUM(b.",A27," = '2') AS count_val2_",A27,",", "SUM(b.",A27," = '3') AS count_val3_",A27,",")</f>
+        <f t="shared" ref="D27" si="11">CONCATENATE("SUM(b.",A27," = '1') AS count_val1_",A27,", SUM(b.",A27," = '2') AS count_val2_",A27,",", "SUM(b.",A27," = '3') AS count_val3_",A27,",")</f>
         <v>SUM(b.r_d_89_1_2 = '1') AS count_val1_r_d_89_1_2, SUM(b.r_d_89_1_2 = '2') AS count_val2_r_d_89_1_2,SUM(b.r_d_89_1_2 = '3') AS count_val3_r_d_89_1_2,</v>
       </c>
     </row>
@@ -7820,7 +10011,7 @@
         <v>1212</v>
       </c>
       <c r="D30" s="14" t="str">
-        <f t="shared" ref="D30:D41" si="12">CONCATENATE("SUM(b.",A30," = '1') AS count_val1_",A30,", SUM(b.",A30," = '2') AS count_val2_",A30,",")</f>
+        <f t="shared" ref="D30" si="12">CONCATENATE("SUM(b.",A30," = '1') AS count_val1_",A30,", SUM(b.",A30," = '2') AS count_val2_",A30,",")</f>
         <v>SUM(b.r_d_101112_1_1 = '1') AS count_val1_r_d_101112_1_1, SUM(b.r_d_101112_1_1 = '2') AS count_val2_r_d_101112_1_1,</v>
       </c>
     </row>
@@ -7835,7 +10026,7 @@
         <v>1212</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" ref="D31:D41" si="13">CONCATENATE("SUM(b.",A31," = '1') AS count_val1_",A31,", SUM(b.",A31," = '2') AS count_val2_",A31,",", "SUM(b.",A31," = '3') AS count_val3_",A31,",")</f>
+        <f t="shared" ref="D31" si="13">CONCATENATE("SUM(b.",A31," = '1') AS count_val1_",A31,", SUM(b.",A31," = '2') AS count_val2_",A31,",", "SUM(b.",A31," = '3') AS count_val3_",A31,",")</f>
         <v>SUM(b.r_d_101112_1_2 = '1') AS count_val1_r_d_101112_1_2, SUM(b.r_d_101112_1_2 = '2') AS count_val2_r_d_101112_1_2,SUM(b.r_d_101112_1_2 = '3') AS count_val3_r_d_101112_1_2,</v>
       </c>
     </row>
@@ -7874,7 +10065,7 @@
         <v>1212</v>
       </c>
       <c r="D34" s="14" t="str">
-        <f t="shared" ref="D34:D41" si="14">CONCATENATE("SUM(b.",A34," = '1') AS count_val1_",A34,", SUM(b.",A34," = '2') AS count_val2_",A34,",")</f>
+        <f t="shared" ref="D34" si="14">CONCATENATE("SUM(b.",A34," = '1') AS count_val1_",A34,", SUM(b.",A34," = '2') AS count_val2_",A34,",")</f>
         <v>SUM(b.r_d_101112_2_1 = '1') AS count_val1_r_d_101112_2_1, SUM(b.r_d_101112_2_1 = '2') AS count_val2_r_d_101112_2_1,</v>
       </c>
     </row>
@@ -7889,7 +10080,7 @@
         <v>1212</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" ref="D35:D41" si="15">CONCATENATE("SUM(b.",A35," = '1') AS count_val1_",A35,", SUM(b.",A35," = '2') AS count_val2_",A35,",", "SUM(b.",A35," = '3') AS count_val3_",A35,",")</f>
+        <f t="shared" ref="D35" si="15">CONCATENATE("SUM(b.",A35," = '1') AS count_val1_",A35,", SUM(b.",A35," = '2') AS count_val2_",A35,",", "SUM(b.",A35," = '3') AS count_val3_",A35,",")</f>
         <v>SUM(b.r_d_101112_2_2 = '1') AS count_val1_r_d_101112_2_2, SUM(b.r_d_101112_2_2 = '2') AS count_val2_r_d_101112_2_2,SUM(b.r_d_101112_2_2 = '3') AS count_val3_r_d_101112_2_2,</v>
       </c>
     </row>
@@ -7928,7 +10119,7 @@
         <v>1212</v>
       </c>
       <c r="D38" s="14" t="str">
-        <f t="shared" ref="D38:D41" si="16">CONCATENATE("SUM(b.",A38," = '1') AS count_val1_",A38,", SUM(b.",A38," = '2') AS count_val2_",A38,",")</f>
+        <f t="shared" ref="D38" si="16">CONCATENATE("SUM(b.",A38," = '1') AS count_val1_",A38,", SUM(b.",A38," = '2') AS count_val2_",A38,",")</f>
         <v>SUM(b.r_d_all_1_1 = '1') AS count_val1_r_d_all_1_1, SUM(b.r_d_all_1_1 = '2') AS count_val2_r_d_all_1_1,</v>
       </c>
     </row>
@@ -7943,7 +10134,7 @@
         <v>1212</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" ref="D39:D41" si="17">CONCATENATE("SUM(b.",A39," = '1') AS count_val1_",A39,", SUM(b.",A39," = '2') AS count_val2_",A39,",", "SUM(b.",A39," = '3') AS count_val3_",A39,",")</f>
+        <f t="shared" ref="D39" si="17">CONCATENATE("SUM(b.",A39," = '1') AS count_val1_",A39,", SUM(b.",A39," = '2') AS count_val2_",A39,",", "SUM(b.",A39," = '3') AS count_val3_",A39,",")</f>
         <v>SUM(b.r_d_all_1_2 = '1') AS count_val1_r_d_all_1_2, SUM(b.r_d_all_1_2 = '2') AS count_val2_r_d_all_1_2,SUM(b.r_d_all_1_2 = '3') AS count_val3_r_d_all_1_2,</v>
       </c>
     </row>
@@ -7976,7 +10167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -8066,7 +10257,7 @@
         <v>1212</v>
       </c>
       <c r="D6" s="14" t="str">
-        <f t="shared" ref="D6:D29" si="0">CONCATENATE("SUM(b.",A6," = '1') AS count_val1_",A6,", SUM(b.",A6," = '2') AS count_val2_",A6,",")</f>
+        <f t="shared" ref="D6" si="0">CONCATENATE("SUM(b.",A6," = '1') AS count_val1_",A6,", SUM(b.",A6," = '2') AS count_val2_",A6,",")</f>
         <v>SUM(b.r_d_ins_3_1_1 = '1') AS count_val1_r_d_ins_3_1_1, SUM(b.r_d_ins_3_1_1 = '2') AS count_val2_r_d_ins_3_1_1,</v>
       </c>
     </row>
@@ -8081,7 +10272,7 @@
         <v>1212</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" ref="D7:D29" si="1">CONCATENATE("SUM(b.",A7," = '1') AS count_val1_",A7,", SUM(b.",A7," = '2') AS count_val2_",A7,",", "SUM(b.",A7," = '3') AS count_val3_",A7,",")</f>
+        <f t="shared" ref="D7" si="1">CONCATENATE("SUM(b.",A7," = '1') AS count_val1_",A7,", SUM(b.",A7," = '2') AS count_val2_",A7,",", "SUM(b.",A7," = '3') AS count_val3_",A7,",")</f>
         <v>SUM(b.r_d_ins_3_1_2 = '1') AS count_val1_r_d_ins_3_1_2, SUM(b.r_d_ins_3_1_2 = '2') AS count_val2_r_d_ins_3_1_2,SUM(b.r_d_ins_3_1_2 = '3') AS count_val3_r_d_ins_3_1_2,</v>
       </c>
     </row>
@@ -8118,7 +10309,7 @@
         <v>1212</v>
       </c>
       <c r="D10" s="14" t="str">
-        <f t="shared" ref="D10:D29" si="2">CONCATENATE("SUM(b.",A10," = '1') AS count_val1_",A10,", SUM(b.",A10," = '2') AS count_val2_",A10,",")</f>
+        <f t="shared" ref="D10" si="2">CONCATENATE("SUM(b.",A10," = '1') AS count_val1_",A10,", SUM(b.",A10," = '2') AS count_val2_",A10,",")</f>
         <v>SUM(b.r_d_ins_5_1_1 = '1') AS count_val1_r_d_ins_5_1_1, SUM(b.r_d_ins_5_1_1 = '2') AS count_val2_r_d_ins_5_1_1,</v>
       </c>
     </row>
@@ -8133,7 +10324,7 @@
         <v>1212</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" ref="D11:D29" si="3">CONCATENATE("SUM(b.",A11," = '1') AS count_val1_",A11,", SUM(b.",A11," = '2') AS count_val2_",A11,",", "SUM(b.",A11," = '3') AS count_val3_",A11,",")</f>
+        <f t="shared" ref="D11" si="3">CONCATENATE("SUM(b.",A11," = '1') AS count_val1_",A11,", SUM(b.",A11," = '2') AS count_val2_",A11,",", "SUM(b.",A11," = '3') AS count_val3_",A11,",")</f>
         <v>SUM(b.r_d_ins_5_1_2 = '1') AS count_val1_r_d_ins_5_1_2, SUM(b.r_d_ins_5_1_2 = '2') AS count_val2_r_d_ins_5_1_2,SUM(b.r_d_ins_5_1_2 = '3') AS count_val3_r_d_ins_5_1_2,</v>
       </c>
     </row>
@@ -8170,7 +10361,7 @@
         <v>1212</v>
       </c>
       <c r="D14" s="14" t="str">
-        <f t="shared" ref="D14:D29" si="4">CONCATENATE("SUM(b.",A14," = '1') AS count_val1_",A14,", SUM(b.",A14," = '2') AS count_val2_",A14,",")</f>
+        <f t="shared" ref="D14" si="4">CONCATENATE("SUM(b.",A14," = '1') AS count_val1_",A14,", SUM(b.",A14," = '2') AS count_val2_",A14,",")</f>
         <v>SUM(b.r_d_ins_6_1_1 = '1') AS count_val1_r_d_ins_6_1_1, SUM(b.r_d_ins_6_1_1 = '2') AS count_val2_r_d_ins_6_1_1,</v>
       </c>
     </row>
@@ -8185,7 +10376,7 @@
         <v>1212</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" ref="D15:D29" si="5">CONCATENATE("SUM(b.",A15," = '1') AS count_val1_",A15,", SUM(b.",A15," = '2') AS count_val2_",A15,",", "SUM(b.",A15," = '3') AS count_val3_",A15,",")</f>
+        <f t="shared" ref="D15" si="5">CONCATENATE("SUM(b.",A15," = '1') AS count_val1_",A15,", SUM(b.",A15," = '2') AS count_val2_",A15,",", "SUM(b.",A15," = '3') AS count_val3_",A15,",")</f>
         <v>SUM(b.r_d_ins_6_1_2 = '1') AS count_val1_r_d_ins_6_1_2, SUM(b.r_d_ins_6_1_2 = '2') AS count_val2_r_d_ins_6_1_2,SUM(b.r_d_ins_6_1_2 = '3') AS count_val3_r_d_ins_6_1_2,</v>
       </c>
     </row>
@@ -8222,7 +10413,7 @@
         <v>1212</v>
       </c>
       <c r="D18" s="14" t="str">
-        <f t="shared" ref="D18:D29" si="6">CONCATENATE("SUM(b.",A18," = '1') AS count_val1_",A18,", SUM(b.",A18," = '2') AS count_val2_",A18,",")</f>
+        <f t="shared" ref="D18" si="6">CONCATENATE("SUM(b.",A18," = '1') AS count_val1_",A18,", SUM(b.",A18," = '2') AS count_val2_",A18,",")</f>
         <v>SUM(b.r_d_ins_8_1_1 = '1') AS count_val1_r_d_ins_8_1_1, SUM(b.r_d_ins_8_1_1 = '2') AS count_val2_r_d_ins_8_1_1,</v>
       </c>
     </row>
@@ -8237,7 +10428,7 @@
         <v>1212</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" ref="D19:D29" si="7">CONCATENATE("SUM(b.",A19," = '1') AS count_val1_",A19,", SUM(b.",A19," = '2') AS count_val2_",A19,",", "SUM(b.",A19," = '3') AS count_val3_",A19,",")</f>
+        <f t="shared" ref="D19" si="7">CONCATENATE("SUM(b.",A19," = '1') AS count_val1_",A19,", SUM(b.",A19," = '2') AS count_val2_",A19,",", "SUM(b.",A19," = '3') AS count_val3_",A19,",")</f>
         <v>SUM(b.r_d_ins_8_1_2 = '1') AS count_val1_r_d_ins_8_1_2, SUM(b.r_d_ins_8_1_2 = '2') AS count_val2_r_d_ins_8_1_2,SUM(b.r_d_ins_8_1_2 = '3') AS count_val3_r_d_ins_8_1_2,</v>
       </c>
     </row>
@@ -8274,7 +10465,7 @@
         <v>1212</v>
       </c>
       <c r="D22" s="14" t="str">
-        <f t="shared" ref="D22:D29" si="8">CONCATENATE("SUM(b.",A22," = '1') AS count_val1_",A22,", SUM(b.",A22," = '2') AS count_val2_",A22,",")</f>
+        <f t="shared" ref="D22" si="8">CONCATENATE("SUM(b.",A22," = '1') AS count_val1_",A22,", SUM(b.",A22," = '2') AS count_val2_",A22,",")</f>
         <v>SUM(b.r_d_ins_9_1_1 = '1') AS count_val1_r_d_ins_9_1_1, SUM(b.r_d_ins_9_1_1 = '2') AS count_val2_r_d_ins_9_1_1,</v>
       </c>
     </row>
@@ -8289,7 +10480,7 @@
         <v>1212</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" ref="D23:D29" si="9">CONCATENATE("SUM(b.",A23," = '1') AS count_val1_",A23,", SUM(b.",A23," = '2') AS count_val2_",A23,",", "SUM(b.",A23," = '3') AS count_val3_",A23,",")</f>
+        <f t="shared" ref="D23" si="9">CONCATENATE("SUM(b.",A23," = '1') AS count_val1_",A23,", SUM(b.",A23," = '2') AS count_val2_",A23,",", "SUM(b.",A23," = '3') AS count_val3_",A23,",")</f>
         <v>SUM(b.r_d_ins_9_1_2 = '1') AS count_val1_r_d_ins_9_1_2, SUM(b.r_d_ins_9_1_2 = '2') AS count_val2_r_d_ins_9_1_2,SUM(b.r_d_ins_9_1_2 = '3') AS count_val3_r_d_ins_9_1_2,</v>
       </c>
     </row>
@@ -8326,7 +10517,7 @@
         <v>1212</v>
       </c>
       <c r="D26" s="14" t="str">
-        <f t="shared" ref="D26:D29" si="10">CONCATENATE("SUM(b.",A26," = '1') AS count_val1_",A26,", SUM(b.",A26," = '2') AS count_val2_",A26,",")</f>
+        <f t="shared" ref="D26" si="10">CONCATENATE("SUM(b.",A26," = '1') AS count_val1_",A26,", SUM(b.",A26," = '2') AS count_val2_",A26,",")</f>
         <v>SUM(b.r_d_ins_101112_1_1 = '1') AS count_val1_r_d_ins_101112_1_1, SUM(b.r_d_ins_101112_1_1 = '2') AS count_val2_r_d_ins_101112_1_1,</v>
       </c>
     </row>
@@ -8341,7 +10532,7 @@
         <v>1212</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" ref="D27:D29" si="11">CONCATENATE("SUM(b.",A27," = '1') AS count_val1_",A27,", SUM(b.",A27," = '2') AS count_val2_",A27,",", "SUM(b.",A27," = '3') AS count_val3_",A27,",")</f>
+        <f t="shared" ref="D27" si="11">CONCATENATE("SUM(b.",A27," = '1') AS count_val1_",A27,", SUM(b.",A27," = '2') AS count_val2_",A27,",", "SUM(b.",A27," = '3') AS count_val3_",A27,",")</f>
         <v>SUM(b.r_d_ins_101112_1_2 = '1') AS count_val1_r_d_ins_101112_1_2, SUM(b.r_d_ins_101112_1_2 = '2') AS count_val2_r_d_ins_101112_1_2,SUM(b.r_d_ins_101112_1_2 = '3') AS count_val3_r_d_ins_101112_1_2,</v>
       </c>
     </row>
@@ -8364,2197 +10555,6 @@
         <v>1215</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D93"/>
-  <sheetViews>
-    <sheetView topLeftCell="C74" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D93"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.85546875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="115.5703125" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>622</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D2" s="14" t="str">
-        <f>CONCATENATE("SUM(b.",A2," = '1') AS count_val1_",A2,", SUM(b.",A2," = '2') AS count_val2_",A2,",")</f>
-        <v>SUM(b.r_t_1_1_1 = '1') AS count_val1_r_t_1_1_1, SUM(b.r_t_1_1_1 = '2') AS count_val2_r_t_1_1_1,</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D3" t="str">
-        <f>CONCATENATE("SUM(b.",A3," = '1') AS count_val1_",A3,", SUM(b.",A3," = '2') AS count_val2_",A3,",", "SUM(b.",A3," = '3') AS count_val3_",A3,",")</f>
-        <v>SUM(b.r_t_1_1_2 = '1') AS count_val1_r_t_1_1_2, SUM(b.r_t_1_1_2 = '2') AS count_val2_r_t_1_1_2,SUM(b.r_t_1_1_2 = '3') AS count_val3_r_t_1_1_2,</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D6" s="14" t="str">
-        <f t="shared" ref="D6:D37" si="0">CONCATENATE("SUM(b.",A6," = '1') AS count_val1_",A6,", SUM(b.",A6," = '2') AS count_val2_",A6,",")</f>
-        <v>SUM(b.r_t_1_2_1 = '1') AS count_val1_r_t_1_2_1, SUM(b.r_t_1_2_1 = '2') AS count_val2_r_t_1_2_1,</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>627</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" ref="D7:D38" si="1">CONCATENATE("SUM(b.",A7," = '1') AS count_val1_",A7,", SUM(b.",A7," = '2') AS count_val2_",A7,",", "SUM(b.",A7," = '3') AS count_val3_",A7,",")</f>
-        <v>SUM(b.r_t_1_2_2 = '1') AS count_val1_r_t_1_2_2, SUM(b.r_t_1_2_2 = '2') AS count_val2_r_t_1_2_2,SUM(b.r_t_1_2_2 = '3') AS count_val3_r_t_1_2_2,</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>628</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>629</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>646</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D10" s="14" t="str">
-        <f t="shared" ref="D10:D41" si="2">CONCATENATE("SUM(b.",A10," = '1') AS count_val1_",A10,", SUM(b.",A10," = '2') AS count_val2_",A10,",")</f>
-        <v>SUM(b.r_t_2_1_1 = '1') AS count_val1_r_t_2_1_1, SUM(b.r_t_2_1_1 = '2') AS count_val2_r_t_2_1_1,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" ref="D11:D42" si="3">CONCATENATE("SUM(b.",A11," = '1') AS count_val1_",A11,", SUM(b.",A11," = '2') AS count_val2_",A11,",", "SUM(b.",A11," = '3') AS count_val3_",A11,",")</f>
-        <v>SUM(b.r_t_2_1_2 = '1') AS count_val1_r_t_2_1_2, SUM(b.r_t_2_1_2 = '2') AS count_val2_r_t_2_1_2,SUM(b.r_t_2_1_2 = '3') AS count_val3_r_t_2_1_2,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>648</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D12"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>649</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D13"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>650</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D14" s="14" t="str">
-        <f t="shared" ref="D14:D45" si="4">CONCATENATE("SUM(b.",A14," = '1') AS count_val1_",A14,", SUM(b.",A14," = '2') AS count_val2_",A14,",")</f>
-        <v>SUM(b.r_t_2_2_1 = '1') AS count_val1_r_t_2_2_1, SUM(b.r_t_2_2_1 = '2') AS count_val2_r_t_2_2_1,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>651</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" ref="D15:D46" si="5">CONCATENATE("SUM(b.",A15," = '1') AS count_val1_",A15,", SUM(b.",A15," = '2') AS count_val2_",A15,",", "SUM(b.",A15," = '3') AS count_val3_",A15,",")</f>
-        <v>SUM(b.r_t_2_2_2 = '1') AS count_val1_r_t_2_2_2, SUM(b.r_t_2_2_2 = '2') AS count_val2_r_t_2_2_2,SUM(b.r_t_2_2_2 = '3') AS count_val3_r_t_2_2_2,</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>652</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>653</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>662</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D18" s="14" t="str">
-        <f t="shared" ref="D18:D49" si="6">CONCATENATE("SUM(b.",A18," = '1') AS count_val1_",A18,", SUM(b.",A18," = '2') AS count_val2_",A18,",")</f>
-        <v>SUM(b.r_t_3_1_1 = '1') AS count_val1_r_t_3_1_1, SUM(b.r_t_3_1_1 = '2') AS count_val2_r_t_3_1_1,</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>663</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" ref="D19:D50" si="7">CONCATENATE("SUM(b.",A19," = '1') AS count_val1_",A19,", SUM(b.",A19," = '2') AS count_val2_",A19,",", "SUM(b.",A19," = '3') AS count_val3_",A19,",")</f>
-        <v>SUM(b.r_t_3_1_2 = '1') AS count_val1_r_t_3_1_2, SUM(b.r_t_3_1_2 = '2') AS count_val2_r_t_3_1_2,SUM(b.r_t_3_1_2 = '3') AS count_val3_r_t_3_1_2,</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>664</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>665</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D21"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>666</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D22" s="14" t="str">
-        <f t="shared" ref="D22:D53" si="8">CONCATENATE("SUM(b.",A22," = '1') AS count_val1_",A22,", SUM(b.",A22," = '2') AS count_val2_",A22,",")</f>
-        <v>SUM(b.r_t_3_2_1 = '1') AS count_val1_r_t_3_2_1, SUM(b.r_t_3_2_1 = '2') AS count_val2_r_t_3_2_1,</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>667</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" ref="D23:D54" si="9">CONCATENATE("SUM(b.",A23," = '1') AS count_val1_",A23,", SUM(b.",A23," = '2') AS count_val2_",A23,",", "SUM(b.",A23," = '3') AS count_val3_",A23,",")</f>
-        <v>SUM(b.r_t_3_2_2 = '1') AS count_val1_r_t_3_2_2, SUM(b.r_t_3_2_2 = '2') AS count_val2_r_t_3_2_2,SUM(b.r_t_3_2_2 = '3') AS count_val3_r_t_3_2_2,</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>668</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>669</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D25"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>678</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D26" s="14" t="str">
-        <f t="shared" ref="D26:D57" si="10">CONCATENATE("SUM(b.",A26," = '1') AS count_val1_",A26,", SUM(b.",A26," = '2') AS count_val2_",A26,",")</f>
-        <v>SUM(b.r_t_4_1_1 = '1') AS count_val1_r_t_4_1_1, SUM(b.r_t_4_1_1 = '2') AS count_val2_r_t_4_1_1,</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" ref="D27:D58" si="11">CONCATENATE("SUM(b.",A27," = '1') AS count_val1_",A27,", SUM(b.",A27," = '2') AS count_val2_",A27,",", "SUM(b.",A27," = '3') AS count_val3_",A27,",")</f>
-        <v>SUM(b.r_t_4_1_2 = '1') AS count_val1_r_t_4_1_2, SUM(b.r_t_4_1_2 = '2') AS count_val2_r_t_4_1_2,SUM(b.r_t_4_1_2 = '3') AS count_val3_r_t_4_1_2,</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>680</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>681</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D29"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>682</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D30" s="14" t="str">
-        <f t="shared" ref="D30:D61" si="12">CONCATENATE("SUM(b.",A30," = '1') AS count_val1_",A30,", SUM(b.",A30," = '2') AS count_val2_",A30,",")</f>
-        <v>SUM(b.r_t_4_2_1 = '1') AS count_val1_r_t_4_2_1, SUM(b.r_t_4_2_1 = '2') AS count_val2_r_t_4_2_1,</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>683</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" ref="D31:D62" si="13">CONCATENATE("SUM(b.",A31," = '1') AS count_val1_",A31,", SUM(b.",A31," = '2') AS count_val2_",A31,",", "SUM(b.",A31," = '3') AS count_val3_",A31,",")</f>
-        <v>SUM(b.r_t_4_2_2 = '1') AS count_val1_r_t_4_2_2, SUM(b.r_t_4_2_2 = '2') AS count_val2_r_t_4_2_2,SUM(b.r_t_4_2_2 = '3') AS count_val3_r_t_4_2_2,</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D32"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>685</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D33"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D34" s="14" t="str">
-        <f t="shared" ref="D34:D65" si="14">CONCATENATE("SUM(b.",A34," = '1') AS count_val1_",A34,", SUM(b.",A34," = '2') AS count_val2_",A34,",")</f>
-        <v>SUM(b.r_t_5_1_1 = '1') AS count_val1_r_t_5_1_1, SUM(b.r_t_5_1_1 = '2') AS count_val2_r_t_5_1_1,</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>687</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" ref="D35:D66" si="15">CONCATENATE("SUM(b.",A35," = '1') AS count_val1_",A35,", SUM(b.",A35," = '2') AS count_val2_",A35,",", "SUM(b.",A35," = '3') AS count_val3_",A35,",")</f>
-        <v>SUM(b.r_t_5_1_2 = '1') AS count_val1_r_t_5_1_2, SUM(b.r_t_5_1_2 = '2') AS count_val2_r_t_5_1_2,SUM(b.r_t_5_1_2 = '3') AS count_val3_r_t_5_1_2,</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>688</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D36"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>689</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D37"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>690</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D38" s="14" t="str">
-        <f t="shared" ref="D38:D69" si="16">CONCATENATE("SUM(b.",A38," = '1') AS count_val1_",A38,", SUM(b.",A38," = '2') AS count_val2_",A38,",")</f>
-        <v>SUM(b.r_t_5_2_1 = '1') AS count_val1_r_t_5_2_1, SUM(b.r_t_5_2_1 = '2') AS count_val2_r_t_5_2_1,</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>691</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" ref="D39:D70" si="17">CONCATENATE("SUM(b.",A39," = '1') AS count_val1_",A39,", SUM(b.",A39," = '2') AS count_val2_",A39,",", "SUM(b.",A39," = '3') AS count_val3_",A39,",")</f>
-        <v>SUM(b.r_t_5_2_2 = '1') AS count_val1_r_t_5_2_2, SUM(b.r_t_5_2_2 = '2') AS count_val2_r_t_5_2_2,SUM(b.r_t_5_2_2 = '3') AS count_val3_r_t_5_2_2,</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>692</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>693</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D41"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>703</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D42" s="14" t="str">
-        <f t="shared" ref="D42:D73" si="18">CONCATENATE("SUM(b.",A42," = '1') AS count_val1_",A42,", SUM(b.",A42," = '2') AS count_val2_",A42,",")</f>
-        <v>SUM(b.r_t_6_1_1 = '1') AS count_val1_r_t_6_1_1, SUM(b.r_t_6_1_1 = '2') AS count_val2_r_t_6_1_1,</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
-        <v>705</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D43" t="str">
-        <f t="shared" ref="D43:D74" si="19">CONCATENATE("SUM(b.",A43," = '1') AS count_val1_",A43,", SUM(b.",A43," = '2') AS count_val2_",A43,",", "SUM(b.",A43," = '3') AS count_val3_",A43,",")</f>
-        <v>SUM(b.r_t_6_1_2 = '1') AS count_val1_r_t_6_1_2, SUM(b.r_t_6_1_2 = '2') AS count_val2_r_t_6_1_2,SUM(b.r_t_6_1_2 = '3') AS count_val3_r_t_6_1_2,</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
-        <v>707</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D44"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
-        <v>709</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D45"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
-        <v>711</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D46" s="14" t="str">
-        <f t="shared" ref="D46:D93" si="20">CONCATENATE("SUM(b.",A46," = '1') AS count_val1_",A46,", SUM(b.",A46," = '2') AS count_val2_",A46,",")</f>
-        <v>SUM(b.r_t_6_2_1 = '1') AS count_val1_r_t_6_2_1, SUM(b.r_t_6_2_1 = '2') AS count_val2_r_t_6_2_1,</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
-        <v>713</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" ref="D47:D93" si="21">CONCATENATE("SUM(b.",A47," = '1') AS count_val1_",A47,", SUM(b.",A47," = '2') AS count_val2_",A47,",", "SUM(b.",A47," = '3') AS count_val3_",A47,",")</f>
-        <v>SUM(b.r_t_6_2_2 = '1') AS count_val1_r_t_6_2_2, SUM(b.r_t_6_2_2 = '2') AS count_val2_r_t_6_2_2,SUM(b.r_t_6_2_2 = '3') AS count_val3_r_t_6_2_2,</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>715</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D48"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>717</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D49"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
-        <v>718</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D50" s="14" t="str">
-        <f t="shared" ref="D50:D93" si="22">CONCATENATE("SUM(b.",A50," = '1') AS count_val1_",A50,", SUM(b.",A50," = '2') AS count_val2_",A50,",")</f>
-        <v>SUM(b.r_t_7_1_1 = '1') AS count_val1_r_t_7_1_1, SUM(b.r_t_7_1_1 = '2') AS count_val2_r_t_7_1_1,</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
-        <v>719</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D51" t="str">
-        <f t="shared" ref="D51:D93" si="23">CONCATENATE("SUM(b.",A51," = '1') AS count_val1_",A51,", SUM(b.",A51," = '2') AS count_val2_",A51,",", "SUM(b.",A51," = '3') AS count_val3_",A51,",")</f>
-        <v>SUM(b.r_t_7_1_2 = '1') AS count_val1_r_t_7_1_2, SUM(b.r_t_7_1_2 = '2') AS count_val2_r_t_7_1_2,SUM(b.r_t_7_1_2 = '3') AS count_val3_r_t_7_1_2,</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
-        <v>720</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D52"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
-        <v>721</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D53"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
-        <v>730</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D54" s="14" t="str">
-        <f t="shared" ref="D54:D93" si="24">CONCATENATE("SUM(b.",A54," = '1') AS count_val1_",A54,", SUM(b.",A54," = '2') AS count_val2_",A54,",")</f>
-        <v>SUM(b.r_t_8_1_1 = '1') AS count_val1_r_t_8_1_1, SUM(b.r_t_8_1_1 = '2') AS count_val2_r_t_8_1_1,</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
-        <v>731</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D55" t="str">
-        <f t="shared" ref="D55:D93" si="25">CONCATENATE("SUM(b.",A55," = '1') AS count_val1_",A55,", SUM(b.",A55," = '2') AS count_val2_",A55,",", "SUM(b.",A55," = '3') AS count_val3_",A55,",")</f>
-        <v>SUM(b.r_t_8_1_2 = '1') AS count_val1_r_t_8_1_2, SUM(b.r_t_8_1_2 = '2') AS count_val2_r_t_8_1_2,SUM(b.r_t_8_1_2 = '3') AS count_val3_r_t_8_1_2,</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
-        <v>732</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D56"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
-        <v>733</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D57"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
-        <v>750</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D58" s="14" t="str">
-        <f t="shared" ref="D58:D93" si="26">CONCATENATE("SUM(b.",A58," = '1') AS count_val1_",A58,", SUM(b.",A58," = '2') AS count_val2_",A58,",")</f>
-        <v>SUM(b.r_t_9_1_1 = '1') AS count_val1_r_t_9_1_1, SUM(b.r_t_9_1_1 = '2') AS count_val2_r_t_9_1_1,</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
-        <v>751</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D59" t="str">
-        <f t="shared" ref="D59:D93" si="27">CONCATENATE("SUM(b.",A59," = '1') AS count_val1_",A59,", SUM(b.",A59," = '2') AS count_val2_",A59,",", "SUM(b.",A59," = '3') AS count_val3_",A59,",")</f>
-        <v>SUM(b.r_t_9_1_2 = '1') AS count_val1_r_t_9_1_2, SUM(b.r_t_9_1_2 = '2') AS count_val2_r_t_9_1_2,SUM(b.r_t_9_1_2 = '3') AS count_val3_r_t_9_1_2,</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
-        <v>752</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D60"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
-        <v>753</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D61"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D62" s="14" t="str">
-        <f t="shared" ref="D62:D93" si="28">CONCATENATE("SUM(b.",A62," = '1') AS count_val1_",A62,", SUM(b.",A62," = '2') AS count_val2_",A62,",")</f>
-        <v>SUM(b.r_t_789_additional_1_1 = '1') AS count_val1_r_t_789_additional_1_1, SUM(b.r_t_789_additional_1_1 = '2') AS count_val2_r_t_789_additional_1_1,</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
-        <v>1457</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D63" t="str">
-        <f t="shared" ref="D63:D93" si="29">CONCATENATE("SUM(b.",A63," = '1') AS count_val1_",A63,", SUM(b.",A63," = '2') AS count_val2_",A63,",", "SUM(b.",A63," = '3') AS count_val3_",A63,",")</f>
-        <v>SUM(b.r_t_789_additional_1_2 = '1') AS count_val1_r_t_789_additional_1_2, SUM(b.r_t_789_additional_1_2 = '2') AS count_val2_r_t_789_additional_1_2,SUM(b.r_t_789_additional_1_2 = '3') AS count_val3_r_t_789_additional_1_2,</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
-        <v>1458</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D64"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D65"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
-        <v>1448</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D66" s="14" t="str">
-        <f t="shared" ref="D66:D93" si="30">CONCATENATE("SUM(b.",A66," = '1') AS count_val1_",A66,", SUM(b.",A66," = '2') AS count_val2_",A66,",")</f>
-        <v>SUM(b.r_t_789_additional_2_1 = '1') AS count_val1_r_t_789_additional_2_1, SUM(b.r_t_789_additional_2_1 = '2') AS count_val2_r_t_789_additional_2_1,</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
-        <v>1449</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D67" t="str">
-        <f t="shared" ref="D67:D93" si="31">CONCATENATE("SUM(b.",A67," = '1') AS count_val1_",A67,", SUM(b.",A67," = '2') AS count_val2_",A67,",", "SUM(b.",A67," = '3') AS count_val3_",A67,",")</f>
-        <v>SUM(b.r_t_789_additional_2_2 = '1') AS count_val1_r_t_789_additional_2_2, SUM(b.r_t_789_additional_2_2 = '2') AS count_val2_r_t_789_additional_2_2,SUM(b.r_t_789_additional_2_2 = '3') AS count_val3_r_t_789_additional_2_2,</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D68"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D69"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D70" s="14" t="str">
-        <f t="shared" ref="D70:D93" si="32">CONCATENATE("SUM(b.",A70," = '1') AS count_val1_",A70,", SUM(b.",A70," = '2') AS count_val2_",A70,",")</f>
-        <v>SUM(b.r_t_789_additional_3_1 = '1') AS count_val1_r_t_789_additional_3_1, SUM(b.r_t_789_additional_3_1 = '2') AS count_val2_r_t_789_additional_3_1,</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
-        <v>1453</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D71" t="str">
-        <f t="shared" ref="D71:D93" si="33">CONCATENATE("SUM(b.",A71," = '1') AS count_val1_",A71,", SUM(b.",A71," = '2') AS count_val2_",A71,",", "SUM(b.",A71," = '3') AS count_val3_",A71,",")</f>
-        <v>SUM(b.r_t_789_additional_3_2 = '1') AS count_val1_r_t_789_additional_3_2, SUM(b.r_t_789_additional_3_2 = '2') AS count_val2_r_t_789_additional_3_2,SUM(b.r_t_789_additional_3_2 = '3') AS count_val3_r_t_789_additional_3_2,</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D72"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
-        <v>1455</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D73"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
-        <v>1480</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D74" s="14" t="str">
-        <f t="shared" ref="D74:D93" si="34">CONCATENATE("SUM(b.",A74," = '1') AS count_val1_",A74,", SUM(b.",A74," = '2') AS count_val2_",A74,",")</f>
-        <v>SUM(b.r_t_101112_1_1 = '1') AS count_val1_r_t_101112_1_1, SUM(b.r_t_101112_1_1 = '2') AS count_val2_r_t_101112_1_1,</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
-        <v>1481</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D75" t="str">
-        <f t="shared" ref="D75:D93" si="35">CONCATENATE("SUM(b.",A75," = '1') AS count_val1_",A75,", SUM(b.",A75," = '2') AS count_val2_",A75,",", "SUM(b.",A75," = '3') AS count_val3_",A75,",")</f>
-        <v>SUM(b.r_t_101112_1_2 = '1') AS count_val1_r_t_101112_1_2, SUM(b.r_t_101112_1_2 = '2') AS count_val2_r_t_101112_1_2,SUM(b.r_t_101112_1_2 = '3') AS count_val3_r_t_101112_1_2,</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
-        <v>1482</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D76"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
-        <v>1483</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D77"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
-        <v>1484</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D78" s="14" t="str">
-        <f t="shared" ref="D78:D93" si="36">CONCATENATE("SUM(b.",A78," = '1') AS count_val1_",A78,", SUM(b.",A78," = '2') AS count_val2_",A78,",")</f>
-        <v>SUM(b.r_t_101112_2_1 = '1') AS count_val1_r_t_101112_2_1, SUM(b.r_t_101112_2_1 = '2') AS count_val2_r_t_101112_2_1,</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
-        <v>1485</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D79" t="str">
-        <f t="shared" ref="D79:D93" si="37">CONCATENATE("SUM(b.",A79," = '1') AS count_val1_",A79,", SUM(b.",A79," = '2') AS count_val2_",A79,",", "SUM(b.",A79," = '3') AS count_val3_",A79,",")</f>
-        <v>SUM(b.r_t_101112_2_2 = '1') AS count_val1_r_t_101112_2_2, SUM(b.r_t_101112_2_2 = '2') AS count_val2_r_t_101112_2_2,SUM(b.r_t_101112_2_2 = '3') AS count_val3_r_t_101112_2_2,</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
-        <v>1486</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D80"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
-        <v>1487</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D81"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D82" s="14" t="str">
-        <f t="shared" ref="D82:D93" si="38">CONCATENATE("SUM(b.",A82," = '1') AS count_val1_",A82,", SUM(b.",A82," = '2') AS count_val2_",A82,",")</f>
-        <v>SUM(b.r_t_101112_3_1 = '1') AS count_val1_r_t_101112_3_1, SUM(b.r_t_101112_3_1 = '2') AS count_val2_r_t_101112_3_1,</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D83" t="str">
-        <f t="shared" ref="D83:D93" si="39">CONCATENATE("SUM(b.",A83," = '1') AS count_val1_",A83,", SUM(b.",A83," = '2') AS count_val2_",A83,",", "SUM(b.",A83," = '3') AS count_val3_",A83,",")</f>
-        <v>SUM(b.r_t_101112_3_2 = '1') AS count_val1_r_t_101112_3_2, SUM(b.r_t_101112_3_2 = '2') AS count_val2_r_t_101112_3_2,SUM(b.r_t_101112_3_2 = '3') AS count_val3_r_t_101112_3_2,</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
-        <v>1490</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D84"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
-        <v>1491</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D85"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
-        <v>1492</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D86" s="14" t="str">
-        <f t="shared" ref="D86:D93" si="40">CONCATENATE("SUM(b.",A86," = '1') AS count_val1_",A86,", SUM(b.",A86," = '2') AS count_val2_",A86,",")</f>
-        <v>SUM(b.r_t_101112_4_1 = '1') AS count_val1_r_t_101112_4_1, SUM(b.r_t_101112_4_1 = '2') AS count_val2_r_t_101112_4_1,</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="14" t="s">
-        <v>1493</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D87" t="str">
-        <f t="shared" ref="D87:D93" si="41">CONCATENATE("SUM(b.",A87," = '1') AS count_val1_",A87,", SUM(b.",A87," = '2') AS count_val2_",A87,",", "SUM(b.",A87," = '3') AS count_val3_",A87,",")</f>
-        <v>SUM(b.r_t_101112_4_2 = '1') AS count_val1_r_t_101112_4_2, SUM(b.r_t_101112_4_2 = '2') AS count_val2_r_t_101112_4_2,SUM(b.r_t_101112_4_2 = '3') AS count_val3_r_t_101112_4_2,</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="14" t="s">
-        <v>1494</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D88"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
-        <v>1495</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D89"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D90" s="14" t="str">
-        <f t="shared" ref="D90:D93" si="42">CONCATENATE("SUM(b.",A90," = '1') AS count_val1_",A90,", SUM(b.",A90," = '2') AS count_val2_",A90,",")</f>
-        <v>SUM(b.r_t_101112_5_1 = '1') AS count_val1_r_t_101112_5_1, SUM(b.r_t_101112_5_1 = '2') AS count_val2_r_t_101112_5_1,</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="14" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D91" t="str">
-        <f t="shared" ref="D91:D93" si="43">CONCATENATE("SUM(b.",A91," = '1') AS count_val1_",A91,", SUM(b.",A91," = '2') AS count_val2_",A91,",", "SUM(b.",A91," = '3') AS count_val3_",A91,",")</f>
-        <v>SUM(b.r_t_101112_5_2 = '1') AS count_val1_r_t_101112_5_2, SUM(b.r_t_101112_5_2 = '2') AS count_val2_r_t_101112_5_2,SUM(b.r_t_101112_5_2 = '3') AS count_val3_r_t_101112_5_2,</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="14" t="s">
-        <v>1498</v>
-      </c>
-      <c r="B92" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D92"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="14" t="s">
-        <v>1499</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D93"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D69"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D69"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="109.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D2" s="14" t="str">
-        <f>CONCATENATE("SUM(b.",A2," = '1') AS count_val1_",A2,", SUM(b.",A2," = '2') AS count_val2_",A2,",")</f>
-        <v>SUM(b.r_t_ins_1_1_1 = '1') AS count_val1_r_t_ins_1_1_1, SUM(b.r_t_ins_1_1_1 = '2') AS count_val2_r_t_ins_1_1_1,</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>1501</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D3" t="str">
-        <f>CONCATENATE("SUM(b.",A3," = '1') AS count_val1_",A3,", SUM(b.",A3," = '2') AS count_val2_",A3,",", "SUM(b.",A3," = '3') AS count_val3_",A3,",")</f>
-        <v>SUM(b.r_t_ins_1_1_2 = '1') AS count_val1_r_t_ins_1_1_2, SUM(b.r_t_ins_1_1_2 = '2') AS count_val2_r_t_ins_1_1_2,SUM(b.r_t_ins_1_1_2 = '3') AS count_val3_r_t_ins_1_1_2,</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>1503</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D6" s="14" t="str">
-        <f t="shared" ref="D6:D37" si="0">CONCATENATE("SUM(b.",A6," = '1') AS count_val1_",A6,", SUM(b.",A6," = '2') AS count_val2_",A6,",")</f>
-        <v>SUM(b.r_t_ins_2_1_1 = '1') AS count_val1_r_t_ins_2_1_1, SUM(b.r_t_ins_2_1_1 = '2') AS count_val2_r_t_ins_2_1_1,</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>1505</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" ref="D7:D38" si="1">CONCATENATE("SUM(b.",A7," = '1') AS count_val1_",A7,", SUM(b.",A7," = '2') AS count_val2_",A7,",", "SUM(b.",A7," = '3') AS count_val3_",A7,",")</f>
-        <v>SUM(b.r_t_ins_2_1_2 = '1') AS count_val1_r_t_ins_2_1_2, SUM(b.r_t_ins_2_1_2 = '2') AS count_val2_r_t_ins_2_1_2,SUM(b.r_t_ins_2_1_2 = '3') AS count_val3_r_t_ins_2_1_2,</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>1506</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>1507</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D10" s="14" t="str">
-        <f t="shared" ref="D10:D41" si="2">CONCATENATE("SUM(b.",A10," = '1') AS count_val1_",A10,", SUM(b.",A10," = '2') AS count_val2_",A10,",")</f>
-        <v>SUM(b.r_t_ins_3_1_1 = '1') AS count_val1_r_t_ins_3_1_1, SUM(b.r_t_ins_3_1_1 = '2') AS count_val2_r_t_ins_3_1_1,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" ref="D11:D42" si="3">CONCATENATE("SUM(b.",A11," = '1') AS count_val1_",A11,", SUM(b.",A11," = '2') AS count_val2_",A11,",", "SUM(b.",A11," = '3') AS count_val3_",A11,",")</f>
-        <v>SUM(b.r_t_ins_3_1_2 = '1') AS count_val1_r_t_ins_3_1_2, SUM(b.r_t_ins_3_1_2 = '2') AS count_val2_r_t_ins_3_1_2,SUM(b.r_t_ins_3_1_2 = '3') AS count_val3_r_t_ins_3_1_2,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>1511</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>1512</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D14" s="14" t="str">
-        <f t="shared" ref="D14:D45" si="4">CONCATENATE("SUM(b.",A14," = '1') AS count_val1_",A14,", SUM(b.",A14," = '2') AS count_val2_",A14,",")</f>
-        <v>SUM(b.r_t_ins_4_1_1 = '1') AS count_val1_r_t_ins_4_1_1, SUM(b.r_t_ins_4_1_1 = '2') AS count_val2_r_t_ins_4_1_1,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>1513</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" ref="D15:D46" si="5">CONCATENATE("SUM(b.",A15," = '1') AS count_val1_",A15,", SUM(b.",A15," = '2') AS count_val2_",A15,",", "SUM(b.",A15," = '3') AS count_val3_",A15,",")</f>
-        <v>SUM(b.r_t_ins_4_1_2 = '1') AS count_val1_r_t_ins_4_1_2, SUM(b.r_t_ins_4_1_2 = '2') AS count_val2_r_t_ins_4_1_2,SUM(b.r_t_ins_4_1_2 = '3') AS count_val3_r_t_ins_4_1_2,</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>1514</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>1515</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>1516</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D18" s="14" t="str">
-        <f t="shared" ref="D18:D49" si="6">CONCATENATE("SUM(b.",A18," = '1') AS count_val1_",A18,", SUM(b.",A18," = '2') AS count_val2_",A18,",")</f>
-        <v>SUM(b.r_t_ins_5_1_1 = '1') AS count_val1_r_t_ins_5_1_1, SUM(b.r_t_ins_5_1_1 = '2') AS count_val2_r_t_ins_5_1_1,</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>1517</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" ref="D19:D50" si="7">CONCATENATE("SUM(b.",A19," = '1') AS count_val1_",A19,", SUM(b.",A19," = '2') AS count_val2_",A19,",", "SUM(b.",A19," = '3') AS count_val3_",A19,",")</f>
-        <v>SUM(b.r_t_ins_5_1_2 = '1') AS count_val1_r_t_ins_5_1_2, SUM(b.r_t_ins_5_1_2 = '2') AS count_val2_r_t_ins_5_1_2,SUM(b.r_t_ins_5_1_2 = '3') AS count_val3_r_t_ins_5_1_2,</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>1519</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>1520</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D22" s="14" t="str">
-        <f t="shared" ref="D22:D69" si="8">CONCATENATE("SUM(b.",A22," = '1') AS count_val1_",A22,", SUM(b.",A22," = '2') AS count_val2_",A22,",")</f>
-        <v>SUM(b.r_t_ins_6_1_1 = '1') AS count_val1_r_t_ins_6_1_1, SUM(b.r_t_ins_6_1_1 = '2') AS count_val2_r_t_ins_6_1_1,</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>1521</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" ref="D23:D69" si="9">CONCATENATE("SUM(b.",A23," = '1') AS count_val1_",A23,", SUM(b.",A23," = '2') AS count_val2_",A23,",", "SUM(b.",A23," = '3') AS count_val3_",A23,",")</f>
-        <v>SUM(b.r_t_ins_6_1_2 = '1') AS count_val1_r_t_ins_6_1_2, SUM(b.r_t_ins_6_1_2 = '2') AS count_val2_r_t_ins_6_1_2,SUM(b.r_t_ins_6_1_2 = '3') AS count_val3_r_t_ins_6_1_2,</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>1522</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>1524</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D26" s="14" t="str">
-        <f t="shared" ref="D26:D69" si="10">CONCATENATE("SUM(b.",A26," = '1') AS count_val1_",A26,", SUM(b.",A26," = '2') AS count_val2_",A26,",")</f>
-        <v>SUM(b.r_t_ins_7_1_1 = '1') AS count_val1_r_t_ins_7_1_1, SUM(b.r_t_ins_7_1_1 = '2') AS count_val2_r_t_ins_7_1_1,</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" ref="D27:D69" si="11">CONCATENATE("SUM(b.",A27," = '1') AS count_val1_",A27,", SUM(b.",A27," = '2') AS count_val2_",A27,",", "SUM(b.",A27," = '3') AS count_val3_",A27,",")</f>
-        <v>SUM(b.r_t_ins_7_1_2 = '1') AS count_val1_r_t_ins_7_1_2, SUM(b.r_t_ins_7_1_2 = '2') AS count_val2_r_t_ins_7_1_2,SUM(b.r_t_ins_7_1_2 = '3') AS count_val3_r_t_ins_7_1_2,</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>1526</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>1527</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>1528</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D30" s="14" t="str">
-        <f t="shared" ref="D30:D69" si="12">CONCATENATE("SUM(b.",A30," = '1') AS count_val1_",A30,", SUM(b.",A30," = '2') AS count_val2_",A30,",")</f>
-        <v>SUM(b.r_t_ins_8_1_1 = '1') AS count_val1_r_t_ins_8_1_1, SUM(b.r_t_ins_8_1_1 = '2') AS count_val2_r_t_ins_8_1_1,</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>1529</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" ref="D31:D69" si="13">CONCATENATE("SUM(b.",A31," = '1') AS count_val1_",A31,", SUM(b.",A31," = '2') AS count_val2_",A31,",", "SUM(b.",A31," = '3') AS count_val3_",A31,",")</f>
-        <v>SUM(b.r_t_ins_8_1_2 = '1') AS count_val1_r_t_ins_8_1_2, SUM(b.r_t_ins_8_1_2 = '2') AS count_val2_r_t_ins_8_1_2,SUM(b.r_t_ins_8_1_2 = '3') AS count_val3_r_t_ins_8_1_2,</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>1530</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>1531</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>1532</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D34" s="14" t="str">
-        <f t="shared" ref="D34:D69" si="14">CONCATENATE("SUM(b.",A34," = '1') AS count_val1_",A34,", SUM(b.",A34," = '2') AS count_val2_",A34,",")</f>
-        <v>SUM(b.r_t_ins_9_1_1 = '1') AS count_val1_r_t_ins_9_1_1, SUM(b.r_t_ins_9_1_1 = '2') AS count_val2_r_t_ins_9_1_1,</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>1533</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" ref="D35:D69" si="15">CONCATENATE("SUM(b.",A35," = '1') AS count_val1_",A35,", SUM(b.",A35," = '2') AS count_val2_",A35,",", "SUM(b.",A35," = '3') AS count_val3_",A35,",")</f>
-        <v>SUM(b.r_t_ins_9_1_2 = '1') AS count_val1_r_t_ins_9_1_2, SUM(b.r_t_ins_9_1_2 = '2') AS count_val2_r_t_ins_9_1_2,SUM(b.r_t_ins_9_1_2 = '3') AS count_val3_r_t_ins_9_1_2,</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>1534</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>1535</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D38" s="14" t="str">
-        <f t="shared" ref="D38:D69" si="16">CONCATENATE("SUM(b.",A38," = '1') AS count_val1_",A38,", SUM(b.",A38," = '2') AS count_val2_",A38,",")</f>
-        <v>SUM(b.r_t_ins_789_additional_1_1 = '1') AS count_val1_r_t_ins_789_additional_1_1, SUM(b.r_t_ins_789_additional_1_1 = '2') AS count_val2_r_t_ins_789_additional_1_1,</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>1537</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" ref="D39:D69" si="17">CONCATENATE("SUM(b.",A39," = '1') AS count_val1_",A39,", SUM(b.",A39," = '2') AS count_val2_",A39,",", "SUM(b.",A39," = '3') AS count_val3_",A39,",")</f>
-        <v>SUM(b.r_t_ins_789_additional_1_2 = '1') AS count_val1_r_t_ins_789_additional_1_2, SUM(b.r_t_ins_789_additional_1_2 = '2') AS count_val2_r_t_ins_789_additional_1_2,SUM(b.r_t_ins_789_additional_1_2 = '3') AS count_val3_r_t_ins_789_additional_1_2,</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>1539</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>1540</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D42" s="14" t="str">
-        <f t="shared" ref="D42:D69" si="18">CONCATENATE("SUM(b.",A42," = '1') AS count_val1_",A42,", SUM(b.",A42," = '2') AS count_val2_",A42,",")</f>
-        <v>SUM(b.r_t_ins_789_additional_2_1 = '1') AS count_val1_r_t_ins_789_additional_2_1, SUM(b.r_t_ins_789_additional_2_1 = '2') AS count_val2_r_t_ins_789_additional_2_1,</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D43" t="str">
-        <f t="shared" ref="D43:D69" si="19">CONCATENATE("SUM(b.",A43," = '1') AS count_val1_",A43,", SUM(b.",A43," = '2') AS count_val2_",A43,",", "SUM(b.",A43," = '3') AS count_val3_",A43,",")</f>
-        <v>SUM(b.r_t_ins_789_additional_2_2 = '1') AS count_val1_r_t_ins_789_additional_2_2, SUM(b.r_t_ins_789_additional_2_2 = '2') AS count_val2_r_t_ins_789_additional_2_2,SUM(b.r_t_ins_789_additional_2_2 = '3') AS count_val3_r_t_ins_789_additional_2_2,</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
-        <v>1542</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D46" s="14" t="str">
-        <f t="shared" ref="D46:D69" si="20">CONCATENATE("SUM(b.",A46," = '1') AS count_val1_",A46,", SUM(b.",A46," = '2') AS count_val2_",A46,",")</f>
-        <v>SUM(b.r_t_ins_789_additional_3_1 = '1') AS count_val1_r_t_ins_789_additional_3_1, SUM(b.r_t_ins_789_additional_3_1 = '2') AS count_val2_r_t_ins_789_additional_3_1,</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
-        <v>1545</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" ref="D47:D69" si="21">CONCATENATE("SUM(b.",A47," = '1') AS count_val1_",A47,", SUM(b.",A47," = '2') AS count_val2_",A47,",", "SUM(b.",A47," = '3') AS count_val3_",A47,",")</f>
-        <v>SUM(b.r_t_ins_789_additional_3_2 = '1') AS count_val1_r_t_ins_789_additional_3_2, SUM(b.r_t_ins_789_additional_3_2 = '2') AS count_val2_r_t_ins_789_additional_3_2,SUM(b.r_t_ins_789_additional_3_2 = '3') AS count_val3_r_t_ins_789_additional_3_2,</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>1547</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
-        <v>1548</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D50" s="14" t="str">
-        <f t="shared" ref="D50:D69" si="22">CONCATENATE("SUM(b.",A50," = '1') AS count_val1_",A50,", SUM(b.",A50," = '2') AS count_val2_",A50,",")</f>
-        <v>SUM(b.r_t_ins_101112_1_1 = '1') AS count_val1_r_t_ins_101112_1_1, SUM(b.r_t_ins_101112_1_1 = '2') AS count_val2_r_t_ins_101112_1_1,</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
-        <v>1549</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D51" t="str">
-        <f t="shared" ref="D51:D69" si="23">CONCATENATE("SUM(b.",A51," = '1') AS count_val1_",A51,", SUM(b.",A51," = '2') AS count_val2_",A51,",", "SUM(b.",A51," = '3') AS count_val3_",A51,",")</f>
-        <v>SUM(b.r_t_ins_101112_1_2 = '1') AS count_val1_r_t_ins_101112_1_2, SUM(b.r_t_ins_101112_1_2 = '2') AS count_val2_r_t_ins_101112_1_2,SUM(b.r_t_ins_101112_1_2 = '3') AS count_val3_r_t_ins_101112_1_2,</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
-        <v>1550</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
-        <v>1551</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
-        <v>1552</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D54" s="14" t="str">
-        <f t="shared" ref="D54:D69" si="24">CONCATENATE("SUM(b.",A54," = '1') AS count_val1_",A54,", SUM(b.",A54," = '2') AS count_val2_",A54,",")</f>
-        <v>SUM(b.r_t_ins_101112_2_1 = '1') AS count_val1_r_t_ins_101112_2_1, SUM(b.r_t_ins_101112_2_1 = '2') AS count_val2_r_t_ins_101112_2_1,</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
-        <v>1553</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D55" t="str">
-        <f t="shared" ref="D55:D69" si="25">CONCATENATE("SUM(b.",A55," = '1') AS count_val1_",A55,", SUM(b.",A55," = '2') AS count_val2_",A55,",", "SUM(b.",A55," = '3') AS count_val3_",A55,",")</f>
-        <v>SUM(b.r_t_ins_101112_2_2 = '1') AS count_val1_r_t_ins_101112_2_2, SUM(b.r_t_ins_101112_2_2 = '2') AS count_val2_r_t_ins_101112_2_2,SUM(b.r_t_ins_101112_2_2 = '3') AS count_val3_r_t_ins_101112_2_2,</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
-        <v>1554</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
-        <v>1556</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D58" s="14" t="str">
-        <f t="shared" ref="D58:D69" si="26">CONCATENATE("SUM(b.",A58," = '1') AS count_val1_",A58,", SUM(b.",A58," = '2') AS count_val2_",A58,",")</f>
-        <v>SUM(b.r_t_ins_101112_3_1 = '1') AS count_val1_r_t_ins_101112_3_1, SUM(b.r_t_ins_101112_3_1 = '2') AS count_val2_r_t_ins_101112_3_1,</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D59" t="str">
-        <f t="shared" ref="D59:D69" si="27">CONCATENATE("SUM(b.",A59," = '1') AS count_val1_",A59,", SUM(b.",A59," = '2') AS count_val2_",A59,",", "SUM(b.",A59," = '3') AS count_val3_",A59,",")</f>
-        <v>SUM(b.r_t_ins_101112_3_2 = '1') AS count_val1_r_t_ins_101112_3_2, SUM(b.r_t_ins_101112_3_2 = '2') AS count_val2_r_t_ins_101112_3_2,SUM(b.r_t_ins_101112_3_2 = '3') AS count_val3_r_t_ins_101112_3_2,</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
-        <v>1558</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
-        <v>1559</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
-        <v>1560</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D62" s="14" t="str">
-        <f t="shared" ref="D62:D69" si="28">CONCATENATE("SUM(b.",A62," = '1') AS count_val1_",A62,", SUM(b.",A62," = '2') AS count_val2_",A62,",")</f>
-        <v>SUM(b.r_t_ins_101112_4_1 = '1') AS count_val1_r_t_ins_101112_4_1, SUM(b.r_t_ins_101112_4_1 = '2') AS count_val2_r_t_ins_101112_4_1,</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D63" t="str">
-        <f t="shared" ref="D63:D69" si="29">CONCATENATE("SUM(b.",A63," = '1') AS count_val1_",A63,", SUM(b.",A63," = '2') AS count_val2_",A63,",", "SUM(b.",A63," = '3') AS count_val3_",A63,",")</f>
-        <v>SUM(b.r_t_ins_101112_4_2 = '1') AS count_val1_r_t_ins_101112_4_2, SUM(b.r_t_ins_101112_4_2 = '2') AS count_val2_r_t_ins_101112_4_2,SUM(b.r_t_ins_101112_4_2 = '3') AS count_val3_r_t_ins_101112_4_2,</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
-        <v>1563</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D66" s="14" t="str">
-        <f t="shared" ref="D66:D69" si="30">CONCATENATE("SUM(b.",A66," = '1') AS count_val1_",A66,", SUM(b.",A66," = '2') AS count_val2_",A66,",")</f>
-        <v>SUM(b.r_t_ins_101112_5_1 = '1') AS count_val1_r_t_ins_101112_5_1, SUM(b.r_t_ins_101112_5_1 = '2') AS count_val2_r_t_ins_101112_5_1,</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
-        <v>1565</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D67" t="str">
-        <f t="shared" ref="D67:D69" si="31">CONCATENATE("SUM(b.",A67," = '1') AS count_val1_",A67,", SUM(b.",A67," = '2') AS count_val2_",A67,",", "SUM(b.",A67," = '3') AS count_val3_",A67,",")</f>
-        <v>SUM(b.r_t_ins_101112_5_2 = '1') AS count_val1_r_t_ins_101112_5_2, SUM(b.r_t_ins_101112_5_2 = '2') AS count_val2_r_t_ins_101112_5_2,SUM(b.r_t_ins_101112_5_2 = '3') AS count_val3_r_t_ins_101112_5_2,</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
-        <v>1566</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
-        <v>1567</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C69" s="14" t="s">
         <v>1212</v>
       </c>
     </row>
@@ -17181,7 +17181,7 @@
         <v>1212</v>
       </c>
       <c r="D6" s="14" t="str">
-        <f t="shared" ref="D6:D69" si="0">CONCATENATE("SUM(b.",A6," = '1') AS count_val1_",A6,", SUM(b.",A6," = '2') AS count_val2_",A6,",")</f>
+        <f t="shared" ref="D6" si="0">CONCATENATE("SUM(b.",A6," = '1') AS count_val1_",A6,", SUM(b.",A6," = '2') AS count_val2_",A6,",")</f>
         <v>SUM(b.r_s_1_2_1 = '1') AS count_val1_r_s_1_2_1, SUM(b.r_s_1_2_1 = '2') AS count_val2_r_s_1_2_1,</v>
       </c>
     </row>
@@ -17196,7 +17196,7 @@
         <v>1212</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" ref="D7:D70" si="1">CONCATENATE("SUM(b.",A7," = '1') AS count_val1_",A7,", SUM(b.",A7," = '2') AS count_val2_",A7,",", "SUM(b.",A7," = '3') AS count_val3_",A7,",")</f>
+        <f t="shared" ref="D7" si="1">CONCATENATE("SUM(b.",A7," = '1') AS count_val1_",A7,", SUM(b.",A7," = '2') AS count_val2_",A7,",", "SUM(b.",A7," = '3') AS count_val3_",A7,",")</f>
         <v>SUM(b.r_s_1_2_2 = '1') AS count_val1_r_s_1_2_2, SUM(b.r_s_1_2_2 = '2') AS count_val2_r_s_1_2_2,SUM(b.r_s_1_2_2 = '3') AS count_val3_r_s_1_2_2,</v>
       </c>
     </row>
@@ -17233,7 +17233,7 @@
         <v>1212</v>
       </c>
       <c r="D10" s="14" t="str">
-        <f t="shared" ref="D10:D73" si="2">CONCATENATE("SUM(b.",A10," = '1') AS count_val1_",A10,", SUM(b.",A10," = '2') AS count_val2_",A10,",")</f>
+        <f t="shared" ref="D10" si="2">CONCATENATE("SUM(b.",A10," = '1') AS count_val1_",A10,", SUM(b.",A10," = '2') AS count_val2_",A10,",")</f>
         <v>SUM(b.r_s_1_3_1 = '1') AS count_val1_r_s_1_3_1, SUM(b.r_s_1_3_1 = '2') AS count_val2_r_s_1_3_1,</v>
       </c>
     </row>
@@ -17248,7 +17248,7 @@
         <v>1212</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" ref="D11:D74" si="3">CONCATENATE("SUM(b.",A11," = '1') AS count_val1_",A11,", SUM(b.",A11," = '2') AS count_val2_",A11,",", "SUM(b.",A11," = '3') AS count_val3_",A11,",")</f>
+        <f t="shared" ref="D11" si="3">CONCATENATE("SUM(b.",A11," = '1') AS count_val1_",A11,", SUM(b.",A11," = '2') AS count_val2_",A11,",", "SUM(b.",A11," = '3') AS count_val3_",A11,",")</f>
         <v>SUM(b.r_s_1_3_2 = '1') AS count_val1_r_s_1_3_2, SUM(b.r_s_1_3_2 = '2') AS count_val2_r_s_1_3_2,SUM(b.r_s_1_3_2 = '3') AS count_val3_r_s_1_3_2,</v>
       </c>
     </row>
@@ -17285,7 +17285,7 @@
         <v>1212</v>
       </c>
       <c r="D14" s="14" t="str">
-        <f t="shared" ref="D14:D77" si="4">CONCATENATE("SUM(b.",A14," = '1') AS count_val1_",A14,", SUM(b.",A14," = '2') AS count_val2_",A14,",")</f>
+        <f t="shared" ref="D14" si="4">CONCATENATE("SUM(b.",A14," = '1') AS count_val1_",A14,", SUM(b.",A14," = '2') AS count_val2_",A14,",")</f>
         <v>SUM(b.r_s_1_4_1 = '1') AS count_val1_r_s_1_4_1, SUM(b.r_s_1_4_1 = '2') AS count_val2_r_s_1_4_1,</v>
       </c>
     </row>
@@ -17300,7 +17300,7 @@
         <v>1212</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" ref="D15:D78" si="5">CONCATENATE("SUM(b.",A15," = '1') AS count_val1_",A15,", SUM(b.",A15," = '2') AS count_val2_",A15,",", "SUM(b.",A15," = '3') AS count_val3_",A15,",")</f>
+        <f t="shared" ref="D15" si="5">CONCATENATE("SUM(b.",A15," = '1') AS count_val1_",A15,", SUM(b.",A15," = '2') AS count_val2_",A15,",", "SUM(b.",A15," = '3') AS count_val3_",A15,",")</f>
         <v>SUM(b.r_s_1_4_2 = '1') AS count_val1_r_s_1_4_2, SUM(b.r_s_1_4_2 = '2') AS count_val2_r_s_1_4_2,SUM(b.r_s_1_4_2 = '3') AS count_val3_r_s_1_4_2,</v>
       </c>
     </row>
@@ -17337,7 +17337,7 @@
         <v>1212</v>
       </c>
       <c r="D18" s="14" t="str">
-        <f t="shared" ref="D18:D81" si="6">CONCATENATE("SUM(b.",A18," = '1') AS count_val1_",A18,", SUM(b.",A18," = '2') AS count_val2_",A18,",")</f>
+        <f t="shared" ref="D18" si="6">CONCATENATE("SUM(b.",A18," = '1') AS count_val1_",A18,", SUM(b.",A18," = '2') AS count_val2_",A18,",")</f>
         <v>SUM(b.r_s_2_1_1 = '1') AS count_val1_r_s_2_1_1, SUM(b.r_s_2_1_1 = '2') AS count_val2_r_s_2_1_1,</v>
       </c>
     </row>
@@ -17352,7 +17352,7 @@
         <v>1212</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" ref="D19:D82" si="7">CONCATENATE("SUM(b.",A19," = '1') AS count_val1_",A19,", SUM(b.",A19," = '2') AS count_val2_",A19,",", "SUM(b.",A19," = '3') AS count_val3_",A19,",")</f>
+        <f t="shared" ref="D19" si="7">CONCATENATE("SUM(b.",A19," = '1') AS count_val1_",A19,", SUM(b.",A19," = '2') AS count_val2_",A19,",", "SUM(b.",A19," = '3') AS count_val3_",A19,",")</f>
         <v>SUM(b.r_s_2_1_2 = '1') AS count_val1_r_s_2_1_2, SUM(b.r_s_2_1_2 = '2') AS count_val2_r_s_2_1_2,SUM(b.r_s_2_1_2 = '3') AS count_val3_r_s_2_1_2,</v>
       </c>
     </row>
@@ -17389,7 +17389,7 @@
         <v>1212</v>
       </c>
       <c r="D22" s="14" t="str">
-        <f t="shared" ref="D22:D53" si="8">CONCATENATE("SUM(b.",A22," = '1') AS count_val1_",A22,", SUM(b.",A22," = '2') AS count_val2_",A22,",")</f>
+        <f t="shared" ref="D22" si="8">CONCATENATE("SUM(b.",A22," = '1') AS count_val1_",A22,", SUM(b.",A22," = '2') AS count_val2_",A22,",")</f>
         <v>SUM(b.r_s_2_2_1 = '1') AS count_val1_r_s_2_2_1, SUM(b.r_s_2_2_1 = '2') AS count_val2_r_s_2_2_1,</v>
       </c>
     </row>
@@ -17404,7 +17404,7 @@
         <v>1212</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" ref="D23:D54" si="9">CONCATENATE("SUM(b.",A23," = '1') AS count_val1_",A23,", SUM(b.",A23," = '2') AS count_val2_",A23,",", "SUM(b.",A23," = '3') AS count_val3_",A23,",")</f>
+        <f t="shared" ref="D23" si="9">CONCATENATE("SUM(b.",A23," = '1') AS count_val1_",A23,", SUM(b.",A23," = '2') AS count_val2_",A23,",", "SUM(b.",A23," = '3') AS count_val3_",A23,",")</f>
         <v>SUM(b.r_s_2_2_2 = '1') AS count_val1_r_s_2_2_2, SUM(b.r_s_2_2_2 = '2') AS count_val2_r_s_2_2_2,SUM(b.r_s_2_2_2 = '3') AS count_val3_r_s_2_2_2,</v>
       </c>
     </row>
@@ -17441,7 +17441,7 @@
         <v>1212</v>
       </c>
       <c r="D26" s="14" t="str">
-        <f t="shared" ref="D26:D57" si="10">CONCATENATE("SUM(b.",A26," = '1') AS count_val1_",A26,", SUM(b.",A26," = '2') AS count_val2_",A26,",")</f>
+        <f t="shared" ref="D26" si="10">CONCATENATE("SUM(b.",A26," = '1') AS count_val1_",A26,", SUM(b.",A26," = '2') AS count_val2_",A26,",")</f>
         <v>SUM(b.r_s_3_1_1 = '1') AS count_val1_r_s_3_1_1, SUM(b.r_s_3_1_1 = '2') AS count_val2_r_s_3_1_1,</v>
       </c>
     </row>
@@ -17456,7 +17456,7 @@
         <v>1212</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" ref="D27:D58" si="11">CONCATENATE("SUM(b.",A27," = '1') AS count_val1_",A27,", SUM(b.",A27," = '2') AS count_val2_",A27,",", "SUM(b.",A27," = '3') AS count_val3_",A27,",")</f>
+        <f t="shared" ref="D27" si="11">CONCATENATE("SUM(b.",A27," = '1') AS count_val1_",A27,", SUM(b.",A27," = '2') AS count_val2_",A27,",", "SUM(b.",A27," = '3') AS count_val3_",A27,",")</f>
         <v>SUM(b.r_s_3_1_2 = '1') AS count_val1_r_s_3_1_2, SUM(b.r_s_3_1_2 = '2') AS count_val2_r_s_3_1_2,SUM(b.r_s_3_1_2 = '3') AS count_val3_r_s_3_1_2,</v>
       </c>
     </row>
@@ -17493,7 +17493,7 @@
         <v>1212</v>
       </c>
       <c r="D30" s="14" t="str">
-        <f t="shared" ref="D30:D61" si="12">CONCATENATE("SUM(b.",A30," = '1') AS count_val1_",A30,", SUM(b.",A30," = '2') AS count_val2_",A30,",")</f>
+        <f t="shared" ref="D30" si="12">CONCATENATE("SUM(b.",A30," = '1') AS count_val1_",A30,", SUM(b.",A30," = '2') AS count_val2_",A30,",")</f>
         <v>SUM(b.r_s_3_2_1 = '1') AS count_val1_r_s_3_2_1, SUM(b.r_s_3_2_1 = '2') AS count_val2_r_s_3_2_1,</v>
       </c>
     </row>
@@ -17508,7 +17508,7 @@
         <v>1212</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" ref="D31:D62" si="13">CONCATENATE("SUM(b.",A31," = '1') AS count_val1_",A31,", SUM(b.",A31," = '2') AS count_val2_",A31,",", "SUM(b.",A31," = '3') AS count_val3_",A31,",")</f>
+        <f t="shared" ref="D31" si="13">CONCATENATE("SUM(b.",A31," = '1') AS count_val1_",A31,", SUM(b.",A31," = '2') AS count_val2_",A31,",", "SUM(b.",A31," = '3') AS count_val3_",A31,",")</f>
         <v>SUM(b.r_s_3_2_2 = '1') AS count_val1_r_s_3_2_2, SUM(b.r_s_3_2_2 = '2') AS count_val2_r_s_3_2_2,SUM(b.r_s_3_2_2 = '3') AS count_val3_r_s_3_2_2,</v>
       </c>
     </row>
@@ -17545,7 +17545,7 @@
         <v>1212</v>
       </c>
       <c r="D34" s="14" t="str">
-        <f t="shared" ref="D34:D65" si="14">CONCATENATE("SUM(b.",A34," = '1') AS count_val1_",A34,", SUM(b.",A34," = '2') AS count_val2_",A34,",")</f>
+        <f t="shared" ref="D34" si="14">CONCATENATE("SUM(b.",A34," = '1') AS count_val1_",A34,", SUM(b.",A34," = '2') AS count_val2_",A34,",")</f>
         <v>SUM(b.r_s_4_1_1 = '1') AS count_val1_r_s_4_1_1, SUM(b.r_s_4_1_1 = '2') AS count_val2_r_s_4_1_1,</v>
       </c>
     </row>
@@ -17560,7 +17560,7 @@
         <v>1212</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" ref="D35:D66" si="15">CONCATENATE("SUM(b.",A35," = '1') AS count_val1_",A35,", SUM(b.",A35," = '2') AS count_val2_",A35,",", "SUM(b.",A35," = '3') AS count_val3_",A35,",")</f>
+        <f t="shared" ref="D35" si="15">CONCATENATE("SUM(b.",A35," = '1') AS count_val1_",A35,", SUM(b.",A35," = '2') AS count_val2_",A35,",", "SUM(b.",A35," = '3') AS count_val3_",A35,",")</f>
         <v>SUM(b.r_s_4_1_2 = '1') AS count_val1_r_s_4_1_2, SUM(b.r_s_4_1_2 = '2') AS count_val2_r_s_4_1_2,SUM(b.r_s_4_1_2 = '3') AS count_val3_r_s_4_1_2,</v>
       </c>
     </row>
@@ -17597,7 +17597,7 @@
         <v>1212</v>
       </c>
       <c r="D38" s="14" t="str">
-        <f t="shared" ref="D38:D69" si="16">CONCATENATE("SUM(b.",A38," = '1') AS count_val1_",A38,", SUM(b.",A38," = '2') AS count_val2_",A38,",")</f>
+        <f t="shared" ref="D38" si="16">CONCATENATE("SUM(b.",A38," = '1') AS count_val1_",A38,", SUM(b.",A38," = '2') AS count_val2_",A38,",")</f>
         <v>SUM(b.r_s_4_2_1 = '1') AS count_val1_r_s_4_2_1, SUM(b.r_s_4_2_1 = '2') AS count_val2_r_s_4_2_1,</v>
       </c>
     </row>
@@ -17612,7 +17612,7 @@
         <v>1212</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" ref="D39:D70" si="17">CONCATENATE("SUM(b.",A39," = '1') AS count_val1_",A39,", SUM(b.",A39," = '2') AS count_val2_",A39,",", "SUM(b.",A39," = '3') AS count_val3_",A39,",")</f>
+        <f t="shared" ref="D39" si="17">CONCATENATE("SUM(b.",A39," = '1') AS count_val1_",A39,", SUM(b.",A39," = '2') AS count_val2_",A39,",", "SUM(b.",A39," = '3') AS count_val3_",A39,",")</f>
         <v>SUM(b.r_s_4_2_2 = '1') AS count_val1_r_s_4_2_2, SUM(b.r_s_4_2_2 = '2') AS count_val2_r_s_4_2_2,SUM(b.r_s_4_2_2 = '3') AS count_val3_r_s_4_2_2,</v>
       </c>
     </row>
@@ -17649,7 +17649,7 @@
         <v>1212</v>
       </c>
       <c r="D42" s="14" t="str">
-        <f t="shared" ref="D42:D73" si="18">CONCATENATE("SUM(b.",A42," = '1') AS count_val1_",A42,", SUM(b.",A42," = '2') AS count_val2_",A42,",")</f>
+        <f t="shared" ref="D42" si="18">CONCATENATE("SUM(b.",A42," = '1') AS count_val1_",A42,", SUM(b.",A42," = '2') AS count_val2_",A42,",")</f>
         <v>SUM(b.r_s_4_3_1 = '1') AS count_val1_r_s_4_3_1, SUM(b.r_s_4_3_1 = '2') AS count_val2_r_s_4_3_1,</v>
       </c>
     </row>
@@ -17664,7 +17664,7 @@
         <v>1212</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" ref="D43:D74" si="19">CONCATENATE("SUM(b.",A43," = '1') AS count_val1_",A43,", SUM(b.",A43," = '2') AS count_val2_",A43,",", "SUM(b.",A43," = '3') AS count_val3_",A43,",")</f>
+        <f t="shared" ref="D43" si="19">CONCATENATE("SUM(b.",A43," = '1') AS count_val1_",A43,", SUM(b.",A43," = '2') AS count_val2_",A43,",", "SUM(b.",A43," = '3') AS count_val3_",A43,",")</f>
         <v>SUM(b.r_s_4_3_2 = '1') AS count_val1_r_s_4_3_2, SUM(b.r_s_4_3_2 = '2') AS count_val2_r_s_4_3_2,SUM(b.r_s_4_3_2 = '3') AS count_val3_r_s_4_3_2,</v>
       </c>
     </row>
@@ -17701,7 +17701,7 @@
         <v>1212</v>
       </c>
       <c r="D46" s="14" t="str">
-        <f t="shared" ref="D46:D77" si="20">CONCATENATE("SUM(b.",A46," = '1') AS count_val1_",A46,", SUM(b.",A46," = '2') AS count_val2_",A46,",")</f>
+        <f t="shared" ref="D46" si="20">CONCATENATE("SUM(b.",A46," = '1') AS count_val1_",A46,", SUM(b.",A46," = '2') AS count_val2_",A46,",")</f>
         <v>SUM(b.r_s_4_4_1 = '1') AS count_val1_r_s_4_4_1, SUM(b.r_s_4_4_1 = '2') AS count_val2_r_s_4_4_1,</v>
       </c>
     </row>
@@ -17716,7 +17716,7 @@
         <v>1212</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" ref="D47:D78" si="21">CONCATENATE("SUM(b.",A47," = '1') AS count_val1_",A47,", SUM(b.",A47," = '2') AS count_val2_",A47,",", "SUM(b.",A47," = '3') AS count_val3_",A47,",")</f>
+        <f t="shared" ref="D47" si="21">CONCATENATE("SUM(b.",A47," = '1') AS count_val1_",A47,", SUM(b.",A47," = '2') AS count_val2_",A47,",", "SUM(b.",A47," = '3') AS count_val3_",A47,",")</f>
         <v>SUM(b.r_s_4_4_2 = '1') AS count_val1_r_s_4_4_2, SUM(b.r_s_4_4_2 = '2') AS count_val2_r_s_4_4_2,SUM(b.r_s_4_4_2 = '3') AS count_val3_r_s_4_4_2,</v>
       </c>
     </row>
@@ -17753,7 +17753,7 @@
         <v>1212</v>
       </c>
       <c r="D50" s="14" t="str">
-        <f t="shared" ref="D50:D81" si="22">CONCATENATE("SUM(b.",A50," = '1') AS count_val1_",A50,", SUM(b.",A50," = '2') AS count_val2_",A50,",")</f>
+        <f t="shared" ref="D50" si="22">CONCATENATE("SUM(b.",A50," = '1') AS count_val1_",A50,", SUM(b.",A50," = '2') AS count_val2_",A50,",")</f>
         <v>SUM(b.r_s_5_1_1 = '1') AS count_val1_r_s_5_1_1, SUM(b.r_s_5_1_1 = '2') AS count_val2_r_s_5_1_1,</v>
       </c>
     </row>
@@ -17768,7 +17768,7 @@
         <v>1212</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" ref="D51:D82" si="23">CONCATENATE("SUM(b.",A51," = '1') AS count_val1_",A51,", SUM(b.",A51," = '2') AS count_val2_",A51,",", "SUM(b.",A51," = '3') AS count_val3_",A51,",")</f>
+        <f t="shared" ref="D51" si="23">CONCATENATE("SUM(b.",A51," = '1') AS count_val1_",A51,", SUM(b.",A51," = '2') AS count_val2_",A51,",", "SUM(b.",A51," = '3') AS count_val3_",A51,",")</f>
         <v>SUM(b.r_s_5_1_2 = '1') AS count_val1_r_s_5_1_2, SUM(b.r_s_5_1_2 = '2') AS count_val2_r_s_5_1_2,SUM(b.r_s_5_1_2 = '3') AS count_val3_r_s_5_1_2,</v>
       </c>
     </row>
@@ -17805,7 +17805,7 @@
         <v>1212</v>
       </c>
       <c r="D54" s="14" t="str">
-        <f t="shared" ref="D54:D85" si="24">CONCATENATE("SUM(b.",A54," = '1') AS count_val1_",A54,", SUM(b.",A54," = '2') AS count_val2_",A54,",")</f>
+        <f t="shared" ref="D54" si="24">CONCATENATE("SUM(b.",A54," = '1') AS count_val1_",A54,", SUM(b.",A54," = '2') AS count_val2_",A54,",")</f>
         <v>SUM(b.r_s_5_2_1 = '1') AS count_val1_r_s_5_2_1, SUM(b.r_s_5_2_1 = '2') AS count_val2_r_s_5_2_1,</v>
       </c>
     </row>
@@ -17820,7 +17820,7 @@
         <v>1212</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" ref="D55:D86" si="25">CONCATENATE("SUM(b.",A55," = '1') AS count_val1_",A55,", SUM(b.",A55," = '2') AS count_val2_",A55,",", "SUM(b.",A55," = '3') AS count_val3_",A55,",")</f>
+        <f t="shared" ref="D55" si="25">CONCATENATE("SUM(b.",A55," = '1') AS count_val1_",A55,", SUM(b.",A55," = '2') AS count_val2_",A55,",", "SUM(b.",A55," = '3') AS count_val3_",A55,",")</f>
         <v>SUM(b.r_s_5_2_2 = '1') AS count_val1_r_s_5_2_2, SUM(b.r_s_5_2_2 = '2') AS count_val2_r_s_5_2_2,SUM(b.r_s_5_2_2 = '3') AS count_val3_r_s_5_2_2,</v>
       </c>
     </row>
@@ -17857,7 +17857,7 @@
         <v>1212</v>
       </c>
       <c r="D58" s="14" t="str">
-        <f t="shared" ref="D58:D89" si="26">CONCATENATE("SUM(b.",A58," = '1') AS count_val1_",A58,", SUM(b.",A58," = '2') AS count_val2_",A58,",")</f>
+        <f t="shared" ref="D58" si="26">CONCATENATE("SUM(b.",A58," = '1') AS count_val1_",A58,", SUM(b.",A58," = '2') AS count_val2_",A58,",")</f>
         <v>SUM(b.r_s_6_1_1 = '1') AS count_val1_r_s_6_1_1, SUM(b.r_s_6_1_1 = '2') AS count_val2_r_s_6_1_1,</v>
       </c>
     </row>
@@ -17872,7 +17872,7 @@
         <v>1212</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" ref="D59:D90" si="27">CONCATENATE("SUM(b.",A59," = '1') AS count_val1_",A59,", SUM(b.",A59," = '2') AS count_val2_",A59,",", "SUM(b.",A59," = '3') AS count_val3_",A59,",")</f>
+        <f t="shared" ref="D59" si="27">CONCATENATE("SUM(b.",A59," = '1') AS count_val1_",A59,", SUM(b.",A59," = '2') AS count_val2_",A59,",", "SUM(b.",A59," = '3') AS count_val3_",A59,",")</f>
         <v>SUM(b.r_s_6_1_2 = '1') AS count_val1_r_s_6_1_2, SUM(b.r_s_6_1_2 = '2') AS count_val2_r_s_6_1_2,SUM(b.r_s_6_1_2 = '3') AS count_val3_r_s_6_1_2,</v>
       </c>
     </row>
@@ -17909,7 +17909,7 @@
         <v>1212</v>
       </c>
       <c r="D62" s="14" t="str">
-        <f t="shared" ref="D62:D93" si="28">CONCATENATE("SUM(b.",A62," = '1') AS count_val1_",A62,", SUM(b.",A62," = '2') AS count_val2_",A62,",")</f>
+        <f t="shared" ref="D62" si="28">CONCATENATE("SUM(b.",A62," = '1') AS count_val1_",A62,", SUM(b.",A62," = '2') AS count_val2_",A62,",")</f>
         <v>SUM(b.r_s_6_2_1 = '1') AS count_val1_r_s_6_2_1, SUM(b.r_s_6_2_1 = '2') AS count_val2_r_s_6_2_1,</v>
       </c>
     </row>
@@ -17924,7 +17924,7 @@
         <v>1212</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" ref="D63:D94" si="29">CONCATENATE("SUM(b.",A63," = '1') AS count_val1_",A63,", SUM(b.",A63," = '2') AS count_val2_",A63,",", "SUM(b.",A63," = '3') AS count_val3_",A63,",")</f>
+        <f t="shared" ref="D63" si="29">CONCATENATE("SUM(b.",A63," = '1') AS count_val1_",A63,", SUM(b.",A63," = '2') AS count_val2_",A63,",", "SUM(b.",A63," = '3') AS count_val3_",A63,",")</f>
         <v>SUM(b.r_s_6_2_2 = '1') AS count_val1_r_s_6_2_2, SUM(b.r_s_6_2_2 = '2') AS count_val2_r_s_6_2_2,SUM(b.r_s_6_2_2 = '3') AS count_val3_r_s_6_2_2,</v>
       </c>
     </row>
@@ -17961,7 +17961,7 @@
         <v>1212</v>
       </c>
       <c r="D66" s="14" t="str">
-        <f t="shared" ref="D66:D97" si="30">CONCATENATE("SUM(b.",A66," = '1') AS count_val1_",A66,", SUM(b.",A66," = '2') AS count_val2_",A66,",")</f>
+        <f t="shared" ref="D66" si="30">CONCATENATE("SUM(b.",A66," = '1') AS count_val1_",A66,", SUM(b.",A66," = '2') AS count_val2_",A66,",")</f>
         <v>SUM(b.r_s_7_1_1 = '1') AS count_val1_r_s_7_1_1, SUM(b.r_s_7_1_1 = '2') AS count_val2_r_s_7_1_1,</v>
       </c>
     </row>
@@ -17976,7 +17976,7 @@
         <v>1212</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D98" si="31">CONCATENATE("SUM(b.",A67," = '1') AS count_val1_",A67,", SUM(b.",A67," = '2') AS count_val2_",A67,",", "SUM(b.",A67," = '3') AS count_val3_",A67,",")</f>
+        <f t="shared" ref="D67" si="31">CONCATENATE("SUM(b.",A67," = '1') AS count_val1_",A67,", SUM(b.",A67," = '2') AS count_val2_",A67,",", "SUM(b.",A67," = '3') AS count_val3_",A67,",")</f>
         <v>SUM(b.r_s_7_1_2 = '1') AS count_val1_r_s_7_1_2, SUM(b.r_s_7_1_2 = '2') AS count_val2_r_s_7_1_2,SUM(b.r_s_7_1_2 = '3') AS count_val3_r_s_7_1_2,</v>
       </c>
     </row>
@@ -18013,7 +18013,7 @@
         <v>1212</v>
       </c>
       <c r="D70" s="14" t="str">
-        <f t="shared" ref="D70:D101" si="32">CONCATENATE("SUM(b.",A70," = '1') AS count_val1_",A70,", SUM(b.",A70," = '2') AS count_val2_",A70,",")</f>
+        <f t="shared" ref="D70" si="32">CONCATENATE("SUM(b.",A70," = '1') AS count_val1_",A70,", SUM(b.",A70," = '2') AS count_val2_",A70,",")</f>
         <v>SUM(b.r_s_7_2_1 = '1') AS count_val1_r_s_7_2_1, SUM(b.r_s_7_2_1 = '2') AS count_val2_r_s_7_2_1,</v>
       </c>
     </row>
@@ -18028,7 +18028,7 @@
         <v>1212</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" ref="D71:D102" si="33">CONCATENATE("SUM(b.",A71," = '1') AS count_val1_",A71,", SUM(b.",A71," = '2') AS count_val2_",A71,",", "SUM(b.",A71," = '3') AS count_val3_",A71,",")</f>
+        <f t="shared" ref="D71" si="33">CONCATENATE("SUM(b.",A71," = '1') AS count_val1_",A71,", SUM(b.",A71," = '2') AS count_val2_",A71,",", "SUM(b.",A71," = '3') AS count_val3_",A71,",")</f>
         <v>SUM(b.r_s_7_2_2 = '1') AS count_val1_r_s_7_2_2, SUM(b.r_s_7_2_2 = '2') AS count_val2_r_s_7_2_2,SUM(b.r_s_7_2_2 = '3') AS count_val3_r_s_7_2_2,</v>
       </c>
     </row>
@@ -18065,7 +18065,7 @@
         <v>1212</v>
       </c>
       <c r="D74" s="14" t="str">
-        <f t="shared" ref="D74:D105" si="34">CONCATENATE("SUM(b.",A74," = '1') AS count_val1_",A74,", SUM(b.",A74," = '2') AS count_val2_",A74,",")</f>
+        <f t="shared" ref="D74" si="34">CONCATENATE("SUM(b.",A74," = '1') AS count_val1_",A74,", SUM(b.",A74," = '2') AS count_val2_",A74,",")</f>
         <v>SUM(b.r_s_8_1_1 = '1') AS count_val1_r_s_8_1_1, SUM(b.r_s_8_1_1 = '2') AS count_val2_r_s_8_1_1,</v>
       </c>
     </row>
@@ -18080,7 +18080,7 @@
         <v>1212</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" ref="D75:D106" si="35">CONCATENATE("SUM(b.",A75," = '1') AS count_val1_",A75,", SUM(b.",A75," = '2') AS count_val2_",A75,",", "SUM(b.",A75," = '3') AS count_val3_",A75,",")</f>
+        <f t="shared" ref="D75" si="35">CONCATENATE("SUM(b.",A75," = '1') AS count_val1_",A75,", SUM(b.",A75," = '2') AS count_val2_",A75,",", "SUM(b.",A75," = '3') AS count_val3_",A75,",")</f>
         <v>SUM(b.r_s_8_1_2 = '1') AS count_val1_r_s_8_1_2, SUM(b.r_s_8_1_2 = '2') AS count_val2_r_s_8_1_2,SUM(b.r_s_8_1_2 = '3') AS count_val3_r_s_8_1_2,</v>
       </c>
     </row>
@@ -18117,7 +18117,7 @@
         <v>1212</v>
       </c>
       <c r="D78" s="14" t="str">
-        <f t="shared" ref="D78:D109" si="36">CONCATENATE("SUM(b.",A78," = '1') AS count_val1_",A78,", SUM(b.",A78," = '2') AS count_val2_",A78,",")</f>
+        <f t="shared" ref="D78" si="36">CONCATENATE("SUM(b.",A78," = '1') AS count_val1_",A78,", SUM(b.",A78," = '2') AS count_val2_",A78,",")</f>
         <v>SUM(b.r_s_8_2_1 = '1') AS count_val1_r_s_8_2_1, SUM(b.r_s_8_2_1 = '2') AS count_val2_r_s_8_2_1,</v>
       </c>
     </row>
@@ -18132,7 +18132,7 @@
         <v>1212</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" ref="D79:D110" si="37">CONCATENATE("SUM(b.",A79," = '1') AS count_val1_",A79,", SUM(b.",A79," = '2') AS count_val2_",A79,",", "SUM(b.",A79," = '3') AS count_val3_",A79,",")</f>
+        <f t="shared" ref="D79" si="37">CONCATENATE("SUM(b.",A79," = '1') AS count_val1_",A79,", SUM(b.",A79," = '2') AS count_val2_",A79,",", "SUM(b.",A79," = '3') AS count_val3_",A79,",")</f>
         <v>SUM(b.r_s_8_2_2 = '1') AS count_val1_r_s_8_2_2, SUM(b.r_s_8_2_2 = '2') AS count_val2_r_s_8_2_2,SUM(b.r_s_8_2_2 = '3') AS count_val3_r_s_8_2_2,</v>
       </c>
     </row>
@@ -18169,7 +18169,7 @@
         <v>1212</v>
       </c>
       <c r="D82" s="14" t="str">
-        <f t="shared" ref="D82:D113" si="38">CONCATENATE("SUM(b.",A82," = '1') AS count_val1_",A82,", SUM(b.",A82," = '2') AS count_val2_",A82,",")</f>
+        <f t="shared" ref="D82" si="38">CONCATENATE("SUM(b.",A82," = '1') AS count_val1_",A82,", SUM(b.",A82," = '2') AS count_val2_",A82,",")</f>
         <v>SUM(b.r_s_9_1_1 = '1') AS count_val1_r_s_9_1_1, SUM(b.r_s_9_1_1 = '2') AS count_val2_r_s_9_1_1,</v>
       </c>
     </row>
@@ -18184,7 +18184,7 @@
         <v>1212</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" ref="D83:D114" si="39">CONCATENATE("SUM(b.",A83," = '1') AS count_val1_",A83,", SUM(b.",A83," = '2') AS count_val2_",A83,",", "SUM(b.",A83," = '3') AS count_val3_",A83,",")</f>
+        <f t="shared" ref="D83" si="39">CONCATENATE("SUM(b.",A83," = '1') AS count_val1_",A83,", SUM(b.",A83," = '2') AS count_val2_",A83,",", "SUM(b.",A83," = '3') AS count_val3_",A83,",")</f>
         <v>SUM(b.r_s_9_1_2 = '1') AS count_val1_r_s_9_1_2, SUM(b.r_s_9_1_2 = '2') AS count_val2_r_s_9_1_2,SUM(b.r_s_9_1_2 = '3') AS count_val3_r_s_9_1_2,</v>
       </c>
     </row>
@@ -18221,7 +18221,7 @@
         <v>1212</v>
       </c>
       <c r="D86" s="14" t="str">
-        <f t="shared" ref="D86:D117" si="40">CONCATENATE("SUM(b.",A86," = '1') AS count_val1_",A86,", SUM(b.",A86," = '2') AS count_val2_",A86,",")</f>
+        <f t="shared" ref="D86" si="40">CONCATENATE("SUM(b.",A86," = '1') AS count_val1_",A86,", SUM(b.",A86," = '2') AS count_val2_",A86,",")</f>
         <v>SUM(b.r_s_9_2_1 = '1') AS count_val1_r_s_9_2_1, SUM(b.r_s_9_2_1 = '2') AS count_val2_r_s_9_2_1,</v>
       </c>
     </row>
@@ -18236,7 +18236,7 @@
         <v>1212</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" ref="D87:D118" si="41">CONCATENATE("SUM(b.",A87," = '1') AS count_val1_",A87,", SUM(b.",A87," = '2') AS count_val2_",A87,",", "SUM(b.",A87," = '3') AS count_val3_",A87,",")</f>
+        <f t="shared" ref="D87" si="41">CONCATENATE("SUM(b.",A87," = '1') AS count_val1_",A87,", SUM(b.",A87," = '2') AS count_val2_",A87,",", "SUM(b.",A87," = '3') AS count_val3_",A87,",")</f>
         <v>SUM(b.r_s_9_2_2 = '1') AS count_val1_r_s_9_2_2, SUM(b.r_s_9_2_2 = '2') AS count_val2_r_s_9_2_2,SUM(b.r_s_9_2_2 = '3') AS count_val3_r_s_9_2_2,</v>
       </c>
     </row>
@@ -18273,7 +18273,7 @@
         <v>1212</v>
       </c>
       <c r="D90" s="14" t="str">
-        <f t="shared" ref="D90:D121" si="42">CONCATENATE("SUM(b.",A90," = '1') AS count_val1_",A90,", SUM(b.",A90," = '2') AS count_val2_",A90,",")</f>
+        <f t="shared" ref="D90" si="42">CONCATENATE("SUM(b.",A90," = '1') AS count_val1_",A90,", SUM(b.",A90," = '2') AS count_val2_",A90,",")</f>
         <v>SUM(b.r_s_789_additional_1_1 = '1') AS count_val1_r_s_789_additional_1_1, SUM(b.r_s_789_additional_1_1 = '2') AS count_val2_r_s_789_additional_1_1,</v>
       </c>
     </row>
@@ -18288,7 +18288,7 @@
         <v>1212</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" ref="D91:D122" si="43">CONCATENATE("SUM(b.",A91," = '1') AS count_val1_",A91,", SUM(b.",A91," = '2') AS count_val2_",A91,",", "SUM(b.",A91," = '3') AS count_val3_",A91,",")</f>
+        <f t="shared" ref="D91" si="43">CONCATENATE("SUM(b.",A91," = '1') AS count_val1_",A91,", SUM(b.",A91," = '2') AS count_val2_",A91,",", "SUM(b.",A91," = '3') AS count_val3_",A91,",")</f>
         <v>SUM(b.r_s_789_additional_1_2 = '1') AS count_val1_r_s_789_additional_1_2, SUM(b.r_s_789_additional_1_2 = '2') AS count_val2_r_s_789_additional_1_2,SUM(b.r_s_789_additional_1_2 = '3') AS count_val3_r_s_789_additional_1_2,</v>
       </c>
     </row>
@@ -18325,7 +18325,7 @@
         <v>1212</v>
       </c>
       <c r="D94" s="14" t="str">
-        <f t="shared" ref="D94:D125" si="44">CONCATENATE("SUM(b.",A94," = '1') AS count_val1_",A94,", SUM(b.",A94," = '2') AS count_val2_",A94,",")</f>
+        <f t="shared" ref="D94" si="44">CONCATENATE("SUM(b.",A94," = '1') AS count_val1_",A94,", SUM(b.",A94," = '2') AS count_val2_",A94,",")</f>
         <v>SUM(b.r_s_789_additional_2_1 = '1') AS count_val1_r_s_789_additional_2_1, SUM(b.r_s_789_additional_2_1 = '2') AS count_val2_r_s_789_additional_2_1,</v>
       </c>
     </row>
@@ -18340,7 +18340,7 @@
         <v>1212</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" ref="D95:D126" si="45">CONCATENATE("SUM(b.",A95," = '1') AS count_val1_",A95,", SUM(b.",A95," = '2') AS count_val2_",A95,",", "SUM(b.",A95," = '3') AS count_val3_",A95,",")</f>
+        <f t="shared" ref="D95" si="45">CONCATENATE("SUM(b.",A95," = '1') AS count_val1_",A95,", SUM(b.",A95," = '2') AS count_val2_",A95,",", "SUM(b.",A95," = '3') AS count_val3_",A95,",")</f>
         <v>SUM(b.r_s_789_additional_2_2 = '1') AS count_val1_r_s_789_additional_2_2, SUM(b.r_s_789_additional_2_2 = '2') AS count_val2_r_s_789_additional_2_2,SUM(b.r_s_789_additional_2_2 = '3') AS count_val3_r_s_789_additional_2_2,</v>
       </c>
     </row>
@@ -18377,7 +18377,7 @@
         <v>1212</v>
       </c>
       <c r="D98" s="14" t="str">
-        <f t="shared" ref="D98:D129" si="46">CONCATENATE("SUM(b.",A98," = '1') AS count_val1_",A98,", SUM(b.",A98," = '2') AS count_val2_",A98,",")</f>
+        <f t="shared" ref="D98" si="46">CONCATENATE("SUM(b.",A98," = '1') AS count_val1_",A98,", SUM(b.",A98," = '2') AS count_val2_",A98,",")</f>
         <v>SUM(b.r_s_789_additional_3_1 = '1') AS count_val1_r_s_789_additional_3_1, SUM(b.r_s_789_additional_3_1 = '2') AS count_val2_r_s_789_additional_3_1,</v>
       </c>
     </row>
@@ -18392,7 +18392,7 @@
         <v>1212</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" ref="D99:D130" si="47">CONCATENATE("SUM(b.",A99," = '1') AS count_val1_",A99,", SUM(b.",A99," = '2') AS count_val2_",A99,",", "SUM(b.",A99," = '3') AS count_val3_",A99,",")</f>
+        <f t="shared" ref="D99" si="47">CONCATENATE("SUM(b.",A99," = '1') AS count_val1_",A99,", SUM(b.",A99," = '2') AS count_val2_",A99,",", "SUM(b.",A99," = '3') AS count_val3_",A99,",")</f>
         <v>SUM(b.r_s_789_additional_3_2 = '1') AS count_val1_r_s_789_additional_3_2, SUM(b.r_s_789_additional_3_2 = '2') AS count_val2_r_s_789_additional_3_2,SUM(b.r_s_789_additional_3_2 = '3') AS count_val3_r_s_789_additional_3_2,</v>
       </c>
     </row>
@@ -18429,7 +18429,7 @@
         <v>1212</v>
       </c>
       <c r="D102" s="14" t="str">
-        <f t="shared" ref="D102:D133" si="48">CONCATENATE("SUM(b.",A102," = '1') AS count_val1_",A102,", SUM(b.",A102," = '2') AS count_val2_",A102,",")</f>
+        <f t="shared" ref="D102" si="48">CONCATENATE("SUM(b.",A102," = '1') AS count_val1_",A102,", SUM(b.",A102," = '2') AS count_val2_",A102,",")</f>
         <v>SUM(b.r_s_789_additional_4_1 = '1') AS count_val1_r_s_789_additional_4_1, SUM(b.r_s_789_additional_4_1 = '2') AS count_val2_r_s_789_additional_4_1,</v>
       </c>
     </row>
@@ -18444,7 +18444,7 @@
         <v>1212</v>
       </c>
       <c r="D103" t="str">
-        <f t="shared" ref="D103:D134" si="49">CONCATENATE("SUM(b.",A103," = '1') AS count_val1_",A103,", SUM(b.",A103," = '2') AS count_val2_",A103,",", "SUM(b.",A103," = '3') AS count_val3_",A103,",")</f>
+        <f t="shared" ref="D103" si="49">CONCATENATE("SUM(b.",A103," = '1') AS count_val1_",A103,", SUM(b.",A103," = '2') AS count_val2_",A103,",", "SUM(b.",A103," = '3') AS count_val3_",A103,",")</f>
         <v>SUM(b.r_s_789_additional_4_2 = '1') AS count_val1_r_s_789_additional_4_2, SUM(b.r_s_789_additional_4_2 = '2') AS count_val2_r_s_789_additional_4_2,SUM(b.r_s_789_additional_4_2 = '3') AS count_val3_r_s_789_additional_4_2,</v>
       </c>
     </row>
@@ -18481,7 +18481,7 @@
         <v>1212</v>
       </c>
       <c r="D106" s="14" t="str">
-        <f t="shared" ref="D106:D137" si="50">CONCATENATE("SUM(b.",A106," = '1') AS count_val1_",A106,", SUM(b.",A106," = '2') AS count_val2_",A106,",")</f>
+        <f t="shared" ref="D106" si="50">CONCATENATE("SUM(b.",A106," = '1') AS count_val1_",A106,", SUM(b.",A106," = '2') AS count_val2_",A106,",")</f>
         <v>SUM(b.r_s_789_additional_5_1 = '1') AS count_val1_r_s_789_additional_5_1, SUM(b.r_s_789_additional_5_1 = '2') AS count_val2_r_s_789_additional_5_1,</v>
       </c>
     </row>
@@ -18496,7 +18496,7 @@
         <v>1212</v>
       </c>
       <c r="D107" t="str">
-        <f t="shared" ref="D107:D138" si="51">CONCATENATE("SUM(b.",A107," = '1') AS count_val1_",A107,", SUM(b.",A107," = '2') AS count_val2_",A107,",", "SUM(b.",A107," = '3') AS count_val3_",A107,",")</f>
+        <f t="shared" ref="D107" si="51">CONCATENATE("SUM(b.",A107," = '1') AS count_val1_",A107,", SUM(b.",A107," = '2') AS count_val2_",A107,",", "SUM(b.",A107," = '3') AS count_val3_",A107,",")</f>
         <v>SUM(b.r_s_789_additional_5_2 = '1') AS count_val1_r_s_789_additional_5_2, SUM(b.r_s_789_additional_5_2 = '2') AS count_val2_r_s_789_additional_5_2,SUM(b.r_s_789_additional_5_2 = '3') AS count_val3_r_s_789_additional_5_2,</v>
       </c>
     </row>
@@ -18533,7 +18533,7 @@
         <v>1212</v>
       </c>
       <c r="D110" s="14" t="str">
-        <f t="shared" ref="D110:D141" si="52">CONCATENATE("SUM(b.",A110," = '1') AS count_val1_",A110,", SUM(b.",A110," = '2') AS count_val2_",A110,",")</f>
+        <f t="shared" ref="D110" si="52">CONCATENATE("SUM(b.",A110," = '1') AS count_val1_",A110,", SUM(b.",A110," = '2') AS count_val2_",A110,",")</f>
         <v>SUM(b.r_s_101112n_1_1 = '1') AS count_val1_r_s_101112n_1_1, SUM(b.r_s_101112n_1_1 = '2') AS count_val2_r_s_101112n_1_1,</v>
       </c>
     </row>
@@ -18548,7 +18548,7 @@
         <v>1212</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" ref="D111:D142" si="53">CONCATENATE("SUM(b.",A111," = '1') AS count_val1_",A111,", SUM(b.",A111," = '2') AS count_val2_",A111,",", "SUM(b.",A111," = '3') AS count_val3_",A111,",")</f>
+        <f t="shared" ref="D111" si="53">CONCATENATE("SUM(b.",A111," = '1') AS count_val1_",A111,", SUM(b.",A111," = '2') AS count_val2_",A111,",", "SUM(b.",A111," = '3') AS count_val3_",A111,",")</f>
         <v>SUM(b.r_s_101112n_1_2 = '1') AS count_val1_r_s_101112n_1_2, SUM(b.r_s_101112n_1_2 = '2') AS count_val2_r_s_101112n_1_2,SUM(b.r_s_101112n_1_2 = '3') AS count_val3_r_s_101112n_1_2,</v>
       </c>
     </row>
@@ -18585,7 +18585,7 @@
         <v>1212</v>
       </c>
       <c r="D114" s="14" t="str">
-        <f t="shared" ref="D114:D145" si="54">CONCATENATE("SUM(b.",A114," = '1') AS count_val1_",A114,", SUM(b.",A114," = '2') AS count_val2_",A114,",")</f>
+        <f t="shared" ref="D114" si="54">CONCATENATE("SUM(b.",A114," = '1') AS count_val1_",A114,", SUM(b.",A114," = '2') AS count_val2_",A114,",")</f>
         <v>SUM(b.r_s_101112n_2_1 = '1') AS count_val1_r_s_101112n_2_1, SUM(b.r_s_101112n_2_1 = '2') AS count_val2_r_s_101112n_2_1,</v>
       </c>
     </row>
@@ -18600,7 +18600,7 @@
         <v>1212</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" ref="D115:D146" si="55">CONCATENATE("SUM(b.",A115," = '1') AS count_val1_",A115,", SUM(b.",A115," = '2') AS count_val2_",A115,",", "SUM(b.",A115," = '3') AS count_val3_",A115,",")</f>
+        <f t="shared" ref="D115" si="55">CONCATENATE("SUM(b.",A115," = '1') AS count_val1_",A115,", SUM(b.",A115," = '2') AS count_val2_",A115,",", "SUM(b.",A115," = '3') AS count_val3_",A115,",")</f>
         <v>SUM(b.r_s_101112n_2_2 = '1') AS count_val1_r_s_101112n_2_2, SUM(b.r_s_101112n_2_2 = '2') AS count_val2_r_s_101112n_2_2,SUM(b.r_s_101112n_2_2 = '3') AS count_val3_r_s_101112n_2_2,</v>
       </c>
     </row>
@@ -18637,7 +18637,7 @@
         <v>1212</v>
       </c>
       <c r="D118" s="14" t="str">
-        <f t="shared" ref="D118:D149" si="56">CONCATENATE("SUM(b.",A118," = '1') AS count_val1_",A118,", SUM(b.",A118," = '2') AS count_val2_",A118,",")</f>
+        <f t="shared" ref="D118" si="56">CONCATENATE("SUM(b.",A118," = '1') AS count_val1_",A118,", SUM(b.",A118," = '2') AS count_val2_",A118,",")</f>
         <v>SUM(b.r_s_101112n_3_1 = '1') AS count_val1_r_s_101112n_3_1, SUM(b.r_s_101112n_3_1 = '2') AS count_val2_r_s_101112n_3_1,</v>
       </c>
     </row>
@@ -18652,7 +18652,7 @@
         <v>1212</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" ref="D119:D150" si="57">CONCATENATE("SUM(b.",A119," = '1') AS count_val1_",A119,", SUM(b.",A119," = '2') AS count_val2_",A119,",", "SUM(b.",A119," = '3') AS count_val3_",A119,",")</f>
+        <f t="shared" ref="D119" si="57">CONCATENATE("SUM(b.",A119," = '1') AS count_val1_",A119,", SUM(b.",A119," = '2') AS count_val2_",A119,",", "SUM(b.",A119," = '3') AS count_val3_",A119,",")</f>
         <v>SUM(b.r_s_101112n_3_2 = '1') AS count_val1_r_s_101112n_3_2, SUM(b.r_s_101112n_3_2 = '2') AS count_val2_r_s_101112n_3_2,SUM(b.r_s_101112n_3_2 = '3') AS count_val3_r_s_101112n_3_2,</v>
       </c>
     </row>
@@ -18689,7 +18689,7 @@
         <v>1212</v>
       </c>
       <c r="D122" s="14" t="str">
-        <f t="shared" ref="D122:D153" si="58">CONCATENATE("SUM(b.",A122," = '1') AS count_val1_",A122,", SUM(b.",A122," = '2') AS count_val2_",A122,",")</f>
+        <f t="shared" ref="D122" si="58">CONCATENATE("SUM(b.",A122," = '1') AS count_val1_",A122,", SUM(b.",A122," = '2') AS count_val2_",A122,",")</f>
         <v>SUM(b.r_s_101112n_4_1 = '1') AS count_val1_r_s_101112n_4_1, SUM(b.r_s_101112n_4_1 = '2') AS count_val2_r_s_101112n_4_1,</v>
       </c>
     </row>
@@ -18704,7 +18704,7 @@
         <v>1212</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" ref="D123:D154" si="59">CONCATENATE("SUM(b.",A123," = '1') AS count_val1_",A123,", SUM(b.",A123," = '2') AS count_val2_",A123,",", "SUM(b.",A123," = '3') AS count_val3_",A123,",")</f>
+        <f t="shared" ref="D123" si="59">CONCATENATE("SUM(b.",A123," = '1') AS count_val1_",A123,", SUM(b.",A123," = '2') AS count_val2_",A123,",", "SUM(b.",A123," = '3') AS count_val3_",A123,",")</f>
         <v>SUM(b.r_s_101112n_4_2 = '1') AS count_val1_r_s_101112n_4_2, SUM(b.r_s_101112n_4_2 = '2') AS count_val2_r_s_101112n_4_2,SUM(b.r_s_101112n_4_2 = '3') AS count_val3_r_s_101112n_4_2,</v>
       </c>
     </row>
@@ -18741,7 +18741,7 @@
         <v>1212</v>
       </c>
       <c r="D126" s="14" t="str">
-        <f t="shared" ref="D126:D157" si="60">CONCATENATE("SUM(b.",A126," = '1') AS count_val1_",A126,", SUM(b.",A126," = '2') AS count_val2_",A126,",")</f>
+        <f t="shared" ref="D126" si="60">CONCATENATE("SUM(b.",A126," = '1') AS count_val1_",A126,", SUM(b.",A126," = '2') AS count_val2_",A126,",")</f>
         <v>SUM(b.r_s_101112n_5_1 = '1') AS count_val1_r_s_101112n_5_1, SUM(b.r_s_101112n_5_1 = '2') AS count_val2_r_s_101112n_5_1,</v>
       </c>
     </row>
@@ -18756,7 +18756,7 @@
         <v>1212</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" ref="D127:D158" si="61">CONCATENATE("SUM(b.",A127," = '1') AS count_val1_",A127,", SUM(b.",A127," = '2') AS count_val2_",A127,",", "SUM(b.",A127," = '3') AS count_val3_",A127,",")</f>
+        <f t="shared" ref="D127" si="61">CONCATENATE("SUM(b.",A127," = '1') AS count_val1_",A127,", SUM(b.",A127," = '2') AS count_val2_",A127,",", "SUM(b.",A127," = '3') AS count_val3_",A127,",")</f>
         <v>SUM(b.r_s_101112n_5_2 = '1') AS count_val1_r_s_101112n_5_2, SUM(b.r_s_101112n_5_2 = '2') AS count_val2_r_s_101112n_5_2,SUM(b.r_s_101112n_5_2 = '3') AS count_val3_r_s_101112n_5_2,</v>
       </c>
     </row>
@@ -18793,7 +18793,7 @@
         <v>1212</v>
       </c>
       <c r="D130" s="14" t="str">
-        <f t="shared" ref="D130:D161" si="62">CONCATENATE("SUM(b.",A130," = '1') AS count_val1_",A130,", SUM(b.",A130," = '2') AS count_val2_",A130,",")</f>
+        <f t="shared" ref="D130" si="62">CONCATENATE("SUM(b.",A130," = '1') AS count_val1_",A130,", SUM(b.",A130," = '2') AS count_val2_",A130,",")</f>
         <v>SUM(b.r_s_101112n_6_1 = '1') AS count_val1_r_s_101112n_6_1, SUM(b.r_s_101112n_6_1 = '2') AS count_val2_r_s_101112n_6_1,</v>
       </c>
     </row>
@@ -18808,7 +18808,7 @@
         <v>1212</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131:D162" si="63">CONCATENATE("SUM(b.",A131," = '1') AS count_val1_",A131,", SUM(b.",A131," = '2') AS count_val2_",A131,",", "SUM(b.",A131," = '3') AS count_val3_",A131,",")</f>
+        <f t="shared" ref="D131" si="63">CONCATENATE("SUM(b.",A131," = '1') AS count_val1_",A131,", SUM(b.",A131," = '2') AS count_val2_",A131,",", "SUM(b.",A131," = '3') AS count_val3_",A131,",")</f>
         <v>SUM(b.r_s_101112n_6_2 = '1') AS count_val1_r_s_101112n_6_2, SUM(b.r_s_101112n_6_2 = '2') AS count_val2_r_s_101112n_6_2,SUM(b.r_s_101112n_6_2 = '3') AS count_val3_r_s_101112n_6_2,</v>
       </c>
     </row>
@@ -18845,7 +18845,7 @@
         <v>1212</v>
       </c>
       <c r="D134" s="14" t="str">
-        <f t="shared" ref="D134:D165" si="64">CONCATENATE("SUM(b.",A134," = '1') AS count_val1_",A134,", SUM(b.",A134," = '2') AS count_val2_",A134,",")</f>
+        <f t="shared" ref="D134" si="64">CONCATENATE("SUM(b.",A134," = '1') AS count_val1_",A134,", SUM(b.",A134," = '2') AS count_val2_",A134,",")</f>
         <v>SUM(b.r_s_101112p_1_1 = '1') AS count_val1_r_s_101112p_1_1, SUM(b.r_s_101112p_1_1 = '2') AS count_val2_r_s_101112p_1_1,</v>
       </c>
     </row>
@@ -18860,7 +18860,7 @@
         <v>1212</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" ref="D135:D166" si="65">CONCATENATE("SUM(b.",A135," = '1') AS count_val1_",A135,", SUM(b.",A135," = '2') AS count_val2_",A135,",", "SUM(b.",A135," = '3') AS count_val3_",A135,",")</f>
+        <f t="shared" ref="D135" si="65">CONCATENATE("SUM(b.",A135," = '1') AS count_val1_",A135,", SUM(b.",A135," = '2') AS count_val2_",A135,",", "SUM(b.",A135," = '3') AS count_val3_",A135,",")</f>
         <v>SUM(b.r_s_101112p_1_2 = '1') AS count_val1_r_s_101112p_1_2, SUM(b.r_s_101112p_1_2 = '2') AS count_val2_r_s_101112p_1_2,SUM(b.r_s_101112p_1_2 = '3') AS count_val3_r_s_101112p_1_2,</v>
       </c>
     </row>
@@ -18897,7 +18897,7 @@
         <v>1212</v>
       </c>
       <c r="D138" s="14" t="str">
-        <f t="shared" ref="D138:D169" si="66">CONCATENATE("SUM(b.",A138," = '1') AS count_val1_",A138,", SUM(b.",A138," = '2') AS count_val2_",A138,",")</f>
+        <f t="shared" ref="D138" si="66">CONCATENATE("SUM(b.",A138," = '1') AS count_val1_",A138,", SUM(b.",A138," = '2') AS count_val2_",A138,",")</f>
         <v>SUM(b.r_s_101112p_2_1 = '1') AS count_val1_r_s_101112p_2_1, SUM(b.r_s_101112p_2_1 = '2') AS count_val2_r_s_101112p_2_1,</v>
       </c>
     </row>
@@ -18912,7 +18912,7 @@
         <v>1212</v>
       </c>
       <c r="D139" t="str">
-        <f t="shared" ref="D139:D170" si="67">CONCATENATE("SUM(b.",A139," = '1') AS count_val1_",A139,", SUM(b.",A139," = '2') AS count_val2_",A139,",", "SUM(b.",A139," = '3') AS count_val3_",A139,",")</f>
+        <f t="shared" ref="D139" si="67">CONCATENATE("SUM(b.",A139," = '1') AS count_val1_",A139,", SUM(b.",A139," = '2') AS count_val2_",A139,",", "SUM(b.",A139," = '3') AS count_val3_",A139,",")</f>
         <v>SUM(b.r_s_101112p_2_2 = '1') AS count_val1_r_s_101112p_2_2, SUM(b.r_s_101112p_2_2 = '2') AS count_val2_r_s_101112p_2_2,SUM(b.r_s_101112p_2_2 = '3') AS count_val3_r_s_101112p_2_2,</v>
       </c>
     </row>
@@ -18949,7 +18949,7 @@
         <v>1212</v>
       </c>
       <c r="D142" s="14" t="str">
-        <f t="shared" ref="D142:D173" si="68">CONCATENATE("SUM(b.",A142," = '1') AS count_val1_",A142,", SUM(b.",A142," = '2') AS count_val2_",A142,",")</f>
+        <f t="shared" ref="D142" si="68">CONCATENATE("SUM(b.",A142," = '1') AS count_val1_",A142,", SUM(b.",A142," = '2') AS count_val2_",A142,",")</f>
         <v>SUM(b.r_s_101112p_3_1 = '1') AS count_val1_r_s_101112p_3_1, SUM(b.r_s_101112p_3_1 = '2') AS count_val2_r_s_101112p_3_1,</v>
       </c>
     </row>
@@ -18964,7 +18964,7 @@
         <v>1212</v>
       </c>
       <c r="D143" t="str">
-        <f t="shared" ref="D143:D174" si="69">CONCATENATE("SUM(b.",A143," = '1') AS count_val1_",A143,", SUM(b.",A143," = '2') AS count_val2_",A143,",", "SUM(b.",A143," = '3') AS count_val3_",A143,",")</f>
+        <f t="shared" ref="D143" si="69">CONCATENATE("SUM(b.",A143," = '1') AS count_val1_",A143,", SUM(b.",A143," = '2') AS count_val2_",A143,",", "SUM(b.",A143," = '3') AS count_val3_",A143,",")</f>
         <v>SUM(b.r_s_101112p_3_2 = '1') AS count_val1_r_s_101112p_3_2, SUM(b.r_s_101112p_3_2 = '2') AS count_val2_r_s_101112p_3_2,SUM(b.r_s_101112p_3_2 = '3') AS count_val3_r_s_101112p_3_2,</v>
       </c>
     </row>
@@ -19001,7 +19001,7 @@
         <v>1212</v>
       </c>
       <c r="D146" s="14" t="str">
-        <f t="shared" ref="D146:D177" si="70">CONCATENATE("SUM(b.",A146," = '1') AS count_val1_",A146,", SUM(b.",A146," = '2') AS count_val2_",A146,",")</f>
+        <f t="shared" ref="D146" si="70">CONCATENATE("SUM(b.",A146," = '1') AS count_val1_",A146,", SUM(b.",A146," = '2') AS count_val2_",A146,",")</f>
         <v>SUM(b.r_s_101112p_4_1 = '1') AS count_val1_r_s_101112p_4_1, SUM(b.r_s_101112p_4_1 = '2') AS count_val2_r_s_101112p_4_1,</v>
       </c>
     </row>
@@ -19016,7 +19016,7 @@
         <v>1212</v>
       </c>
       <c r="D147" t="str">
-        <f t="shared" ref="D147:D178" si="71">CONCATENATE("SUM(b.",A147," = '1') AS count_val1_",A147,", SUM(b.",A147," = '2') AS count_val2_",A147,",", "SUM(b.",A147," = '3') AS count_val3_",A147,",")</f>
+        <f t="shared" ref="D147" si="71">CONCATENATE("SUM(b.",A147," = '1') AS count_val1_",A147,", SUM(b.",A147," = '2') AS count_val2_",A147,",", "SUM(b.",A147," = '3') AS count_val3_",A147,",")</f>
         <v>SUM(b.r_s_101112p_4_2 = '1') AS count_val1_r_s_101112p_4_2, SUM(b.r_s_101112p_4_2 = '2') AS count_val2_r_s_101112p_4_2,SUM(b.r_s_101112p_4_2 = '3') AS count_val3_r_s_101112p_4_2,</v>
       </c>
     </row>
@@ -19053,7 +19053,7 @@
         <v>1212</v>
       </c>
       <c r="D150" s="14" t="str">
-        <f t="shared" ref="D150:D181" si="72">CONCATENATE("SUM(b.",A150," = '1') AS count_val1_",A150,", SUM(b.",A150," = '2') AS count_val2_",A150,",")</f>
+        <f t="shared" ref="D150" si="72">CONCATENATE("SUM(b.",A150," = '1') AS count_val1_",A150,", SUM(b.",A150," = '2') AS count_val2_",A150,",")</f>
         <v>SUM(b.r_s_101112p_5_1 = '1') AS count_val1_r_s_101112p_5_1, SUM(b.r_s_101112p_5_1 = '2') AS count_val2_r_s_101112p_5_1,</v>
       </c>
     </row>
@@ -19068,7 +19068,7 @@
         <v>1212</v>
       </c>
       <c r="D151" t="str">
-        <f t="shared" ref="D151:D182" si="73">CONCATENATE("SUM(b.",A151," = '1') AS count_val1_",A151,", SUM(b.",A151," = '2') AS count_val2_",A151,",", "SUM(b.",A151," = '3') AS count_val3_",A151,",")</f>
+        <f t="shared" ref="D151" si="73">CONCATENATE("SUM(b.",A151," = '1') AS count_val1_",A151,", SUM(b.",A151," = '2') AS count_val2_",A151,",", "SUM(b.",A151," = '3') AS count_val3_",A151,",")</f>
         <v>SUM(b.r_s_101112p_5_2 = '1') AS count_val1_r_s_101112p_5_2, SUM(b.r_s_101112p_5_2 = '2') AS count_val2_r_s_101112p_5_2,SUM(b.r_s_101112p_5_2 = '3') AS count_val3_r_s_101112p_5_2,</v>
       </c>
     </row>
@@ -19105,7 +19105,7 @@
         <v>1212</v>
       </c>
       <c r="D154" s="14" t="str">
-        <f t="shared" ref="D154:D185" si="74">CONCATENATE("SUM(b.",A154," = '1') AS count_val1_",A154,", SUM(b.",A154," = '2') AS count_val2_",A154,",")</f>
+        <f t="shared" ref="D154" si="74">CONCATENATE("SUM(b.",A154," = '1') AS count_val1_",A154,", SUM(b.",A154," = '2') AS count_val2_",A154,",")</f>
         <v>SUM(b.r_s_101112p_6_1 = '1') AS count_val1_r_s_101112p_6_1, SUM(b.r_s_101112p_6_1 = '2') AS count_val2_r_s_101112p_6_1,</v>
       </c>
     </row>
@@ -19120,7 +19120,7 @@
         <v>1212</v>
       </c>
       <c r="D155" t="str">
-        <f t="shared" ref="D155:D186" si="75">CONCATENATE("SUM(b.",A155," = '1') AS count_val1_",A155,", SUM(b.",A155," = '2') AS count_val2_",A155,",", "SUM(b.",A155," = '3') AS count_val3_",A155,",")</f>
+        <f t="shared" ref="D155" si="75">CONCATENATE("SUM(b.",A155," = '1') AS count_val1_",A155,", SUM(b.",A155," = '2') AS count_val2_",A155,",", "SUM(b.",A155," = '3') AS count_val3_",A155,",")</f>
         <v>SUM(b.r_s_101112p_6_2 = '1') AS count_val1_r_s_101112p_6_2, SUM(b.r_s_101112p_6_2 = '2') AS count_val2_r_s_101112p_6_2,SUM(b.r_s_101112p_6_2 = '3') AS count_val3_r_s_101112p_6_2,</v>
       </c>
     </row>
@@ -19157,7 +19157,7 @@
         <v>1212</v>
       </c>
       <c r="D158" s="14" t="str">
-        <f t="shared" ref="D158:D189" si="76">CONCATENATE("SUM(b.",A158," = '1') AS count_val1_",A158,", SUM(b.",A158," = '2') AS count_val2_",A158,",")</f>
+        <f t="shared" ref="D158" si="76">CONCATENATE("SUM(b.",A158," = '1') AS count_val1_",A158,", SUM(b.",A158," = '2') AS count_val2_",A158,",")</f>
         <v>SUM(b.r_s_101112c_1_1 = '1') AS count_val1_r_s_101112c_1_1, SUM(b.r_s_101112c_1_1 = '2') AS count_val2_r_s_101112c_1_1,</v>
       </c>
     </row>
@@ -19172,7 +19172,7 @@
         <v>1212</v>
       </c>
       <c r="D159" t="str">
-        <f t="shared" ref="D159:D190" si="77">CONCATENATE("SUM(b.",A159," = '1') AS count_val1_",A159,", SUM(b.",A159," = '2') AS count_val2_",A159,",", "SUM(b.",A159," = '3') AS count_val3_",A159,",")</f>
+        <f t="shared" ref="D159" si="77">CONCATENATE("SUM(b.",A159," = '1') AS count_val1_",A159,", SUM(b.",A159," = '2') AS count_val2_",A159,",", "SUM(b.",A159," = '3') AS count_val3_",A159,",")</f>
         <v>SUM(b.r_s_101112c_1_2 = '1') AS count_val1_r_s_101112c_1_2, SUM(b.r_s_101112c_1_2 = '2') AS count_val2_r_s_101112c_1_2,SUM(b.r_s_101112c_1_2 = '3') AS count_val3_r_s_101112c_1_2,</v>
       </c>
     </row>
@@ -19209,7 +19209,7 @@
         <v>1212</v>
       </c>
       <c r="D162" s="14" t="str">
-        <f t="shared" ref="D162:D193" si="78">CONCATENATE("SUM(b.",A162," = '1') AS count_val1_",A162,", SUM(b.",A162," = '2') AS count_val2_",A162,",")</f>
+        <f t="shared" ref="D162" si="78">CONCATENATE("SUM(b.",A162," = '1') AS count_val1_",A162,", SUM(b.",A162," = '2') AS count_val2_",A162,",")</f>
         <v>SUM(b.r_s_101112c_2_1 = '1') AS count_val1_r_s_101112c_2_1, SUM(b.r_s_101112c_2_1 = '2') AS count_val2_r_s_101112c_2_1,</v>
       </c>
     </row>
@@ -19224,7 +19224,7 @@
         <v>1212</v>
       </c>
       <c r="D163" t="str">
-        <f t="shared" ref="D163:D194" si="79">CONCATENATE("SUM(b.",A163," = '1') AS count_val1_",A163,", SUM(b.",A163," = '2') AS count_val2_",A163,",", "SUM(b.",A163," = '3') AS count_val3_",A163,",")</f>
+        <f t="shared" ref="D163" si="79">CONCATENATE("SUM(b.",A163," = '1') AS count_val1_",A163,", SUM(b.",A163," = '2') AS count_val2_",A163,",", "SUM(b.",A163," = '3') AS count_val3_",A163,",")</f>
         <v>SUM(b.r_s_101112c_2_2 = '1') AS count_val1_r_s_101112c_2_2, SUM(b.r_s_101112c_2_2 = '2') AS count_val2_r_s_101112c_2_2,SUM(b.r_s_101112c_2_2 = '3') AS count_val3_r_s_101112c_2_2,</v>
       </c>
     </row>
@@ -19261,7 +19261,7 @@
         <v>1212</v>
       </c>
       <c r="D166" s="14" t="str">
-        <f t="shared" ref="D166:D197" si="80">CONCATENATE("SUM(b.",A166," = '1') AS count_val1_",A166,", SUM(b.",A166," = '2') AS count_val2_",A166,",")</f>
+        <f t="shared" ref="D166" si="80">CONCATENATE("SUM(b.",A166," = '1') AS count_val1_",A166,", SUM(b.",A166," = '2') AS count_val2_",A166,",")</f>
         <v>SUM(b.r_s_101112c_3_1 = '1') AS count_val1_r_s_101112c_3_1, SUM(b.r_s_101112c_3_1 = '2') AS count_val2_r_s_101112c_3_1,</v>
       </c>
     </row>
@@ -19276,7 +19276,7 @@
         <v>1212</v>
       </c>
       <c r="D167" t="str">
-        <f t="shared" ref="D167:D198" si="81">CONCATENATE("SUM(b.",A167," = '1') AS count_val1_",A167,", SUM(b.",A167," = '2') AS count_val2_",A167,",", "SUM(b.",A167," = '3') AS count_val3_",A167,",")</f>
+        <f t="shared" ref="D167" si="81">CONCATENATE("SUM(b.",A167," = '1') AS count_val1_",A167,", SUM(b.",A167," = '2') AS count_val2_",A167,",", "SUM(b.",A167," = '3') AS count_val3_",A167,",")</f>
         <v>SUM(b.r_s_101112c_3_2 = '1') AS count_val1_r_s_101112c_3_2, SUM(b.r_s_101112c_3_2 = '2') AS count_val2_r_s_101112c_3_2,SUM(b.r_s_101112c_3_2 = '3') AS count_val3_r_s_101112c_3_2,</v>
       </c>
     </row>
@@ -19313,7 +19313,7 @@
         <v>1212</v>
       </c>
       <c r="D170" s="14" t="str">
-        <f t="shared" ref="D170:D201" si="82">CONCATENATE("SUM(b.",A170," = '1') AS count_val1_",A170,", SUM(b.",A170," = '2') AS count_val2_",A170,",")</f>
+        <f t="shared" ref="D170" si="82">CONCATENATE("SUM(b.",A170," = '1') AS count_val1_",A170,", SUM(b.",A170," = '2') AS count_val2_",A170,",")</f>
         <v>SUM(b.r_s_101112c_4_1 = '1') AS count_val1_r_s_101112c_4_1, SUM(b.r_s_101112c_4_1 = '2') AS count_val2_r_s_101112c_4_1,</v>
       </c>
     </row>
@@ -19328,7 +19328,7 @@
         <v>1212</v>
       </c>
       <c r="D171" t="str">
-        <f t="shared" ref="D171:D202" si="83">CONCATENATE("SUM(b.",A171," = '1') AS count_val1_",A171,", SUM(b.",A171," = '2') AS count_val2_",A171,",", "SUM(b.",A171," = '3') AS count_val3_",A171,",")</f>
+        <f t="shared" ref="D171" si="83">CONCATENATE("SUM(b.",A171," = '1') AS count_val1_",A171,", SUM(b.",A171," = '2') AS count_val2_",A171,",", "SUM(b.",A171," = '3') AS count_val3_",A171,",")</f>
         <v>SUM(b.r_s_101112c_4_2 = '1') AS count_val1_r_s_101112c_4_2, SUM(b.r_s_101112c_4_2 = '2') AS count_val2_r_s_101112c_4_2,SUM(b.r_s_101112c_4_2 = '3') AS count_val3_r_s_101112c_4_2,</v>
       </c>
     </row>
@@ -19365,7 +19365,7 @@
         <v>1212</v>
       </c>
       <c r="D174" s="14" t="str">
-        <f t="shared" ref="D174:D221" si="84">CONCATENATE("SUM(b.",A174," = '1') AS count_val1_",A174,", SUM(b.",A174," = '2') AS count_val2_",A174,",")</f>
+        <f t="shared" ref="D174" si="84">CONCATENATE("SUM(b.",A174," = '1') AS count_val1_",A174,", SUM(b.",A174," = '2') AS count_val2_",A174,",")</f>
         <v>SUM(b.r_s_101112c_5_1 = '1') AS count_val1_r_s_101112c_5_1, SUM(b.r_s_101112c_5_1 = '2') AS count_val2_r_s_101112c_5_1,</v>
       </c>
     </row>
@@ -19380,7 +19380,7 @@
         <v>1212</v>
       </c>
       <c r="D175" t="str">
-        <f t="shared" ref="D175:D221" si="85">CONCATENATE("SUM(b.",A175," = '1') AS count_val1_",A175,", SUM(b.",A175," = '2') AS count_val2_",A175,",", "SUM(b.",A175," = '3') AS count_val3_",A175,",")</f>
+        <f t="shared" ref="D175" si="85">CONCATENATE("SUM(b.",A175," = '1') AS count_val1_",A175,", SUM(b.",A175," = '2') AS count_val2_",A175,",", "SUM(b.",A175," = '3') AS count_val3_",A175,",")</f>
         <v>SUM(b.r_s_101112c_5_2 = '1') AS count_val1_r_s_101112c_5_2, SUM(b.r_s_101112c_5_2 = '2') AS count_val2_r_s_101112c_5_2,SUM(b.r_s_101112c_5_2 = '3') AS count_val3_r_s_101112c_5_2,</v>
       </c>
     </row>
@@ -19417,7 +19417,7 @@
         <v>1212</v>
       </c>
       <c r="D178" s="14" t="str">
-        <f t="shared" ref="D178:D221" si="86">CONCATENATE("SUM(b.",A178," = '1') AS count_val1_",A178,", SUM(b.",A178," = '2') AS count_val2_",A178,",")</f>
+        <f t="shared" ref="D178" si="86">CONCATENATE("SUM(b.",A178," = '1') AS count_val1_",A178,", SUM(b.",A178," = '2') AS count_val2_",A178,",")</f>
         <v>SUM(b.r_s_101112c_6_1 = '1') AS count_val1_r_s_101112c_6_1, SUM(b.r_s_101112c_6_1 = '2') AS count_val2_r_s_101112c_6_1,</v>
       </c>
     </row>
@@ -19432,7 +19432,7 @@
         <v>1212</v>
       </c>
       <c r="D179" t="str">
-        <f t="shared" ref="D179:D221" si="87">CONCATENATE("SUM(b.",A179," = '1') AS count_val1_",A179,", SUM(b.",A179," = '2') AS count_val2_",A179,",", "SUM(b.",A179," = '3') AS count_val3_",A179,",")</f>
+        <f t="shared" ref="D179" si="87">CONCATENATE("SUM(b.",A179," = '1') AS count_val1_",A179,", SUM(b.",A179," = '2') AS count_val2_",A179,",", "SUM(b.",A179," = '3') AS count_val3_",A179,",")</f>
         <v>SUM(b.r_s_101112c_6_2 = '1') AS count_val1_r_s_101112c_6_2, SUM(b.r_s_101112c_6_2 = '2') AS count_val2_r_s_101112c_6_2,SUM(b.r_s_101112c_6_2 = '3') AS count_val3_r_s_101112c_6_2,</v>
       </c>
     </row>
@@ -19469,7 +19469,7 @@
         <v>1212</v>
       </c>
       <c r="D182" s="14" t="str">
-        <f t="shared" ref="D182:D221" si="88">CONCATENATE("SUM(b.",A182," = '1') AS count_val1_",A182,", SUM(b.",A182," = '2') AS count_val2_",A182,",")</f>
+        <f t="shared" ref="D182" si="88">CONCATENATE("SUM(b.",A182," = '1') AS count_val1_",A182,", SUM(b.",A182," = '2') AS count_val2_",A182,",")</f>
         <v>SUM(b.r_s_101112b_1_1 = '1') AS count_val1_r_s_101112b_1_1, SUM(b.r_s_101112b_1_1 = '2') AS count_val2_r_s_101112b_1_1,</v>
       </c>
     </row>
@@ -19484,7 +19484,7 @@
         <v>1212</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" ref="D183:D221" si="89">CONCATENATE("SUM(b.",A183," = '1') AS count_val1_",A183,", SUM(b.",A183," = '2') AS count_val2_",A183,",", "SUM(b.",A183," = '3') AS count_val3_",A183,",")</f>
+        <f t="shared" ref="D183" si="89">CONCATENATE("SUM(b.",A183," = '1') AS count_val1_",A183,", SUM(b.",A183," = '2') AS count_val2_",A183,",", "SUM(b.",A183," = '3') AS count_val3_",A183,",")</f>
         <v>SUM(b.r_s_101112b_1_2 = '1') AS count_val1_r_s_101112b_1_2, SUM(b.r_s_101112b_1_2 = '2') AS count_val2_r_s_101112b_1_2,SUM(b.r_s_101112b_1_2 = '3') AS count_val3_r_s_101112b_1_2,</v>
       </c>
     </row>
@@ -19521,7 +19521,7 @@
         <v>1212</v>
       </c>
       <c r="D186" s="14" t="str">
-        <f t="shared" ref="D186:D221" si="90">CONCATENATE("SUM(b.",A186," = '1') AS count_val1_",A186,", SUM(b.",A186," = '2') AS count_val2_",A186,",")</f>
+        <f t="shared" ref="D186" si="90">CONCATENATE("SUM(b.",A186," = '1') AS count_val1_",A186,", SUM(b.",A186," = '2') AS count_val2_",A186,",")</f>
         <v>SUM(b.r_s_101112b_2_1 = '1') AS count_val1_r_s_101112b_2_1, SUM(b.r_s_101112b_2_1 = '2') AS count_val2_r_s_101112b_2_1,</v>
       </c>
     </row>
@@ -19536,7 +19536,7 @@
         <v>1212</v>
       </c>
       <c r="D187" t="str">
-        <f t="shared" ref="D187:D221" si="91">CONCATENATE("SUM(b.",A187," = '1') AS count_val1_",A187,", SUM(b.",A187," = '2') AS count_val2_",A187,",", "SUM(b.",A187," = '3') AS count_val3_",A187,",")</f>
+        <f t="shared" ref="D187" si="91">CONCATENATE("SUM(b.",A187," = '1') AS count_val1_",A187,", SUM(b.",A187," = '2') AS count_val2_",A187,",", "SUM(b.",A187," = '3') AS count_val3_",A187,",")</f>
         <v>SUM(b.r_s_101112b_2_2 = '1') AS count_val1_r_s_101112b_2_2, SUM(b.r_s_101112b_2_2 = '2') AS count_val2_r_s_101112b_2_2,SUM(b.r_s_101112b_2_2 = '3') AS count_val3_r_s_101112b_2_2,</v>
       </c>
     </row>
@@ -19573,7 +19573,7 @@
         <v>1212</v>
       </c>
       <c r="D190" s="14" t="str">
-        <f t="shared" ref="D190:D221" si="92">CONCATENATE("SUM(b.",A190," = '1') AS count_val1_",A190,", SUM(b.",A190," = '2') AS count_val2_",A190,",")</f>
+        <f t="shared" ref="D190" si="92">CONCATENATE("SUM(b.",A190," = '1') AS count_val1_",A190,", SUM(b.",A190," = '2') AS count_val2_",A190,",")</f>
         <v>SUM(b.r_s_101112b_3_1 = '1') AS count_val1_r_s_101112b_3_1, SUM(b.r_s_101112b_3_1 = '2') AS count_val2_r_s_101112b_3_1,</v>
       </c>
     </row>
@@ -19588,7 +19588,7 @@
         <v>1212</v>
       </c>
       <c r="D191" t="str">
-        <f t="shared" ref="D191:D221" si="93">CONCATENATE("SUM(b.",A191," = '1') AS count_val1_",A191,", SUM(b.",A191," = '2') AS count_val2_",A191,",", "SUM(b.",A191," = '3') AS count_val3_",A191,",")</f>
+        <f t="shared" ref="D191" si="93">CONCATENATE("SUM(b.",A191," = '1') AS count_val1_",A191,", SUM(b.",A191," = '2') AS count_val2_",A191,",", "SUM(b.",A191," = '3') AS count_val3_",A191,",")</f>
         <v>SUM(b.r_s_101112b_3_2 = '1') AS count_val1_r_s_101112b_3_2, SUM(b.r_s_101112b_3_2 = '2') AS count_val2_r_s_101112b_3_2,SUM(b.r_s_101112b_3_2 = '3') AS count_val3_r_s_101112b_3_2,</v>
       </c>
     </row>
@@ -19625,7 +19625,7 @@
         <v>1212</v>
       </c>
       <c r="D194" s="14" t="str">
-        <f t="shared" ref="D194:D221" si="94">CONCATENATE("SUM(b.",A194," = '1') AS count_val1_",A194,", SUM(b.",A194," = '2') AS count_val2_",A194,",")</f>
+        <f t="shared" ref="D194" si="94">CONCATENATE("SUM(b.",A194," = '1') AS count_val1_",A194,", SUM(b.",A194," = '2') AS count_val2_",A194,",")</f>
         <v>SUM(b.r_s_101112b_4_1 = '1') AS count_val1_r_s_101112b_4_1, SUM(b.r_s_101112b_4_1 = '2') AS count_val2_r_s_101112b_4_1,</v>
       </c>
     </row>
@@ -19640,7 +19640,7 @@
         <v>1212</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" ref="D195:D221" si="95">CONCATENATE("SUM(b.",A195," = '1') AS count_val1_",A195,", SUM(b.",A195," = '2') AS count_val2_",A195,",", "SUM(b.",A195," = '3') AS count_val3_",A195,",")</f>
+        <f t="shared" ref="D195" si="95">CONCATENATE("SUM(b.",A195," = '1') AS count_val1_",A195,", SUM(b.",A195," = '2') AS count_val2_",A195,",", "SUM(b.",A195," = '3') AS count_val3_",A195,",")</f>
         <v>SUM(b.r_s_101112b_4_2 = '1') AS count_val1_r_s_101112b_4_2, SUM(b.r_s_101112b_4_2 = '2') AS count_val2_r_s_101112b_4_2,SUM(b.r_s_101112b_4_2 = '3') AS count_val3_r_s_101112b_4_2,</v>
       </c>
     </row>
@@ -19677,7 +19677,7 @@
         <v>1212</v>
       </c>
       <c r="D198" s="14" t="str">
-        <f t="shared" ref="D198:D221" si="96">CONCATENATE("SUM(b.",A198," = '1') AS count_val1_",A198,", SUM(b.",A198," = '2') AS count_val2_",A198,",")</f>
+        <f t="shared" ref="D198" si="96">CONCATENATE("SUM(b.",A198," = '1') AS count_val1_",A198,", SUM(b.",A198," = '2') AS count_val2_",A198,",")</f>
         <v>SUM(b.r_s_101112b_5_1 = '1') AS count_val1_r_s_101112b_5_1, SUM(b.r_s_101112b_5_1 = '2') AS count_val2_r_s_101112b_5_1,</v>
       </c>
     </row>
@@ -19692,7 +19692,7 @@
         <v>1212</v>
       </c>
       <c r="D199" t="str">
-        <f t="shared" ref="D199:D221" si="97">CONCATENATE("SUM(b.",A199," = '1') AS count_val1_",A199,", SUM(b.",A199," = '2') AS count_val2_",A199,",", "SUM(b.",A199," = '3') AS count_val3_",A199,",")</f>
+        <f t="shared" ref="D199" si="97">CONCATENATE("SUM(b.",A199," = '1') AS count_val1_",A199,", SUM(b.",A199," = '2') AS count_val2_",A199,",", "SUM(b.",A199," = '3') AS count_val3_",A199,",")</f>
         <v>SUM(b.r_s_101112b_5_2 = '1') AS count_val1_r_s_101112b_5_2, SUM(b.r_s_101112b_5_2 = '2') AS count_val2_r_s_101112b_5_2,SUM(b.r_s_101112b_5_2 = '3') AS count_val3_r_s_101112b_5_2,</v>
       </c>
     </row>
@@ -19729,7 +19729,7 @@
         <v>1212</v>
       </c>
       <c r="D202" s="14" t="str">
-        <f t="shared" ref="D202:D221" si="98">CONCATENATE("SUM(b.",A202," = '1') AS count_val1_",A202,", SUM(b.",A202," = '2') AS count_val2_",A202,",")</f>
+        <f t="shared" ref="D202" si="98">CONCATENATE("SUM(b.",A202," = '1') AS count_val1_",A202,", SUM(b.",A202," = '2') AS count_val2_",A202,",")</f>
         <v>SUM(b.r_s_101112b_6_1 = '1') AS count_val1_r_s_101112b_6_1, SUM(b.r_s_101112b_6_1 = '2') AS count_val2_r_s_101112b_6_1,</v>
       </c>
     </row>
@@ -19744,7 +19744,7 @@
         <v>1212</v>
       </c>
       <c r="D203" t="str">
-        <f t="shared" ref="D203:D221" si="99">CONCATENATE("SUM(b.",A203," = '1') AS count_val1_",A203,", SUM(b.",A203," = '2') AS count_val2_",A203,",", "SUM(b.",A203," = '3') AS count_val3_",A203,",")</f>
+        <f t="shared" ref="D203" si="99">CONCATENATE("SUM(b.",A203," = '1') AS count_val1_",A203,", SUM(b.",A203," = '2') AS count_val2_",A203,",", "SUM(b.",A203," = '3') AS count_val3_",A203,",")</f>
         <v>SUM(b.r_s_101112b_6_2 = '1') AS count_val1_r_s_101112b_6_2, SUM(b.r_s_101112b_6_2 = '2') AS count_val2_r_s_101112b_6_2,SUM(b.r_s_101112b_6_2 = '3') AS count_val3_r_s_101112b_6_2,</v>
       </c>
     </row>
@@ -19781,7 +19781,7 @@
         <v>1212</v>
       </c>
       <c r="D206" s="14" t="str">
-        <f t="shared" ref="D206:D221" si="100">CONCATENATE("SUM(b.",A206," = '1') AS count_val1_",A206,", SUM(b.",A206," = '2') AS count_val2_",A206,",")</f>
+        <f t="shared" ref="D206" si="100">CONCATENATE("SUM(b.",A206," = '1') AS count_val1_",A206,", SUM(b.",A206," = '2') AS count_val2_",A206,",")</f>
         <v>SUM(b.r_s_101112e_1_1 = '1') AS count_val1_r_s_101112e_1_1, SUM(b.r_s_101112e_1_1 = '2') AS count_val2_r_s_101112e_1_1,</v>
       </c>
     </row>
@@ -19796,7 +19796,7 @@
         <v>1212</v>
       </c>
       <c r="D207" t="str">
-        <f t="shared" ref="D207:D221" si="101">CONCATENATE("SUM(b.",A207," = '1') AS count_val1_",A207,", SUM(b.",A207," = '2') AS count_val2_",A207,",", "SUM(b.",A207," = '3') AS count_val3_",A207,",")</f>
+        <f t="shared" ref="D207" si="101">CONCATENATE("SUM(b.",A207," = '1') AS count_val1_",A207,", SUM(b.",A207," = '2') AS count_val2_",A207,",", "SUM(b.",A207," = '3') AS count_val3_",A207,",")</f>
         <v>SUM(b.r_s_101112e_1_2 = '1') AS count_val1_r_s_101112e_1_2, SUM(b.r_s_101112e_1_2 = '2') AS count_val2_r_s_101112e_1_2,SUM(b.r_s_101112e_1_2 = '3') AS count_val3_r_s_101112e_1_2,</v>
       </c>
     </row>
@@ -19833,7 +19833,7 @@
         <v>1212</v>
       </c>
       <c r="D210" s="14" t="str">
-        <f t="shared" ref="D210:D221" si="102">CONCATENATE("SUM(b.",A210," = '1') AS count_val1_",A210,", SUM(b.",A210," = '2') AS count_val2_",A210,",")</f>
+        <f t="shared" ref="D210" si="102">CONCATENATE("SUM(b.",A210," = '1') AS count_val1_",A210,", SUM(b.",A210," = '2') AS count_val2_",A210,",")</f>
         <v>SUM(b.r_s_101112e_2_1 = '1') AS count_val1_r_s_101112e_2_1, SUM(b.r_s_101112e_2_1 = '2') AS count_val2_r_s_101112e_2_1,</v>
       </c>
     </row>
@@ -19848,7 +19848,7 @@
         <v>1212</v>
       </c>
       <c r="D211" t="str">
-        <f t="shared" ref="D211:D221" si="103">CONCATENATE("SUM(b.",A211," = '1') AS count_val1_",A211,", SUM(b.",A211," = '2') AS count_val2_",A211,",", "SUM(b.",A211," = '3') AS count_val3_",A211,",")</f>
+        <f t="shared" ref="D211" si="103">CONCATENATE("SUM(b.",A211," = '1') AS count_val1_",A211,", SUM(b.",A211," = '2') AS count_val2_",A211,",", "SUM(b.",A211," = '3') AS count_val3_",A211,",")</f>
         <v>SUM(b.r_s_101112e_2_2 = '1') AS count_val1_r_s_101112e_2_2, SUM(b.r_s_101112e_2_2 = '2') AS count_val2_r_s_101112e_2_2,SUM(b.r_s_101112e_2_2 = '3') AS count_val3_r_s_101112e_2_2,</v>
       </c>
     </row>
@@ -19885,7 +19885,7 @@
         <v>1212</v>
       </c>
       <c r="D214" s="14" t="str">
-        <f t="shared" ref="D214:D221" si="104">CONCATENATE("SUM(b.",A214," = '1') AS count_val1_",A214,", SUM(b.",A214," = '2') AS count_val2_",A214,",")</f>
+        <f t="shared" ref="D214" si="104">CONCATENATE("SUM(b.",A214," = '1') AS count_val1_",A214,", SUM(b.",A214," = '2') AS count_val2_",A214,",")</f>
         <v>SUM(b.r_s_101112e_3_1 = '1') AS count_val1_r_s_101112e_3_1, SUM(b.r_s_101112e_3_1 = '2') AS count_val2_r_s_101112e_3_1,</v>
       </c>
     </row>
@@ -19900,7 +19900,7 @@
         <v>1212</v>
       </c>
       <c r="D215" t="str">
-        <f t="shared" ref="D215:D221" si="105">CONCATENATE("SUM(b.",A215," = '1') AS count_val1_",A215,", SUM(b.",A215," = '2') AS count_val2_",A215,",", "SUM(b.",A215," = '3') AS count_val3_",A215,",")</f>
+        <f t="shared" ref="D215" si="105">CONCATENATE("SUM(b.",A215," = '1') AS count_val1_",A215,", SUM(b.",A215," = '2') AS count_val2_",A215,",", "SUM(b.",A215," = '3') AS count_val3_",A215,",")</f>
         <v>SUM(b.r_s_101112e_3_2 = '1') AS count_val1_r_s_101112e_3_2, SUM(b.r_s_101112e_3_2 = '2') AS count_val2_r_s_101112e_3_2,SUM(b.r_s_101112e_3_2 = '3') AS count_val3_r_s_101112e_3_2,</v>
       </c>
     </row>
@@ -19937,7 +19937,7 @@
         <v>1212</v>
       </c>
       <c r="D218" s="14" t="str">
-        <f t="shared" ref="D218:D221" si="106">CONCATENATE("SUM(b.",A218," = '1') AS count_val1_",A218,", SUM(b.",A218," = '2') AS count_val2_",A218,",")</f>
+        <f t="shared" ref="D218" si="106">CONCATENATE("SUM(b.",A218," = '1') AS count_val1_",A218,", SUM(b.",A218," = '2') AS count_val2_",A218,",")</f>
         <v>SUM(b.r_s_101112e_4_1 = '1') AS count_val1_r_s_101112e_4_1, SUM(b.r_s_101112e_4_1 = '2') AS count_val2_r_s_101112e_4_1,</v>
       </c>
     </row>
@@ -19952,7 +19952,7 @@
         <v>1212</v>
       </c>
       <c r="D219" t="str">
-        <f t="shared" ref="D219:D221" si="107">CONCATENATE("SUM(b.",A219," = '1') AS count_val1_",A219,", SUM(b.",A219," = '2') AS count_val2_",A219,",", "SUM(b.",A219," = '3') AS count_val3_",A219,",")</f>
+        <f t="shared" ref="D219" si="107">CONCATENATE("SUM(b.",A219," = '1') AS count_val1_",A219,", SUM(b.",A219," = '2') AS count_val2_",A219,",", "SUM(b.",A219," = '3') AS count_val3_",A219,",")</f>
         <v>SUM(b.r_s_101112e_4_2 = '1') AS count_val1_r_s_101112e_4_2, SUM(b.r_s_101112e_4_2 = '2') AS count_val2_r_s_101112e_4_2,SUM(b.r_s_101112e_4_2 = '3') AS count_val3_r_s_101112e_4_2,</v>
       </c>
     </row>
@@ -20073,7 +20073,7 @@
         <v>1212</v>
       </c>
       <c r="D6" s="14" t="str">
-        <f t="shared" ref="D6:D37" si="0">CONCATENATE("SUM(b.",A6," = '1') AS count_val1_",A6,", SUM(b.",A6," = '2') AS count_val2_",A6,",")</f>
+        <f t="shared" ref="D6" si="0">CONCATENATE("SUM(b.",A6," = '1') AS count_val1_",A6,", SUM(b.",A6," = '2') AS count_val2_",A6,",")</f>
         <v>SUM(b.r_s_ins_2_1_1 = '1') AS count_val1_r_s_ins_2_1_1, SUM(b.r_s_ins_2_1_1 = '2') AS count_val2_r_s_ins_2_1_1,</v>
       </c>
     </row>
@@ -20088,7 +20088,7 @@
         <v>1212</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" ref="D7:D38" si="1">CONCATENATE("SUM(b.",A7," = '1') AS count_val1_",A7,", SUM(b.",A7," = '2') AS count_val2_",A7,",", "SUM(b.",A7," = '3') AS count_val3_",A7,",")</f>
+        <f t="shared" ref="D7" si="1">CONCATENATE("SUM(b.",A7," = '1') AS count_val1_",A7,", SUM(b.",A7," = '2') AS count_val2_",A7,",", "SUM(b.",A7," = '3') AS count_val3_",A7,",")</f>
         <v>SUM(b.r_s_ins_2_1_2 = '1') AS count_val1_r_s_ins_2_1_2, SUM(b.r_s_ins_2_1_2 = '2') AS count_val2_r_s_ins_2_1_2,SUM(b.r_s_ins_2_1_2 = '3') AS count_val3_r_s_ins_2_1_2,</v>
       </c>
     </row>
@@ -20125,7 +20125,7 @@
         <v>1212</v>
       </c>
       <c r="D10" s="14" t="str">
-        <f t="shared" ref="D10:D41" si="2">CONCATENATE("SUM(b.",A10," = '1') AS count_val1_",A10,", SUM(b.",A10," = '2') AS count_val2_",A10,",")</f>
+        <f t="shared" ref="D10" si="2">CONCATENATE("SUM(b.",A10," = '1') AS count_val1_",A10,", SUM(b.",A10," = '2') AS count_val2_",A10,",")</f>
         <v>SUM(b.r_s_ins_3_1_1 = '1') AS count_val1_r_s_ins_3_1_1, SUM(b.r_s_ins_3_1_1 = '2') AS count_val2_r_s_ins_3_1_1,</v>
       </c>
     </row>
@@ -20140,7 +20140,7 @@
         <v>1212</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" ref="D11:D42" si="3">CONCATENATE("SUM(b.",A11," = '1') AS count_val1_",A11,", SUM(b.",A11," = '2') AS count_val2_",A11,",", "SUM(b.",A11," = '3') AS count_val3_",A11,",")</f>
+        <f t="shared" ref="D11" si="3">CONCATENATE("SUM(b.",A11," = '1') AS count_val1_",A11,", SUM(b.",A11," = '2') AS count_val2_",A11,",", "SUM(b.",A11," = '3') AS count_val3_",A11,",")</f>
         <v>SUM(b.r_s_ins_3_1_2 = '1') AS count_val1_r_s_ins_3_1_2, SUM(b.r_s_ins_3_1_2 = '2') AS count_val2_r_s_ins_3_1_2,SUM(b.r_s_ins_3_1_2 = '3') AS count_val3_r_s_ins_3_1_2,</v>
       </c>
     </row>
@@ -20177,7 +20177,7 @@
         <v>1212</v>
       </c>
       <c r="D14" s="14" t="str">
-        <f t="shared" ref="D14:D45" si="4">CONCATENATE("SUM(b.",A14," = '1') AS count_val1_",A14,", SUM(b.",A14," = '2') AS count_val2_",A14,",")</f>
+        <f t="shared" ref="D14" si="4">CONCATENATE("SUM(b.",A14," = '1') AS count_val1_",A14,", SUM(b.",A14," = '2') AS count_val2_",A14,",")</f>
         <v>SUM(b.r_s_ins_4_1_1 = '1') AS count_val1_r_s_ins_4_1_1, SUM(b.r_s_ins_4_1_1 = '2') AS count_val2_r_s_ins_4_1_1,</v>
       </c>
     </row>
@@ -20192,7 +20192,7 @@
         <v>1212</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" ref="D15:D46" si="5">CONCATENATE("SUM(b.",A15," = '1') AS count_val1_",A15,", SUM(b.",A15," = '2') AS count_val2_",A15,",", "SUM(b.",A15," = '3') AS count_val3_",A15,",")</f>
+        <f t="shared" ref="D15" si="5">CONCATENATE("SUM(b.",A15," = '1') AS count_val1_",A15,", SUM(b.",A15," = '2') AS count_val2_",A15,",", "SUM(b.",A15," = '3') AS count_val3_",A15,",")</f>
         <v>SUM(b.r_s_ins_4_1_2 = '1') AS count_val1_r_s_ins_4_1_2, SUM(b.r_s_ins_4_1_2 = '2') AS count_val2_r_s_ins_4_1_2,SUM(b.r_s_ins_4_1_2 = '3') AS count_val3_r_s_ins_4_1_2,</v>
       </c>
     </row>
@@ -20229,7 +20229,7 @@
         <v>1212</v>
       </c>
       <c r="D18" s="14" t="str">
-        <f t="shared" ref="D18:D49" si="6">CONCATENATE("SUM(b.",A18," = '1') AS count_val1_",A18,", SUM(b.",A18," = '2') AS count_val2_",A18,",")</f>
+        <f t="shared" ref="D18" si="6">CONCATENATE("SUM(b.",A18," = '1') AS count_val1_",A18,", SUM(b.",A18," = '2') AS count_val2_",A18,",")</f>
         <v>SUM(b.r_s_ins_5_1_1 = '1') AS count_val1_r_s_ins_5_1_1, SUM(b.r_s_ins_5_1_1 = '2') AS count_val2_r_s_ins_5_1_1,</v>
       </c>
     </row>
@@ -20244,7 +20244,7 @@
         <v>1212</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" ref="D19:D50" si="7">CONCATENATE("SUM(b.",A19," = '1') AS count_val1_",A19,", SUM(b.",A19," = '2') AS count_val2_",A19,",", "SUM(b.",A19," = '3') AS count_val3_",A19,",")</f>
+        <f t="shared" ref="D19" si="7">CONCATENATE("SUM(b.",A19," = '1') AS count_val1_",A19,", SUM(b.",A19," = '2') AS count_val2_",A19,",", "SUM(b.",A19," = '3') AS count_val3_",A19,",")</f>
         <v>SUM(b.r_s_ins_5_1_2 = '1') AS count_val1_r_s_ins_5_1_2, SUM(b.r_s_ins_5_1_2 = '2') AS count_val2_r_s_ins_5_1_2,SUM(b.r_s_ins_5_1_2 = '3') AS count_val3_r_s_ins_5_1_2,</v>
       </c>
     </row>
@@ -20281,7 +20281,7 @@
         <v>1212</v>
       </c>
       <c r="D22" s="14" t="str">
-        <f t="shared" ref="D22:D53" si="8">CONCATENATE("SUM(b.",A22," = '1') AS count_val1_",A22,", SUM(b.",A22," = '2') AS count_val2_",A22,",")</f>
+        <f t="shared" ref="D22" si="8">CONCATENATE("SUM(b.",A22," = '1') AS count_val1_",A22,", SUM(b.",A22," = '2') AS count_val2_",A22,",")</f>
         <v>SUM(b.r_s_ins_6_1_1 = '1') AS count_val1_r_s_ins_6_1_1, SUM(b.r_s_ins_6_1_1 = '2') AS count_val2_r_s_ins_6_1_1,</v>
       </c>
     </row>
@@ -20296,7 +20296,7 @@
         <v>1212</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" ref="D23:D54" si="9">CONCATENATE("SUM(b.",A23," = '1') AS count_val1_",A23,", SUM(b.",A23," = '2') AS count_val2_",A23,",", "SUM(b.",A23," = '3') AS count_val3_",A23,",")</f>
+        <f t="shared" ref="D23" si="9">CONCATENATE("SUM(b.",A23," = '1') AS count_val1_",A23,", SUM(b.",A23," = '2') AS count_val2_",A23,",", "SUM(b.",A23," = '3') AS count_val3_",A23,",")</f>
         <v>SUM(b.r_s_ins_6_1_2 = '1') AS count_val1_r_s_ins_6_1_2, SUM(b.r_s_ins_6_1_2 = '2') AS count_val2_r_s_ins_6_1_2,SUM(b.r_s_ins_6_1_2 = '3') AS count_val3_r_s_ins_6_1_2,</v>
       </c>
     </row>
@@ -20333,7 +20333,7 @@
         <v>1212</v>
       </c>
       <c r="D26" s="14" t="str">
-        <f t="shared" ref="D26:D57" si="10">CONCATENATE("SUM(b.",A26," = '1') AS count_val1_",A26,", SUM(b.",A26," = '2') AS count_val2_",A26,",")</f>
+        <f t="shared" ref="D26" si="10">CONCATENATE("SUM(b.",A26," = '1') AS count_val1_",A26,", SUM(b.",A26," = '2') AS count_val2_",A26,",")</f>
         <v>SUM(b.r_s_ins_7_1_1 = '1') AS count_val1_r_s_ins_7_1_1, SUM(b.r_s_ins_7_1_1 = '2') AS count_val2_r_s_ins_7_1_1,</v>
       </c>
     </row>
@@ -20348,7 +20348,7 @@
         <v>1212</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" ref="D27:D58" si="11">CONCATENATE("SUM(b.",A27," = '1') AS count_val1_",A27,", SUM(b.",A27," = '2') AS count_val2_",A27,",", "SUM(b.",A27," = '3') AS count_val3_",A27,",")</f>
+        <f t="shared" ref="D27" si="11">CONCATENATE("SUM(b.",A27," = '1') AS count_val1_",A27,", SUM(b.",A27," = '2') AS count_val2_",A27,",", "SUM(b.",A27," = '3') AS count_val3_",A27,",")</f>
         <v>SUM(b.r_s_ins_7_1_2 = '1') AS count_val1_r_s_ins_7_1_2, SUM(b.r_s_ins_7_1_2 = '2') AS count_val2_r_s_ins_7_1_2,SUM(b.r_s_ins_7_1_2 = '3') AS count_val3_r_s_ins_7_1_2,</v>
       </c>
     </row>
@@ -20385,7 +20385,7 @@
         <v>1212</v>
       </c>
       <c r="D30" s="14" t="str">
-        <f t="shared" ref="D30:D61" si="12">CONCATENATE("SUM(b.",A30," = '1') AS count_val1_",A30,", SUM(b.",A30," = '2') AS count_val2_",A30,",")</f>
+        <f t="shared" ref="D30" si="12">CONCATENATE("SUM(b.",A30," = '1') AS count_val1_",A30,", SUM(b.",A30," = '2') AS count_val2_",A30,",")</f>
         <v>SUM(b.r_s_ins_7_2_1 = '1') AS count_val1_r_s_ins_7_2_1, SUM(b.r_s_ins_7_2_1 = '2') AS count_val2_r_s_ins_7_2_1,</v>
       </c>
     </row>
@@ -20400,7 +20400,7 @@
         <v>1212</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" ref="D31:D62" si="13">CONCATENATE("SUM(b.",A31," = '1') AS count_val1_",A31,", SUM(b.",A31," = '2') AS count_val2_",A31,",", "SUM(b.",A31," = '3') AS count_val3_",A31,",")</f>
+        <f t="shared" ref="D31" si="13">CONCATENATE("SUM(b.",A31," = '1') AS count_val1_",A31,", SUM(b.",A31," = '2') AS count_val2_",A31,",", "SUM(b.",A31," = '3') AS count_val3_",A31,",")</f>
         <v>SUM(b.r_s_ins_7_2_2 = '1') AS count_val1_r_s_ins_7_2_2, SUM(b.r_s_ins_7_2_2 = '2') AS count_val2_r_s_ins_7_2_2,SUM(b.r_s_ins_7_2_2 = '3') AS count_val3_r_s_ins_7_2_2,</v>
       </c>
     </row>
@@ -20437,7 +20437,7 @@
         <v>1212</v>
       </c>
       <c r="D34" s="14" t="str">
-        <f t="shared" ref="D34:D65" si="14">CONCATENATE("SUM(b.",A34," = '1') AS count_val1_",A34,", SUM(b.",A34," = '2') AS count_val2_",A34,",")</f>
+        <f t="shared" ref="D34" si="14">CONCATENATE("SUM(b.",A34," = '1') AS count_val1_",A34,", SUM(b.",A34," = '2') AS count_val2_",A34,",")</f>
         <v>SUM(b.r_s_ins_8_1_1 = '1') AS count_val1_r_s_ins_8_1_1, SUM(b.r_s_ins_8_1_1 = '2') AS count_val2_r_s_ins_8_1_1,</v>
       </c>
     </row>
@@ -20452,7 +20452,7 @@
         <v>1212</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" ref="D35:D66" si="15">CONCATENATE("SUM(b.",A35," = '1') AS count_val1_",A35,", SUM(b.",A35," = '2') AS count_val2_",A35,",", "SUM(b.",A35," = '3') AS count_val3_",A35,",")</f>
+        <f t="shared" ref="D35" si="15">CONCATENATE("SUM(b.",A35," = '1') AS count_val1_",A35,", SUM(b.",A35," = '2') AS count_val2_",A35,",", "SUM(b.",A35," = '3') AS count_val3_",A35,",")</f>
         <v>SUM(b.r_s_ins_8_1_2 = '1') AS count_val1_r_s_ins_8_1_2, SUM(b.r_s_ins_8_1_2 = '2') AS count_val2_r_s_ins_8_1_2,SUM(b.r_s_ins_8_1_2 = '3') AS count_val3_r_s_ins_8_1_2,</v>
       </c>
     </row>
@@ -20489,7 +20489,7 @@
         <v>1212</v>
       </c>
       <c r="D38" s="14" t="str">
-        <f t="shared" ref="D38:D69" si="16">CONCATENATE("SUM(b.",A38," = '1') AS count_val1_",A38,", SUM(b.",A38," = '2') AS count_val2_",A38,",")</f>
+        <f t="shared" ref="D38" si="16">CONCATENATE("SUM(b.",A38," = '1') AS count_val1_",A38,", SUM(b.",A38," = '2') AS count_val2_",A38,",")</f>
         <v>SUM(b.r_s_ins_8_2_1 = '1') AS count_val1_r_s_ins_8_2_1, SUM(b.r_s_ins_8_2_1 = '2') AS count_val2_r_s_ins_8_2_1,</v>
       </c>
     </row>
@@ -20504,7 +20504,7 @@
         <v>1212</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" ref="D39:D70" si="17">CONCATENATE("SUM(b.",A39," = '1') AS count_val1_",A39,", SUM(b.",A39," = '2') AS count_val2_",A39,",", "SUM(b.",A39," = '3') AS count_val3_",A39,",")</f>
+        <f t="shared" ref="D39" si="17">CONCATENATE("SUM(b.",A39," = '1') AS count_val1_",A39,", SUM(b.",A39," = '2') AS count_val2_",A39,",", "SUM(b.",A39," = '3') AS count_val3_",A39,",")</f>
         <v>SUM(b.r_s_ins_8_2_2 = '1') AS count_val1_r_s_ins_8_2_2, SUM(b.r_s_ins_8_2_2 = '2') AS count_val2_r_s_ins_8_2_2,SUM(b.r_s_ins_8_2_2 = '3') AS count_val3_r_s_ins_8_2_2,</v>
       </c>
     </row>
@@ -20541,7 +20541,7 @@
         <v>1212</v>
       </c>
       <c r="D42" s="14" t="str">
-        <f t="shared" ref="D42:D73" si="18">CONCATENATE("SUM(b.",A42," = '1') AS count_val1_",A42,", SUM(b.",A42," = '2') AS count_val2_",A42,",")</f>
+        <f t="shared" ref="D42" si="18">CONCATENATE("SUM(b.",A42," = '1') AS count_val1_",A42,", SUM(b.",A42," = '2') AS count_val2_",A42,",")</f>
         <v>SUM(b.r_s_ins_9_1_1 = '1') AS count_val1_r_s_ins_9_1_1, SUM(b.r_s_ins_9_1_1 = '2') AS count_val2_r_s_ins_9_1_1,</v>
       </c>
     </row>
@@ -20556,7 +20556,7 @@
         <v>1212</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" ref="D43:D74" si="19">CONCATENATE("SUM(b.",A43," = '1') AS count_val1_",A43,", SUM(b.",A43," = '2') AS count_val2_",A43,",", "SUM(b.",A43," = '3') AS count_val3_",A43,",")</f>
+        <f t="shared" ref="D43" si="19">CONCATENATE("SUM(b.",A43," = '1') AS count_val1_",A43,", SUM(b.",A43," = '2') AS count_val2_",A43,",", "SUM(b.",A43," = '3') AS count_val3_",A43,",")</f>
         <v>SUM(b.r_s_ins_9_1_2 = '1') AS count_val1_r_s_ins_9_1_2, SUM(b.r_s_ins_9_1_2 = '2') AS count_val2_r_s_ins_9_1_2,SUM(b.r_s_ins_9_1_2 = '3') AS count_val3_r_s_ins_9_1_2,</v>
       </c>
     </row>
@@ -20593,7 +20593,7 @@
         <v>1212</v>
       </c>
       <c r="D46" s="14" t="str">
-        <f t="shared" ref="D46:D77" si="20">CONCATENATE("SUM(b.",A46," = '1') AS count_val1_",A46,", SUM(b.",A46," = '2') AS count_val2_",A46,",")</f>
+        <f t="shared" ref="D46" si="20">CONCATENATE("SUM(b.",A46," = '1') AS count_val1_",A46,", SUM(b.",A46," = '2') AS count_val2_",A46,",")</f>
         <v>SUM(b.r_s_ins_9_2_1 = '1') AS count_val1_r_s_ins_9_2_1, SUM(b.r_s_ins_9_2_1 = '2') AS count_val2_r_s_ins_9_2_1,</v>
       </c>
     </row>
@@ -20608,7 +20608,7 @@
         <v>1212</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" ref="D47:D78" si="21">CONCATENATE("SUM(b.",A47," = '1') AS count_val1_",A47,", SUM(b.",A47," = '2') AS count_val2_",A47,",", "SUM(b.",A47," = '3') AS count_val3_",A47,",")</f>
+        <f t="shared" ref="D47" si="21">CONCATENATE("SUM(b.",A47," = '1') AS count_val1_",A47,", SUM(b.",A47," = '2') AS count_val2_",A47,",", "SUM(b.",A47," = '3') AS count_val3_",A47,",")</f>
         <v>SUM(b.r_s_ins_9_2_2 = '1') AS count_val1_r_s_ins_9_2_2, SUM(b.r_s_ins_9_2_2 = '2') AS count_val2_r_s_ins_9_2_2,SUM(b.r_s_ins_9_2_2 = '3') AS count_val3_r_s_ins_9_2_2,</v>
       </c>
     </row>
@@ -20645,7 +20645,7 @@
         <v>1212</v>
       </c>
       <c r="D50" s="14" t="str">
-        <f t="shared" ref="D50:D81" si="22">CONCATENATE("SUM(b.",A50," = '1') AS count_val1_",A50,", SUM(b.",A50," = '2') AS count_val2_",A50,",")</f>
+        <f t="shared" ref="D50" si="22">CONCATENATE("SUM(b.",A50," = '1') AS count_val1_",A50,", SUM(b.",A50," = '2') AS count_val2_",A50,",")</f>
         <v>SUM(b.r_s_ins_789_additional_1_1 = '1') AS count_val1_r_s_ins_789_additional_1_1, SUM(b.r_s_ins_789_additional_1_1 = '2') AS count_val2_r_s_ins_789_additional_1_1,</v>
       </c>
     </row>
@@ -20660,7 +20660,7 @@
         <v>1212</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" ref="D51:D82" si="23">CONCATENATE("SUM(b.",A51," = '1') AS count_val1_",A51,", SUM(b.",A51," = '2') AS count_val2_",A51,",", "SUM(b.",A51," = '3') AS count_val3_",A51,",")</f>
+        <f t="shared" ref="D51" si="23">CONCATENATE("SUM(b.",A51," = '1') AS count_val1_",A51,", SUM(b.",A51," = '2') AS count_val2_",A51,",", "SUM(b.",A51," = '3') AS count_val3_",A51,",")</f>
         <v>SUM(b.r_s_ins_789_additional_1_2 = '1') AS count_val1_r_s_ins_789_additional_1_2, SUM(b.r_s_ins_789_additional_1_2 = '2') AS count_val2_r_s_ins_789_additional_1_2,SUM(b.r_s_ins_789_additional_1_2 = '3') AS count_val3_r_s_ins_789_additional_1_2,</v>
       </c>
     </row>
@@ -20697,7 +20697,7 @@
         <v>1212</v>
       </c>
       <c r="D54" s="14" t="str">
-        <f t="shared" ref="D54:D85" si="24">CONCATENATE("SUM(b.",A54," = '1') AS count_val1_",A54,", SUM(b.",A54," = '2') AS count_val2_",A54,",")</f>
+        <f t="shared" ref="D54" si="24">CONCATENATE("SUM(b.",A54," = '1') AS count_val1_",A54,", SUM(b.",A54," = '2') AS count_val2_",A54,",")</f>
         <v>SUM(b.r_s_ins_789_additional_2_1 = '1') AS count_val1_r_s_ins_789_additional_2_1, SUM(b.r_s_ins_789_additional_2_1 = '2') AS count_val2_r_s_ins_789_additional_2_1,</v>
       </c>
     </row>
@@ -20712,7 +20712,7 @@
         <v>1212</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" ref="D55:D86" si="25">CONCATENATE("SUM(b.",A55," = '1') AS count_val1_",A55,", SUM(b.",A55," = '2') AS count_val2_",A55,",", "SUM(b.",A55," = '3') AS count_val3_",A55,",")</f>
+        <f t="shared" ref="D55" si="25">CONCATENATE("SUM(b.",A55," = '1') AS count_val1_",A55,", SUM(b.",A55," = '2') AS count_val2_",A55,",", "SUM(b.",A55," = '3') AS count_val3_",A55,",")</f>
         <v>SUM(b.r_s_ins_789_additional_2_2 = '1') AS count_val1_r_s_ins_789_additional_2_2, SUM(b.r_s_ins_789_additional_2_2 = '2') AS count_val2_r_s_ins_789_additional_2_2,SUM(b.r_s_ins_789_additional_2_2 = '3') AS count_val3_r_s_ins_789_additional_2_2,</v>
       </c>
     </row>
@@ -20749,7 +20749,7 @@
         <v>1212</v>
       </c>
       <c r="D58" s="14" t="str">
-        <f t="shared" ref="D58:D89" si="26">CONCATENATE("SUM(b.",A58," = '1') AS count_val1_",A58,", SUM(b.",A58," = '2') AS count_val2_",A58,",")</f>
+        <f t="shared" ref="D58" si="26">CONCATENATE("SUM(b.",A58," = '1') AS count_val1_",A58,", SUM(b.",A58," = '2') AS count_val2_",A58,",")</f>
         <v>SUM(b.r_s_ins_789_additional_3_1 = '1') AS count_val1_r_s_ins_789_additional_3_1, SUM(b.r_s_ins_789_additional_3_1 = '2') AS count_val2_r_s_ins_789_additional_3_1,</v>
       </c>
     </row>
@@ -20764,7 +20764,7 @@
         <v>1212</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" ref="D59:D90" si="27">CONCATENATE("SUM(b.",A59," = '1') AS count_val1_",A59,", SUM(b.",A59," = '2') AS count_val2_",A59,",", "SUM(b.",A59," = '3') AS count_val3_",A59,",")</f>
+        <f t="shared" ref="D59" si="27">CONCATENATE("SUM(b.",A59," = '1') AS count_val1_",A59,", SUM(b.",A59," = '2') AS count_val2_",A59,",", "SUM(b.",A59," = '3') AS count_val3_",A59,",")</f>
         <v>SUM(b.r_s_ins_789_additional_3_2 = '1') AS count_val1_r_s_ins_789_additional_3_2, SUM(b.r_s_ins_789_additional_3_2 = '2') AS count_val2_r_s_ins_789_additional_3_2,SUM(b.r_s_ins_789_additional_3_2 = '3') AS count_val3_r_s_ins_789_additional_3_2,</v>
       </c>
     </row>
@@ -20801,7 +20801,7 @@
         <v>1212</v>
       </c>
       <c r="D62" s="14" t="str">
-        <f t="shared" ref="D62:D93" si="28">CONCATENATE("SUM(b.",A62," = '1') AS count_val1_",A62,", SUM(b.",A62," = '2') AS count_val2_",A62,",")</f>
+        <f t="shared" ref="D62" si="28">CONCATENATE("SUM(b.",A62," = '1') AS count_val1_",A62,", SUM(b.",A62," = '2') AS count_val2_",A62,",")</f>
         <v>SUM(b.r_s_ins_789_additional_4_1 = '1') AS count_val1_r_s_ins_789_additional_4_1, SUM(b.r_s_ins_789_additional_4_1 = '2') AS count_val2_r_s_ins_789_additional_4_1,</v>
       </c>
     </row>
@@ -20816,7 +20816,7 @@
         <v>1212</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" ref="D63:D94" si="29">CONCATENATE("SUM(b.",A63," = '1') AS count_val1_",A63,", SUM(b.",A63," = '2') AS count_val2_",A63,",", "SUM(b.",A63," = '3') AS count_val3_",A63,",")</f>
+        <f t="shared" ref="D63" si="29">CONCATENATE("SUM(b.",A63," = '1') AS count_val1_",A63,", SUM(b.",A63," = '2') AS count_val2_",A63,",", "SUM(b.",A63," = '3') AS count_val3_",A63,",")</f>
         <v>SUM(b.r_s_ins_789_additional_4_2 = '1') AS count_val1_r_s_ins_789_additional_4_2, SUM(b.r_s_ins_789_additional_4_2 = '2') AS count_val2_r_s_ins_789_additional_4_2,SUM(b.r_s_ins_789_additional_4_2 = '3') AS count_val3_r_s_ins_789_additional_4_2,</v>
       </c>
     </row>
@@ -20853,7 +20853,7 @@
         <v>1212</v>
       </c>
       <c r="D66" s="14" t="str">
-        <f t="shared" ref="D66:D97" si="30">CONCATENATE("SUM(b.",A66," = '1') AS count_val1_",A66,", SUM(b.",A66," = '2') AS count_val2_",A66,",")</f>
+        <f t="shared" ref="D66" si="30">CONCATENATE("SUM(b.",A66," = '1') AS count_val1_",A66,", SUM(b.",A66," = '2') AS count_val2_",A66,",")</f>
         <v>SUM(b.r_s_ins_789_additional_5_1 = '1') AS count_val1_r_s_ins_789_additional_5_1, SUM(b.r_s_ins_789_additional_5_1 = '2') AS count_val2_r_s_ins_789_additional_5_1,</v>
       </c>
     </row>
@@ -20868,7 +20868,7 @@
         <v>1212</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D98" si="31">CONCATENATE("SUM(b.",A67," = '1') AS count_val1_",A67,", SUM(b.",A67," = '2') AS count_val2_",A67,",", "SUM(b.",A67," = '3') AS count_val3_",A67,",")</f>
+        <f t="shared" ref="D67" si="31">CONCATENATE("SUM(b.",A67," = '1') AS count_val1_",A67,", SUM(b.",A67," = '2') AS count_val2_",A67,",", "SUM(b.",A67," = '3') AS count_val3_",A67,",")</f>
         <v>SUM(b.r_s_ins_789_additional_5_2 = '1') AS count_val1_r_s_ins_789_additional_5_2, SUM(b.r_s_ins_789_additional_5_2 = '2') AS count_val2_r_s_ins_789_additional_5_2,SUM(b.r_s_ins_789_additional_5_2 = '3') AS count_val3_r_s_ins_789_additional_5_2,</v>
       </c>
     </row>
@@ -20905,7 +20905,7 @@
         <v>1212</v>
       </c>
       <c r="D70" s="14" t="str">
-        <f t="shared" ref="D70:D101" si="32">CONCATENATE("SUM(b.",A70," = '1') AS count_val1_",A70,", SUM(b.",A70," = '2') AS count_val2_",A70,",")</f>
+        <f t="shared" ref="D70" si="32">CONCATENATE("SUM(b.",A70," = '1') AS count_val1_",A70,", SUM(b.",A70," = '2') AS count_val2_",A70,",")</f>
         <v>SUM(b.r_s_ins_101112n_1_1 = '1') AS count_val1_r_s_ins_101112n_1_1, SUM(b.r_s_ins_101112n_1_1 = '2') AS count_val2_r_s_ins_101112n_1_1,</v>
       </c>
     </row>
@@ -20920,7 +20920,7 @@
         <v>1212</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" ref="D71:D102" si="33">CONCATENATE("SUM(b.",A71," = '1') AS count_val1_",A71,", SUM(b.",A71," = '2') AS count_val2_",A71,",", "SUM(b.",A71," = '3') AS count_val3_",A71,",")</f>
+        <f t="shared" ref="D71" si="33">CONCATENATE("SUM(b.",A71," = '1') AS count_val1_",A71,", SUM(b.",A71," = '2') AS count_val2_",A71,",", "SUM(b.",A71," = '3') AS count_val3_",A71,",")</f>
         <v>SUM(b.r_s_ins_101112n_1_2 = '1') AS count_val1_r_s_ins_101112n_1_2, SUM(b.r_s_ins_101112n_1_2 = '2') AS count_val2_r_s_ins_101112n_1_2,SUM(b.r_s_ins_101112n_1_2 = '3') AS count_val3_r_s_ins_101112n_1_2,</v>
       </c>
     </row>
@@ -20957,7 +20957,7 @@
         <v>1212</v>
       </c>
       <c r="D74" s="14" t="str">
-        <f t="shared" ref="D74:D105" si="34">CONCATENATE("SUM(b.",A74," = '1') AS count_val1_",A74,", SUM(b.",A74," = '2') AS count_val2_",A74,",")</f>
+        <f t="shared" ref="D74" si="34">CONCATENATE("SUM(b.",A74," = '1') AS count_val1_",A74,", SUM(b.",A74," = '2') AS count_val2_",A74,",")</f>
         <v>SUM(b.r_s_ins_101112n_2_1 = '1') AS count_val1_r_s_ins_101112n_2_1, SUM(b.r_s_ins_101112n_2_1 = '2') AS count_val2_r_s_ins_101112n_2_1,</v>
       </c>
     </row>
@@ -20972,7 +20972,7 @@
         <v>1212</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" ref="D75:D106" si="35">CONCATENATE("SUM(b.",A75," = '1') AS count_val1_",A75,", SUM(b.",A75," = '2') AS count_val2_",A75,",", "SUM(b.",A75," = '3') AS count_val3_",A75,",")</f>
+        <f t="shared" ref="D75" si="35">CONCATENATE("SUM(b.",A75," = '1') AS count_val1_",A75,", SUM(b.",A75," = '2') AS count_val2_",A75,",", "SUM(b.",A75," = '3') AS count_val3_",A75,",")</f>
         <v>SUM(b.r_s_ins_101112n_2_2 = '1') AS count_val1_r_s_ins_101112n_2_2, SUM(b.r_s_ins_101112n_2_2 = '2') AS count_val2_r_s_ins_101112n_2_2,SUM(b.r_s_ins_101112n_2_2 = '3') AS count_val3_r_s_ins_101112n_2_2,</v>
       </c>
     </row>
@@ -21009,7 +21009,7 @@
         <v>1212</v>
       </c>
       <c r="D78" s="14" t="str">
-        <f t="shared" ref="D78:D109" si="36">CONCATENATE("SUM(b.",A78," = '1') AS count_val1_",A78,", SUM(b.",A78," = '2') AS count_val2_",A78,",")</f>
+        <f t="shared" ref="D78" si="36">CONCATENATE("SUM(b.",A78," = '1') AS count_val1_",A78,", SUM(b.",A78," = '2') AS count_val2_",A78,",")</f>
         <v>SUM(b.r_s_ins_101112n_3_1 = '1') AS count_val1_r_s_ins_101112n_3_1, SUM(b.r_s_ins_101112n_3_1 = '2') AS count_val2_r_s_ins_101112n_3_1,</v>
       </c>
     </row>
@@ -21024,7 +21024,7 @@
         <v>1212</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" ref="D79:D110" si="37">CONCATENATE("SUM(b.",A79," = '1') AS count_val1_",A79,", SUM(b.",A79," = '2') AS count_val2_",A79,",", "SUM(b.",A79," = '3') AS count_val3_",A79,",")</f>
+        <f t="shared" ref="D79" si="37">CONCATENATE("SUM(b.",A79," = '1') AS count_val1_",A79,", SUM(b.",A79," = '2') AS count_val2_",A79,",", "SUM(b.",A79," = '3') AS count_val3_",A79,",")</f>
         <v>SUM(b.r_s_ins_101112n_3_2 = '1') AS count_val1_r_s_ins_101112n_3_2, SUM(b.r_s_ins_101112n_3_2 = '2') AS count_val2_r_s_ins_101112n_3_2,SUM(b.r_s_ins_101112n_3_2 = '3') AS count_val3_r_s_ins_101112n_3_2,</v>
       </c>
     </row>
@@ -21061,7 +21061,7 @@
         <v>1212</v>
       </c>
       <c r="D82" s="14" t="str">
-        <f t="shared" ref="D82:D113" si="38">CONCATENATE("SUM(b.",A82," = '1') AS count_val1_",A82,", SUM(b.",A82," = '2') AS count_val2_",A82,",")</f>
+        <f t="shared" ref="D82" si="38">CONCATENATE("SUM(b.",A82," = '1') AS count_val1_",A82,", SUM(b.",A82," = '2') AS count_val2_",A82,",")</f>
         <v>SUM(b.r_s_ins_101112n_4_1 = '1') AS count_val1_r_s_ins_101112n_4_1, SUM(b.r_s_ins_101112n_4_1 = '2') AS count_val2_r_s_ins_101112n_4_1,</v>
       </c>
     </row>
@@ -21076,7 +21076,7 @@
         <v>1212</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" ref="D83:D114" si="39">CONCATENATE("SUM(b.",A83," = '1') AS count_val1_",A83,", SUM(b.",A83," = '2') AS count_val2_",A83,",", "SUM(b.",A83," = '3') AS count_val3_",A83,",")</f>
+        <f t="shared" ref="D83" si="39">CONCATENATE("SUM(b.",A83," = '1') AS count_val1_",A83,", SUM(b.",A83," = '2') AS count_val2_",A83,",", "SUM(b.",A83," = '3') AS count_val3_",A83,",")</f>
         <v>SUM(b.r_s_ins_101112n_4_2 = '1') AS count_val1_r_s_ins_101112n_4_2, SUM(b.r_s_ins_101112n_4_2 = '2') AS count_val2_r_s_ins_101112n_4_2,SUM(b.r_s_ins_101112n_4_2 = '3') AS count_val3_r_s_ins_101112n_4_2,</v>
       </c>
     </row>
@@ -21113,7 +21113,7 @@
         <v>1212</v>
       </c>
       <c r="D86" s="14" t="str">
-        <f t="shared" ref="D86:D117" si="40">CONCATENATE("SUM(b.",A86," = '1') AS count_val1_",A86,", SUM(b.",A86," = '2') AS count_val2_",A86,",")</f>
+        <f t="shared" ref="D86" si="40">CONCATENATE("SUM(b.",A86," = '1') AS count_val1_",A86,", SUM(b.",A86," = '2') AS count_val2_",A86,",")</f>
         <v>SUM(b.r_s_ins_101112n_5_1 = '1') AS count_val1_r_s_ins_101112n_5_1, SUM(b.r_s_ins_101112n_5_1 = '2') AS count_val2_r_s_ins_101112n_5_1,</v>
       </c>
     </row>
@@ -21128,7 +21128,7 @@
         <v>1212</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" ref="D87:D118" si="41">CONCATENATE("SUM(b.",A87," = '1') AS count_val1_",A87,", SUM(b.",A87," = '2') AS count_val2_",A87,",", "SUM(b.",A87," = '3') AS count_val3_",A87,",")</f>
+        <f t="shared" ref="D87" si="41">CONCATENATE("SUM(b.",A87," = '1') AS count_val1_",A87,", SUM(b.",A87," = '2') AS count_val2_",A87,",", "SUM(b.",A87," = '3') AS count_val3_",A87,",")</f>
         <v>SUM(b.r_s_ins_101112n_5_2 = '1') AS count_val1_r_s_ins_101112n_5_2, SUM(b.r_s_ins_101112n_5_2 = '2') AS count_val2_r_s_ins_101112n_5_2,SUM(b.r_s_ins_101112n_5_2 = '3') AS count_val3_r_s_ins_101112n_5_2,</v>
       </c>
     </row>
@@ -21165,7 +21165,7 @@
         <v>1212</v>
       </c>
       <c r="D90" s="14" t="str">
-        <f t="shared" ref="D90:D121" si="42">CONCATENATE("SUM(b.",A90," = '1') AS count_val1_",A90,", SUM(b.",A90," = '2') AS count_val2_",A90,",")</f>
+        <f t="shared" ref="D90" si="42">CONCATENATE("SUM(b.",A90," = '1') AS count_val1_",A90,", SUM(b.",A90," = '2') AS count_val2_",A90,",")</f>
         <v>SUM(b.r_s_ins_101112n_6_1 = '1') AS count_val1_r_s_ins_101112n_6_1, SUM(b.r_s_ins_101112n_6_1 = '2') AS count_val2_r_s_ins_101112n_6_1,</v>
       </c>
     </row>
@@ -21180,7 +21180,7 @@
         <v>1212</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" ref="D91:D122" si="43">CONCATENATE("SUM(b.",A91," = '1') AS count_val1_",A91,", SUM(b.",A91," = '2') AS count_val2_",A91,",", "SUM(b.",A91," = '3') AS count_val3_",A91,",")</f>
+        <f t="shared" ref="D91" si="43">CONCATENATE("SUM(b.",A91," = '1') AS count_val1_",A91,", SUM(b.",A91," = '2') AS count_val2_",A91,",", "SUM(b.",A91," = '3') AS count_val3_",A91,",")</f>
         <v>SUM(b.r_s_ins_101112n_6_2 = '1') AS count_val1_r_s_ins_101112n_6_2, SUM(b.r_s_ins_101112n_6_2 = '2') AS count_val2_r_s_ins_101112n_6_2,SUM(b.r_s_ins_101112n_6_2 = '3') AS count_val3_r_s_ins_101112n_6_2,</v>
       </c>
     </row>
@@ -21217,7 +21217,7 @@
         <v>1212</v>
       </c>
       <c r="D94" s="14" t="str">
-        <f t="shared" ref="D94:D125" si="44">CONCATENATE("SUM(b.",A94," = '1') AS count_val1_",A94,", SUM(b.",A94," = '2') AS count_val2_",A94,",")</f>
+        <f t="shared" ref="D94" si="44">CONCATENATE("SUM(b.",A94," = '1') AS count_val1_",A94,", SUM(b.",A94," = '2') AS count_val2_",A94,",")</f>
         <v>SUM(b.r_s_ins_101112p_1_1 = '1') AS count_val1_r_s_ins_101112p_1_1, SUM(b.r_s_ins_101112p_1_1 = '2') AS count_val2_r_s_ins_101112p_1_1,</v>
       </c>
     </row>
@@ -21232,7 +21232,7 @@
         <v>1212</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" ref="D95:D126" si="45">CONCATENATE("SUM(b.",A95," = '1') AS count_val1_",A95,", SUM(b.",A95," = '2') AS count_val2_",A95,",", "SUM(b.",A95," = '3') AS count_val3_",A95,",")</f>
+        <f t="shared" ref="D95" si="45">CONCATENATE("SUM(b.",A95," = '1') AS count_val1_",A95,", SUM(b.",A95," = '2') AS count_val2_",A95,",", "SUM(b.",A95," = '3') AS count_val3_",A95,",")</f>
         <v>SUM(b.r_s_ins_101112p_1_2 = '1') AS count_val1_r_s_ins_101112p_1_2, SUM(b.r_s_ins_101112p_1_2 = '2') AS count_val2_r_s_ins_101112p_1_2,SUM(b.r_s_ins_101112p_1_2 = '3') AS count_val3_r_s_ins_101112p_1_2,</v>
       </c>
     </row>
@@ -21269,7 +21269,7 @@
         <v>1212</v>
       </c>
       <c r="D98" s="14" t="str">
-        <f t="shared" ref="D98:D129" si="46">CONCATENATE("SUM(b.",A98," = '1') AS count_val1_",A98,", SUM(b.",A98," = '2') AS count_val2_",A98,",")</f>
+        <f t="shared" ref="D98" si="46">CONCATENATE("SUM(b.",A98," = '1') AS count_val1_",A98,", SUM(b.",A98," = '2') AS count_val2_",A98,",")</f>
         <v>SUM(b.r_s_ins_101112p_2_1 = '1') AS count_val1_r_s_ins_101112p_2_1, SUM(b.r_s_ins_101112p_2_1 = '2') AS count_val2_r_s_ins_101112p_2_1,</v>
       </c>
     </row>
@@ -21284,7 +21284,7 @@
         <v>1212</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" ref="D99:D130" si="47">CONCATENATE("SUM(b.",A99," = '1') AS count_val1_",A99,", SUM(b.",A99," = '2') AS count_val2_",A99,",", "SUM(b.",A99," = '3') AS count_val3_",A99,",")</f>
+        <f t="shared" ref="D99" si="47">CONCATENATE("SUM(b.",A99," = '1') AS count_val1_",A99,", SUM(b.",A99," = '2') AS count_val2_",A99,",", "SUM(b.",A99," = '3') AS count_val3_",A99,",")</f>
         <v>SUM(b.r_s_ins_101112p_2_2 = '1') AS count_val1_r_s_ins_101112p_2_2, SUM(b.r_s_ins_101112p_2_2 = '2') AS count_val2_r_s_ins_101112p_2_2,SUM(b.r_s_ins_101112p_2_2 = '3') AS count_val3_r_s_ins_101112p_2_2,</v>
       </c>
     </row>
@@ -21321,7 +21321,7 @@
         <v>1212</v>
       </c>
       <c r="D102" s="14" t="str">
-        <f t="shared" ref="D102:D133" si="48">CONCATENATE("SUM(b.",A102," = '1') AS count_val1_",A102,", SUM(b.",A102," = '2') AS count_val2_",A102,",")</f>
+        <f t="shared" ref="D102" si="48">CONCATENATE("SUM(b.",A102," = '1') AS count_val1_",A102,", SUM(b.",A102," = '2') AS count_val2_",A102,",")</f>
         <v>SUM(b.r_s_ins_101112p_3_1 = '1') AS count_val1_r_s_ins_101112p_3_1, SUM(b.r_s_ins_101112p_3_1 = '2') AS count_val2_r_s_ins_101112p_3_1,</v>
       </c>
     </row>
@@ -21336,7 +21336,7 @@
         <v>1212</v>
       </c>
       <c r="D103" t="str">
-        <f t="shared" ref="D103:D134" si="49">CONCATENATE("SUM(b.",A103," = '1') AS count_val1_",A103,", SUM(b.",A103," = '2') AS count_val2_",A103,",", "SUM(b.",A103," = '3') AS count_val3_",A103,",")</f>
+        <f t="shared" ref="D103" si="49">CONCATENATE("SUM(b.",A103," = '1') AS count_val1_",A103,", SUM(b.",A103," = '2') AS count_val2_",A103,",", "SUM(b.",A103," = '3') AS count_val3_",A103,",")</f>
         <v>SUM(b.r_s_ins_101112p_3_2 = '1') AS count_val1_r_s_ins_101112p_3_2, SUM(b.r_s_ins_101112p_3_2 = '2') AS count_val2_r_s_ins_101112p_3_2,SUM(b.r_s_ins_101112p_3_2 = '3') AS count_val3_r_s_ins_101112p_3_2,</v>
       </c>
     </row>
@@ -21373,7 +21373,7 @@
         <v>1212</v>
       </c>
       <c r="D106" s="14" t="str">
-        <f t="shared" ref="D106:D137" si="50">CONCATENATE("SUM(b.",A106," = '1') AS count_val1_",A106,", SUM(b.",A106," = '2') AS count_val2_",A106,",")</f>
+        <f t="shared" ref="D106" si="50">CONCATENATE("SUM(b.",A106," = '1') AS count_val1_",A106,", SUM(b.",A106," = '2') AS count_val2_",A106,",")</f>
         <v>SUM(b.r_s_ins_101112p_4_1 = '1') AS count_val1_r_s_ins_101112p_4_1, SUM(b.r_s_ins_101112p_4_1 = '2') AS count_val2_r_s_ins_101112p_4_1,</v>
       </c>
     </row>
@@ -21388,7 +21388,7 @@
         <v>1212</v>
       </c>
       <c r="D107" t="str">
-        <f t="shared" ref="D107:D138" si="51">CONCATENATE("SUM(b.",A107," = '1') AS count_val1_",A107,", SUM(b.",A107," = '2') AS count_val2_",A107,",", "SUM(b.",A107," = '3') AS count_val3_",A107,",")</f>
+        <f t="shared" ref="D107" si="51">CONCATENATE("SUM(b.",A107," = '1') AS count_val1_",A107,", SUM(b.",A107," = '2') AS count_val2_",A107,",", "SUM(b.",A107," = '3') AS count_val3_",A107,",")</f>
         <v>SUM(b.r_s_ins_101112p_4_2 = '1') AS count_val1_r_s_ins_101112p_4_2, SUM(b.r_s_ins_101112p_4_2 = '2') AS count_val2_r_s_ins_101112p_4_2,SUM(b.r_s_ins_101112p_4_2 = '3') AS count_val3_r_s_ins_101112p_4_2,</v>
       </c>
     </row>
@@ -21425,7 +21425,7 @@
         <v>1212</v>
       </c>
       <c r="D110" s="14" t="str">
-        <f t="shared" ref="D110:D141" si="52">CONCATENATE("SUM(b.",A110," = '1') AS count_val1_",A110,", SUM(b.",A110," = '2') AS count_val2_",A110,",")</f>
+        <f t="shared" ref="D110" si="52">CONCATENATE("SUM(b.",A110," = '1') AS count_val1_",A110,", SUM(b.",A110," = '2') AS count_val2_",A110,",")</f>
         <v>SUM(b.r_s_ins_101112p_5_1 = '1') AS count_val1_r_s_ins_101112p_5_1, SUM(b.r_s_ins_101112p_5_1 = '2') AS count_val2_r_s_ins_101112p_5_1,</v>
       </c>
     </row>
@@ -21440,7 +21440,7 @@
         <v>1212</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" ref="D111:D142" si="53">CONCATENATE("SUM(b.",A111," = '1') AS count_val1_",A111,", SUM(b.",A111," = '2') AS count_val2_",A111,",", "SUM(b.",A111," = '3') AS count_val3_",A111,",")</f>
+        <f t="shared" ref="D111" si="53">CONCATENATE("SUM(b.",A111," = '1') AS count_val1_",A111,", SUM(b.",A111," = '2') AS count_val2_",A111,",", "SUM(b.",A111," = '3') AS count_val3_",A111,",")</f>
         <v>SUM(b.r_s_ins_101112p_5_2 = '1') AS count_val1_r_s_ins_101112p_5_2, SUM(b.r_s_ins_101112p_5_2 = '2') AS count_val2_r_s_ins_101112p_5_2,SUM(b.r_s_ins_101112p_5_2 = '3') AS count_val3_r_s_ins_101112p_5_2,</v>
       </c>
     </row>
@@ -21477,7 +21477,7 @@
         <v>1212</v>
       </c>
       <c r="D114" s="14" t="str">
-        <f t="shared" ref="D114:D145" si="54">CONCATENATE("SUM(b.",A114," = '1') AS count_val1_",A114,", SUM(b.",A114," = '2') AS count_val2_",A114,",")</f>
+        <f t="shared" ref="D114" si="54">CONCATENATE("SUM(b.",A114," = '1') AS count_val1_",A114,", SUM(b.",A114," = '2') AS count_val2_",A114,",")</f>
         <v>SUM(b.r_s_ins_101112p_6_1 = '1') AS count_val1_r_s_ins_101112p_6_1, SUM(b.r_s_ins_101112p_6_1 = '2') AS count_val2_r_s_ins_101112p_6_1,</v>
       </c>
     </row>
@@ -21492,7 +21492,7 @@
         <v>1212</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" ref="D115:D146" si="55">CONCATENATE("SUM(b.",A115," = '1') AS count_val1_",A115,", SUM(b.",A115," = '2') AS count_val2_",A115,",", "SUM(b.",A115," = '3') AS count_val3_",A115,",")</f>
+        <f t="shared" ref="D115" si="55">CONCATENATE("SUM(b.",A115," = '1') AS count_val1_",A115,", SUM(b.",A115," = '2') AS count_val2_",A115,",", "SUM(b.",A115," = '3') AS count_val3_",A115,",")</f>
         <v>SUM(b.r_s_ins_101112p_6_2 = '1') AS count_val1_r_s_ins_101112p_6_2, SUM(b.r_s_ins_101112p_6_2 = '2') AS count_val2_r_s_ins_101112p_6_2,SUM(b.r_s_ins_101112p_6_2 = '3') AS count_val3_r_s_ins_101112p_6_2,</v>
       </c>
     </row>
@@ -21529,7 +21529,7 @@
         <v>1212</v>
       </c>
       <c r="D118" s="14" t="str">
-        <f t="shared" ref="D118:D149" si="56">CONCATENATE("SUM(b.",A118," = '1') AS count_val1_",A118,", SUM(b.",A118," = '2') AS count_val2_",A118,",")</f>
+        <f t="shared" ref="D118" si="56">CONCATENATE("SUM(b.",A118," = '1') AS count_val1_",A118,", SUM(b.",A118," = '2') AS count_val2_",A118,",")</f>
         <v>SUM(b.r_s_ins_101112c_1_1 = '1') AS count_val1_r_s_ins_101112c_1_1, SUM(b.r_s_ins_101112c_1_1 = '2') AS count_val2_r_s_ins_101112c_1_1,</v>
       </c>
     </row>
@@ -21544,7 +21544,7 @@
         <v>1212</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" ref="D119:D150" si="57">CONCATENATE("SUM(b.",A119," = '1') AS count_val1_",A119,", SUM(b.",A119," = '2') AS count_val2_",A119,",", "SUM(b.",A119," = '3') AS count_val3_",A119,",")</f>
+        <f t="shared" ref="D119" si="57">CONCATENATE("SUM(b.",A119," = '1') AS count_val1_",A119,", SUM(b.",A119," = '2') AS count_val2_",A119,",", "SUM(b.",A119," = '3') AS count_val3_",A119,",")</f>
         <v>SUM(b.r_s_ins_101112c_1_2 = '1') AS count_val1_r_s_ins_101112c_1_2, SUM(b.r_s_ins_101112c_1_2 = '2') AS count_val2_r_s_ins_101112c_1_2,SUM(b.r_s_ins_101112c_1_2 = '3') AS count_val3_r_s_ins_101112c_1_2,</v>
       </c>
     </row>
@@ -21581,7 +21581,7 @@
         <v>1212</v>
       </c>
       <c r="D122" s="14" t="str">
-        <f t="shared" ref="D122:D153" si="58">CONCATENATE("SUM(b.",A122," = '1') AS count_val1_",A122,", SUM(b.",A122," = '2') AS count_val2_",A122,",")</f>
+        <f t="shared" ref="D122" si="58">CONCATENATE("SUM(b.",A122," = '1') AS count_val1_",A122,", SUM(b.",A122," = '2') AS count_val2_",A122,",")</f>
         <v>SUM(b.r_s_ins_101112c_2_1 = '1') AS count_val1_r_s_ins_101112c_2_1, SUM(b.r_s_ins_101112c_2_1 = '2') AS count_val2_r_s_ins_101112c_2_1,</v>
       </c>
     </row>
@@ -21596,7 +21596,7 @@
         <v>1212</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" ref="D123:D154" si="59">CONCATENATE("SUM(b.",A123," = '1') AS count_val1_",A123,", SUM(b.",A123," = '2') AS count_val2_",A123,",", "SUM(b.",A123," = '3') AS count_val3_",A123,",")</f>
+        <f t="shared" ref="D123" si="59">CONCATENATE("SUM(b.",A123," = '1') AS count_val1_",A123,", SUM(b.",A123," = '2') AS count_val2_",A123,",", "SUM(b.",A123," = '3') AS count_val3_",A123,",")</f>
         <v>SUM(b.r_s_ins_101112c_2_2 = '1') AS count_val1_r_s_ins_101112c_2_2, SUM(b.r_s_ins_101112c_2_2 = '2') AS count_val2_r_s_ins_101112c_2_2,SUM(b.r_s_ins_101112c_2_2 = '3') AS count_val3_r_s_ins_101112c_2_2,</v>
       </c>
     </row>
@@ -21633,7 +21633,7 @@
         <v>1212</v>
       </c>
       <c r="D126" s="14" t="str">
-        <f t="shared" ref="D126:D157" si="60">CONCATENATE("SUM(b.",A126," = '1') AS count_val1_",A126,", SUM(b.",A126," = '2') AS count_val2_",A126,",")</f>
+        <f t="shared" ref="D126" si="60">CONCATENATE("SUM(b.",A126," = '1') AS count_val1_",A126,", SUM(b.",A126," = '2') AS count_val2_",A126,",")</f>
         <v>SUM(b.r_s_ins_101112c_3_1 = '1') AS count_val1_r_s_ins_101112c_3_1, SUM(b.r_s_ins_101112c_3_1 = '2') AS count_val2_r_s_ins_101112c_3_1,</v>
       </c>
     </row>
@@ -21648,7 +21648,7 @@
         <v>1212</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" ref="D127:D158" si="61">CONCATENATE("SUM(b.",A127," = '1') AS count_val1_",A127,", SUM(b.",A127," = '2') AS count_val2_",A127,",", "SUM(b.",A127," = '3') AS count_val3_",A127,",")</f>
+        <f t="shared" ref="D127" si="61">CONCATENATE("SUM(b.",A127," = '1') AS count_val1_",A127,", SUM(b.",A127," = '2') AS count_val2_",A127,",", "SUM(b.",A127," = '3') AS count_val3_",A127,",")</f>
         <v>SUM(b.r_s_ins_101112c_3_2 = '1') AS count_val1_r_s_ins_101112c_3_2, SUM(b.r_s_ins_101112c_3_2 = '2') AS count_val2_r_s_ins_101112c_3_2,SUM(b.r_s_ins_101112c_3_2 = '3') AS count_val3_r_s_ins_101112c_3_2,</v>
       </c>
     </row>
@@ -21685,7 +21685,7 @@
         <v>1212</v>
       </c>
       <c r="D130" s="14" t="str">
-        <f t="shared" ref="D130:D161" si="62">CONCATENATE("SUM(b.",A130," = '1') AS count_val1_",A130,", SUM(b.",A130," = '2') AS count_val2_",A130,",")</f>
+        <f t="shared" ref="D130" si="62">CONCATENATE("SUM(b.",A130," = '1') AS count_val1_",A130,", SUM(b.",A130," = '2') AS count_val2_",A130,",")</f>
         <v>SUM(b.r_s_ins_101112c_4_1 = '1') AS count_val1_r_s_ins_101112c_4_1, SUM(b.r_s_ins_101112c_4_1 = '2') AS count_val2_r_s_ins_101112c_4_1,</v>
       </c>
     </row>
@@ -21700,7 +21700,7 @@
         <v>1212</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131:D162" si="63">CONCATENATE("SUM(b.",A131," = '1') AS count_val1_",A131,", SUM(b.",A131," = '2') AS count_val2_",A131,",", "SUM(b.",A131," = '3') AS count_val3_",A131,",")</f>
+        <f t="shared" ref="D131" si="63">CONCATENATE("SUM(b.",A131," = '1') AS count_val1_",A131,", SUM(b.",A131," = '2') AS count_val2_",A131,",", "SUM(b.",A131," = '3') AS count_val3_",A131,",")</f>
         <v>SUM(b.r_s_ins_101112c_4_2 = '1') AS count_val1_r_s_ins_101112c_4_2, SUM(b.r_s_ins_101112c_4_2 = '2') AS count_val2_r_s_ins_101112c_4_2,SUM(b.r_s_ins_101112c_4_2 = '3') AS count_val3_r_s_ins_101112c_4_2,</v>
       </c>
     </row>
@@ -21737,7 +21737,7 @@
         <v>1212</v>
       </c>
       <c r="D134" s="14" t="str">
-        <f t="shared" ref="D134:D181" si="64">CONCATENATE("SUM(b.",A134," = '1') AS count_val1_",A134,", SUM(b.",A134," = '2') AS count_val2_",A134,",")</f>
+        <f t="shared" ref="D134" si="64">CONCATENATE("SUM(b.",A134," = '1') AS count_val1_",A134,", SUM(b.",A134," = '2') AS count_val2_",A134,",")</f>
         <v>SUM(b.r_s_ins_101112c_5_1 = '1') AS count_val1_r_s_ins_101112c_5_1, SUM(b.r_s_ins_101112c_5_1 = '2') AS count_val2_r_s_ins_101112c_5_1,</v>
       </c>
     </row>
@@ -21752,7 +21752,7 @@
         <v>1212</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" ref="D135:D181" si="65">CONCATENATE("SUM(b.",A135," = '1') AS count_val1_",A135,", SUM(b.",A135," = '2') AS count_val2_",A135,",", "SUM(b.",A135," = '3') AS count_val3_",A135,",")</f>
+        <f t="shared" ref="D135" si="65">CONCATENATE("SUM(b.",A135," = '1') AS count_val1_",A135,", SUM(b.",A135," = '2') AS count_val2_",A135,",", "SUM(b.",A135," = '3') AS count_val3_",A135,",")</f>
         <v>SUM(b.r_s_ins_101112c_5_2 = '1') AS count_val1_r_s_ins_101112c_5_2, SUM(b.r_s_ins_101112c_5_2 = '2') AS count_val2_r_s_ins_101112c_5_2,SUM(b.r_s_ins_101112c_5_2 = '3') AS count_val3_r_s_ins_101112c_5_2,</v>
       </c>
     </row>
@@ -21789,7 +21789,7 @@
         <v>1212</v>
       </c>
       <c r="D138" s="14" t="str">
-        <f t="shared" ref="D138:D181" si="66">CONCATENATE("SUM(b.",A138," = '1') AS count_val1_",A138,", SUM(b.",A138," = '2') AS count_val2_",A138,",")</f>
+        <f t="shared" ref="D138" si="66">CONCATENATE("SUM(b.",A138," = '1') AS count_val1_",A138,", SUM(b.",A138," = '2') AS count_val2_",A138,",")</f>
         <v>SUM(b.r_s_ins_101112c_6_1 = '1') AS count_val1_r_s_ins_101112c_6_1, SUM(b.r_s_ins_101112c_6_1 = '2') AS count_val2_r_s_ins_101112c_6_1,</v>
       </c>
     </row>
@@ -21804,7 +21804,7 @@
         <v>1212</v>
       </c>
       <c r="D139" t="str">
-        <f t="shared" ref="D139:D181" si="67">CONCATENATE("SUM(b.",A139," = '1') AS count_val1_",A139,", SUM(b.",A139," = '2') AS count_val2_",A139,",", "SUM(b.",A139," = '3') AS count_val3_",A139,",")</f>
+        <f t="shared" ref="D139" si="67">CONCATENATE("SUM(b.",A139," = '1') AS count_val1_",A139,", SUM(b.",A139," = '2') AS count_val2_",A139,",", "SUM(b.",A139," = '3') AS count_val3_",A139,",")</f>
         <v>SUM(b.r_s_ins_101112c_6_2 = '1') AS count_val1_r_s_ins_101112c_6_2, SUM(b.r_s_ins_101112c_6_2 = '2') AS count_val2_r_s_ins_101112c_6_2,SUM(b.r_s_ins_101112c_6_2 = '3') AS count_val3_r_s_ins_101112c_6_2,</v>
       </c>
     </row>
@@ -21841,7 +21841,7 @@
         <v>1212</v>
       </c>
       <c r="D142" s="14" t="str">
-        <f t="shared" ref="D142:D181" si="68">CONCATENATE("SUM(b.",A142," = '1') AS count_val1_",A142,", SUM(b.",A142," = '2') AS count_val2_",A142,",")</f>
+        <f t="shared" ref="D142" si="68">CONCATENATE("SUM(b.",A142," = '1') AS count_val1_",A142,", SUM(b.",A142," = '2') AS count_val2_",A142,",")</f>
         <v>SUM(b.r_s_ins_101112b_1_1 = '1') AS count_val1_r_s_ins_101112b_1_1, SUM(b.r_s_ins_101112b_1_1 = '2') AS count_val2_r_s_ins_101112b_1_1,</v>
       </c>
     </row>
@@ -21856,7 +21856,7 @@
         <v>1212</v>
       </c>
       <c r="D143" t="str">
-        <f t="shared" ref="D143:D181" si="69">CONCATENATE("SUM(b.",A143," = '1') AS count_val1_",A143,", SUM(b.",A143," = '2') AS count_val2_",A143,",", "SUM(b.",A143," = '3') AS count_val3_",A143,",")</f>
+        <f t="shared" ref="D143" si="69">CONCATENATE("SUM(b.",A143," = '1') AS count_val1_",A143,", SUM(b.",A143," = '2') AS count_val2_",A143,",", "SUM(b.",A143," = '3') AS count_val3_",A143,",")</f>
         <v>SUM(b.r_s_ins_101112b_1_2 = '1') AS count_val1_r_s_ins_101112b_1_2, SUM(b.r_s_ins_101112b_1_2 = '2') AS count_val2_r_s_ins_101112b_1_2,SUM(b.r_s_ins_101112b_1_2 = '3') AS count_val3_r_s_ins_101112b_1_2,</v>
       </c>
     </row>
@@ -21893,7 +21893,7 @@
         <v>1212</v>
       </c>
       <c r="D146" s="14" t="str">
-        <f t="shared" ref="D146:D181" si="70">CONCATENATE("SUM(b.",A146," = '1') AS count_val1_",A146,", SUM(b.",A146," = '2') AS count_val2_",A146,",")</f>
+        <f t="shared" ref="D146" si="70">CONCATENATE("SUM(b.",A146," = '1') AS count_val1_",A146,", SUM(b.",A146," = '2') AS count_val2_",A146,",")</f>
         <v>SUM(b.r_s_ins_101112b_2_1 = '1') AS count_val1_r_s_ins_101112b_2_1, SUM(b.r_s_ins_101112b_2_1 = '2') AS count_val2_r_s_ins_101112b_2_1,</v>
       </c>
     </row>
@@ -21908,7 +21908,7 @@
         <v>1212</v>
       </c>
       <c r="D147" t="str">
-        <f t="shared" ref="D147:D181" si="71">CONCATENATE("SUM(b.",A147," = '1') AS count_val1_",A147,", SUM(b.",A147," = '2') AS count_val2_",A147,",", "SUM(b.",A147," = '3') AS count_val3_",A147,",")</f>
+        <f t="shared" ref="D147" si="71">CONCATENATE("SUM(b.",A147," = '1') AS count_val1_",A147,", SUM(b.",A147," = '2') AS count_val2_",A147,",", "SUM(b.",A147," = '3') AS count_val3_",A147,",")</f>
         <v>SUM(b.r_s_ins_101112b_2_2 = '1') AS count_val1_r_s_ins_101112b_2_2, SUM(b.r_s_ins_101112b_2_2 = '2') AS count_val2_r_s_ins_101112b_2_2,SUM(b.r_s_ins_101112b_2_2 = '3') AS count_val3_r_s_ins_101112b_2_2,</v>
       </c>
     </row>
@@ -21945,7 +21945,7 @@
         <v>1212</v>
       </c>
       <c r="D150" s="14" t="str">
-        <f t="shared" ref="D150:D181" si="72">CONCATENATE("SUM(b.",A150," = '1') AS count_val1_",A150,", SUM(b.",A150," = '2') AS count_val2_",A150,",")</f>
+        <f t="shared" ref="D150" si="72">CONCATENATE("SUM(b.",A150," = '1') AS count_val1_",A150,", SUM(b.",A150," = '2') AS count_val2_",A150,",")</f>
         <v>SUM(b.r_s_ins_101112b_3_1 = '1') AS count_val1_r_s_ins_101112b_3_1, SUM(b.r_s_ins_101112b_3_1 = '2') AS count_val2_r_s_ins_101112b_3_1,</v>
       </c>
     </row>
@@ -21960,7 +21960,7 @@
         <v>1212</v>
       </c>
       <c r="D151" t="str">
-        <f t="shared" ref="D151:D181" si="73">CONCATENATE("SUM(b.",A151," = '1') AS count_val1_",A151,", SUM(b.",A151," = '2') AS count_val2_",A151,",", "SUM(b.",A151," = '3') AS count_val3_",A151,",")</f>
+        <f t="shared" ref="D151" si="73">CONCATENATE("SUM(b.",A151," = '1') AS count_val1_",A151,", SUM(b.",A151," = '2') AS count_val2_",A151,",", "SUM(b.",A151," = '3') AS count_val3_",A151,",")</f>
         <v>SUM(b.r_s_ins_101112b_3_2 = '1') AS count_val1_r_s_ins_101112b_3_2, SUM(b.r_s_ins_101112b_3_2 = '2') AS count_val2_r_s_ins_101112b_3_2,SUM(b.r_s_ins_101112b_3_2 = '3') AS count_val3_r_s_ins_101112b_3_2,</v>
       </c>
     </row>
@@ -21997,7 +21997,7 @@
         <v>1212</v>
       </c>
       <c r="D154" s="14" t="str">
-        <f t="shared" ref="D154:D181" si="74">CONCATENATE("SUM(b.",A154," = '1') AS count_val1_",A154,", SUM(b.",A154," = '2') AS count_val2_",A154,",")</f>
+        <f t="shared" ref="D154" si="74">CONCATENATE("SUM(b.",A154," = '1') AS count_val1_",A154,", SUM(b.",A154," = '2') AS count_val2_",A154,",")</f>
         <v>SUM(b.r_s_ins_101112b_4_1 = '1') AS count_val1_r_s_ins_101112b_4_1, SUM(b.r_s_ins_101112b_4_1 = '2') AS count_val2_r_s_ins_101112b_4_1,</v>
       </c>
     </row>
@@ -22012,7 +22012,7 @@
         <v>1212</v>
       </c>
       <c r="D155" t="str">
-        <f t="shared" ref="D155:D181" si="75">CONCATENATE("SUM(b.",A155," = '1') AS count_val1_",A155,", SUM(b.",A155," = '2') AS count_val2_",A155,",", "SUM(b.",A155," = '3') AS count_val3_",A155,",")</f>
+        <f t="shared" ref="D155" si="75">CONCATENATE("SUM(b.",A155," = '1') AS count_val1_",A155,", SUM(b.",A155," = '2') AS count_val2_",A155,",", "SUM(b.",A155," = '3') AS count_val3_",A155,",")</f>
         <v>SUM(b.r_s_ins_101112b_4_2 = '1') AS count_val1_r_s_ins_101112b_4_2, SUM(b.r_s_ins_101112b_4_2 = '2') AS count_val2_r_s_ins_101112b_4_2,SUM(b.r_s_ins_101112b_4_2 = '3') AS count_val3_r_s_ins_101112b_4_2,</v>
       </c>
     </row>
@@ -22049,7 +22049,7 @@
         <v>1212</v>
       </c>
       <c r="D158" s="14" t="str">
-        <f t="shared" ref="D158:D181" si="76">CONCATENATE("SUM(b.",A158," = '1') AS count_val1_",A158,", SUM(b.",A158," = '2') AS count_val2_",A158,",")</f>
+        <f t="shared" ref="D158" si="76">CONCATENATE("SUM(b.",A158," = '1') AS count_val1_",A158,", SUM(b.",A158," = '2') AS count_val2_",A158,",")</f>
         <v>SUM(b.r_s_ins_101112b_5_1 = '1') AS count_val1_r_s_ins_101112b_5_1, SUM(b.r_s_ins_101112b_5_1 = '2') AS count_val2_r_s_ins_101112b_5_1,</v>
       </c>
     </row>
@@ -22064,7 +22064,7 @@
         <v>1212</v>
       </c>
       <c r="D159" t="str">
-        <f t="shared" ref="D159:D181" si="77">CONCATENATE("SUM(b.",A159," = '1') AS count_val1_",A159,", SUM(b.",A159," = '2') AS count_val2_",A159,",", "SUM(b.",A159," = '3') AS count_val3_",A159,",")</f>
+        <f t="shared" ref="D159" si="77">CONCATENATE("SUM(b.",A159," = '1') AS count_val1_",A159,", SUM(b.",A159," = '2') AS count_val2_",A159,",", "SUM(b.",A159," = '3') AS count_val3_",A159,",")</f>
         <v>SUM(b.r_s_ins_101112b_5_2 = '1') AS count_val1_r_s_ins_101112b_5_2, SUM(b.r_s_ins_101112b_5_2 = '2') AS count_val2_r_s_ins_101112b_5_2,SUM(b.r_s_ins_101112b_5_2 = '3') AS count_val3_r_s_ins_101112b_5_2,</v>
       </c>
     </row>
@@ -22101,7 +22101,7 @@
         <v>1212</v>
       </c>
       <c r="D162" s="14" t="str">
-        <f t="shared" ref="D162:D181" si="78">CONCATENATE("SUM(b.",A162," = '1') AS count_val1_",A162,", SUM(b.",A162," = '2') AS count_val2_",A162,",")</f>
+        <f t="shared" ref="D162" si="78">CONCATENATE("SUM(b.",A162," = '1') AS count_val1_",A162,", SUM(b.",A162," = '2') AS count_val2_",A162,",")</f>
         <v>SUM(b.r_s_ins_101112b_6_1 = '1') AS count_val1_r_s_ins_101112b_6_1, SUM(b.r_s_ins_101112b_6_1 = '2') AS count_val2_r_s_ins_101112b_6_1,</v>
       </c>
     </row>
@@ -22116,7 +22116,7 @@
         <v>1212</v>
       </c>
       <c r="D163" t="str">
-        <f t="shared" ref="D163:D181" si="79">CONCATENATE("SUM(b.",A163," = '1') AS count_val1_",A163,", SUM(b.",A163," = '2') AS count_val2_",A163,",", "SUM(b.",A163," = '3') AS count_val3_",A163,",")</f>
+        <f t="shared" ref="D163" si="79">CONCATENATE("SUM(b.",A163," = '1') AS count_val1_",A163,", SUM(b.",A163," = '2') AS count_val2_",A163,",", "SUM(b.",A163," = '3') AS count_val3_",A163,",")</f>
         <v>SUM(b.r_s_ins_101112b_6_2 = '1') AS count_val1_r_s_ins_101112b_6_2, SUM(b.r_s_ins_101112b_6_2 = '2') AS count_val2_r_s_ins_101112b_6_2,SUM(b.r_s_ins_101112b_6_2 = '3') AS count_val3_r_s_ins_101112b_6_2,</v>
       </c>
     </row>
@@ -22153,7 +22153,7 @@
         <v>1212</v>
       </c>
       <c r="D166" s="14" t="str">
-        <f t="shared" ref="D166:D181" si="80">CONCATENATE("SUM(b.",A166," = '1') AS count_val1_",A166,", SUM(b.",A166," = '2') AS count_val2_",A166,",")</f>
+        <f t="shared" ref="D166" si="80">CONCATENATE("SUM(b.",A166," = '1') AS count_val1_",A166,", SUM(b.",A166," = '2') AS count_val2_",A166,",")</f>
         <v>SUM(b.r_s_ins_101112e_1_1 = '1') AS count_val1_r_s_ins_101112e_1_1, SUM(b.r_s_ins_101112e_1_1 = '2') AS count_val2_r_s_ins_101112e_1_1,</v>
       </c>
     </row>
@@ -22168,7 +22168,7 @@
         <v>1212</v>
       </c>
       <c r="D167" t="str">
-        <f t="shared" ref="D167:D181" si="81">CONCATENATE("SUM(b.",A167," = '1') AS count_val1_",A167,", SUM(b.",A167," = '2') AS count_val2_",A167,",", "SUM(b.",A167," = '3') AS count_val3_",A167,",")</f>
+        <f t="shared" ref="D167" si="81">CONCATENATE("SUM(b.",A167," = '1') AS count_val1_",A167,", SUM(b.",A167," = '2') AS count_val2_",A167,",", "SUM(b.",A167," = '3') AS count_val3_",A167,",")</f>
         <v>SUM(b.r_s_ins_101112e_1_2 = '1') AS count_val1_r_s_ins_101112e_1_2, SUM(b.r_s_ins_101112e_1_2 = '2') AS count_val2_r_s_ins_101112e_1_2,SUM(b.r_s_ins_101112e_1_2 = '3') AS count_val3_r_s_ins_101112e_1_2,</v>
       </c>
     </row>
@@ -22205,7 +22205,7 @@
         <v>1212</v>
       </c>
       <c r="D170" s="14" t="str">
-        <f t="shared" ref="D170:D181" si="82">CONCATENATE("SUM(b.",A170," = '1') AS count_val1_",A170,", SUM(b.",A170," = '2') AS count_val2_",A170,",")</f>
+        <f t="shared" ref="D170" si="82">CONCATENATE("SUM(b.",A170," = '1') AS count_val1_",A170,", SUM(b.",A170," = '2') AS count_val2_",A170,",")</f>
         <v>SUM(b.r_s_ins_101112e_2_1 = '1') AS count_val1_r_s_ins_101112e_2_1, SUM(b.r_s_ins_101112e_2_1 = '2') AS count_val2_r_s_ins_101112e_2_1,</v>
       </c>
     </row>
@@ -22220,7 +22220,7 @@
         <v>1212</v>
       </c>
       <c r="D171" t="str">
-        <f t="shared" ref="D171:D181" si="83">CONCATENATE("SUM(b.",A171," = '1') AS count_val1_",A171,", SUM(b.",A171," = '2') AS count_val2_",A171,",", "SUM(b.",A171," = '3') AS count_val3_",A171,",")</f>
+        <f t="shared" ref="D171" si="83">CONCATENATE("SUM(b.",A171," = '1') AS count_val1_",A171,", SUM(b.",A171," = '2') AS count_val2_",A171,",", "SUM(b.",A171," = '3') AS count_val3_",A171,",")</f>
         <v>SUM(b.r_s_ins_101112e_2_2 = '1') AS count_val1_r_s_ins_101112e_2_2, SUM(b.r_s_ins_101112e_2_2 = '2') AS count_val2_r_s_ins_101112e_2_2,SUM(b.r_s_ins_101112e_2_2 = '3') AS count_val3_r_s_ins_101112e_2_2,</v>
       </c>
     </row>
@@ -22257,7 +22257,7 @@
         <v>1212</v>
       </c>
       <c r="D174" s="14" t="str">
-        <f t="shared" ref="D174:D181" si="84">CONCATENATE("SUM(b.",A174," = '1') AS count_val1_",A174,", SUM(b.",A174," = '2') AS count_val2_",A174,",")</f>
+        <f t="shared" ref="D174" si="84">CONCATENATE("SUM(b.",A174," = '1') AS count_val1_",A174,", SUM(b.",A174," = '2') AS count_val2_",A174,",")</f>
         <v>SUM(b.r_s_ins_101112e_3_1 = '1') AS count_val1_r_s_ins_101112e_3_1, SUM(b.r_s_ins_101112e_3_1 = '2') AS count_val2_r_s_ins_101112e_3_1,</v>
       </c>
     </row>
@@ -22272,7 +22272,7 @@
         <v>1212</v>
       </c>
       <c r="D175" t="str">
-        <f t="shared" ref="D175:D181" si="85">CONCATENATE("SUM(b.",A175," = '1') AS count_val1_",A175,", SUM(b.",A175," = '2') AS count_val2_",A175,",", "SUM(b.",A175," = '3') AS count_val3_",A175,",")</f>
+        <f t="shared" ref="D175" si="85">CONCATENATE("SUM(b.",A175," = '1') AS count_val1_",A175,", SUM(b.",A175," = '2') AS count_val2_",A175,",", "SUM(b.",A175," = '3') AS count_val3_",A175,",")</f>
         <v>SUM(b.r_s_ins_101112e_3_2 = '1') AS count_val1_r_s_ins_101112e_3_2, SUM(b.r_s_ins_101112e_3_2 = '2') AS count_val2_r_s_ins_101112e_3_2,SUM(b.r_s_ins_101112e_3_2 = '3') AS count_val3_r_s_ins_101112e_3_2,</v>
       </c>
     </row>
@@ -22309,7 +22309,7 @@
         <v>1212</v>
       </c>
       <c r="D178" s="14" t="str">
-        <f t="shared" ref="D178:D181" si="86">CONCATENATE("SUM(b.",A178," = '1') AS count_val1_",A178,", SUM(b.",A178," = '2') AS count_val2_",A178,",")</f>
+        <f t="shared" ref="D178" si="86">CONCATENATE("SUM(b.",A178," = '1') AS count_val1_",A178,", SUM(b.",A178," = '2') AS count_val2_",A178,",")</f>
         <v>SUM(b.r_s_ins_101112e_4_1 = '1') AS count_val1_r_s_ins_101112e_4_1, SUM(b.r_s_ins_101112e_4_1 = '2') AS count_val2_r_s_ins_101112e_4_1,</v>
       </c>
     </row>
@@ -22324,7 +22324,7 @@
         <v>1212</v>
       </c>
       <c r="D179" t="str">
-        <f t="shared" ref="D179:D181" si="87">CONCATENATE("SUM(b.",A179," = '1') AS count_val1_",A179,", SUM(b.",A179," = '2') AS count_val2_",A179,",", "SUM(b.",A179," = '3') AS count_val3_",A179,",")</f>
+        <f t="shared" ref="D179" si="87">CONCATENATE("SUM(b.",A179," = '1') AS count_val1_",A179,", SUM(b.",A179," = '2') AS count_val2_",A179,",", "SUM(b.",A179," = '3') AS count_val3_",A179,",")</f>
         <v>SUM(b.r_s_ins_101112e_4_2 = '1') AS count_val1_r_s_ins_101112e_4_2, SUM(b.r_s_ins_101112e_4_2 = '2') AS count_val2_r_s_ins_101112e_4_2,SUM(b.r_s_ins_101112e_4_2 = '3') AS count_val3_r_s_ins_101112e_4_2,</v>
       </c>
     </row>
@@ -22448,7 +22448,7 @@
         <v>1212</v>
       </c>
       <c r="D6" s="14" t="str">
-        <f t="shared" ref="D6:D37" si="0">CONCATENATE("SUM(b.",A6," = '1') AS count_val1_",A6,", SUM(b.",A6," = '2') AS count_val2_",A6,",")</f>
+        <f t="shared" ref="D6" si="0">CONCATENATE("SUM(b.",A6," = '1') AS count_val1_",A6,", SUM(b.",A6," = '2') AS count_val2_",A6,",")</f>
         <v>SUM(b.r_m_1_2_1 = '1') AS count_val1_r_m_1_2_1, SUM(b.r_m_1_2_1 = '2') AS count_val2_r_m_1_2_1,</v>
       </c>
     </row>
@@ -22463,7 +22463,7 @@
         <v>1212</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" ref="D7:D38" si="1">CONCATENATE("SUM(b.",A7," = '1') AS count_val1_",A7,", SUM(b.",A7," = '2') AS count_val2_",A7,",", "SUM(b.",A7," = '3') AS count_val3_",A7,",")</f>
+        <f t="shared" ref="D7" si="1">CONCATENATE("SUM(b.",A7," = '1') AS count_val1_",A7,", SUM(b.",A7," = '2') AS count_val2_",A7,",", "SUM(b.",A7," = '3') AS count_val3_",A7,",")</f>
         <v>SUM(b.r_m_1_2_2 = '1') AS count_val1_r_m_1_2_2, SUM(b.r_m_1_2_2 = '2') AS count_val2_r_m_1_2_2,SUM(b.r_m_1_2_2 = '3') AS count_val3_r_m_1_2_2,</v>
       </c>
     </row>
@@ -22502,7 +22502,7 @@
         <v>1212</v>
       </c>
       <c r="D10" s="14" t="str">
-        <f t="shared" ref="D10:D41" si="2">CONCATENATE("SUM(b.",A10," = '1') AS count_val1_",A10,", SUM(b.",A10," = '2') AS count_val2_",A10,",")</f>
+        <f t="shared" ref="D10" si="2">CONCATENATE("SUM(b.",A10," = '1') AS count_val1_",A10,", SUM(b.",A10," = '2') AS count_val2_",A10,",")</f>
         <v>SUM(b.r_m_1_3_1 = '1') AS count_val1_r_m_1_3_1, SUM(b.r_m_1_3_1 = '2') AS count_val2_r_m_1_3_1,</v>
       </c>
     </row>
@@ -22517,7 +22517,7 @@
         <v>1212</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" ref="D11:D42" si="3">CONCATENATE("SUM(b.",A11," = '1') AS count_val1_",A11,", SUM(b.",A11," = '2') AS count_val2_",A11,",", "SUM(b.",A11," = '3') AS count_val3_",A11,",")</f>
+        <f t="shared" ref="D11" si="3">CONCATENATE("SUM(b.",A11," = '1') AS count_val1_",A11,", SUM(b.",A11," = '2') AS count_val2_",A11,",", "SUM(b.",A11," = '3') AS count_val3_",A11,",")</f>
         <v>SUM(b.r_m_1_3_2 = '1') AS count_val1_r_m_1_3_2, SUM(b.r_m_1_3_2 = '2') AS count_val2_r_m_1_3_2,SUM(b.r_m_1_3_2 = '3') AS count_val3_r_m_1_3_2,</v>
       </c>
     </row>
@@ -22556,7 +22556,7 @@
         <v>1212</v>
       </c>
       <c r="D14" s="14" t="str">
-        <f t="shared" ref="D14:D45" si="4">CONCATENATE("SUM(b.",A14," = '1') AS count_val1_",A14,", SUM(b.",A14," = '2') AS count_val2_",A14,",")</f>
+        <f t="shared" ref="D14" si="4">CONCATENATE("SUM(b.",A14," = '1') AS count_val1_",A14,", SUM(b.",A14," = '2') AS count_val2_",A14,",")</f>
         <v>SUM(b.r_m_1_4_1 = '1') AS count_val1_r_m_1_4_1, SUM(b.r_m_1_4_1 = '2') AS count_val2_r_m_1_4_1,</v>
       </c>
     </row>
@@ -22571,7 +22571,7 @@
         <v>1212</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" ref="D15:D46" si="5">CONCATENATE("SUM(b.",A15," = '1') AS count_val1_",A15,", SUM(b.",A15," = '2') AS count_val2_",A15,",", "SUM(b.",A15," = '3') AS count_val3_",A15,",")</f>
+        <f t="shared" ref="D15" si="5">CONCATENATE("SUM(b.",A15," = '1') AS count_val1_",A15,", SUM(b.",A15," = '2') AS count_val2_",A15,",", "SUM(b.",A15," = '3') AS count_val3_",A15,",")</f>
         <v>SUM(b.r_m_1_4_2 = '1') AS count_val1_r_m_1_4_2, SUM(b.r_m_1_4_2 = '2') AS count_val2_r_m_1_4_2,SUM(b.r_m_1_4_2 = '3') AS count_val3_r_m_1_4_2,</v>
       </c>
     </row>
@@ -22610,7 +22610,7 @@
         <v>1212</v>
       </c>
       <c r="D18" s="14" t="str">
-        <f t="shared" ref="D18:D49" si="6">CONCATENATE("SUM(b.",A18," = '1') AS count_val1_",A18,", SUM(b.",A18," = '2') AS count_val2_",A18,",")</f>
+        <f t="shared" ref="D18" si="6">CONCATENATE("SUM(b.",A18," = '1') AS count_val1_",A18,", SUM(b.",A18," = '2') AS count_val2_",A18,",")</f>
         <v>SUM(b.r_m_2_1_1 = '1') AS count_val1_r_m_2_1_1, SUM(b.r_m_2_1_1 = '2') AS count_val2_r_m_2_1_1,</v>
       </c>
     </row>
@@ -22625,7 +22625,7 @@
         <v>1212</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" ref="D19:D50" si="7">CONCATENATE("SUM(b.",A19," = '1') AS count_val1_",A19,", SUM(b.",A19," = '2') AS count_val2_",A19,",", "SUM(b.",A19," = '3') AS count_val3_",A19,",")</f>
+        <f t="shared" ref="D19" si="7">CONCATENATE("SUM(b.",A19," = '1') AS count_val1_",A19,", SUM(b.",A19," = '2') AS count_val2_",A19,",", "SUM(b.",A19," = '3') AS count_val3_",A19,",")</f>
         <v>SUM(b.r_m_2_1_2 = '1') AS count_val1_r_m_2_1_2, SUM(b.r_m_2_1_2 = '2') AS count_val2_r_m_2_1_2,SUM(b.r_m_2_1_2 = '3') AS count_val3_r_m_2_1_2,</v>
       </c>
     </row>
@@ -22664,7 +22664,7 @@
         <v>1212</v>
       </c>
       <c r="D22" s="14" t="str">
-        <f t="shared" ref="D22:D53" si="8">CONCATENATE("SUM(b.",A22," = '1') AS count_val1_",A22,", SUM(b.",A22," = '2') AS count_val2_",A22,",")</f>
+        <f t="shared" ref="D22" si="8">CONCATENATE("SUM(b.",A22," = '1') AS count_val1_",A22,", SUM(b.",A22," = '2') AS count_val2_",A22,",")</f>
         <v>SUM(b.r_m_2_2_1 = '1') AS count_val1_r_m_2_2_1, SUM(b.r_m_2_2_1 = '2') AS count_val2_r_m_2_2_1,</v>
       </c>
     </row>
@@ -22679,7 +22679,7 @@
         <v>1212</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" ref="D23:D54" si="9">CONCATENATE("SUM(b.",A23," = '1') AS count_val1_",A23,", SUM(b.",A23," = '2') AS count_val2_",A23,",", "SUM(b.",A23," = '3') AS count_val3_",A23,",")</f>
+        <f t="shared" ref="D23" si="9">CONCATENATE("SUM(b.",A23," = '1') AS count_val1_",A23,", SUM(b.",A23," = '2') AS count_val2_",A23,",", "SUM(b.",A23," = '3') AS count_val3_",A23,",")</f>
         <v>SUM(b.r_m_2_2_2 = '1') AS count_val1_r_m_2_2_2, SUM(b.r_m_2_2_2 = '2') AS count_val2_r_m_2_2_2,SUM(b.r_m_2_2_2 = '3') AS count_val3_r_m_2_2_2,</v>
       </c>
     </row>
@@ -22718,7 +22718,7 @@
         <v>1212</v>
       </c>
       <c r="D26" s="14" t="str">
-        <f t="shared" ref="D26:D57" si="10">CONCATENATE("SUM(b.",A26," = '1') AS count_val1_",A26,", SUM(b.",A26," = '2') AS count_val2_",A26,",")</f>
+        <f t="shared" ref="D26" si="10">CONCATENATE("SUM(b.",A26," = '1') AS count_val1_",A26,", SUM(b.",A26," = '2') AS count_val2_",A26,",")</f>
         <v>SUM(b.r_m_2_3_1 = '1') AS count_val1_r_m_2_3_1, SUM(b.r_m_2_3_1 = '2') AS count_val2_r_m_2_3_1,</v>
       </c>
     </row>
@@ -22733,7 +22733,7 @@
         <v>1212</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" ref="D27:D58" si="11">CONCATENATE("SUM(b.",A27," = '1') AS count_val1_",A27,", SUM(b.",A27," = '2') AS count_val2_",A27,",", "SUM(b.",A27," = '3') AS count_val3_",A27,",")</f>
+        <f t="shared" ref="D27" si="11">CONCATENATE("SUM(b.",A27," = '1') AS count_val1_",A27,", SUM(b.",A27," = '2') AS count_val2_",A27,",", "SUM(b.",A27," = '3') AS count_val3_",A27,",")</f>
         <v>SUM(b.r_m_2_3_2 = '1') AS count_val1_r_m_2_3_2, SUM(b.r_m_2_3_2 = '2') AS count_val2_r_m_2_3_2,SUM(b.r_m_2_3_2 = '3') AS count_val3_r_m_2_3_2,</v>
       </c>
     </row>
@@ -22772,7 +22772,7 @@
         <v>1212</v>
       </c>
       <c r="D30" s="14" t="str">
-        <f t="shared" ref="D30:D61" si="12">CONCATENATE("SUM(b.",A30," = '1') AS count_val1_",A30,", SUM(b.",A30," = '2') AS count_val2_",A30,",")</f>
+        <f t="shared" ref="D30" si="12">CONCATENATE("SUM(b.",A30," = '1') AS count_val1_",A30,", SUM(b.",A30," = '2') AS count_val2_",A30,",")</f>
         <v>SUM(b.r_m_3_1_1 = '1') AS count_val1_r_m_3_1_1, SUM(b.r_m_3_1_1 = '2') AS count_val2_r_m_3_1_1,</v>
       </c>
     </row>
@@ -22787,7 +22787,7 @@
         <v>1212</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" ref="D31:D62" si="13">CONCATENATE("SUM(b.",A31," = '1') AS count_val1_",A31,", SUM(b.",A31," = '2') AS count_val2_",A31,",", "SUM(b.",A31," = '3') AS count_val3_",A31,",")</f>
+        <f t="shared" ref="D31" si="13">CONCATENATE("SUM(b.",A31," = '1') AS count_val1_",A31,", SUM(b.",A31," = '2') AS count_val2_",A31,",", "SUM(b.",A31," = '3') AS count_val3_",A31,",")</f>
         <v>SUM(b.r_m_3_1_2 = '1') AS count_val1_r_m_3_1_2, SUM(b.r_m_3_1_2 = '2') AS count_val2_r_m_3_1_2,SUM(b.r_m_3_1_2 = '3') AS count_val3_r_m_3_1_2,</v>
       </c>
     </row>
@@ -22826,7 +22826,7 @@
         <v>1212</v>
       </c>
       <c r="D34" s="14" t="str">
-        <f t="shared" ref="D34:D65" si="14">CONCATENATE("SUM(b.",A34," = '1') AS count_val1_",A34,", SUM(b.",A34," = '2') AS count_val2_",A34,",")</f>
+        <f t="shared" ref="D34" si="14">CONCATENATE("SUM(b.",A34," = '1') AS count_val1_",A34,", SUM(b.",A34," = '2') AS count_val2_",A34,",")</f>
         <v>SUM(b.r_m_3_2_1 = '1') AS count_val1_r_m_3_2_1, SUM(b.r_m_3_2_1 = '2') AS count_val2_r_m_3_2_1,</v>
       </c>
     </row>
@@ -22841,7 +22841,7 @@
         <v>1212</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" ref="D35:D66" si="15">CONCATENATE("SUM(b.",A35," = '1') AS count_val1_",A35,", SUM(b.",A35," = '2') AS count_val2_",A35,",", "SUM(b.",A35," = '3') AS count_val3_",A35,",")</f>
+        <f t="shared" ref="D35" si="15">CONCATENATE("SUM(b.",A35," = '1') AS count_val1_",A35,", SUM(b.",A35," = '2') AS count_val2_",A35,",", "SUM(b.",A35," = '3') AS count_val3_",A35,",")</f>
         <v>SUM(b.r_m_3_2_2 = '1') AS count_val1_r_m_3_2_2, SUM(b.r_m_3_2_2 = '2') AS count_val2_r_m_3_2_2,SUM(b.r_m_3_2_2 = '3') AS count_val3_r_m_3_2_2,</v>
       </c>
     </row>
@@ -22880,7 +22880,7 @@
         <v>1212</v>
       </c>
       <c r="D38" s="14" t="str">
-        <f t="shared" ref="D38:D69" si="16">CONCATENATE("SUM(b.",A38," = '1') AS count_val1_",A38,", SUM(b.",A38," = '2') AS count_val2_",A38,",")</f>
+        <f t="shared" ref="D38" si="16">CONCATENATE("SUM(b.",A38," = '1') AS count_val1_",A38,", SUM(b.",A38," = '2') AS count_val2_",A38,",")</f>
         <v>SUM(b.r_m_3_3_1 = '1') AS count_val1_r_m_3_3_1, SUM(b.r_m_3_3_1 = '2') AS count_val2_r_m_3_3_1,</v>
       </c>
     </row>
@@ -22895,7 +22895,7 @@
         <v>1212</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" ref="D39:D70" si="17">CONCATENATE("SUM(b.",A39," = '1') AS count_val1_",A39,", SUM(b.",A39," = '2') AS count_val2_",A39,",", "SUM(b.",A39," = '3') AS count_val3_",A39,",")</f>
+        <f t="shared" ref="D39" si="17">CONCATENATE("SUM(b.",A39," = '1') AS count_val1_",A39,", SUM(b.",A39," = '2') AS count_val2_",A39,",", "SUM(b.",A39," = '3') AS count_val3_",A39,",")</f>
         <v>SUM(b.r_m_3_3_2 = '1') AS count_val1_r_m_3_3_2, SUM(b.r_m_3_3_2 = '2') AS count_val2_r_m_3_3_2,SUM(b.r_m_3_3_2 = '3') AS count_val3_r_m_3_3_2,</v>
       </c>
     </row>
@@ -22934,7 +22934,7 @@
         <v>1212</v>
       </c>
       <c r="D42" s="14" t="str">
-        <f t="shared" ref="D42:D73" si="18">CONCATENATE("SUM(b.",A42," = '1') AS count_val1_",A42,", SUM(b.",A42," = '2') AS count_val2_",A42,",")</f>
+        <f t="shared" ref="D42" si="18">CONCATENATE("SUM(b.",A42," = '1') AS count_val1_",A42,", SUM(b.",A42," = '2') AS count_val2_",A42,",")</f>
         <v>SUM(b.r_m_4_1_1 = '1') AS count_val1_r_m_4_1_1, SUM(b.r_m_4_1_1 = '2') AS count_val2_r_m_4_1_1,</v>
       </c>
     </row>
@@ -22949,7 +22949,7 @@
         <v>1212</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" ref="D43:D74" si="19">CONCATENATE("SUM(b.",A43," = '1') AS count_val1_",A43,", SUM(b.",A43," = '2') AS count_val2_",A43,",", "SUM(b.",A43," = '3') AS count_val3_",A43,",")</f>
+        <f t="shared" ref="D43" si="19">CONCATENATE("SUM(b.",A43," = '1') AS count_val1_",A43,", SUM(b.",A43," = '2') AS count_val2_",A43,",", "SUM(b.",A43," = '3') AS count_val3_",A43,",")</f>
         <v>SUM(b.r_m_4_1_2 = '1') AS count_val1_r_m_4_1_2, SUM(b.r_m_4_1_2 = '2') AS count_val2_r_m_4_1_2,SUM(b.r_m_4_1_2 = '3') AS count_val3_r_m_4_1_2,</v>
       </c>
     </row>
@@ -22988,7 +22988,7 @@
         <v>1212</v>
       </c>
       <c r="D46" s="14" t="str">
-        <f t="shared" ref="D46:D77" si="20">CONCATENATE("SUM(b.",A46," = '1') AS count_val1_",A46,", SUM(b.",A46," = '2') AS count_val2_",A46,",")</f>
+        <f t="shared" ref="D46" si="20">CONCATENATE("SUM(b.",A46," = '1') AS count_val1_",A46,", SUM(b.",A46," = '2') AS count_val2_",A46,",")</f>
         <v>SUM(b.r_m_4_2_1 = '1') AS count_val1_r_m_4_2_1, SUM(b.r_m_4_2_1 = '2') AS count_val2_r_m_4_2_1,</v>
       </c>
     </row>
@@ -23003,7 +23003,7 @@
         <v>1212</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" ref="D47:D78" si="21">CONCATENATE("SUM(b.",A47," = '1') AS count_val1_",A47,", SUM(b.",A47," = '2') AS count_val2_",A47,",", "SUM(b.",A47," = '3') AS count_val3_",A47,",")</f>
+        <f t="shared" ref="D47" si="21">CONCATENATE("SUM(b.",A47," = '1') AS count_val1_",A47,", SUM(b.",A47," = '2') AS count_val2_",A47,",", "SUM(b.",A47," = '3') AS count_val3_",A47,",")</f>
         <v>SUM(b.r_m_4_2_2 = '1') AS count_val1_r_m_4_2_2, SUM(b.r_m_4_2_2 = '2') AS count_val2_r_m_4_2_2,SUM(b.r_m_4_2_2 = '3') AS count_val3_r_m_4_2_2,</v>
       </c>
     </row>
@@ -23042,7 +23042,7 @@
         <v>1212</v>
       </c>
       <c r="D50" s="14" t="str">
-        <f t="shared" ref="D50:D81" si="22">CONCATENATE("SUM(b.",A50," = '1') AS count_val1_",A50,", SUM(b.",A50," = '2') AS count_val2_",A50,",")</f>
+        <f t="shared" ref="D50" si="22">CONCATENATE("SUM(b.",A50," = '1') AS count_val1_",A50,", SUM(b.",A50," = '2') AS count_val2_",A50,",")</f>
         <v>SUM(b.r_m_4_3_1 = '1') AS count_val1_r_m_4_3_1, SUM(b.r_m_4_3_1 = '2') AS count_val2_r_m_4_3_1,</v>
       </c>
     </row>
@@ -23057,7 +23057,7 @@
         <v>1212</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" ref="D51:D82" si="23">CONCATENATE("SUM(b.",A51," = '1') AS count_val1_",A51,", SUM(b.",A51," = '2') AS count_val2_",A51,",", "SUM(b.",A51," = '3') AS count_val3_",A51,",")</f>
+        <f t="shared" ref="D51" si="23">CONCATENATE("SUM(b.",A51," = '1') AS count_val1_",A51,", SUM(b.",A51," = '2') AS count_val2_",A51,",", "SUM(b.",A51," = '3') AS count_val3_",A51,",")</f>
         <v>SUM(b.r_m_4_3_2 = '1') AS count_val1_r_m_4_3_2, SUM(b.r_m_4_3_2 = '2') AS count_val2_r_m_4_3_2,SUM(b.r_m_4_3_2 = '3') AS count_val3_r_m_4_3_2,</v>
       </c>
     </row>
@@ -23096,7 +23096,7 @@
         <v>1212</v>
       </c>
       <c r="D54" s="14" t="str">
-        <f t="shared" ref="D54:D85" si="24">CONCATENATE("SUM(b.",A54," = '1') AS count_val1_",A54,", SUM(b.",A54," = '2') AS count_val2_",A54,",")</f>
+        <f t="shared" ref="D54" si="24">CONCATENATE("SUM(b.",A54," = '1') AS count_val1_",A54,", SUM(b.",A54," = '2') AS count_val2_",A54,",")</f>
         <v>SUM(b.r_m_5_1_1 = '1') AS count_val1_r_m_5_1_1, SUM(b.r_m_5_1_1 = '2') AS count_val2_r_m_5_1_1,</v>
       </c>
     </row>
@@ -23111,7 +23111,7 @@
         <v>1212</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" ref="D55:D86" si="25">CONCATENATE("SUM(b.",A55," = '1') AS count_val1_",A55,", SUM(b.",A55," = '2') AS count_val2_",A55,",", "SUM(b.",A55," = '3') AS count_val3_",A55,",")</f>
+        <f t="shared" ref="D55" si="25">CONCATENATE("SUM(b.",A55," = '1') AS count_val1_",A55,", SUM(b.",A55," = '2') AS count_val2_",A55,",", "SUM(b.",A55," = '3') AS count_val3_",A55,",")</f>
         <v>SUM(b.r_m_5_1_2 = '1') AS count_val1_r_m_5_1_2, SUM(b.r_m_5_1_2 = '2') AS count_val2_r_m_5_1_2,SUM(b.r_m_5_1_2 = '3') AS count_val3_r_m_5_1_2,</v>
       </c>
     </row>
@@ -23150,7 +23150,7 @@
         <v>1212</v>
       </c>
       <c r="D58" s="14" t="str">
-        <f t="shared" ref="D58:D89" si="26">CONCATENATE("SUM(b.",A58," = '1') AS count_val1_",A58,", SUM(b.",A58," = '2') AS count_val2_",A58,",")</f>
+        <f t="shared" ref="D58" si="26">CONCATENATE("SUM(b.",A58," = '1') AS count_val1_",A58,", SUM(b.",A58," = '2') AS count_val2_",A58,",")</f>
         <v>SUM(b.r_m_5_2_1 = '1') AS count_val1_r_m_5_2_1, SUM(b.r_m_5_2_1 = '2') AS count_val2_r_m_5_2_1,</v>
       </c>
     </row>
@@ -23165,7 +23165,7 @@
         <v>1212</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" ref="D59:D90" si="27">CONCATENATE("SUM(b.",A59," = '1') AS count_val1_",A59,", SUM(b.",A59," = '2') AS count_val2_",A59,",", "SUM(b.",A59," = '3') AS count_val3_",A59,",")</f>
+        <f t="shared" ref="D59" si="27">CONCATENATE("SUM(b.",A59," = '1') AS count_val1_",A59,", SUM(b.",A59," = '2') AS count_val2_",A59,",", "SUM(b.",A59," = '3') AS count_val3_",A59,",")</f>
         <v>SUM(b.r_m_5_2_2 = '1') AS count_val1_r_m_5_2_2, SUM(b.r_m_5_2_2 = '2') AS count_val2_r_m_5_2_2,SUM(b.r_m_5_2_2 = '3') AS count_val3_r_m_5_2_2,</v>
       </c>
     </row>
@@ -23204,7 +23204,7 @@
         <v>1212</v>
       </c>
       <c r="D62" s="14" t="str">
-        <f t="shared" ref="D62:D93" si="28">CONCATENATE("SUM(b.",A62," = '1') AS count_val1_",A62,", SUM(b.",A62," = '2') AS count_val2_",A62,",")</f>
+        <f t="shared" ref="D62" si="28">CONCATENATE("SUM(b.",A62," = '1') AS count_val1_",A62,", SUM(b.",A62," = '2') AS count_val2_",A62,",")</f>
         <v>SUM(b.r_m_5_3_1 = '1') AS count_val1_r_m_5_3_1, SUM(b.r_m_5_3_1 = '2') AS count_val2_r_m_5_3_1,</v>
       </c>
     </row>
@@ -23219,7 +23219,7 @@
         <v>1212</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" ref="D63:D94" si="29">CONCATENATE("SUM(b.",A63," = '1') AS count_val1_",A63,", SUM(b.",A63," = '2') AS count_val2_",A63,",", "SUM(b.",A63," = '3') AS count_val3_",A63,",")</f>
+        <f t="shared" ref="D63" si="29">CONCATENATE("SUM(b.",A63," = '1') AS count_val1_",A63,", SUM(b.",A63," = '2') AS count_val2_",A63,",", "SUM(b.",A63," = '3') AS count_val3_",A63,",")</f>
         <v>SUM(b.r_m_5_3_2 = '1') AS count_val1_r_m_5_3_2, SUM(b.r_m_5_3_2 = '2') AS count_val2_r_m_5_3_2,SUM(b.r_m_5_3_2 = '3') AS count_val3_r_m_5_3_2,</v>
       </c>
     </row>
@@ -23258,7 +23258,7 @@
         <v>1212</v>
       </c>
       <c r="D66" s="14" t="str">
-        <f t="shared" ref="D66:D97" si="30">CONCATENATE("SUM(b.",A66," = '1') AS count_val1_",A66,", SUM(b.",A66," = '2') AS count_val2_",A66,",")</f>
+        <f t="shared" ref="D66" si="30">CONCATENATE("SUM(b.",A66," = '1') AS count_val1_",A66,", SUM(b.",A66," = '2') AS count_val2_",A66,",")</f>
         <v>SUM(b.r_m_6_1_1 = '1') AS count_val1_r_m_6_1_1, SUM(b.r_m_6_1_1 = '2') AS count_val2_r_m_6_1_1,</v>
       </c>
     </row>
@@ -23273,7 +23273,7 @@
         <v>1212</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D98" si="31">CONCATENATE("SUM(b.",A67," = '1') AS count_val1_",A67,", SUM(b.",A67," = '2') AS count_val2_",A67,",", "SUM(b.",A67," = '3') AS count_val3_",A67,",")</f>
+        <f t="shared" ref="D67" si="31">CONCATENATE("SUM(b.",A67," = '1') AS count_val1_",A67,", SUM(b.",A67," = '2') AS count_val2_",A67,",", "SUM(b.",A67," = '3') AS count_val3_",A67,",")</f>
         <v>SUM(b.r_m_6_1_2 = '1') AS count_val1_r_m_6_1_2, SUM(b.r_m_6_1_2 = '2') AS count_val2_r_m_6_1_2,SUM(b.r_m_6_1_2 = '3') AS count_val3_r_m_6_1_2,</v>
       </c>
     </row>
@@ -23312,7 +23312,7 @@
         <v>1212</v>
       </c>
       <c r="D70" s="14" t="str">
-        <f t="shared" ref="D70:D101" si="32">CONCATENATE("SUM(b.",A70," = '1') AS count_val1_",A70,", SUM(b.",A70," = '2') AS count_val2_",A70,",")</f>
+        <f t="shared" ref="D70" si="32">CONCATENATE("SUM(b.",A70," = '1') AS count_val1_",A70,", SUM(b.",A70," = '2') AS count_val2_",A70,",")</f>
         <v>SUM(b.r_m_6_2_1 = '1') AS count_val1_r_m_6_2_1, SUM(b.r_m_6_2_1 = '2') AS count_val2_r_m_6_2_1,</v>
       </c>
     </row>
@@ -23327,7 +23327,7 @@
         <v>1212</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" ref="D71:D102" si="33">CONCATENATE("SUM(b.",A71," = '1') AS count_val1_",A71,", SUM(b.",A71," = '2') AS count_val2_",A71,",", "SUM(b.",A71," = '3') AS count_val3_",A71,",")</f>
+        <f t="shared" ref="D71" si="33">CONCATENATE("SUM(b.",A71," = '1') AS count_val1_",A71,", SUM(b.",A71," = '2') AS count_val2_",A71,",", "SUM(b.",A71," = '3') AS count_val3_",A71,",")</f>
         <v>SUM(b.r_m_6_2_2 = '1') AS count_val1_r_m_6_2_2, SUM(b.r_m_6_2_2 = '2') AS count_val2_r_m_6_2_2,SUM(b.r_m_6_2_2 = '3') AS count_val3_r_m_6_2_2,</v>
       </c>
     </row>
@@ -23366,7 +23366,7 @@
         <v>1212</v>
       </c>
       <c r="D74" s="14" t="str">
-        <f t="shared" ref="D74:D105" si="34">CONCATENATE("SUM(b.",A74," = '1') AS count_val1_",A74,", SUM(b.",A74," = '2') AS count_val2_",A74,",")</f>
+        <f t="shared" ref="D74" si="34">CONCATENATE("SUM(b.",A74," = '1') AS count_val1_",A74,", SUM(b.",A74," = '2') AS count_val2_",A74,",")</f>
         <v>SUM(b.r_m_6_3_1 = '1') AS count_val1_r_m_6_3_1, SUM(b.r_m_6_3_1 = '2') AS count_val2_r_m_6_3_1,</v>
       </c>
     </row>
@@ -23381,7 +23381,7 @@
         <v>1212</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" ref="D75:D106" si="35">CONCATENATE("SUM(b.",A75," = '1') AS count_val1_",A75,", SUM(b.",A75," = '2') AS count_val2_",A75,",", "SUM(b.",A75," = '3') AS count_val3_",A75,",")</f>
+        <f t="shared" ref="D75" si="35">CONCATENATE("SUM(b.",A75," = '1') AS count_val1_",A75,", SUM(b.",A75," = '2') AS count_val2_",A75,",", "SUM(b.",A75," = '3') AS count_val3_",A75,",")</f>
         <v>SUM(b.r_m_6_3_2 = '1') AS count_val1_r_m_6_3_2, SUM(b.r_m_6_3_2 = '2') AS count_val2_r_m_6_3_2,SUM(b.r_m_6_3_2 = '3') AS count_val3_r_m_6_3_2,</v>
       </c>
     </row>
@@ -23420,7 +23420,7 @@
         <v>1212</v>
       </c>
       <c r="D78" s="14" t="str">
-        <f t="shared" ref="D78:D109" si="36">CONCATENATE("SUM(b.",A78," = '1') AS count_val1_",A78,", SUM(b.",A78," = '2') AS count_val2_",A78,",")</f>
+        <f t="shared" ref="D78" si="36">CONCATENATE("SUM(b.",A78," = '1') AS count_val1_",A78,", SUM(b.",A78," = '2') AS count_val2_",A78,",")</f>
         <v>SUM(b.r_m_7_1_1 = '1') AS count_val1_r_m_7_1_1, SUM(b.r_m_7_1_1 = '2') AS count_val2_r_m_7_1_1,</v>
       </c>
     </row>
@@ -23435,7 +23435,7 @@
         <v>1212</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" ref="D79:D110" si="37">CONCATENATE("SUM(b.",A79," = '1') AS count_val1_",A79,", SUM(b.",A79," = '2') AS count_val2_",A79,",", "SUM(b.",A79," = '3') AS count_val3_",A79,",")</f>
+        <f t="shared" ref="D79" si="37">CONCATENATE("SUM(b.",A79," = '1') AS count_val1_",A79,", SUM(b.",A79," = '2') AS count_val2_",A79,",", "SUM(b.",A79," = '3') AS count_val3_",A79,",")</f>
         <v>SUM(b.r_m_7_1_2 = '1') AS count_val1_r_m_7_1_2, SUM(b.r_m_7_1_2 = '2') AS count_val2_r_m_7_1_2,SUM(b.r_m_7_1_2 = '3') AS count_val3_r_m_7_1_2,</v>
       </c>
     </row>
@@ -23474,7 +23474,7 @@
         <v>1212</v>
       </c>
       <c r="D82" s="14" t="str">
-        <f t="shared" ref="D82:D113" si="38">CONCATENATE("SUM(b.",A82," = '1') AS count_val1_",A82,", SUM(b.",A82," = '2') AS count_val2_",A82,",")</f>
+        <f t="shared" ref="D82" si="38">CONCATENATE("SUM(b.",A82," = '1') AS count_val1_",A82,", SUM(b.",A82," = '2') AS count_val2_",A82,",")</f>
         <v>SUM(b.r_m_7_2_1 = '1') AS count_val1_r_m_7_2_1, SUM(b.r_m_7_2_1 = '2') AS count_val2_r_m_7_2_1,</v>
       </c>
     </row>
@@ -23489,7 +23489,7 @@
         <v>1212</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" ref="D83:D114" si="39">CONCATENATE("SUM(b.",A83," = '1') AS count_val1_",A83,", SUM(b.",A83," = '2') AS count_val2_",A83,",", "SUM(b.",A83," = '3') AS count_val3_",A83,",")</f>
+        <f t="shared" ref="D83" si="39">CONCATENATE("SUM(b.",A83," = '1') AS count_val1_",A83,", SUM(b.",A83," = '2') AS count_val2_",A83,",", "SUM(b.",A83," = '3') AS count_val3_",A83,",")</f>
         <v>SUM(b.r_m_7_2_2 = '1') AS count_val1_r_m_7_2_2, SUM(b.r_m_7_2_2 = '2') AS count_val2_r_m_7_2_2,SUM(b.r_m_7_2_2 = '3') AS count_val3_r_m_7_2_2,</v>
       </c>
     </row>
@@ -23528,7 +23528,7 @@
         <v>1212</v>
       </c>
       <c r="D86" s="14" t="str">
-        <f t="shared" ref="D86:D117" si="40">CONCATENATE("SUM(b.",A86," = '1') AS count_val1_",A86,", SUM(b.",A86," = '2') AS count_val2_",A86,",")</f>
+        <f t="shared" ref="D86" si="40">CONCATENATE("SUM(b.",A86," = '1') AS count_val1_",A86,", SUM(b.",A86," = '2') AS count_val2_",A86,",")</f>
         <v>SUM(b.r_m_7_3_1 = '1') AS count_val1_r_m_7_3_1, SUM(b.r_m_7_3_1 = '2') AS count_val2_r_m_7_3_1,</v>
       </c>
     </row>
@@ -23543,7 +23543,7 @@
         <v>1212</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" ref="D87:D118" si="41">CONCATENATE("SUM(b.",A87," = '1') AS count_val1_",A87,", SUM(b.",A87," = '2') AS count_val2_",A87,",", "SUM(b.",A87," = '3') AS count_val3_",A87,",")</f>
+        <f t="shared" ref="D87" si="41">CONCATENATE("SUM(b.",A87," = '1') AS count_val1_",A87,", SUM(b.",A87," = '2') AS count_val2_",A87,",", "SUM(b.",A87," = '3') AS count_val3_",A87,",")</f>
         <v>SUM(b.r_m_7_3_2 = '1') AS count_val1_r_m_7_3_2, SUM(b.r_m_7_3_2 = '2') AS count_val2_r_m_7_3_2,SUM(b.r_m_7_3_2 = '3') AS count_val3_r_m_7_3_2,</v>
       </c>
     </row>
@@ -23582,7 +23582,7 @@
         <v>1212</v>
       </c>
       <c r="D90" s="14" t="str">
-        <f t="shared" ref="D90:D121" si="42">CONCATENATE("SUM(b.",A90," = '1') AS count_val1_",A90,", SUM(b.",A90," = '2') AS count_val2_",A90,",")</f>
+        <f t="shared" ref="D90" si="42">CONCATENATE("SUM(b.",A90," = '1') AS count_val1_",A90,", SUM(b.",A90," = '2') AS count_val2_",A90,",")</f>
         <v>SUM(b.r_m_7_4_1 = '1') AS count_val1_r_m_7_4_1, SUM(b.r_m_7_4_1 = '2') AS count_val2_r_m_7_4_1,</v>
       </c>
     </row>
@@ -23597,7 +23597,7 @@
         <v>1212</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" ref="D91:D122" si="43">CONCATENATE("SUM(b.",A91," = '1') AS count_val1_",A91,", SUM(b.",A91," = '2') AS count_val2_",A91,",", "SUM(b.",A91," = '3') AS count_val3_",A91,",")</f>
+        <f t="shared" ref="D91" si="43">CONCATENATE("SUM(b.",A91," = '1') AS count_val1_",A91,", SUM(b.",A91," = '2') AS count_val2_",A91,",", "SUM(b.",A91," = '3') AS count_val3_",A91,",")</f>
         <v>SUM(b.r_m_7_4_2 = '1') AS count_val1_r_m_7_4_2, SUM(b.r_m_7_4_2 = '2') AS count_val2_r_m_7_4_2,SUM(b.r_m_7_4_2 = '3') AS count_val3_r_m_7_4_2,</v>
       </c>
     </row>
@@ -23636,7 +23636,7 @@
         <v>1212</v>
       </c>
       <c r="D94" s="14" t="str">
-        <f t="shared" ref="D94:D125" si="44">CONCATENATE("SUM(b.",A94," = '1') AS count_val1_",A94,", SUM(b.",A94," = '2') AS count_val2_",A94,",")</f>
+        <f t="shared" ref="D94" si="44">CONCATENATE("SUM(b.",A94," = '1') AS count_val1_",A94,", SUM(b.",A94," = '2') AS count_val2_",A94,",")</f>
         <v>SUM(b.r_m_8_1_1 = '1') AS count_val1_r_m_8_1_1, SUM(b.r_m_8_1_1 = '2') AS count_val2_r_m_8_1_1,</v>
       </c>
     </row>
@@ -23651,7 +23651,7 @@
         <v>1212</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" ref="D95:D126" si="45">CONCATENATE("SUM(b.",A95," = '1') AS count_val1_",A95,", SUM(b.",A95," = '2') AS count_val2_",A95,",", "SUM(b.",A95," = '3') AS count_val3_",A95,",")</f>
+        <f t="shared" ref="D95" si="45">CONCATENATE("SUM(b.",A95," = '1') AS count_val1_",A95,", SUM(b.",A95," = '2') AS count_val2_",A95,",", "SUM(b.",A95," = '3') AS count_val3_",A95,",")</f>
         <v>SUM(b.r_m_8_1_2 = '1') AS count_val1_r_m_8_1_2, SUM(b.r_m_8_1_2 = '2') AS count_val2_r_m_8_1_2,SUM(b.r_m_8_1_2 = '3') AS count_val3_r_m_8_1_2,</v>
       </c>
     </row>
@@ -23690,7 +23690,7 @@
         <v>1212</v>
       </c>
       <c r="D98" s="14" t="str">
-        <f t="shared" ref="D98:D129" si="46">CONCATENATE("SUM(b.",A98," = '1') AS count_val1_",A98,", SUM(b.",A98," = '2') AS count_val2_",A98,",")</f>
+        <f t="shared" ref="D98" si="46">CONCATENATE("SUM(b.",A98," = '1') AS count_val1_",A98,", SUM(b.",A98," = '2') AS count_val2_",A98,",")</f>
         <v>SUM(b.r_m_8_2_1 = '1') AS count_val1_r_m_8_2_1, SUM(b.r_m_8_2_1 = '2') AS count_val2_r_m_8_2_1,</v>
       </c>
     </row>
@@ -23705,7 +23705,7 @@
         <v>1212</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" ref="D99:D130" si="47">CONCATENATE("SUM(b.",A99," = '1') AS count_val1_",A99,", SUM(b.",A99," = '2') AS count_val2_",A99,",", "SUM(b.",A99," = '3') AS count_val3_",A99,",")</f>
+        <f t="shared" ref="D99" si="47">CONCATENATE("SUM(b.",A99," = '1') AS count_val1_",A99,", SUM(b.",A99," = '2') AS count_val2_",A99,",", "SUM(b.",A99," = '3') AS count_val3_",A99,",")</f>
         <v>SUM(b.r_m_8_2_2 = '1') AS count_val1_r_m_8_2_2, SUM(b.r_m_8_2_2 = '2') AS count_val2_r_m_8_2_2,SUM(b.r_m_8_2_2 = '3') AS count_val3_r_m_8_2_2,</v>
       </c>
     </row>
@@ -23744,7 +23744,7 @@
         <v>1212</v>
       </c>
       <c r="D102" s="14" t="str">
-        <f t="shared" ref="D102:D133" si="48">CONCATENATE("SUM(b.",A102," = '1') AS count_val1_",A102,", SUM(b.",A102," = '2') AS count_val2_",A102,",")</f>
+        <f t="shared" ref="D102" si="48">CONCATENATE("SUM(b.",A102," = '1') AS count_val1_",A102,", SUM(b.",A102," = '2') AS count_val2_",A102,",")</f>
         <v>SUM(b.r_m_8_3_1 = '1') AS count_val1_r_m_8_3_1, SUM(b.r_m_8_3_1 = '2') AS count_val2_r_m_8_3_1,</v>
       </c>
     </row>
@@ -23759,7 +23759,7 @@
         <v>1212</v>
       </c>
       <c r="D103" t="str">
-        <f t="shared" ref="D103:D134" si="49">CONCATENATE("SUM(b.",A103," = '1') AS count_val1_",A103,", SUM(b.",A103," = '2') AS count_val2_",A103,",", "SUM(b.",A103," = '3') AS count_val3_",A103,",")</f>
+        <f t="shared" ref="D103" si="49">CONCATENATE("SUM(b.",A103," = '1') AS count_val1_",A103,", SUM(b.",A103," = '2') AS count_val2_",A103,",", "SUM(b.",A103," = '3') AS count_val3_",A103,",")</f>
         <v>SUM(b.r_m_8_3_2 = '1') AS count_val1_r_m_8_3_2, SUM(b.r_m_8_3_2 = '2') AS count_val2_r_m_8_3_2,SUM(b.r_m_8_3_2 = '3') AS count_val3_r_m_8_3_2,</v>
       </c>
     </row>
@@ -23798,7 +23798,7 @@
         <v>1212</v>
       </c>
       <c r="D106" s="14" t="str">
-        <f t="shared" ref="D106:D137" si="50">CONCATENATE("SUM(b.",A106," = '1') AS count_val1_",A106,", SUM(b.",A106," = '2') AS count_val2_",A106,",")</f>
+        <f t="shared" ref="D106" si="50">CONCATENATE("SUM(b.",A106," = '1') AS count_val1_",A106,", SUM(b.",A106," = '2') AS count_val2_",A106,",")</f>
         <v>SUM(b.r_m_8_4_1 = '1') AS count_val1_r_m_8_4_1, SUM(b.r_m_8_4_1 = '2') AS count_val2_r_m_8_4_1,</v>
       </c>
     </row>
@@ -23813,7 +23813,7 @@
         <v>1212</v>
       </c>
       <c r="D107" t="str">
-        <f t="shared" ref="D107:D138" si="51">CONCATENATE("SUM(b.",A107," = '1') AS count_val1_",A107,", SUM(b.",A107," = '2') AS count_val2_",A107,",", "SUM(b.",A107," = '3') AS count_val3_",A107,",")</f>
+        <f t="shared" ref="D107" si="51">CONCATENATE("SUM(b.",A107," = '1') AS count_val1_",A107,", SUM(b.",A107," = '2') AS count_val2_",A107,",", "SUM(b.",A107," = '3') AS count_val3_",A107,",")</f>
         <v>SUM(b.r_m_8_4_2 = '1') AS count_val1_r_m_8_4_2, SUM(b.r_m_8_4_2 = '2') AS count_val2_r_m_8_4_2,SUM(b.r_m_8_4_2 = '3') AS count_val3_r_m_8_4_2,</v>
       </c>
     </row>
@@ -23852,7 +23852,7 @@
         <v>1212</v>
       </c>
       <c r="D110" s="14" t="str">
-        <f t="shared" ref="D110:D141" si="52">CONCATENATE("SUM(b.",A110," = '1') AS count_val1_",A110,", SUM(b.",A110," = '2') AS count_val2_",A110,",")</f>
+        <f t="shared" ref="D110" si="52">CONCATENATE("SUM(b.",A110," = '1') AS count_val1_",A110,", SUM(b.",A110," = '2') AS count_val2_",A110,",")</f>
         <v>SUM(b.r_m_9_1_1 = '1') AS count_val1_r_m_9_1_1, SUM(b.r_m_9_1_1 = '2') AS count_val2_r_m_9_1_1,</v>
       </c>
     </row>
@@ -23867,7 +23867,7 @@
         <v>1212</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" ref="D111:D142" si="53">CONCATENATE("SUM(b.",A111," = '1') AS count_val1_",A111,", SUM(b.",A111," = '2') AS count_val2_",A111,",", "SUM(b.",A111," = '3') AS count_val3_",A111,",")</f>
+        <f t="shared" ref="D111" si="53">CONCATENATE("SUM(b.",A111," = '1') AS count_val1_",A111,", SUM(b.",A111," = '2') AS count_val2_",A111,",", "SUM(b.",A111," = '3') AS count_val3_",A111,",")</f>
         <v>SUM(b.r_m_9_1_2 = '1') AS count_val1_r_m_9_1_2, SUM(b.r_m_9_1_2 = '2') AS count_val2_r_m_9_1_2,SUM(b.r_m_9_1_2 = '3') AS count_val3_r_m_9_1_2,</v>
       </c>
     </row>
@@ -23906,7 +23906,7 @@
         <v>1212</v>
       </c>
       <c r="D114" s="14" t="str">
-        <f t="shared" ref="D114:D161" si="54">CONCATENATE("SUM(b.",A114," = '1') AS count_val1_",A114,", SUM(b.",A114," = '2') AS count_val2_",A114,",")</f>
+        <f t="shared" ref="D114" si="54">CONCATENATE("SUM(b.",A114," = '1') AS count_val1_",A114,", SUM(b.",A114," = '2') AS count_val2_",A114,",")</f>
         <v>SUM(b.r_m_9_2_1 = '1') AS count_val1_r_m_9_2_1, SUM(b.r_m_9_2_1 = '2') AS count_val2_r_m_9_2_1,</v>
       </c>
     </row>
@@ -23921,7 +23921,7 @@
         <v>1212</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" ref="D115:D161" si="55">CONCATENATE("SUM(b.",A115," = '1') AS count_val1_",A115,", SUM(b.",A115," = '2') AS count_val2_",A115,",", "SUM(b.",A115," = '3') AS count_val3_",A115,",")</f>
+        <f t="shared" ref="D115" si="55">CONCATENATE("SUM(b.",A115," = '1') AS count_val1_",A115,", SUM(b.",A115," = '2') AS count_val2_",A115,",", "SUM(b.",A115," = '3') AS count_val3_",A115,",")</f>
         <v>SUM(b.r_m_9_2_2 = '1') AS count_val1_r_m_9_2_2, SUM(b.r_m_9_2_2 = '2') AS count_val2_r_m_9_2_2,SUM(b.r_m_9_2_2 = '3') AS count_val3_r_m_9_2_2,</v>
       </c>
     </row>
@@ -23960,7 +23960,7 @@
         <v>1212</v>
       </c>
       <c r="D118" s="14" t="str">
-        <f t="shared" ref="D118:D161" si="56">CONCATENATE("SUM(b.",A118," = '1') AS count_val1_",A118,", SUM(b.",A118," = '2') AS count_val2_",A118,",")</f>
+        <f t="shared" ref="D118" si="56">CONCATENATE("SUM(b.",A118," = '1') AS count_val1_",A118,", SUM(b.",A118," = '2') AS count_val2_",A118,",")</f>
         <v>SUM(b.r_m_9_3_1 = '1') AS count_val1_r_m_9_3_1, SUM(b.r_m_9_3_1 = '2') AS count_val2_r_m_9_3_1,</v>
       </c>
     </row>
@@ -23975,7 +23975,7 @@
         <v>1212</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" ref="D119:D161" si="57">CONCATENATE("SUM(b.",A119," = '1') AS count_val1_",A119,", SUM(b.",A119," = '2') AS count_val2_",A119,",", "SUM(b.",A119," = '3') AS count_val3_",A119,",")</f>
+        <f t="shared" ref="D119" si="57">CONCATENATE("SUM(b.",A119," = '1') AS count_val1_",A119,", SUM(b.",A119," = '2') AS count_val2_",A119,",", "SUM(b.",A119," = '3') AS count_val3_",A119,",")</f>
         <v>SUM(b.r_m_9_3_2 = '1') AS count_val1_r_m_9_3_2, SUM(b.r_m_9_3_2 = '2') AS count_val2_r_m_9_3_2,SUM(b.r_m_9_3_2 = '3') AS count_val3_r_m_9_3_2,</v>
       </c>
     </row>
@@ -24014,7 +24014,7 @@
         <v>1212</v>
       </c>
       <c r="D122" s="14" t="str">
-        <f t="shared" ref="D122:D161" si="58">CONCATENATE("SUM(b.",A122," = '1') AS count_val1_",A122,", SUM(b.",A122," = '2') AS count_val2_",A122,",")</f>
+        <f t="shared" ref="D122" si="58">CONCATENATE("SUM(b.",A122," = '1') AS count_val1_",A122,", SUM(b.",A122," = '2') AS count_val2_",A122,",")</f>
         <v>SUM(b.r_m_9_4_1 = '1') AS count_val1_r_m_9_4_1, SUM(b.r_m_9_4_1 = '2') AS count_val2_r_m_9_4_1,</v>
       </c>
     </row>
@@ -24029,7 +24029,7 @@
         <v>1212</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" ref="D123:D161" si="59">CONCATENATE("SUM(b.",A123," = '1') AS count_val1_",A123,", SUM(b.",A123," = '2') AS count_val2_",A123,",", "SUM(b.",A123," = '3') AS count_val3_",A123,",")</f>
+        <f t="shared" ref="D123" si="59">CONCATENATE("SUM(b.",A123," = '1') AS count_val1_",A123,", SUM(b.",A123," = '2') AS count_val2_",A123,",", "SUM(b.",A123," = '3') AS count_val3_",A123,",")</f>
         <v>SUM(b.r_m_9_4_2 = '1') AS count_val1_r_m_9_4_2, SUM(b.r_m_9_4_2 = '2') AS count_val2_r_m_9_4_2,SUM(b.r_m_9_4_2 = '3') AS count_val3_r_m_9_4_2,</v>
       </c>
     </row>
@@ -24068,7 +24068,7 @@
         <v>1212</v>
       </c>
       <c r="D126" s="14" t="str">
-        <f t="shared" ref="D126:D161" si="60">CONCATENATE("SUM(b.",A126," = '1') AS count_val1_",A126,", SUM(b.",A126," = '2') AS count_val2_",A126,",")</f>
+        <f t="shared" ref="D126" si="60">CONCATENATE("SUM(b.",A126," = '1') AS count_val1_",A126,", SUM(b.",A126," = '2') AS count_val2_",A126,",")</f>
         <v>SUM(b.r_m_101112_1_1 = '1') AS count_val1_r_m_101112_1_1, SUM(b.r_m_101112_1_1 = '2') AS count_val2_r_m_101112_1_1,</v>
       </c>
     </row>
@@ -24083,7 +24083,7 @@
         <v>1212</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" ref="D127:D161" si="61">CONCATENATE("SUM(b.",A127," = '1') AS count_val1_",A127,", SUM(b.",A127," = '2') AS count_val2_",A127,",", "SUM(b.",A127," = '3') AS count_val3_",A127,",")</f>
+        <f t="shared" ref="D127" si="61">CONCATENATE("SUM(b.",A127," = '1') AS count_val1_",A127,", SUM(b.",A127," = '2') AS count_val2_",A127,",", "SUM(b.",A127," = '3') AS count_val3_",A127,",")</f>
         <v>SUM(b.r_m_101112_1_2 = '1') AS count_val1_r_m_101112_1_2, SUM(b.r_m_101112_1_2 = '2') AS count_val2_r_m_101112_1_2,SUM(b.r_m_101112_1_2 = '3') AS count_val3_r_m_101112_1_2,</v>
       </c>
     </row>
@@ -24122,7 +24122,7 @@
         <v>1212</v>
       </c>
       <c r="D130" s="14" t="str">
-        <f t="shared" ref="D130:D161" si="62">CONCATENATE("SUM(b.",A130," = '1') AS count_val1_",A130,", SUM(b.",A130," = '2') AS count_val2_",A130,",")</f>
+        <f t="shared" ref="D130" si="62">CONCATENATE("SUM(b.",A130," = '1') AS count_val1_",A130,", SUM(b.",A130," = '2') AS count_val2_",A130,",")</f>
         <v>SUM(b.r_m_101112_2_1 = '1') AS count_val1_r_m_101112_2_1, SUM(b.r_m_101112_2_1 = '2') AS count_val2_r_m_101112_2_1,</v>
       </c>
     </row>
@@ -24137,7 +24137,7 @@
         <v>1212</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131:D161" si="63">CONCATENATE("SUM(b.",A131," = '1') AS count_val1_",A131,", SUM(b.",A131," = '2') AS count_val2_",A131,",", "SUM(b.",A131," = '3') AS count_val3_",A131,",")</f>
+        <f t="shared" ref="D131" si="63">CONCATENATE("SUM(b.",A131," = '1') AS count_val1_",A131,", SUM(b.",A131," = '2') AS count_val2_",A131,",", "SUM(b.",A131," = '3') AS count_val3_",A131,",")</f>
         <v>SUM(b.r_m_101112_2_2 = '1') AS count_val1_r_m_101112_2_2, SUM(b.r_m_101112_2_2 = '2') AS count_val2_r_m_101112_2_2,SUM(b.r_m_101112_2_2 = '3') AS count_val3_r_m_101112_2_2,</v>
       </c>
     </row>
@@ -24176,7 +24176,7 @@
         <v>1212</v>
       </c>
       <c r="D134" s="14" t="str">
-        <f t="shared" ref="D134:D161" si="64">CONCATENATE("SUM(b.",A134," = '1') AS count_val1_",A134,", SUM(b.",A134," = '2') AS count_val2_",A134,",")</f>
+        <f t="shared" ref="D134" si="64">CONCATENATE("SUM(b.",A134," = '1') AS count_val1_",A134,", SUM(b.",A134," = '2') AS count_val2_",A134,",")</f>
         <v>SUM(b.r_m_101112_3_1 = '1') AS count_val1_r_m_101112_3_1, SUM(b.r_m_101112_3_1 = '2') AS count_val2_r_m_101112_3_1,</v>
       </c>
     </row>
@@ -24191,7 +24191,7 @@
         <v>1212</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" ref="D135:D161" si="65">CONCATENATE("SUM(b.",A135," = '1') AS count_val1_",A135,", SUM(b.",A135," = '2') AS count_val2_",A135,",", "SUM(b.",A135," = '3') AS count_val3_",A135,",")</f>
+        <f t="shared" ref="D135" si="65">CONCATENATE("SUM(b.",A135," = '1') AS count_val1_",A135,", SUM(b.",A135," = '2') AS count_val2_",A135,",", "SUM(b.",A135," = '3') AS count_val3_",A135,",")</f>
         <v>SUM(b.r_m_101112_3_2 = '1') AS count_val1_r_m_101112_3_2, SUM(b.r_m_101112_3_2 = '2') AS count_val2_r_m_101112_3_2,SUM(b.r_m_101112_3_2 = '3') AS count_val3_r_m_101112_3_2,</v>
       </c>
     </row>
@@ -24230,7 +24230,7 @@
         <v>1212</v>
       </c>
       <c r="D138" s="14" t="str">
-        <f t="shared" ref="D138:D161" si="66">CONCATENATE("SUM(b.",A138," = '1') AS count_val1_",A138,", SUM(b.",A138," = '2') AS count_val2_",A138,",")</f>
+        <f t="shared" ref="D138" si="66">CONCATENATE("SUM(b.",A138," = '1') AS count_val1_",A138,", SUM(b.",A138," = '2') AS count_val2_",A138,",")</f>
         <v>SUM(b.r_m_101112_4_1 = '1') AS count_val1_r_m_101112_4_1, SUM(b.r_m_101112_4_1 = '2') AS count_val2_r_m_101112_4_1,</v>
       </c>
     </row>
@@ -24245,7 +24245,7 @@
         <v>1212</v>
       </c>
       <c r="D139" t="str">
-        <f t="shared" ref="D139:D161" si="67">CONCATENATE("SUM(b.",A139," = '1') AS count_val1_",A139,", SUM(b.",A139," = '2') AS count_val2_",A139,",", "SUM(b.",A139," = '3') AS count_val3_",A139,",")</f>
+        <f t="shared" ref="D139" si="67">CONCATENATE("SUM(b.",A139," = '1') AS count_val1_",A139,", SUM(b.",A139," = '2') AS count_val2_",A139,",", "SUM(b.",A139," = '3') AS count_val3_",A139,",")</f>
         <v>SUM(b.r_m_101112_4_2 = '1') AS count_val1_r_m_101112_4_2, SUM(b.r_m_101112_4_2 = '2') AS count_val2_r_m_101112_4_2,SUM(b.r_m_101112_4_2 = '3') AS count_val3_r_m_101112_4_2,</v>
       </c>
     </row>
@@ -24284,7 +24284,7 @@
         <v>1212</v>
       </c>
       <c r="D142" s="14" t="str">
-        <f t="shared" ref="D142:D161" si="68">CONCATENATE("SUM(b.",A142," = '1') AS count_val1_",A142,", SUM(b.",A142," = '2') AS count_val2_",A142,",")</f>
+        <f t="shared" ref="D142" si="68">CONCATENATE("SUM(b.",A142," = '1') AS count_val1_",A142,", SUM(b.",A142," = '2') AS count_val2_",A142,",")</f>
         <v>SUM(b.r_m_101112_5_1 = '1') AS count_val1_r_m_101112_5_1, SUM(b.r_m_101112_5_1 = '2') AS count_val2_r_m_101112_5_1,</v>
       </c>
     </row>
@@ -24299,7 +24299,7 @@
         <v>1212</v>
       </c>
       <c r="D143" t="str">
-        <f t="shared" ref="D143:D161" si="69">CONCATENATE("SUM(b.",A143," = '1') AS count_val1_",A143,", SUM(b.",A143," = '2') AS count_val2_",A143,",", "SUM(b.",A143," = '3') AS count_val3_",A143,",")</f>
+        <f t="shared" ref="D143" si="69">CONCATENATE("SUM(b.",A143," = '1') AS count_val1_",A143,", SUM(b.",A143," = '2') AS count_val2_",A143,",", "SUM(b.",A143," = '3') AS count_val3_",A143,",")</f>
         <v>SUM(b.r_m_101112_5_2 = '1') AS count_val1_r_m_101112_5_2, SUM(b.r_m_101112_5_2 = '2') AS count_val2_r_m_101112_5_2,SUM(b.r_m_101112_5_2 = '3') AS count_val3_r_m_101112_5_2,</v>
       </c>
     </row>
@@ -24338,7 +24338,7 @@
         <v>1212</v>
       </c>
       <c r="D146" s="14" t="str">
-        <f t="shared" ref="D146:D161" si="70">CONCATENATE("SUM(b.",A146," = '1') AS count_val1_",A146,", SUM(b.",A146," = '2') AS count_val2_",A146,",")</f>
+        <f t="shared" ref="D146" si="70">CONCATENATE("SUM(b.",A146," = '1') AS count_val1_",A146,", SUM(b.",A146," = '2') AS count_val2_",A146,",")</f>
         <v>SUM(b.r_m_101112_6_1 = '1') AS count_val1_r_m_101112_6_1, SUM(b.r_m_101112_6_1 = '2') AS count_val2_r_m_101112_6_1,</v>
       </c>
     </row>
@@ -24353,7 +24353,7 @@
         <v>1212</v>
       </c>
       <c r="D147" t="str">
-        <f t="shared" ref="D147:D161" si="71">CONCATENATE("SUM(b.",A147," = '1') AS count_val1_",A147,", SUM(b.",A147," = '2') AS count_val2_",A147,",", "SUM(b.",A147," = '3') AS count_val3_",A147,",")</f>
+        <f t="shared" ref="D147" si="71">CONCATENATE("SUM(b.",A147," = '1') AS count_val1_",A147,", SUM(b.",A147," = '2') AS count_val2_",A147,",", "SUM(b.",A147," = '3') AS count_val3_",A147,",")</f>
         <v>SUM(b.r_m_101112_6_2 = '1') AS count_val1_r_m_101112_6_2, SUM(b.r_m_101112_6_2 = '2') AS count_val2_r_m_101112_6_2,SUM(b.r_m_101112_6_2 = '3') AS count_val3_r_m_101112_6_2,</v>
       </c>
     </row>
@@ -24392,7 +24392,7 @@
         <v>1212</v>
       </c>
       <c r="D150" s="14" t="str">
-        <f t="shared" ref="D150:D161" si="72">CONCATENATE("SUM(b.",A150," = '1') AS count_val1_",A150,", SUM(b.",A150," = '2') AS count_val2_",A150,",")</f>
+        <f t="shared" ref="D150" si="72">CONCATENATE("SUM(b.",A150," = '1') AS count_val1_",A150,", SUM(b.",A150," = '2') AS count_val2_",A150,",")</f>
         <v>SUM(b.r_m_101112_7_1 = '1') AS count_val1_r_m_101112_7_1, SUM(b.r_m_101112_7_1 = '2') AS count_val2_r_m_101112_7_1,</v>
       </c>
     </row>
@@ -24407,7 +24407,7 @@
         <v>1212</v>
       </c>
       <c r="D151" t="str">
-        <f t="shared" ref="D151:D161" si="73">CONCATENATE("SUM(b.",A151," = '1') AS count_val1_",A151,", SUM(b.",A151," = '2') AS count_val2_",A151,",", "SUM(b.",A151," = '3') AS count_val3_",A151,",")</f>
+        <f t="shared" ref="D151" si="73">CONCATENATE("SUM(b.",A151," = '1') AS count_val1_",A151,", SUM(b.",A151," = '2') AS count_val2_",A151,",", "SUM(b.",A151," = '3') AS count_val3_",A151,",")</f>
         <v>SUM(b.r_m_101112_7_2 = '1') AS count_val1_r_m_101112_7_2, SUM(b.r_m_101112_7_2 = '2') AS count_val2_r_m_101112_7_2,SUM(b.r_m_101112_7_2 = '3') AS count_val3_r_m_101112_7_2,</v>
       </c>
     </row>
@@ -24446,7 +24446,7 @@
         <v>1212</v>
       </c>
       <c r="D154" s="14" t="str">
-        <f t="shared" ref="D154:D161" si="74">CONCATENATE("SUM(b.",A154," = '1') AS count_val1_",A154,", SUM(b.",A154," = '2') AS count_val2_",A154,",")</f>
+        <f t="shared" ref="D154" si="74">CONCATENATE("SUM(b.",A154," = '1') AS count_val1_",A154,", SUM(b.",A154," = '2') AS count_val2_",A154,",")</f>
         <v>SUM(b.r_m_101112_8_1 = '1') AS count_val1_r_m_101112_8_1, SUM(b.r_m_101112_8_1 = '2') AS count_val2_r_m_101112_8_1,</v>
       </c>
     </row>
@@ -24461,7 +24461,7 @@
         <v>1212</v>
       </c>
       <c r="D155" t="str">
-        <f t="shared" ref="D155:D161" si="75">CONCATENATE("SUM(b.",A155," = '1') AS count_val1_",A155,", SUM(b.",A155," = '2') AS count_val2_",A155,",", "SUM(b.",A155," = '3') AS count_val3_",A155,",")</f>
+        <f t="shared" ref="D155" si="75">CONCATENATE("SUM(b.",A155," = '1') AS count_val1_",A155,", SUM(b.",A155," = '2') AS count_val2_",A155,",", "SUM(b.",A155," = '3') AS count_val3_",A155,",")</f>
         <v>SUM(b.r_m_101112_8_2 = '1') AS count_val1_r_m_101112_8_2, SUM(b.r_m_101112_8_2 = '2') AS count_val2_r_m_101112_8_2,SUM(b.r_m_101112_8_2 = '3') AS count_val3_r_m_101112_8_2,</v>
       </c>
     </row>
@@ -24500,7 +24500,7 @@
         <v>1212</v>
       </c>
       <c r="D158" s="14" t="str">
-        <f t="shared" ref="D158:D161" si="76">CONCATENATE("SUM(b.",A158," = '1') AS count_val1_",A158,", SUM(b.",A158," = '2') AS count_val2_",A158,",")</f>
+        <f t="shared" ref="D158" si="76">CONCATENATE("SUM(b.",A158," = '1') AS count_val1_",A158,", SUM(b.",A158," = '2') AS count_val2_",A158,",")</f>
         <v>SUM(b.r_m_101112_9_1 = '1') AS count_val1_r_m_101112_9_1, SUM(b.r_m_101112_9_1 = '2') AS count_val2_r_m_101112_9_1,</v>
       </c>
     </row>
@@ -24515,7 +24515,7 @@
         <v>1212</v>
       </c>
       <c r="D159" t="str">
-        <f t="shared" ref="D159:D161" si="77">CONCATENATE("SUM(b.",A159," = '1') AS count_val1_",A159,", SUM(b.",A159," = '2') AS count_val2_",A159,",", "SUM(b.",A159," = '3') AS count_val3_",A159,",")</f>
+        <f t="shared" ref="D159" si="77">CONCATENATE("SUM(b.",A159," = '1') AS count_val1_",A159,", SUM(b.",A159," = '2') AS count_val2_",A159,",", "SUM(b.",A159," = '3') AS count_val3_",A159,",")</f>
         <v>SUM(b.r_m_101112_9_2 = '1') AS count_val1_r_m_101112_9_2, SUM(b.r_m_101112_9_2 = '2') AS count_val2_r_m_101112_9_2,SUM(b.r_m_101112_9_2 = '3') AS count_val3_r_m_101112_9_2,</v>
       </c>
     </row>

--- a/Datebase Field.xlsx
+++ b/Datebase Field.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="756" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="756"/>
   </bookViews>
   <sheets>
     <sheet name="participant" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4382" uniqueCount="1568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4414" uniqueCount="1600">
   <si>
     <t>เพศ</t>
   </si>
@@ -4741,6 +4741,102 @@
   </si>
   <si>
     <t>h_t_ins_101112_5_4</t>
+  </si>
+  <si>
+    <t>c_sp</t>
+  </si>
+  <si>
+    <t>ฟิสิกส์</t>
+  </si>
+  <si>
+    <t>ฟิสิกส์ ม.4</t>
+  </si>
+  <si>
+    <t>ฟิสิกส์ ม.5</t>
+  </si>
+  <si>
+    <t>ฟิสิกส์ ม.6</t>
+  </si>
+  <si>
+    <t>c_sp_10</t>
+  </si>
+  <si>
+    <t>c_sp_11</t>
+  </si>
+  <si>
+    <t>c_sp_12</t>
+  </si>
+  <si>
+    <t>เคมี</t>
+  </si>
+  <si>
+    <t>เคมี ม.4</t>
+  </si>
+  <si>
+    <t>c_sc</t>
+  </si>
+  <si>
+    <t>c_sc_10</t>
+  </si>
+  <si>
+    <t>c_sc_11</t>
+  </si>
+  <si>
+    <t>c_sc_12</t>
+  </si>
+  <si>
+    <t>เคมี ม.5</t>
+  </si>
+  <si>
+    <t>เคมี ม.6</t>
+  </si>
+  <si>
+    <t>ชีววิทยา</t>
+  </si>
+  <si>
+    <t>ชีววิทยา ม.4</t>
+  </si>
+  <si>
+    <t>ชีววิทยา ม.5</t>
+  </si>
+  <si>
+    <t>ชีววิทยา ม.6</t>
+  </si>
+  <si>
+    <t>c_sb</t>
+  </si>
+  <si>
+    <t>c_sb_10</t>
+  </si>
+  <si>
+    <t>c_sb_11</t>
+  </si>
+  <si>
+    <t>c_sb_12</t>
+  </si>
+  <si>
+    <t>โลก ดาราศาสตร์</t>
+  </si>
+  <si>
+    <t>c_se</t>
+  </si>
+  <si>
+    <t>โลก ดาราศาสตร์ ม.4</t>
+  </si>
+  <si>
+    <t>โลก ดาราศาสตร์ ม.5</t>
+  </si>
+  <si>
+    <t>โลก ดาราศาสตร์ ม.6</t>
+  </si>
+  <si>
+    <t>c_se_10</t>
+  </si>
+  <si>
+    <t>c_se_11</t>
+  </si>
+  <si>
+    <t>c_se_12</t>
   </si>
 </sst>
 </file>
@@ -5140,17 +5236,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64:C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="83" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5549,7 +5645,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>81</v>
       </c>
@@ -5557,7 +5653,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -5565,7 +5661,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>89</v>
       </c>
@@ -5573,7 +5669,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>91</v>
       </c>
@@ -5581,7 +5677,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>92</v>
       </c>
@@ -5589,7 +5685,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -5597,7 +5693,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>94</v>
       </c>
@@ -5605,7 +5701,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -5613,7 +5709,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>96</v>
       </c>
@@ -5621,7 +5717,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>109</v>
       </c>
@@ -5629,7 +5725,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>110</v>
       </c>
@@ -5637,7 +5733,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>111</v>
       </c>
@@ -5645,7 +5741,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>112</v>
       </c>
@@ -5653,7 +5749,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>113</v>
       </c>
@@ -5661,7 +5757,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>114</v>
       </c>
@@ -5669,187 +5765,379 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>1569</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>1568</v>
+      </c>
+      <c r="C64" t="str">
+        <f>CONCATENATE("ALTER TABLE `participant` ADD `",B64,"` CHAR(1) CHARACTER SET utf8 COLLATE utf8_general_ci NULL COMMENT '",A64,"' AFTER `c_d_12`;")</f>
+        <v>ALTER TABLE `participant` ADD `c_sp` CHAR(1) CHARACTER SET utf8 COLLATE utf8_general_ci NULL COMMENT 'ฟิสิกส์' AFTER `c_d_12`;</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>134</v>
+        <v>1570</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
-      </c>
-      <c r="C65" t="s">
-        <v>135</v>
+        <v>1573</v>
+      </c>
+      <c r="C65" t="str">
+        <f>CONCATENATE("ALTER TABLE `participant` ADD `",B65,"` CHAR(1) CHARACTER SET utf8 COLLATE utf8_general_ci NULL COMMENT '",A65,"' AFTER `",B64,"`;")</f>
+        <v>ALTER TABLE `participant` ADD `c_sp_10` CHAR(1) CHARACTER SET utf8 COLLATE utf8_general_ci NULL COMMENT 'ฟิสิกส์ ม.4' AFTER `c_sp`;</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>139</v>
+        <v>1571</v>
       </c>
       <c r="B66" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" t="s">
-        <v>135</v>
+        <v>1574</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" ref="C66:C79" si="0">CONCATENATE("ALTER TABLE `participant` ADD `",B66,"` CHAR(1) CHARACTER SET utf8 COLLATE utf8_general_ci NULL COMMENT '",A66,"' AFTER `",B65,"`;")</f>
+        <v>ALTER TABLE `participant` ADD `c_sp_11` CHAR(1) CHARACTER SET utf8 COLLATE utf8_general_ci NULL COMMENT 'ฟิสิกส์ ม.5' AFTER `c_sp_10`;</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>1572</v>
       </c>
       <c r="B67" t="s">
-        <v>129</v>
-      </c>
-      <c r="C67" t="s">
-        <v>135</v>
+        <v>1575</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `participant` ADD `c_sp_12` CHAR(1) CHARACTER SET utf8 COLLATE utf8_general_ci NULL COMMENT 'ฟิสิกส์ ม.6' AFTER `c_sp_11`;</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>140</v>
+        <v>1576</v>
       </c>
       <c r="B68" t="s">
-        <v>130</v>
-      </c>
-      <c r="C68" t="s">
-        <v>135</v>
+        <v>1578</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `participant` ADD `c_sc` CHAR(1) CHARACTER SET utf8 COLLATE utf8_general_ci NULL COMMENT 'เคมี' AFTER `c_sp_12`;</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>137</v>
+        <v>1577</v>
       </c>
       <c r="B69" t="s">
-        <v>131</v>
-      </c>
-      <c r="C69" t="s">
-        <v>135</v>
+        <v>1579</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `participant` ADD `c_sc_10` CHAR(1) CHARACTER SET utf8 COLLATE utf8_general_ci NULL COMMENT 'เคมี ม.4' AFTER `c_sc`;</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>141</v>
+        <v>1582</v>
       </c>
       <c r="B70" t="s">
-        <v>126</v>
-      </c>
-      <c r="C70" t="s">
-        <v>135</v>
+        <v>1580</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `participant` ADD `c_sc_11` CHAR(1) CHARACTER SET utf8 COLLATE utf8_general_ci NULL COMMENT 'เคมี ม.5' AFTER `c_sc_10`;</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>1583</v>
       </c>
       <c r="B71" t="s">
-        <v>132</v>
-      </c>
-      <c r="C71" t="s">
-        <v>135</v>
+        <v>1581</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `participant` ADD `c_sc_12` CHAR(1) CHARACTER SET utf8 COLLATE utf8_general_ci NULL COMMENT 'เคมี ม.6' AFTER `c_sc_11`;</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>1584</v>
       </c>
       <c r="B72" t="s">
-        <v>133</v>
-      </c>
-      <c r="C72" t="s">
-        <v>135</v>
+        <v>1588</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `participant` ADD `c_sb` CHAR(1) CHARACTER SET utf8 COLLATE utf8_general_ci NULL COMMENT 'ชีววิทยา' AFTER `c_sc_12`;</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>1585</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
-      </c>
-      <c r="C73" t="s">
-        <v>135</v>
+        <v>1589</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `participant` ADD `c_sb_10` CHAR(1) CHARACTER SET utf8 COLLATE utf8_general_ci NULL COMMENT 'ชีววิทยา ม.4' AFTER `c_sb`;</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>754</v>
+        <v>1586</v>
       </c>
       <c r="B74" t="s">
-        <v>755</v>
-      </c>
-      <c r="C74" t="s">
-        <v>756</v>
+        <v>1590</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `participant` ADD `c_sb_11` CHAR(1) CHARACTER SET utf8 COLLATE utf8_general_ci NULL COMMENT 'ชีววิทยา ม.5' AFTER `c_sb_10`;</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>757</v>
+        <v>1587</v>
       </c>
       <c r="B75" t="s">
-        <v>758</v>
-      </c>
-      <c r="C75" t="s">
-        <v>756</v>
+        <v>1591</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `participant` ADD `c_sb_12` CHAR(1) CHARACTER SET utf8 COLLATE utf8_general_ci NULL COMMENT 'ชีววิทยา ม.6' AFTER `c_sb_11`;</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>759</v>
+        <v>1592</v>
       </c>
       <c r="B76" t="s">
-        <v>760</v>
-      </c>
-      <c r="C76" t="s">
-        <v>756</v>
+        <v>1593</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `participant` ADD `c_se` CHAR(1) CHARACTER SET utf8 COLLATE utf8_general_ci NULL COMMENT 'โลก ดาราศาสตร์' AFTER `c_sb_12`;</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>761</v>
+        <v>1594</v>
       </c>
       <c r="B77" t="s">
-        <v>762</v>
-      </c>
-      <c r="C77" t="s">
-        <v>756</v>
+        <v>1597</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `participant` ADD `c_se_10` CHAR(1) CHARACTER SET utf8 COLLATE utf8_general_ci NULL COMMENT 'โลก ดาราศาสตร์ ม.4' AFTER `c_se`;</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>142</v>
+        <v>1595</v>
       </c>
       <c r="B78" t="s">
-        <v>763</v>
-      </c>
-      <c r="C78" t="s">
-        <v>756</v>
+        <v>1598</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `participant` ADD `c_se_11` CHAR(1) CHARACTER SET utf8 COLLATE utf8_general_ci NULL COMMENT 'โลก ดาราศาสตร์ ม.5' AFTER `c_se_10`;</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>764</v>
+        <v>1596</v>
       </c>
       <c r="B79" t="s">
-        <v>765</v>
-      </c>
-      <c r="C79" t="s">
-        <v>756</v>
+        <v>1599</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `participant` ADD `c_se_12` CHAR(1) CHARACTER SET utf8 COLLATE utf8_general_ci NULL COMMENT 'โลก ดาราศาสตร์ ม.6' AFTER `c_se_11`;</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>134</v>
+      </c>
+      <c r="B81" t="s">
+        <v>127</v>
+      </c>
+      <c r="C81" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>139</v>
+      </c>
+      <c r="B82" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>136</v>
+      </c>
+      <c r="B83" t="s">
+        <v>129</v>
+      </c>
+      <c r="C83" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>140</v>
+      </c>
+      <c r="B84" t="s">
+        <v>130</v>
+      </c>
+      <c r="C84" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>137</v>
+      </c>
+      <c r="B85" t="s">
+        <v>131</v>
+      </c>
+      <c r="C85" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>138</v>
+      </c>
+      <c r="B87" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>142</v>
+      </c>
+      <c r="B88" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>144</v>
+      </c>
+      <c r="B89" t="s">
+        <v>143</v>
+      </c>
+      <c r="C89" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>754</v>
+      </c>
+      <c r="B90" t="s">
+        <v>755</v>
+      </c>
+      <c r="C90" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>757</v>
+      </c>
+      <c r="B91" t="s">
+        <v>758</v>
+      </c>
+      <c r="C91" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>759</v>
+      </c>
+      <c r="B92" t="s">
+        <v>760</v>
+      </c>
+      <c r="C92" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>761</v>
+      </c>
+      <c r="B93" t="s">
+        <v>762</v>
+      </c>
+      <c r="C93" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>142</v>
+      </c>
+      <c r="B94" t="s">
+        <v>763</v>
+      </c>
+      <c r="C94" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>764</v>
+      </c>
+      <c r="B95" t="s">
+        <v>765</v>
+      </c>
+      <c r="C95" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>150</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B96" t="s">
         <v>148</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C96" t="s">
         <v>149</v>
       </c>
     </row>
@@ -8682,7 +8970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D69"/>
     </sheetView>
   </sheetViews>

--- a/Datebase Field.xlsx
+++ b/Datebase Field.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\ipst\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="756"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="756" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="participant" sheetId="1" r:id="rId1"/>
@@ -26,8 +21,9 @@
     <sheet name="technology_book_instructor" sheetId="15" r:id="rId12"/>
     <sheet name="design_book" sheetId="12" r:id="rId13"/>
     <sheet name="design_book_instructor" sheetId="13" r:id="rId14"/>
+    <sheet name="clear_data" sheetId="16" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4414" uniqueCount="1600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4434" uniqueCount="1620">
   <si>
     <t>เพศ</t>
   </si>
@@ -4837,6 +4833,66 @@
   </si>
   <si>
     <t>c_se_12</t>
+  </si>
+  <si>
+    <t>DELETE FROM auth_tokens;</t>
+  </si>
+  <si>
+    <t>ALTER TABLE auth_tokens AUTO_INCREMENT = 1;</t>
+  </si>
+  <si>
+    <t>DELETE FROM contribute;</t>
+  </si>
+  <si>
+    <t>ALTER TABLE contribute AUTO_INCREMENT = 1;;</t>
+  </si>
+  <si>
+    <t>DELETE FROM design_book;</t>
+  </si>
+  <si>
+    <t>ALTER TABLE design_book_instructor AUTO_INCREMENT = 1;</t>
+  </si>
+  <si>
+    <t>DELETE FROM math_book;</t>
+  </si>
+  <si>
+    <t>ALTER TABLE math_book AUTO_INCREMENT = 1;</t>
+  </si>
+  <si>
+    <t>DELETE FROM math_book_instructor;</t>
+  </si>
+  <si>
+    <t>ALTER TABLE math_book_instructor AUTO_INCREMENT = 1;</t>
+  </si>
+  <si>
+    <t>DELETE FROM participant;</t>
+  </si>
+  <si>
+    <t>ALTER TABLE participant AUTO_INCREMENT = 1;</t>
+  </si>
+  <si>
+    <t>DELETE FROM science_book;</t>
+  </si>
+  <si>
+    <t>ALTER TABLE science_book AUTO_INCREMENT = 1;</t>
+  </si>
+  <si>
+    <t>DELETE FROM science_book_instructor;</t>
+  </si>
+  <si>
+    <t>ALTER TABLE science_book_instructor AUTO_INCREMENT = 1;</t>
+  </si>
+  <si>
+    <t>DELETE FROM technology_book;</t>
+  </si>
+  <si>
+    <t>ALTER TABLE technology_book AUTO_INCREMENT = 1;</t>
+  </si>
+  <si>
+    <t>DELETE FROM technology_book_instructor;</t>
+  </si>
+  <si>
+    <t>ALTER TABLE technology_book_instructor AUTO_INCREMENT = 1;</t>
   </si>
 </sst>
 </file>
@@ -5228,7 +5284,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5238,8 +5294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64:C79"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10851,6 +10907,124 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="64.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C401"/>

--- a/Datebase Field.xlsx
+++ b/Datebase Field.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\ipst\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="756" firstSheet="8" activeTab="14"/>
   </bookViews>
@@ -23,7 +28,7 @@
     <sheet name="design_book_instructor" sheetId="13" r:id="rId14"/>
     <sheet name="clear_data" sheetId="16" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4434" uniqueCount="1620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4436" uniqueCount="1622">
   <si>
     <t>เพศ</t>
   </si>
@@ -4893,6 +4898,12 @@
   </si>
   <si>
     <t>ALTER TABLE technology_book_instructor AUTO_INCREMENT = 1;</t>
+  </si>
+  <si>
+    <t>ALTER TABLE design_book AUTO_INCREMENT = 1;</t>
+  </si>
+  <si>
+    <t>DELETE FROM design_book_instructor;</t>
   </si>
 </sst>
 </file>
@@ -5284,7 +5295,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10909,10 +10920,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10947,76 +10958,86 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1605</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1606</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>1619</v>
       </c>
     </row>

--- a/Datebase Field.xlsx
+++ b/Datebase Field.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\ipst\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="756" firstSheet="8" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="756" firstSheet="10" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="participant" sheetId="1" r:id="rId1"/>
@@ -27,8 +22,10 @@
     <sheet name="design_book" sheetId="12" r:id="rId13"/>
     <sheet name="design_book_instructor" sheetId="13" r:id="rId14"/>
     <sheet name="clear_data" sheetId="16" r:id="rId15"/>
+    <sheet name="student_book" sheetId="17" r:id="rId16"/>
+    <sheet name="teacher_book" sheetId="18" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4436" uniqueCount="1622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4637" uniqueCount="1678">
   <si>
     <t>เพศ</t>
   </si>
@@ -4904,6 +4901,174 @@
   </si>
   <si>
     <t>DELETE FROM design_book_instructor;</t>
+  </si>
+  <si>
+    <t>วิชาคณิตศาสตร์</t>
+  </si>
+  <si>
+    <t>ชั้นประถมศีกษาปีที่ 1</t>
+  </si>
+  <si>
+    <t>หนังสือเรียน</t>
+  </si>
+  <si>
+    <t>แบบฝึกทักษะ เตรียมความพร้อม</t>
+  </si>
+  <si>
+    <t>แบบฝึกทักษะ เล่ม 1</t>
+  </si>
+  <si>
+    <t>แบบฝึกทักษะ เล่ม 2</t>
+  </si>
+  <si>
+    <t>ชั้นประถมศีกษาปีที่ 2</t>
+  </si>
+  <si>
+    <t>ชั้นประถมศีกษาปีที่ 3</t>
+  </si>
+  <si>
+    <t>ชั้นประถมศีกษาปีที่ 4</t>
+  </si>
+  <si>
+    <t>ชั้นประถมศีกษาปีที่ 5</t>
+  </si>
+  <si>
+    <t>ชั้นประถมศีกษาปีที่ 6</t>
+  </si>
+  <si>
+    <t>ชั้นมัธยมศึกษาปีที่ 1</t>
+  </si>
+  <si>
+    <t>หนังสือเรียน รายวิชาพื้นฐาน เล่ม 1</t>
+  </si>
+  <si>
+    <t>หนังสือเรียน รายวิชาพื้นฐาน เล่ม 2</t>
+  </si>
+  <si>
+    <t>หนังสือเรียน รายวิชาเพิ่มเติม เล่ม 1</t>
+  </si>
+  <si>
+    <t>หนังสือเรียน รายวิชาเพิ่มเติม เล่ม 2</t>
+  </si>
+  <si>
+    <t>ชั้นมัธยมศึกษาปีที่ 2</t>
+  </si>
+  <si>
+    <t>ชั้นมัธยมศึกษาปีที่ 3</t>
+  </si>
+  <si>
+    <t>ชั้นมัธยมศึกษาปีที่ 4-6</t>
+  </si>
+  <si>
+    <t>หนังสือเรียน รายวิชาพื้นฐาน เล่ม 3</t>
+  </si>
+  <si>
+    <t>หนังสือเรียน รายวิชาเพิ่มเติม เล่ม 3</t>
+  </si>
+  <si>
+    <t>หนังสือเรียน รายวิชาเพิ่มเติม เล่ม 4</t>
+  </si>
+  <si>
+    <t>หนังสือเรียน รายวิชาเพิ่มเติม เล่ม 5</t>
+  </si>
+  <si>
+    <t>หนังสือเรียน รายวิชาเพิ่มเติม เล่ม 6</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>คู่มือครูวิชาวิทยาศาสตร์</t>
+  </si>
+  <si>
+    <t>คู่มือครู รายวิชาพื้นฐาน</t>
+  </si>
+  <si>
+    <t>คู่มือครู รายวิชาพื้นฐาน เล่ม 1</t>
+  </si>
+  <si>
+    <t>คู่มือครู รายวิชาพื้นฐาน เล่ม 2</t>
+  </si>
+  <si>
+    <t>ชั้นมัธยมศึกษาปีที่ 1-3</t>
+  </si>
+  <si>
+    <t>คู่มือครู เชื้อเพลิงเพื่อการคมนาคม</t>
+  </si>
+  <si>
+    <t>คู่มือครู ของเล่นเชิงวิทยาศาสตร์</t>
+  </si>
+  <si>
+    <t>คู่มือครู วิทยาศาสตร์กับความงาม</t>
+  </si>
+  <si>
+    <t>คู่มือครู สนุกกับโครงงานวิทยาศาสตร์</t>
+  </si>
+  <si>
+    <t>คู่มือครู พลังงานทดแทนกับการใช้ประโยชน์</t>
+  </si>
+  <si>
+    <t>คู่มือครู การเคลื่อนที่และแรงในธรรมชาติ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">วิทยาศาสตร์ สำหรับนักเรียนที่ไม่เน้นวิทยาศาสตร์ </t>
+  </si>
+  <si>
+    <t>คู่มือครู ดวงดาวและโลกของเรา</t>
+  </si>
+  <si>
+    <t>คู่มือครู พลังงาน</t>
+  </si>
+  <si>
+    <t>คู่มือครู พันธุกรรมและสิ่งแวดล้อม</t>
+  </si>
+  <si>
+    <t>คู่มือครู สารและสมบัติของสาร</t>
+  </si>
+  <si>
+    <t>คู่มือครู ดุลยภาพของสิ่งมีชีวิต</t>
+  </si>
+  <si>
+    <t>ฟิสิกส์ สำหรับนักเรียนที่เน้นวิทยาศาสตร์</t>
+  </si>
+  <si>
+    <t>คู่มือครู รายวิชาเพิ่มเติม เล่ม 1</t>
+  </si>
+  <si>
+    <t>คู่มือครู รายวิชาเพิ่มเติม เล่ม 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">คู่มือครู รายวิชาเพิ่มเติม เล่ม 3 </t>
+  </si>
+  <si>
+    <t>คู่มือครู รายวิชาเพิ่มเติม เล่ม 4</t>
+  </si>
+  <si>
+    <t>คู่มือครู รายวิชาเพิ่มเติม เล่ม 5</t>
+  </si>
+  <si>
+    <t>เคมี สำหรับนักเรียนที่เน้นวิทยาศาสตร์</t>
+  </si>
+  <si>
+    <t>คู่มือครู รายวิชาเพิ่มเติม เล่ม 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">คู่มือครู รายวิชาเพิ่มเติม เล่ม 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">คู่มือครู รายวิชาเพิ่มเติม เล่ม 5 </t>
+  </si>
+  <si>
+    <t>ชีววิทยา สำหรับนักเรียนที่เน้นวิทยาศาสตร์</t>
+  </si>
+  <si>
+    <t>โลก ดาราศาสตร์ และอวกาศ สำหรับนักเรียนที่เน้นวิทยาศาสตร์</t>
   </si>
 </sst>
 </file>
@@ -5295,7 +5460,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10922,7 +11087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -11039,6 +11204,826 @@
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1619</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>408</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>439</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>443</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>435</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>445</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>452</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>464</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>480</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>484</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>488</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>508</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>512</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>516</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>584</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>536</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>540</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>544</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>580</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>548</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>552</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>556</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>576</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="53.85546875" customWidth="1"/>
+    <col min="4" max="4" width="51" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>766</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>774</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>778</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>782</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>786</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>830</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>834</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>838</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>842</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>846</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>850</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>854</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>858</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>862</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>866</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>870</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1673</v>
       </c>
     </row>
   </sheetData>

--- a/Datebase Field.xlsx
+++ b/Datebase Field.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="756" firstSheet="10" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="756" firstSheet="11" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="participant" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="clear_data" sheetId="16" r:id="rId15"/>
     <sheet name="student_book" sheetId="17" r:id="rId16"/>
     <sheet name="teacher_book" sheetId="18" r:id="rId17"/>
+    <sheet name="delete by id" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4637" uniqueCount="1678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4647" uniqueCount="1688">
   <si>
     <t>เพศ</t>
   </si>
@@ -5069,6 +5070,36 @@
   </si>
   <si>
     <t>โลก ดาราศาสตร์ และอวกาศ สำหรับนักเรียนที่เน้นวิทยาศาสตร์</t>
+  </si>
+  <si>
+    <t>delete from contribute where id = 3669;</t>
+  </si>
+  <si>
+    <t>delete from design_book where id = 3669;</t>
+  </si>
+  <si>
+    <t>delete from design_book_instructor where id = 3669;</t>
+  </si>
+  <si>
+    <t>delete from math_book where id = 3669;</t>
+  </si>
+  <si>
+    <t>delete from math_book_instructor where id = 3669;</t>
+  </si>
+  <si>
+    <t>delete from science_book where id = 3669;</t>
+  </si>
+  <si>
+    <t>delete from science_book_instructor where id = 3669;</t>
+  </si>
+  <si>
+    <t>delete from technology_book where id = 3669;</t>
+  </si>
+  <si>
+    <t>delete from technology_book_instructor where id = 3669;</t>
+  </si>
+  <si>
+    <t>delete from participant where id = 3669;</t>
   </si>
 </sst>
 </file>
@@ -5460,7 +5491,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11590,8 +11621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12024,6 +12055,74 @@
       </c>
       <c r="C47" t="s">
         <v>1673</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1687</v>
       </c>
     </row>
   </sheetData>
